--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Thong ke thoi gian giao hang/CRMF3030_Thong ke thoi gian giao hang.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Thong ke thoi gian giao hang/CRMF3030_Thong ke thoi gian giao hang.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Bao cao thong ke thoi gian giao hang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Thong ke thoi gian giao hang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1575,7 +1575,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="229">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2269,12 +2269,6 @@
   </si>
   <si>
     <t>ToAccountID</t>
-  </si>
-  <si>
-    <t>Xem trước</t>
-  </si>
-  <si>
-    <t>BttnView</t>
   </si>
   <si>
     <t>Đổ nguồn combobox Khách hàng</t>
@@ -2402,6 +2396,12 @@
   </si>
   <si>
     <t>Tham khảo luồng NV1</t>
+  </si>
+  <si>
+    <t>BttnClose</t>
+  </si>
+  <si>
+    <t>Đóng</t>
   </si>
 </sst>
 </file>
@@ -2927,7 +2927,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3265,6 +3265,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4404,65 +4407,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="141"/>
-      <c r="B1" s="141"/>
-      <c r="C1" s="143" t="s">
+      <c r="A1" s="142"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="144" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="142" t="s">
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="143" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142" t="s">
+      <c r="H1" s="143"/>
+      <c r="I1" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="142"/>
+      <c r="J1" s="143"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="142" t="s">
+      <c r="A2" s="142"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="138" t="s">
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="139" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="139"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="139"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="140"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="116"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="140"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
+      <c r="A13" s="141"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
       <c r="K13" s="117"/>
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
@@ -4473,56 +4476,56 @@
       <c r="R13" s="117"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="136"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="137"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="136"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="136"/>
-      <c r="R15" s="136"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="137"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="138" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
       <c r="K16" s="118"/>
       <c r="L16" s="118"/>
       <c r="M16" s="118"/>
@@ -4533,384 +4536,384 @@
       <c r="R16" s="118"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="136"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="136"/>
-      <c r="Q17" s="136"/>
-      <c r="R17" s="136"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="137"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="136"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="136"/>
-      <c r="R18" s="136"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="137"/>
+      <c r="R18" s="137"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="153"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="154"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="154"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="136"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="136"/>
-      <c r="Q20" s="136"/>
-      <c r="R20" s="136"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="137"/>
+      <c r="R20" s="137"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="136"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="136"/>
-      <c r="Q21" s="136"/>
-      <c r="R21" s="136"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="137"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="152"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="152"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="153"/>
+      <c r="R22" s="153"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="152"/>
-      <c r="R23" s="152"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="153"/>
+      <c r="O23" s="153"/>
+      <c r="P23" s="153"/>
+      <c r="Q23" s="153"/>
+      <c r="R23" s="153"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="154"/>
-      <c r="P26" s="154"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="154"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="155"/>
+      <c r="P26" s="155"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="155"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="156"/>
-      <c r="P28" s="156"/>
-      <c r="Q28" s="156"/>
-      <c r="R28" s="156"/>
-      <c r="S28" s="155"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="155"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="155"/>
-      <c r="AA28" s="155"/>
-      <c r="AB28" s="155"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="155"/>
-      <c r="AF28" s="155"/>
-      <c r="AG28" s="155"/>
-      <c r="AH28" s="155"/>
-      <c r="AI28" s="155"/>
-      <c r="AJ28" s="155"/>
-      <c r="AK28" s="155"/>
-      <c r="AL28" s="155"/>
-      <c r="AM28" s="155"/>
-      <c r="AN28" s="155"/>
-      <c r="AO28" s="155"/>
-      <c r="AP28" s="155"/>
-      <c r="AQ28" s="155"/>
-      <c r="AR28" s="155"/>
-      <c r="AS28" s="155"/>
-      <c r="AT28" s="155"/>
-      <c r="AU28" s="155"/>
-      <c r="AV28" s="155"/>
-      <c r="AW28" s="155"/>
-      <c r="AX28" s="155"/>
-      <c r="AY28" s="155"/>
-      <c r="AZ28" s="155"/>
-      <c r="BA28" s="155"/>
-      <c r="BB28" s="155"/>
-      <c r="BC28" s="155"/>
-      <c r="BD28" s="155"/>
-      <c r="BE28" s="155"/>
-      <c r="BF28" s="155"/>
-      <c r="BG28" s="155"/>
-      <c r="BH28" s="155"/>
-      <c r="BI28" s="155"/>
-      <c r="BJ28" s="155"/>
-      <c r="BK28" s="155"/>
-      <c r="BL28" s="155"/>
-      <c r="BM28" s="155"/>
-      <c r="BN28" s="155"/>
-      <c r="BO28" s="155"/>
-      <c r="BP28" s="155"/>
-      <c r="BQ28" s="155"/>
-      <c r="BR28" s="155"/>
-      <c r="BS28" s="155"/>
-      <c r="BT28" s="155"/>
-      <c r="BU28" s="155"/>
-      <c r="BV28" s="155"/>
-      <c r="BW28" s="155"/>
-      <c r="BX28" s="155"/>
-      <c r="BY28" s="155"/>
-      <c r="BZ28" s="155"/>
-      <c r="CA28" s="155"/>
-      <c r="CB28" s="155"/>
-      <c r="CC28" s="155"/>
-      <c r="CD28" s="155"/>
-      <c r="CE28" s="155"/>
-      <c r="CF28" s="155"/>
-      <c r="CG28" s="155"/>
-      <c r="CH28" s="155"/>
-      <c r="CI28" s="155"/>
-      <c r="CJ28" s="155"/>
-      <c r="CK28" s="155"/>
-      <c r="CL28" s="155"/>
-      <c r="CM28" s="155"/>
-      <c r="CN28" s="155"/>
-      <c r="CO28" s="155"/>
-      <c r="CP28" s="155"/>
-      <c r="CQ28" s="155"/>
-      <c r="CR28" s="155"/>
-      <c r="CS28" s="155"/>
-      <c r="CT28" s="155"/>
-      <c r="CU28" s="155"/>
-      <c r="CV28" s="155"/>
-      <c r="CW28" s="155"/>
-      <c r="CX28" s="155"/>
-      <c r="CY28" s="155"/>
-      <c r="CZ28" s="155"/>
-      <c r="DA28" s="155"/>
-      <c r="DB28" s="155"/>
-      <c r="DC28" s="155"/>
-      <c r="DD28" s="155"/>
-      <c r="DE28" s="155"/>
-      <c r="DF28" s="155"/>
-      <c r="DG28" s="155"/>
-      <c r="DH28" s="155"/>
-      <c r="DI28" s="155"/>
-      <c r="DJ28" s="155"/>
-      <c r="DK28" s="155"/>
-      <c r="DL28" s="155"/>
-      <c r="DM28" s="155"/>
-      <c r="DN28" s="155"/>
-      <c r="DO28" s="155"/>
-      <c r="DP28" s="155"/>
-      <c r="DQ28" s="155"/>
-      <c r="DR28" s="155"/>
-      <c r="DS28" s="155"/>
-      <c r="DT28" s="155"/>
-      <c r="DU28" s="155"/>
-      <c r="DV28" s="155"/>
-      <c r="DW28" s="155"/>
-      <c r="DX28" s="155"/>
-      <c r="DY28" s="155"/>
-      <c r="DZ28" s="155"/>
-      <c r="EA28" s="155"/>
-      <c r="EB28" s="155"/>
-      <c r="EC28" s="155"/>
-      <c r="ED28" s="155"/>
-      <c r="EE28" s="155"/>
-      <c r="EF28" s="155"/>
-      <c r="EG28" s="155"/>
-      <c r="EH28" s="155"/>
-      <c r="EI28" s="155"/>
-      <c r="EJ28" s="155"/>
-      <c r="EK28" s="155"/>
-      <c r="EL28" s="155"/>
-      <c r="EM28" s="155"/>
-      <c r="EN28" s="155"/>
-      <c r="EO28" s="155"/>
-      <c r="EP28" s="155"/>
-      <c r="EQ28" s="155"/>
-      <c r="ER28" s="155"/>
-      <c r="ES28" s="155"/>
-      <c r="ET28" s="155"/>
-      <c r="EU28" s="155"/>
-      <c r="EV28" s="155"/>
-      <c r="EW28" s="155"/>
-      <c r="EX28" s="155"/>
-      <c r="EY28" s="155"/>
-      <c r="EZ28" s="155"/>
-      <c r="FA28" s="155"/>
-      <c r="FB28" s="155"/>
-      <c r="FC28" s="155"/>
-      <c r="FD28" s="155"/>
-      <c r="FE28" s="155"/>
-      <c r="FF28" s="155"/>
-      <c r="FG28" s="155"/>
-      <c r="FH28" s="155"/>
-      <c r="FI28" s="155"/>
-      <c r="FJ28" s="155"/>
-      <c r="FK28" s="155"/>
-      <c r="FL28" s="155"/>
-      <c r="FM28" s="155"/>
-      <c r="FN28" s="155"/>
-      <c r="FO28" s="155"/>
-      <c r="FP28" s="155"/>
-      <c r="FQ28" s="155"/>
-      <c r="FR28" s="155"/>
-      <c r="FS28" s="155"/>
-      <c r="FT28" s="155"/>
-      <c r="FU28" s="155"/>
-      <c r="FV28" s="155"/>
-      <c r="FW28" s="155"/>
-      <c r="FX28" s="155"/>
-      <c r="FY28" s="155"/>
-      <c r="FZ28" s="155"/>
-      <c r="GA28" s="155"/>
-      <c r="GB28" s="155"/>
-      <c r="GC28" s="155"/>
-      <c r="GD28" s="155"/>
-      <c r="GE28" s="155"/>
-      <c r="GF28" s="155"/>
-      <c r="GG28" s="155"/>
-      <c r="GH28" s="155"/>
-      <c r="GI28" s="155"/>
-      <c r="GJ28" s="155"/>
-      <c r="GK28" s="155"/>
-      <c r="GL28" s="155"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="157"/>
+      <c r="O28" s="157"/>
+      <c r="P28" s="157"/>
+      <c r="Q28" s="157"/>
+      <c r="R28" s="157"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="156"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="156"/>
+      <c r="W28" s="156"/>
+      <c r="X28" s="156"/>
+      <c r="Y28" s="156"/>
+      <c r="Z28" s="156"/>
+      <c r="AA28" s="156"/>
+      <c r="AB28" s="156"/>
+      <c r="AC28" s="156"/>
+      <c r="AD28" s="156"/>
+      <c r="AE28" s="156"/>
+      <c r="AF28" s="156"/>
+      <c r="AG28" s="156"/>
+      <c r="AH28" s="156"/>
+      <c r="AI28" s="156"/>
+      <c r="AJ28" s="156"/>
+      <c r="AK28" s="156"/>
+      <c r="AL28" s="156"/>
+      <c r="AM28" s="156"/>
+      <c r="AN28" s="156"/>
+      <c r="AO28" s="156"/>
+      <c r="AP28" s="156"/>
+      <c r="AQ28" s="156"/>
+      <c r="AR28" s="156"/>
+      <c r="AS28" s="156"/>
+      <c r="AT28" s="156"/>
+      <c r="AU28" s="156"/>
+      <c r="AV28" s="156"/>
+      <c r="AW28" s="156"/>
+      <c r="AX28" s="156"/>
+      <c r="AY28" s="156"/>
+      <c r="AZ28" s="156"/>
+      <c r="BA28" s="156"/>
+      <c r="BB28" s="156"/>
+      <c r="BC28" s="156"/>
+      <c r="BD28" s="156"/>
+      <c r="BE28" s="156"/>
+      <c r="BF28" s="156"/>
+      <c r="BG28" s="156"/>
+      <c r="BH28" s="156"/>
+      <c r="BI28" s="156"/>
+      <c r="BJ28" s="156"/>
+      <c r="BK28" s="156"/>
+      <c r="BL28" s="156"/>
+      <c r="BM28" s="156"/>
+      <c r="BN28" s="156"/>
+      <c r="BO28" s="156"/>
+      <c r="BP28" s="156"/>
+      <c r="BQ28" s="156"/>
+      <c r="BR28" s="156"/>
+      <c r="BS28" s="156"/>
+      <c r="BT28" s="156"/>
+      <c r="BU28" s="156"/>
+      <c r="BV28" s="156"/>
+      <c r="BW28" s="156"/>
+      <c r="BX28" s="156"/>
+      <c r="BY28" s="156"/>
+      <c r="BZ28" s="156"/>
+      <c r="CA28" s="156"/>
+      <c r="CB28" s="156"/>
+      <c r="CC28" s="156"/>
+      <c r="CD28" s="156"/>
+      <c r="CE28" s="156"/>
+      <c r="CF28" s="156"/>
+      <c r="CG28" s="156"/>
+      <c r="CH28" s="156"/>
+      <c r="CI28" s="156"/>
+      <c r="CJ28" s="156"/>
+      <c r="CK28" s="156"/>
+      <c r="CL28" s="156"/>
+      <c r="CM28" s="156"/>
+      <c r="CN28" s="156"/>
+      <c r="CO28" s="156"/>
+      <c r="CP28" s="156"/>
+      <c r="CQ28" s="156"/>
+      <c r="CR28" s="156"/>
+      <c r="CS28" s="156"/>
+      <c r="CT28" s="156"/>
+      <c r="CU28" s="156"/>
+      <c r="CV28" s="156"/>
+      <c r="CW28" s="156"/>
+      <c r="CX28" s="156"/>
+      <c r="CY28" s="156"/>
+      <c r="CZ28" s="156"/>
+      <c r="DA28" s="156"/>
+      <c r="DB28" s="156"/>
+      <c r="DC28" s="156"/>
+      <c r="DD28" s="156"/>
+      <c r="DE28" s="156"/>
+      <c r="DF28" s="156"/>
+      <c r="DG28" s="156"/>
+      <c r="DH28" s="156"/>
+      <c r="DI28" s="156"/>
+      <c r="DJ28" s="156"/>
+      <c r="DK28" s="156"/>
+      <c r="DL28" s="156"/>
+      <c r="DM28" s="156"/>
+      <c r="DN28" s="156"/>
+      <c r="DO28" s="156"/>
+      <c r="DP28" s="156"/>
+      <c r="DQ28" s="156"/>
+      <c r="DR28" s="156"/>
+      <c r="DS28" s="156"/>
+      <c r="DT28" s="156"/>
+      <c r="DU28" s="156"/>
+      <c r="DV28" s="156"/>
+      <c r="DW28" s="156"/>
+      <c r="DX28" s="156"/>
+      <c r="DY28" s="156"/>
+      <c r="DZ28" s="156"/>
+      <c r="EA28" s="156"/>
+      <c r="EB28" s="156"/>
+      <c r="EC28" s="156"/>
+      <c r="ED28" s="156"/>
+      <c r="EE28" s="156"/>
+      <c r="EF28" s="156"/>
+      <c r="EG28" s="156"/>
+      <c r="EH28" s="156"/>
+      <c r="EI28" s="156"/>
+      <c r="EJ28" s="156"/>
+      <c r="EK28" s="156"/>
+      <c r="EL28" s="156"/>
+      <c r="EM28" s="156"/>
+      <c r="EN28" s="156"/>
+      <c r="EO28" s="156"/>
+      <c r="EP28" s="156"/>
+      <c r="EQ28" s="156"/>
+      <c r="ER28" s="156"/>
+      <c r="ES28" s="156"/>
+      <c r="ET28" s="156"/>
+      <c r="EU28" s="156"/>
+      <c r="EV28" s="156"/>
+      <c r="EW28" s="156"/>
+      <c r="EX28" s="156"/>
+      <c r="EY28" s="156"/>
+      <c r="EZ28" s="156"/>
+      <c r="FA28" s="156"/>
+      <c r="FB28" s="156"/>
+      <c r="FC28" s="156"/>
+      <c r="FD28" s="156"/>
+      <c r="FE28" s="156"/>
+      <c r="FF28" s="156"/>
+      <c r="FG28" s="156"/>
+      <c r="FH28" s="156"/>
+      <c r="FI28" s="156"/>
+      <c r="FJ28" s="156"/>
+      <c r="FK28" s="156"/>
+      <c r="FL28" s="156"/>
+      <c r="FM28" s="156"/>
+      <c r="FN28" s="156"/>
+      <c r="FO28" s="156"/>
+      <c r="FP28" s="156"/>
+      <c r="FQ28" s="156"/>
+      <c r="FR28" s="156"/>
+      <c r="FS28" s="156"/>
+      <c r="FT28" s="156"/>
+      <c r="FU28" s="156"/>
+      <c r="FV28" s="156"/>
+      <c r="FW28" s="156"/>
+      <c r="FX28" s="156"/>
+      <c r="FY28" s="156"/>
+      <c r="FZ28" s="156"/>
+      <c r="GA28" s="156"/>
+      <c r="GB28" s="156"/>
+      <c r="GC28" s="156"/>
+      <c r="GD28" s="156"/>
+      <c r="GE28" s="156"/>
+      <c r="GF28" s="156"/>
+      <c r="GG28" s="156"/>
+      <c r="GH28" s="156"/>
+      <c r="GI28" s="156"/>
+      <c r="GJ28" s="156"/>
+      <c r="GK28" s="156"/>
+      <c r="GL28" s="156"/>
       <c r="GM28" s="119"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="154"/>
-      <c r="O29" s="154"/>
-      <c r="P29" s="154"/>
-      <c r="Q29" s="154"/>
-      <c r="R29" s="154"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="155"/>
+      <c r="P29" s="155"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="155"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
+      <c r="A30" s="158"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="158"/>
       <c r="K30" s="120"/>
       <c r="L30" s="120"/>
       <c r="M30" s="120"/>
@@ -4921,16 +4924,16 @@
       <c r="R30" s="120"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="157"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
+      <c r="A31" s="158"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="158"/>
       <c r="K31" s="120"/>
       <c r="L31" s="120"/>
       <c r="M31" s="120"/>
@@ -5003,14 +5006,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5203,11 +5206,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="204" t="s">
+      <c r="E27" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="205"/>
-      <c r="G27" s="206"/>
+      <c r="F27" s="206"/>
+      <c r="G27" s="207"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5531,10 +5534,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5545,7 +5548,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5561,8 +5564,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5573,7 +5576,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>6</v>
@@ -5601,14 +5604,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="165" t="s">
+      <c r="E4" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="127">
@@ -5623,14 +5626,14 @@
       <c r="D5" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="166" t="s">
-        <v>219</v>
-      </c>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
+      <c r="E5" s="167" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="168"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="90">
@@ -5641,12 +5644,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="170"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="171"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="91">
@@ -5657,12 +5660,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="160"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="161"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="92">
@@ -5673,12 +5676,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="163"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="164"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="93">
@@ -5689,12 +5692,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="160"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="161"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="94">
@@ -5705,12 +5708,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="160"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="161"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="95">
@@ -5721,12 +5724,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="160"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="161"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="96">
@@ -5737,12 +5740,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="160"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="161"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="97">
@@ -5753,12 +5756,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="160"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="161"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="98">
@@ -5769,12 +5772,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="160"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="161"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5785,12 +5788,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="171"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="172"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="90">
@@ -5801,12 +5804,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="91">
@@ -5817,12 +5820,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="92">
@@ -5833,12 +5836,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="171"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="93">
@@ -5849,12 +5852,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="172"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="94">
@@ -5865,12 +5868,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="171"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="172"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="95">
@@ -5881,12 +5884,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="172"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="96">
@@ -5897,12 +5900,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="171"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="172"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="97">
@@ -5913,12 +5916,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="171"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="172"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="98">
@@ -5929,12 +5932,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="172"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5945,12 +5948,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="171"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="172"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5961,12 +5964,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="171"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="172"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="90">
@@ -5977,12 +5980,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="172"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="91">
@@ -5993,12 +5996,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="171"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="172"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="92">
@@ -6009,12 +6012,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="172"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="93">
@@ -6025,12 +6028,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="171"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="172"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="94">
@@ -6041,12 +6044,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="171"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="171"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="172"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="95">
@@ -6057,12 +6060,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="171"/>
-      <c r="J32" s="171"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="172"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="172"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="96">
@@ -6073,12 +6076,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="171"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="172"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="97">
@@ -6089,12 +6092,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="171"/>
-      <c r="G34" s="171"/>
-      <c r="H34" s="171"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="171"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="172"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="98">
@@ -6105,12 +6108,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="171"/>
-      <c r="F35" s="171"/>
-      <c r="G35" s="171"/>
-      <c r="H35" s="171"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="171"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="172"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6121,12 +6124,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="171"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="171"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="172"/>
+      <c r="J36" s="172"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="90">
@@ -6137,12 +6140,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="171"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="172"/>
+      <c r="I37" s="172"/>
+      <c r="J37" s="172"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="91">
@@ -6153,12 +6156,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="171"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="172"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="172"/>
+      <c r="J38" s="172"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="92">
@@ -6169,12 +6172,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="171"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="172"/>
+      <c r="G39" s="172"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="172"/>
+      <c r="J39" s="172"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="93">
@@ -6185,12 +6188,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="171"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="172"/>
+      <c r="G40" s="172"/>
+      <c r="H40" s="172"/>
+      <c r="I40" s="172"/>
+      <c r="J40" s="172"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="94">
@@ -6201,12 +6204,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="172"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="172"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="95">
@@ -6217,12 +6220,12 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="171"/>
-      <c r="F42" s="171"/>
-      <c r="G42" s="171"/>
-      <c r="H42" s="171"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="171"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="172"/>
+      <c r="G42" s="172"/>
+      <c r="H42" s="172"/>
+      <c r="I42" s="172"/>
+      <c r="J42" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -6310,10 +6313,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6343,8 +6346,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6374,20 +6377,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="172" t="s">
+      <c r="A4" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="174"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="172" t="s">
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="173"/>
+      <c r="J4" s="174"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6398,10 +6401,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="181" t="s">
+      <c r="I5" s="182" t="s">
         <v>193</v>
       </c>
-      <c r="J5" s="182"/>
+      <c r="J5" s="183"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6412,8 +6415,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="184"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="185"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6424,8 +6427,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="184"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="185"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6436,8 +6439,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="184"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="185"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6448,8 +6451,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="184"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="185"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6460,8 +6463,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="186"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="187"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6472,10 +6475,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="172" t="s">
+      <c r="I11" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="173"/>
+      <c r="J11" s="174"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6486,10 +6489,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="175" t="s">
-        <v>214</v>
-      </c>
-      <c r="J12" s="176"/>
+      <c r="I12" s="176" t="s">
+        <v>212</v>
+      </c>
+      <c r="J12" s="177"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6500,8 +6503,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="178"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="179"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6512,8 +6515,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="178"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="179"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6524,8 +6527,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="178"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="179"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6536,8 +6539,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="179"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6548,8 +6551,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="178"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="179"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6560,8 +6563,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="179"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6572,8 +6575,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="179"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6584,8 +6587,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="177"/>
-      <c r="J20" s="178"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="179"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6596,8 +6599,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="177"/>
-      <c r="J21" s="178"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="179"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6608,8 +6611,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="177"/>
-      <c r="J22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="179"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6620,8 +6623,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="177"/>
-      <c r="J23" s="178"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="179"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6632,8 +6635,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="178"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="179"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6644,8 +6647,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="178"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="179"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6656,8 +6659,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="178"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="179"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6668,8 +6671,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="177"/>
-      <c r="J27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="179"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6680,8 +6683,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="177"/>
-      <c r="J28" s="178"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="179"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6692,8 +6695,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="177"/>
-      <c r="J29" s="178"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="179"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6704,8 +6707,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="177"/>
-      <c r="J30" s="178"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="179"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6716,8 +6719,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="177"/>
-      <c r="J31" s="178"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="179"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6728,8 +6731,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="178"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="179"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6740,8 +6743,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="177"/>
-      <c r="J33" s="178"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="179"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6752,8 +6755,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="177"/>
-      <c r="J34" s="178"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="179"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6764,8 +6767,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="177"/>
-      <c r="J35" s="178"/>
+      <c r="I35" s="178"/>
+      <c r="J35" s="179"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6776,8 +6779,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="177"/>
-      <c r="J36" s="178"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="179"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6788,8 +6791,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="177"/>
-      <c r="J37" s="178"/>
+      <c r="I37" s="178"/>
+      <c r="J37" s="179"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6800,8 +6803,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="177"/>
-      <c r="J38" s="178"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="179"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6812,8 +6815,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="177"/>
-      <c r="J39" s="178"/>
+      <c r="I39" s="178"/>
+      <c r="J39" s="179"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6824,8 +6827,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="177"/>
-      <c r="J40" s="178"/>
+      <c r="I40" s="178"/>
+      <c r="J40" s="179"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6836,8 +6839,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="177"/>
-      <c r="J41" s="178"/>
+      <c r="I41" s="178"/>
+      <c r="J41" s="179"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6848,8 +6851,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="177"/>
-      <c r="J42" s="178"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="179"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6860,8 +6863,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="179"/>
-      <c r="J43" s="180"/>
+      <c r="I43" s="180"/>
+      <c r="J43" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6895,7 +6898,7 @@
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6919,12 +6922,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6932,15 +6935,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="187" t="s">
+      <c r="G1" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="188"/>
-      <c r="I1" s="189" t="s">
-        <v>207</v>
-      </c>
-      <c r="J1" s="190"/>
-      <c r="K1" s="191"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="190" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="191"/>
+      <c r="K1" s="192"/>
       <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
@@ -6956,10 +6959,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6967,16 +6970,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="G2" s="187" t="s">
+      <c r="G2" s="188" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="188"/>
-      <c r="I2" s="189" t="str">
+      <c r="H2" s="189"/>
+      <c r="I2" s="190" t="str">
         <f>'Update History'!F2</f>
         <v>Thống kê thời gian giao hàng</v>
       </c>
-      <c r="J2" s="190"/>
-      <c r="K2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="192"/>
       <c r="L2" s="31" t="s">
         <v>6</v>
       </c>
@@ -7219,7 +7222,7 @@
         <v>194</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I10" s="62"/>
       <c r="J10" s="62"/>
@@ -7254,7 +7257,7 @@
         <v>194</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I11" s="62"/>
       <c r="J11" s="62"/>
@@ -7332,7 +7335,9 @@
         <v>50</v>
       </c>
       <c r="J13" s="62"/>
-      <c r="K13" s="40"/>
+      <c r="K13" s="40" t="s">
+        <v>150</v>
+      </c>
       <c r="L13" s="132"/>
       <c r="M13" s="132"/>
       <c r="N13" s="132"/>
@@ -7349,10 +7354,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>200</v>
-      </c>
-      <c r="E14" s="132" t="s">
-        <v>201</v>
+        <v>167</v>
+      </c>
+      <c r="E14" s="136" t="s">
+        <v>176</v>
       </c>
       <c r="F14" s="132"/>
       <c r="G14" s="40" t="s">
@@ -7378,10 +7383,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="E15" s="132" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="F15" s="132"/>
       <c r="G15" s="40" t="s">
@@ -9148,7 +9153,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="134"/>
@@ -9184,7 +9189,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="198"/>
+      <c r="A2" s="199"/>
       <c r="B2" s="135"/>
       <c r="C2" s="124"/>
       <c r="D2" s="31" t="s">
@@ -9222,7 +9227,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C4" s="121" t="s">
         <v>32</v>
@@ -9236,15 +9241,15 @@
       <c r="F4" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="164" t="s">
+      <c r="G4" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164" t="s">
+      <c r="H4" s="165"/>
+      <c r="I4" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33">
@@ -9258,18 +9263,18 @@
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="130" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="195" t="s">
-        <v>209</v>
-      </c>
-      <c r="H5" s="196"/>
-      <c r="I5" s="192" t="s">
-        <v>221</v>
-      </c>
-      <c r="J5" s="193"/>
-      <c r="K5" s="194"/>
+      <c r="G5" s="196" t="s">
+        <v>207</v>
+      </c>
+      <c r="H5" s="197"/>
+      <c r="I5" s="193" t="s">
+        <v>219</v>
+      </c>
+      <c r="J5" s="194"/>
+      <c r="K5" s="195"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1">
       <c r="A6" s="33">
@@ -9286,15 +9291,15 @@
         <v>134</v>
       </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="195" t="s">
-        <v>220</v>
-      </c>
-      <c r="H6" s="196"/>
-      <c r="I6" s="192" t="s">
+      <c r="G6" s="196" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" s="197"/>
+      <c r="I6" s="193" t="s">
         <v>180</v>
       </c>
-      <c r="J6" s="193"/>
-      <c r="K6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="195"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9305,11 +9310,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="130"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="195"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="193"/>
-      <c r="K7" s="194"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="195"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9320,11 +9325,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="195"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="192"/>
-      <c r="J8" s="193"/>
-      <c r="K8" s="194"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="195"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9335,11 +9340,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="194"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="195"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9350,11 +9355,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="194"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="195"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9365,11 +9370,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="192"/>
-      <c r="J11" s="193"/>
-      <c r="K11" s="194"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="193"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="195"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9380,11 +9385,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="195"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="192"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="194"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="195"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9395,11 +9400,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="195"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="192"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="194"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="195"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9410,11 +9415,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="196"/>
-      <c r="I14" s="192"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="194"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="195"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9425,11 +9430,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="195"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="193"/>
-      <c r="K15" s="194"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="195"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9440,11 +9445,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="196"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="194"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="195"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9455,11 +9460,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="196"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="194"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="195"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9470,11 +9475,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="194"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="195"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9485,11 +9490,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="195"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="193"/>
-      <c r="K19" s="194"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="193"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="195"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9500,11 +9505,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="195"/>
-      <c r="H20" s="196"/>
-      <c r="I20" s="192"/>
-      <c r="J20" s="193"/>
-      <c r="K20" s="194"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="193"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="195"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9515,11 +9520,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="195"/>
-      <c r="H21" s="196"/>
-      <c r="I21" s="192"/>
-      <c r="J21" s="193"/>
-      <c r="K21" s="194"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="193"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="195"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9530,11 +9535,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="192"/>
-      <c r="J22" s="193"/>
-      <c r="K22" s="194"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="193"/>
+      <c r="J22" s="194"/>
+      <c r="K22" s="195"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9545,11 +9550,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="192"/>
-      <c r="J23" s="193"/>
-      <c r="K23" s="194"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="193"/>
+      <c r="J23" s="194"/>
+      <c r="K23" s="195"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9560,11 +9565,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="192"/>
-      <c r="J24" s="193"/>
-      <c r="K24" s="194"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="193"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="195"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9575,11 +9580,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="193"/>
-      <c r="K25" s="194"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="194"/>
+      <c r="K25" s="195"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9590,11 +9595,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="192"/>
-      <c r="J26" s="193"/>
-      <c r="K26" s="194"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="193"/>
+      <c r="J26" s="194"/>
+      <c r="K26" s="195"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9605,11 +9610,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="192"/>
-      <c r="J27" s="193"/>
-      <c r="K27" s="194"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="193"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="195"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9620,11 +9625,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="192"/>
-      <c r="J28" s="193"/>
-      <c r="K28" s="194"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="193"/>
+      <c r="J28" s="194"/>
+      <c r="K28" s="195"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9635,11 +9640,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="192"/>
-      <c r="J29" s="193"/>
-      <c r="K29" s="194"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="193"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="195"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9650,11 +9655,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="192"/>
-      <c r="J30" s="193"/>
-      <c r="K30" s="194"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="193"/>
+      <c r="J30" s="194"/>
+      <c r="K30" s="195"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9665,11 +9670,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="192"/>
-      <c r="J31" s="193"/>
-      <c r="K31" s="194"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="195"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -9680,11 +9685,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="193"/>
-      <c r="K32" s="194"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="195"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9702,11 +9707,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="160"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="193"/>
-      <c r="K33" s="194"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="195"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -9724,11 +9729,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="192"/>
-      <c r="J34" s="193"/>
-      <c r="K34" s="194"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="194"/>
+      <c r="K34" s="195"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9746,11 +9751,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="192"/>
-      <c r="J35" s="193"/>
-      <c r="K35" s="194"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="161"/>
+      <c r="I35" s="193"/>
+      <c r="J35" s="194"/>
+      <c r="K35" s="195"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9768,11 +9773,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="192"/>
-      <c r="J36" s="193"/>
-      <c r="K36" s="194"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="193"/>
+      <c r="J36" s="194"/>
+      <c r="K36" s="195"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9790,11 +9795,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="160"/>
-      <c r="I37" s="192"/>
-      <c r="J37" s="193"/>
-      <c r="K37" s="194"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="193"/>
+      <c r="J37" s="194"/>
+      <c r="K37" s="195"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9812,11 +9817,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="192"/>
-      <c r="J38" s="193"/>
-      <c r="K38" s="194"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="193"/>
+      <c r="J38" s="194"/>
+      <c r="K38" s="195"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9834,11 +9839,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="192"/>
-      <c r="J39" s="193"/>
-      <c r="K39" s="194"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="193"/>
+      <c r="J39" s="194"/>
+      <c r="K39" s="195"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9856,11 +9861,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="158"/>
-      <c r="H40" s="160"/>
-      <c r="I40" s="192"/>
-      <c r="J40" s="193"/>
-      <c r="K40" s="194"/>
+      <c r="G40" s="159"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="193"/>
+      <c r="J40" s="194"/>
+      <c r="K40" s="195"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9878,11 +9883,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="192"/>
-      <c r="J41" s="193"/>
-      <c r="K41" s="194"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="193"/>
+      <c r="J41" s="194"/>
+      <c r="K41" s="195"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -9900,11 +9905,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="160"/>
-      <c r="I42" s="192"/>
-      <c r="J42" s="193"/>
-      <c r="K42" s="194"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="193"/>
+      <c r="J42" s="194"/>
+      <c r="K42" s="195"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -9922,11 +9927,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="158"/>
-      <c r="H43" s="160"/>
-      <c r="I43" s="192"/>
-      <c r="J43" s="193"/>
-      <c r="K43" s="194"/>
+      <c r="G43" s="159"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="193"/>
+      <c r="J43" s="194"/>
+      <c r="K43" s="195"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -9944,11 +9949,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="158"/>
-      <c r="H44" s="160"/>
-      <c r="I44" s="192"/>
-      <c r="J44" s="193"/>
-      <c r="K44" s="194"/>
+      <c r="G44" s="159"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="193"/>
+      <c r="J44" s="194"/>
+      <c r="K44" s="195"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -9966,11 +9971,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="158"/>
-      <c r="H45" s="160"/>
-      <c r="I45" s="192"/>
-      <c r="J45" s="193"/>
-      <c r="K45" s="194"/>
+      <c r="G45" s="159"/>
+      <c r="H45" s="161"/>
+      <c r="I45" s="193"/>
+      <c r="J45" s="194"/>
+      <c r="K45" s="195"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -9988,11 +9993,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="158"/>
-      <c r="H46" s="160"/>
-      <c r="I46" s="192"/>
-      <c r="J46" s="193"/>
-      <c r="K46" s="194"/>
+      <c r="G46" s="159"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="193"/>
+      <c r="J46" s="194"/>
+      <c r="K46" s="195"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10010,11 +10015,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="158"/>
-      <c r="H47" s="160"/>
-      <c r="I47" s="192"/>
-      <c r="J47" s="193"/>
-      <c r="K47" s="194"/>
+      <c r="G47" s="159"/>
+      <c r="H47" s="161"/>
+      <c r="I47" s="193"/>
+      <c r="J47" s="194"/>
+      <c r="K47" s="195"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10032,11 +10037,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="158"/>
-      <c r="H48" s="160"/>
-      <c r="I48" s="192"/>
-      <c r="J48" s="193"/>
-      <c r="K48" s="194"/>
+      <c r="G48" s="159"/>
+      <c r="H48" s="161"/>
+      <c r="I48" s="193"/>
+      <c r="J48" s="194"/>
+      <c r="K48" s="195"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10054,11 +10059,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="158"/>
-      <c r="H49" s="160"/>
-      <c r="I49" s="192"/>
-      <c r="J49" s="193"/>
-      <c r="K49" s="194"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="161"/>
+      <c r="I49" s="193"/>
+      <c r="J49" s="194"/>
+      <c r="K49" s="195"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10076,11 +10081,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="158"/>
-      <c r="H50" s="160"/>
-      <c r="I50" s="192"/>
-      <c r="J50" s="193"/>
-      <c r="K50" s="194"/>
+      <c r="G50" s="159"/>
+      <c r="H50" s="161"/>
+      <c r="I50" s="193"/>
+      <c r="J50" s="194"/>
+      <c r="K50" s="195"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10098,11 +10103,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="158"/>
-      <c r="H51" s="160"/>
-      <c r="I51" s="192"/>
-      <c r="J51" s="193"/>
-      <c r="K51" s="194"/>
+      <c r="G51" s="159"/>
+      <c r="H51" s="161"/>
+      <c r="I51" s="193"/>
+      <c r="J51" s="194"/>
+      <c r="K51" s="195"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10120,11 +10125,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="158"/>
-      <c r="H52" s="160"/>
-      <c r="I52" s="192"/>
-      <c r="J52" s="193"/>
-      <c r="K52" s="194"/>
+      <c r="G52" s="159"/>
+      <c r="H52" s="161"/>
+      <c r="I52" s="193"/>
+      <c r="J52" s="194"/>
+      <c r="K52" s="195"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10142,11 +10147,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="158"/>
-      <c r="H53" s="160"/>
-      <c r="I53" s="192"/>
-      <c r="J53" s="193"/>
-      <c r="K53" s="194"/>
+      <c r="G53" s="159"/>
+      <c r="H53" s="161"/>
+      <c r="I53" s="193"/>
+      <c r="J53" s="194"/>
+      <c r="K53" s="195"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10164,11 +10169,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="158"/>
-      <c r="H54" s="160"/>
-      <c r="I54" s="192"/>
-      <c r="J54" s="193"/>
-      <c r="K54" s="194"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="161"/>
+      <c r="I54" s="193"/>
+      <c r="J54" s="194"/>
+      <c r="K54" s="195"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10186,11 +10191,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="158"/>
-      <c r="H55" s="160"/>
-      <c r="I55" s="192"/>
-      <c r="J55" s="193"/>
-      <c r="K55" s="194"/>
+      <c r="G55" s="159"/>
+      <c r="H55" s="161"/>
+      <c r="I55" s="193"/>
+      <c r="J55" s="194"/>
+      <c r="K55" s="195"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10208,11 +10213,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="158"/>
-      <c r="H56" s="160"/>
-      <c r="I56" s="192"/>
-      <c r="J56" s="193"/>
-      <c r="K56" s="194"/>
+      <c r="G56" s="159"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="193"/>
+      <c r="J56" s="194"/>
+      <c r="K56" s="195"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10348,7 +10353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1048467"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -10377,23 +10382,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
       <c r="H1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="202" t="str">
+      <c r="I1" s="203" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="J1" s="202"/>
+      <c r="J1" s="203"/>
       <c r="K1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10420,21 +10425,21 @@
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
       <c r="H2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="202" t="str">
+      <c r="I2" s="203" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="J2" s="202"/>
+      <c r="J2" s="203"/>
       <c r="K2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10488,12 +10493,12 @@
       <c r="I4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="172" t="s">
+      <c r="J4" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="174"/>
-      <c r="L4" s="174"/>
-      <c r="M4" s="173"/>
+      <c r="K4" s="175"/>
+      <c r="L4" s="175"/>
+      <c r="M4" s="174"/>
       <c r="N4" s="39" t="s">
         <v>56</v>
       </c>
@@ -10523,7 +10528,7 @@
       <c r="D5" s="33"/>
       <c r="E5" s="32"/>
       <c r="F5" s="88" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G5" s="63" t="s">
         <v>184</v>
@@ -10534,12 +10539,12 @@
       <c r="I5" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="J5" s="199" t="s">
+      <c r="J5" s="200" t="s">
         <v>185</v>
       </c>
-      <c r="K5" s="200"/>
-      <c r="L5" s="200"/>
-      <c r="M5" s="201"/>
+      <c r="K5" s="201"/>
+      <c r="L5" s="201"/>
+      <c r="M5" s="202"/>
       <c r="N5" s="125" t="s">
         <v>188</v>
       </c>
@@ -10553,7 +10558,7 @@
         <v>190</v>
       </c>
       <c r="R5" s="88" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S5" s="64"/>
       <c r="T5" s="64"/>
@@ -10569,7 +10574,7 @@
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
       <c r="F6" s="88" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G6" s="63" t="s">
         <v>184</v>
@@ -10580,12 +10585,12 @@
       <c r="I6" s="131" t="s">
         <v>183</v>
       </c>
-      <c r="J6" s="199" t="s">
+      <c r="J6" s="200" t="s">
         <v>181</v>
       </c>
-      <c r="K6" s="200"/>
-      <c r="L6" s="200"/>
-      <c r="M6" s="201"/>
+      <c r="K6" s="201"/>
+      <c r="L6" s="201"/>
+      <c r="M6" s="202"/>
       <c r="N6" s="125" t="s">
         <v>134</v>
       </c>
@@ -10599,7 +10604,7 @@
         <v>190</v>
       </c>
       <c r="R6" s="88" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="S6" s="64"/>
       <c r="T6" s="64"/>
@@ -10615,7 +10620,7 @@
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
       <c r="F7" s="132" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G7" s="63" t="s">
         <v>184</v>
@@ -10624,14 +10629,14 @@
         <v>55</v>
       </c>
       <c r="I7" s="131" t="s">
-        <v>203</v>
-      </c>
-      <c r="J7" s="199" t="s">
-        <v>210</v>
-      </c>
-      <c r="K7" s="200"/>
-      <c r="L7" s="200"/>
-      <c r="M7" s="201"/>
+        <v>201</v>
+      </c>
+      <c r="J7" s="200" t="s">
+        <v>208</v>
+      </c>
+      <c r="K7" s="201"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="202"/>
       <c r="N7" s="125" t="s">
         <v>134</v>
       </c>
@@ -10655,7 +10660,7 @@
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
       <c r="F8" s="132" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G8" s="63" t="s">
         <v>184</v>
@@ -10664,19 +10669,19 @@
         <v>55</v>
       </c>
       <c r="I8" s="131" t="s">
-        <v>205</v>
-      </c>
-      <c r="J8" s="199" t="s">
+        <v>203</v>
+      </c>
+      <c r="J8" s="200" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="201"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="125" t="s">
+        <v>223</v>
+      </c>
+      <c r="O8" s="125" t="s">
         <v>224</v>
-      </c>
-      <c r="K8" s="200"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="125" t="s">
-        <v>225</v>
-      </c>
-      <c r="O8" s="125" t="s">
-        <v>226</v>
       </c>
       <c r="P8" s="76"/>
       <c r="Q8" s="75"/>
@@ -10696,10 +10701,10 @@
       <c r="G9" s="63"/>
       <c r="H9" s="63"/>
       <c r="I9" s="82"/>
-      <c r="J9" s="199"/>
-      <c r="K9" s="200"/>
-      <c r="L9" s="200"/>
-      <c r="M9" s="201"/>
+      <c r="J9" s="200"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="201"/>
+      <c r="M9" s="202"/>
       <c r="N9" s="89"/>
       <c r="O9" s="89"/>
       <c r="P9" s="76"/>
@@ -10720,10 +10725,10 @@
       <c r="G10" s="63"/>
       <c r="H10" s="63"/>
       <c r="I10" s="82"/>
-      <c r="J10" s="199"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="200"/>
-      <c r="M10" s="201"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="201"/>
+      <c r="M10" s="202"/>
       <c r="N10" s="89"/>
       <c r="O10" s="89"/>
       <c r="P10" s="76"/>
@@ -10744,10 +10749,10 @@
       <c r="G11" s="63"/>
       <c r="H11" s="63"/>
       <c r="I11" s="82"/>
-      <c r="J11" s="199"/>
-      <c r="K11" s="200"/>
-      <c r="L11" s="200"/>
-      <c r="M11" s="201"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="201"/>
+      <c r="M11" s="202"/>
       <c r="N11" s="89"/>
       <c r="O11" s="89"/>
       <c r="P11" s="76"/>
@@ -10768,10 +10773,10 @@
       <c r="G12" s="63"/>
       <c r="H12" s="63"/>
       <c r="I12" s="82"/>
-      <c r="J12" s="199"/>
-      <c r="K12" s="200"/>
-      <c r="L12" s="200"/>
-      <c r="M12" s="201"/>
+      <c r="J12" s="200"/>
+      <c r="K12" s="201"/>
+      <c r="L12" s="201"/>
+      <c r="M12" s="202"/>
       <c r="N12" s="85"/>
       <c r="O12" s="85"/>
       <c r="P12" s="76"/>
@@ -10792,10 +10797,10 @@
       <c r="G13" s="63"/>
       <c r="H13" s="63"/>
       <c r="I13" s="82"/>
-      <c r="J13" s="199"/>
-      <c r="K13" s="200"/>
-      <c r="L13" s="200"/>
-      <c r="M13" s="201"/>
+      <c r="J13" s="200"/>
+      <c r="K13" s="201"/>
+      <c r="L13" s="201"/>
+      <c r="M13" s="202"/>
       <c r="N13" s="85"/>
       <c r="O13" s="85"/>
       <c r="P13" s="76"/>
@@ -10816,10 +10821,10 @@
       <c r="G14" s="63"/>
       <c r="H14" s="63"/>
       <c r="I14" s="82"/>
-      <c r="J14" s="199"/>
-      <c r="K14" s="200"/>
-      <c r="L14" s="200"/>
-      <c r="M14" s="201"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="201"/>
+      <c r="L14" s="201"/>
+      <c r="M14" s="202"/>
       <c r="N14" s="81"/>
       <c r="O14" s="81"/>
       <c r="P14" s="76"/>
@@ -10840,10 +10845,10 @@
       <c r="G15" s="63"/>
       <c r="H15" s="63"/>
       <c r="I15" s="82"/>
-      <c r="J15" s="199"/>
-      <c r="K15" s="200"/>
-      <c r="L15" s="200"/>
-      <c r="M15" s="201"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="201"/>
+      <c r="M15" s="202"/>
       <c r="N15" s="81"/>
       <c r="O15" s="81"/>
       <c r="P15" s="76"/>
@@ -10864,10 +10869,10 @@
       <c r="G16" s="63"/>
       <c r="H16" s="63"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="199"/>
-      <c r="K16" s="200"/>
-      <c r="L16" s="200"/>
-      <c r="M16" s="201"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="201"/>
+      <c r="L16" s="201"/>
+      <c r="M16" s="202"/>
       <c r="N16" s="72"/>
       <c r="O16" s="60"/>
       <c r="P16" s="76"/>
@@ -10888,10 +10893,10 @@
       <c r="G17" s="63"/>
       <c r="H17" s="63"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="199"/>
-      <c r="K17" s="200"/>
-      <c r="L17" s="200"/>
-      <c r="M17" s="201"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="201"/>
+      <c r="L17" s="201"/>
+      <c r="M17" s="202"/>
       <c r="N17" s="60"/>
       <c r="O17" s="60"/>
       <c r="P17" s="76"/>
@@ -10912,10 +10917,10 @@
       <c r="G18" s="63"/>
       <c r="H18" s="63"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="200"/>
-      <c r="L18" s="200"/>
-      <c r="M18" s="201"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="201"/>
+      <c r="L18" s="201"/>
+      <c r="M18" s="202"/>
       <c r="N18" s="60"/>
       <c r="O18" s="60"/>
       <c r="P18" s="76"/>
@@ -10936,10 +10941,10 @@
       <c r="G19" s="63"/>
       <c r="H19" s="63"/>
       <c r="I19" s="40"/>
-      <c r="J19" s="199"/>
-      <c r="K19" s="200"/>
-      <c r="L19" s="200"/>
-      <c r="M19" s="201"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="201"/>
+      <c r="L19" s="201"/>
+      <c r="M19" s="202"/>
       <c r="N19" s="60"/>
       <c r="O19" s="60"/>
       <c r="P19" s="76"/>
@@ -10960,10 +10965,10 @@
       <c r="G20" s="63"/>
       <c r="H20" s="63"/>
       <c r="I20" s="40"/>
-      <c r="J20" s="199"/>
-      <c r="K20" s="200"/>
-      <c r="L20" s="200"/>
-      <c r="M20" s="201"/>
+      <c r="J20" s="200"/>
+      <c r="K20" s="201"/>
+      <c r="L20" s="201"/>
+      <c r="M20" s="202"/>
       <c r="N20" s="60"/>
       <c r="O20" s="60"/>
       <c r="P20" s="76"/>
@@ -10984,10 +10989,10 @@
       <c r="G21" s="63"/>
       <c r="H21" s="63"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="199"/>
-      <c r="K21" s="200"/>
-      <c r="L21" s="200"/>
-      <c r="M21" s="201"/>
+      <c r="J21" s="200"/>
+      <c r="K21" s="201"/>
+      <c r="L21" s="201"/>
+      <c r="M21" s="202"/>
       <c r="N21" s="60"/>
       <c r="O21" s="60"/>
       <c r="P21" s="76"/>
@@ -11008,10 +11013,10 @@
       <c r="G22" s="63"/>
       <c r="H22" s="63"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="199"/>
-      <c r="K22" s="200"/>
-      <c r="L22" s="200"/>
-      <c r="M22" s="201"/>
+      <c r="J22" s="200"/>
+      <c r="K22" s="201"/>
+      <c r="L22" s="201"/>
+      <c r="M22" s="202"/>
       <c r="N22" s="60"/>
       <c r="O22" s="60"/>
       <c r="P22" s="76"/>
@@ -11032,10 +11037,10 @@
       <c r="G23" s="63"/>
       <c r="H23" s="63"/>
       <c r="I23" s="40"/>
-      <c r="J23" s="199"/>
-      <c r="K23" s="200"/>
-      <c r="L23" s="200"/>
-      <c r="M23" s="201"/>
+      <c r="J23" s="200"/>
+      <c r="K23" s="201"/>
+      <c r="L23" s="201"/>
+      <c r="M23" s="202"/>
       <c r="N23" s="60"/>
       <c r="O23" s="60"/>
       <c r="P23" s="76"/>
@@ -11056,10 +11061,10 @@
       <c r="G24" s="63"/>
       <c r="H24" s="63"/>
       <c r="I24" s="40"/>
-      <c r="J24" s="199"/>
-      <c r="K24" s="200"/>
-      <c r="L24" s="200"/>
-      <c r="M24" s="201"/>
+      <c r="J24" s="200"/>
+      <c r="K24" s="201"/>
+      <c r="L24" s="201"/>
+      <c r="M24" s="202"/>
       <c r="N24" s="60"/>
       <c r="O24" s="60"/>
       <c r="P24" s="76"/>
@@ -11080,10 +11085,10 @@
       <c r="G25" s="63"/>
       <c r="H25" s="63"/>
       <c r="I25" s="40"/>
-      <c r="J25" s="199"/>
-      <c r="K25" s="200"/>
-      <c r="L25" s="200"/>
-      <c r="M25" s="201"/>
+      <c r="J25" s="200"/>
+      <c r="K25" s="201"/>
+      <c r="L25" s="201"/>
+      <c r="M25" s="202"/>
       <c r="N25" s="60"/>
       <c r="O25" s="60"/>
       <c r="P25" s="76"/>
@@ -11104,10 +11109,10 @@
       <c r="G26" s="63"/>
       <c r="H26" s="63"/>
       <c r="I26" s="40"/>
-      <c r="J26" s="199"/>
-      <c r="K26" s="200"/>
-      <c r="L26" s="200"/>
-      <c r="M26" s="201"/>
+      <c r="J26" s="200"/>
+      <c r="K26" s="201"/>
+      <c r="L26" s="201"/>
+      <c r="M26" s="202"/>
       <c r="N26" s="60"/>
       <c r="O26" s="60"/>
       <c r="P26" s="76"/>
@@ -11128,10 +11133,10 @@
       <c r="G27" s="63"/>
       <c r="H27" s="63"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="199"/>
-      <c r="K27" s="200"/>
-      <c r="L27" s="200"/>
-      <c r="M27" s="201"/>
+      <c r="J27" s="200"/>
+      <c r="K27" s="201"/>
+      <c r="L27" s="201"/>
+      <c r="M27" s="202"/>
       <c r="N27" s="60"/>
       <c r="O27" s="60"/>
       <c r="P27" s="76"/>
@@ -11152,10 +11157,10 @@
       <c r="G28" s="63"/>
       <c r="H28" s="63"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="199"/>
-      <c r="K28" s="200"/>
-      <c r="L28" s="200"/>
-      <c r="M28" s="201"/>
+      <c r="J28" s="200"/>
+      <c r="K28" s="201"/>
+      <c r="L28" s="201"/>
+      <c r="M28" s="202"/>
       <c r="N28" s="60"/>
       <c r="O28" s="60"/>
       <c r="P28" s="76"/>
@@ -11176,10 +11181,10 @@
       <c r="G29" s="63"/>
       <c r="H29" s="63"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="199"/>
-      <c r="K29" s="200"/>
-      <c r="L29" s="200"/>
-      <c r="M29" s="201"/>
+      <c r="J29" s="200"/>
+      <c r="K29" s="201"/>
+      <c r="L29" s="201"/>
+      <c r="M29" s="202"/>
       <c r="N29" s="60"/>
       <c r="O29" s="60"/>
       <c r="P29" s="76"/>
@@ -11200,10 +11205,10 @@
       <c r="G30" s="63"/>
       <c r="H30" s="63"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="199"/>
-      <c r="K30" s="200"/>
-      <c r="L30" s="200"/>
-      <c r="M30" s="201"/>
+      <c r="J30" s="200"/>
+      <c r="K30" s="201"/>
+      <c r="L30" s="201"/>
+      <c r="M30" s="202"/>
       <c r="N30" s="60"/>
       <c r="O30" s="60"/>
       <c r="P30" s="76"/>
@@ -11224,10 +11229,10 @@
       <c r="G31" s="63"/>
       <c r="H31" s="63"/>
       <c r="I31" s="40"/>
-      <c r="J31" s="199"/>
-      <c r="K31" s="200"/>
-      <c r="L31" s="200"/>
-      <c r="M31" s="201"/>
+      <c r="J31" s="200"/>
+      <c r="K31" s="201"/>
+      <c r="L31" s="201"/>
+      <c r="M31" s="202"/>
       <c r="N31" s="60"/>
       <c r="O31" s="60"/>
       <c r="P31" s="76"/>
@@ -11248,10 +11253,10 @@
       <c r="G32" s="63"/>
       <c r="H32" s="63"/>
       <c r="I32" s="40"/>
-      <c r="J32" s="199"/>
-      <c r="K32" s="200"/>
-      <c r="L32" s="200"/>
-      <c r="M32" s="201"/>
+      <c r="J32" s="200"/>
+      <c r="K32" s="201"/>
+      <c r="L32" s="201"/>
+      <c r="M32" s="202"/>
       <c r="N32" s="60"/>
       <c r="O32" s="60"/>
       <c r="P32" s="76"/>
@@ -11272,10 +11277,10 @@
       <c r="G33" s="63"/>
       <c r="H33" s="63"/>
       <c r="I33" s="40"/>
-      <c r="J33" s="199"/>
-      <c r="K33" s="200"/>
-      <c r="L33" s="200"/>
-      <c r="M33" s="201"/>
+      <c r="J33" s="200"/>
+      <c r="K33" s="201"/>
+      <c r="L33" s="201"/>
+      <c r="M33" s="202"/>
       <c r="N33" s="60"/>
       <c r="O33" s="60"/>
       <c r="P33" s="76"/>
@@ -11296,10 +11301,10 @@
       <c r="G34" s="63"/>
       <c r="H34" s="63"/>
       <c r="I34" s="82"/>
-      <c r="J34" s="199"/>
-      <c r="K34" s="200"/>
-      <c r="L34" s="200"/>
-      <c r="M34" s="201"/>
+      <c r="J34" s="200"/>
+      <c r="K34" s="201"/>
+      <c r="L34" s="201"/>
+      <c r="M34" s="202"/>
       <c r="N34" s="85"/>
       <c r="O34" s="85"/>
       <c r="P34" s="76"/>
@@ -11320,10 +11325,10 @@
       <c r="G35" s="63"/>
       <c r="H35" s="63"/>
       <c r="I35" s="40"/>
-      <c r="J35" s="199"/>
-      <c r="K35" s="200"/>
-      <c r="L35" s="200"/>
-      <c r="M35" s="201"/>
+      <c r="J35" s="200"/>
+      <c r="K35" s="201"/>
+      <c r="L35" s="201"/>
+      <c r="M35" s="202"/>
       <c r="N35" s="60"/>
       <c r="O35" s="60"/>
       <c r="P35" s="76"/>
@@ -11344,10 +11349,10 @@
       <c r="G36" s="63"/>
       <c r="H36" s="63"/>
       <c r="I36" s="40"/>
-      <c r="J36" s="199"/>
-      <c r="K36" s="200"/>
-      <c r="L36" s="200"/>
-      <c r="M36" s="201"/>
+      <c r="J36" s="200"/>
+      <c r="K36" s="201"/>
+      <c r="L36" s="201"/>
+      <c r="M36" s="202"/>
       <c r="N36" s="60"/>
       <c r="O36" s="60"/>
       <c r="P36" s="76"/>
@@ -11368,10 +11373,10 @@
       <c r="G37" s="63"/>
       <c r="H37" s="63"/>
       <c r="I37" s="40"/>
-      <c r="J37" s="199"/>
-      <c r="K37" s="200"/>
-      <c r="L37" s="200"/>
-      <c r="M37" s="201"/>
+      <c r="J37" s="200"/>
+      <c r="K37" s="201"/>
+      <c r="L37" s="201"/>
+      <c r="M37" s="202"/>
       <c r="N37" s="60"/>
       <c r="O37" s="60"/>
       <c r="P37" s="76"/>
@@ -11392,10 +11397,10 @@
       <c r="G38" s="63"/>
       <c r="H38" s="63"/>
       <c r="I38" s="40"/>
-      <c r="J38" s="199"/>
-      <c r="K38" s="200"/>
-      <c r="L38" s="200"/>
-      <c r="M38" s="201"/>
+      <c r="J38" s="200"/>
+      <c r="K38" s="201"/>
+      <c r="L38" s="201"/>
+      <c r="M38" s="202"/>
       <c r="N38" s="60"/>
       <c r="O38" s="60"/>
       <c r="P38" s="76"/>
@@ -11416,10 +11421,10 @@
       <c r="G39" s="63"/>
       <c r="H39" s="63"/>
       <c r="I39" s="40"/>
-      <c r="J39" s="199"/>
-      <c r="K39" s="200"/>
-      <c r="L39" s="200"/>
-      <c r="M39" s="201"/>
+      <c r="J39" s="200"/>
+      <c r="K39" s="201"/>
+      <c r="L39" s="201"/>
+      <c r="M39" s="202"/>
       <c r="N39" s="60"/>
       <c r="O39" s="60"/>
       <c r="P39" s="76"/>
@@ -11440,10 +11445,10 @@
       <c r="G40" s="63"/>
       <c r="H40" s="63"/>
       <c r="I40" s="40"/>
-      <c r="J40" s="199"/>
-      <c r="K40" s="200"/>
-      <c r="L40" s="200"/>
-      <c r="M40" s="201"/>
+      <c r="J40" s="200"/>
+      <c r="K40" s="201"/>
+      <c r="L40" s="201"/>
+      <c r="M40" s="202"/>
       <c r="N40" s="74"/>
       <c r="O40" s="74"/>
       <c r="P40" s="76"/>
@@ -11464,10 +11469,10 @@
       <c r="G41" s="63"/>
       <c r="H41" s="63"/>
       <c r="I41" s="40"/>
-      <c r="J41" s="199"/>
-      <c r="K41" s="200"/>
-      <c r="L41" s="200"/>
-      <c r="M41" s="201"/>
+      <c r="J41" s="200"/>
+      <c r="K41" s="201"/>
+      <c r="L41" s="201"/>
+      <c r="M41" s="202"/>
       <c r="N41" s="74"/>
       <c r="O41" s="74"/>
       <c r="P41" s="76"/>
@@ -11488,10 +11493,10 @@
       <c r="G42" s="63"/>
       <c r="H42" s="63"/>
       <c r="I42" s="40"/>
-      <c r="J42" s="199"/>
-      <c r="K42" s="200"/>
-      <c r="L42" s="200"/>
-      <c r="M42" s="201"/>
+      <c r="J42" s="200"/>
+      <c r="K42" s="201"/>
+      <c r="L42" s="201"/>
+      <c r="M42" s="202"/>
       <c r="N42" s="74"/>
       <c r="O42" s="74"/>
       <c r="P42" s="76"/>
@@ -11512,10 +11517,10 @@
       <c r="G43" s="63"/>
       <c r="H43" s="63"/>
       <c r="I43" s="40"/>
-      <c r="J43" s="199"/>
-      <c r="K43" s="200"/>
-      <c r="L43" s="200"/>
-      <c r="M43" s="201"/>
+      <c r="J43" s="200"/>
+      <c r="K43" s="201"/>
+      <c r="L43" s="201"/>
+      <c r="M43" s="202"/>
       <c r="N43" s="74"/>
       <c r="O43" s="74"/>
       <c r="P43" s="76"/>
@@ -11536,10 +11541,10 @@
       <c r="G44" s="63"/>
       <c r="H44" s="63"/>
       <c r="I44" s="40"/>
-      <c r="J44" s="199"/>
-      <c r="K44" s="200"/>
-      <c r="L44" s="200"/>
-      <c r="M44" s="201"/>
+      <c r="J44" s="200"/>
+      <c r="K44" s="201"/>
+      <c r="L44" s="201"/>
+      <c r="M44" s="202"/>
       <c r="N44" s="74"/>
       <c r="O44" s="74"/>
       <c r="P44" s="76"/>
@@ -11560,10 +11565,10 @@
       <c r="G45" s="63"/>
       <c r="H45" s="63"/>
       <c r="I45" s="40"/>
-      <c r="J45" s="199"/>
-      <c r="K45" s="200"/>
-      <c r="L45" s="200"/>
-      <c r="M45" s="201"/>
+      <c r="J45" s="200"/>
+      <c r="K45" s="201"/>
+      <c r="L45" s="201"/>
+      <c r="M45" s="202"/>
       <c r="N45" s="74"/>
       <c r="O45" s="74"/>
       <c r="P45" s="76"/>
@@ -11584,10 +11589,10 @@
       <c r="G46" s="63"/>
       <c r="H46" s="63"/>
       <c r="I46" s="40"/>
-      <c r="J46" s="199"/>
-      <c r="K46" s="200"/>
-      <c r="L46" s="200"/>
-      <c r="M46" s="201"/>
+      <c r="J46" s="200"/>
+      <c r="K46" s="201"/>
+      <c r="L46" s="201"/>
+      <c r="M46" s="202"/>
       <c r="N46" s="74"/>
       <c r="O46" s="74"/>
       <c r="P46" s="76"/>
@@ -11608,10 +11613,10 @@
       <c r="G47" s="63"/>
       <c r="H47" s="63"/>
       <c r="I47" s="40"/>
-      <c r="J47" s="199"/>
-      <c r="K47" s="200"/>
-      <c r="L47" s="200"/>
-      <c r="M47" s="201"/>
+      <c r="J47" s="200"/>
+      <c r="K47" s="201"/>
+      <c r="L47" s="201"/>
+      <c r="M47" s="202"/>
       <c r="N47" s="74"/>
       <c r="O47" s="74"/>
       <c r="P47" s="76"/>
@@ -11632,10 +11637,10 @@
       <c r="G48" s="63"/>
       <c r="H48" s="63"/>
       <c r="I48" s="40"/>
-      <c r="J48" s="199"/>
-      <c r="K48" s="200"/>
-      <c r="L48" s="200"/>
-      <c r="M48" s="201"/>
+      <c r="J48" s="200"/>
+      <c r="K48" s="201"/>
+      <c r="L48" s="201"/>
+      <c r="M48" s="202"/>
       <c r="N48" s="74"/>
       <c r="O48" s="74"/>
       <c r="P48" s="76"/>
@@ -11656,10 +11661,10 @@
       <c r="G49" s="63"/>
       <c r="H49" s="63"/>
       <c r="I49" s="40"/>
-      <c r="J49" s="199"/>
-      <c r="K49" s="200"/>
-      <c r="L49" s="200"/>
-      <c r="M49" s="201"/>
+      <c r="J49" s="200"/>
+      <c r="K49" s="201"/>
+      <c r="L49" s="201"/>
+      <c r="M49" s="202"/>
       <c r="N49" s="74"/>
       <c r="O49" s="74"/>
       <c r="P49" s="76"/>
@@ -11680,10 +11685,10 @@
       <c r="G50" s="63"/>
       <c r="H50" s="63"/>
       <c r="I50" s="40"/>
-      <c r="J50" s="199"/>
-      <c r="K50" s="200"/>
-      <c r="L50" s="200"/>
-      <c r="M50" s="201"/>
+      <c r="J50" s="200"/>
+      <c r="K50" s="201"/>
+      <c r="L50" s="201"/>
+      <c r="M50" s="202"/>
       <c r="N50" s="74"/>
       <c r="O50" s="74"/>
       <c r="P50" s="76"/>
@@ -11704,10 +11709,10 @@
       <c r="G51" s="63"/>
       <c r="H51" s="63"/>
       <c r="I51" s="40"/>
-      <c r="J51" s="199"/>
-      <c r="K51" s="200"/>
-      <c r="L51" s="200"/>
-      <c r="M51" s="201"/>
+      <c r="J51" s="200"/>
+      <c r="K51" s="201"/>
+      <c r="L51" s="201"/>
+      <c r="M51" s="202"/>
       <c r="N51" s="74"/>
       <c r="O51" s="74"/>
       <c r="P51" s="76"/>
@@ -11728,10 +11733,10 @@
       <c r="G52" s="63"/>
       <c r="H52" s="63"/>
       <c r="I52" s="40"/>
-      <c r="J52" s="199"/>
-      <c r="K52" s="200"/>
-      <c r="L52" s="200"/>
-      <c r="M52" s="201"/>
+      <c r="J52" s="200"/>
+      <c r="K52" s="201"/>
+      <c r="L52" s="201"/>
+      <c r="M52" s="202"/>
       <c r="N52" s="74"/>
       <c r="O52" s="74"/>
       <c r="P52" s="76"/>
@@ -11752,10 +11757,10 @@
       <c r="G53" s="63"/>
       <c r="H53" s="63"/>
       <c r="I53" s="40"/>
-      <c r="J53" s="199"/>
-      <c r="K53" s="200"/>
-      <c r="L53" s="200"/>
-      <c r="M53" s="201"/>
+      <c r="J53" s="200"/>
+      <c r="K53" s="201"/>
+      <c r="L53" s="201"/>
+      <c r="M53" s="202"/>
       <c r="N53" s="74"/>
       <c r="O53" s="74"/>
       <c r="P53" s="76"/>
@@ -11776,10 +11781,10 @@
       <c r="G54" s="63"/>
       <c r="H54" s="63"/>
       <c r="I54" s="40"/>
-      <c r="J54" s="199"/>
-      <c r="K54" s="200"/>
-      <c r="L54" s="200"/>
-      <c r="M54" s="201"/>
+      <c r="J54" s="200"/>
+      <c r="K54" s="201"/>
+      <c r="L54" s="201"/>
+      <c r="M54" s="202"/>
       <c r="N54" s="74"/>
       <c r="O54" s="74"/>
       <c r="P54" s="76"/>
@@ -11800,10 +11805,10 @@
       <c r="G55" s="63"/>
       <c r="H55" s="63"/>
       <c r="I55" s="40"/>
-      <c r="J55" s="199"/>
-      <c r="K55" s="200"/>
-      <c r="L55" s="200"/>
-      <c r="M55" s="201"/>
+      <c r="J55" s="200"/>
+      <c r="K55" s="201"/>
+      <c r="L55" s="201"/>
+      <c r="M55" s="202"/>
       <c r="N55" s="74"/>
       <c r="O55" s="74"/>
       <c r="P55" s="76"/>
@@ -11824,10 +11829,10 @@
       <c r="G56" s="63"/>
       <c r="H56" s="63"/>
       <c r="I56" s="40"/>
-      <c r="J56" s="199"/>
-      <c r="K56" s="200"/>
-      <c r="L56" s="200"/>
-      <c r="M56" s="201"/>
+      <c r="J56" s="200"/>
+      <c r="K56" s="201"/>
+      <c r="L56" s="201"/>
+      <c r="M56" s="202"/>
       <c r="N56" s="74"/>
       <c r="O56" s="74"/>
       <c r="P56" s="76"/>
@@ -11848,10 +11853,10 @@
       <c r="G57" s="63"/>
       <c r="H57" s="63"/>
       <c r="I57" s="40"/>
-      <c r="J57" s="199"/>
-      <c r="K57" s="200"/>
-      <c r="L57" s="200"/>
-      <c r="M57" s="201"/>
+      <c r="J57" s="200"/>
+      <c r="K57" s="201"/>
+      <c r="L57" s="201"/>
+      <c r="M57" s="202"/>
       <c r="N57" s="74"/>
       <c r="O57" s="74"/>
       <c r="P57" s="76"/>
@@ -11872,10 +11877,10 @@
       <c r="G58" s="63"/>
       <c r="H58" s="63"/>
       <c r="I58" s="40"/>
-      <c r="J58" s="199"/>
-      <c r="K58" s="200"/>
-      <c r="L58" s="200"/>
-      <c r="M58" s="201"/>
+      <c r="J58" s="200"/>
+      <c r="K58" s="201"/>
+      <c r="L58" s="201"/>
+      <c r="M58" s="202"/>
       <c r="N58" s="74"/>
       <c r="O58" s="74"/>
       <c r="P58" s="76"/>
@@ -11896,10 +11901,10 @@
       <c r="G59" s="63"/>
       <c r="H59" s="63"/>
       <c r="I59" s="40"/>
-      <c r="J59" s="199"/>
-      <c r="K59" s="200"/>
-      <c r="L59" s="200"/>
-      <c r="M59" s="201"/>
+      <c r="J59" s="200"/>
+      <c r="K59" s="201"/>
+      <c r="L59" s="201"/>
+      <c r="M59" s="202"/>
       <c r="N59" s="74"/>
       <c r="O59" s="74"/>
       <c r="P59" s="76"/>
@@ -11920,10 +11925,10 @@
       <c r="G60" s="63"/>
       <c r="H60" s="63"/>
       <c r="I60" s="40"/>
-      <c r="J60" s="199"/>
-      <c r="K60" s="200"/>
-      <c r="L60" s="200"/>
-      <c r="M60" s="201"/>
+      <c r="J60" s="200"/>
+      <c r="K60" s="201"/>
+      <c r="L60" s="201"/>
+      <c r="M60" s="202"/>
       <c r="N60" s="74"/>
       <c r="O60" s="74"/>
       <c r="P60" s="76"/>
@@ -11944,10 +11949,10 @@
       <c r="G61" s="63"/>
       <c r="H61" s="63"/>
       <c r="I61" s="40"/>
-      <c r="J61" s="199"/>
-      <c r="K61" s="200"/>
-      <c r="L61" s="200"/>
-      <c r="M61" s="201"/>
+      <c r="J61" s="200"/>
+      <c r="K61" s="201"/>
+      <c r="L61" s="201"/>
+      <c r="M61" s="202"/>
       <c r="N61" s="74"/>
       <c r="O61" s="74"/>
       <c r="P61" s="76"/>
@@ -11968,10 +11973,10 @@
       <c r="G62" s="63"/>
       <c r="H62" s="63"/>
       <c r="I62" s="40"/>
-      <c r="J62" s="199"/>
-      <c r="K62" s="200"/>
-      <c r="L62" s="200"/>
-      <c r="M62" s="201"/>
+      <c r="J62" s="200"/>
+      <c r="K62" s="201"/>
+      <c r="L62" s="201"/>
+      <c r="M62" s="202"/>
       <c r="N62" s="84"/>
       <c r="O62" s="84"/>
       <c r="P62" s="76"/>
@@ -11992,10 +11997,10 @@
       <c r="G63" s="63"/>
       <c r="H63" s="63"/>
       <c r="I63" s="40"/>
-      <c r="J63" s="199"/>
-      <c r="K63" s="200"/>
-      <c r="L63" s="200"/>
-      <c r="M63" s="201"/>
+      <c r="J63" s="200"/>
+      <c r="K63" s="201"/>
+      <c r="L63" s="201"/>
+      <c r="M63" s="202"/>
       <c r="N63" s="84"/>
       <c r="O63" s="84"/>
       <c r="P63" s="76"/>
@@ -12016,10 +12021,10 @@
       <c r="G64" s="63"/>
       <c r="H64" s="63"/>
       <c r="I64" s="40"/>
-      <c r="J64" s="199"/>
-      <c r="K64" s="200"/>
-      <c r="L64" s="200"/>
-      <c r="M64" s="201"/>
+      <c r="J64" s="200"/>
+      <c r="K64" s="201"/>
+      <c r="L64" s="201"/>
+      <c r="M64" s="202"/>
       <c r="N64" s="84"/>
       <c r="O64" s="84"/>
       <c r="P64" s="76"/>
@@ -12038,10 +12043,10 @@
       <c r="G65" s="63"/>
       <c r="H65" s="63"/>
       <c r="I65" s="40"/>
-      <c r="J65" s="199"/>
-      <c r="K65" s="200"/>
-      <c r="L65" s="200"/>
-      <c r="M65" s="201"/>
+      <c r="J65" s="200"/>
+      <c r="K65" s="201"/>
+      <c r="L65" s="201"/>
+      <c r="M65" s="202"/>
       <c r="N65" s="84"/>
       <c r="O65" s="84"/>
       <c r="P65" s="76"/>
@@ -12060,10 +12065,10 @@
       <c r="G66" s="63"/>
       <c r="H66" s="63"/>
       <c r="I66" s="40"/>
-      <c r="J66" s="199"/>
-      <c r="K66" s="200"/>
-      <c r="L66" s="200"/>
-      <c r="M66" s="201"/>
+      <c r="J66" s="200"/>
+      <c r="K66" s="201"/>
+      <c r="L66" s="201"/>
+      <c r="M66" s="202"/>
       <c r="N66" s="84"/>
       <c r="O66" s="84"/>
       <c r="P66" s="76"/>
@@ -12082,10 +12087,10 @@
       <c r="G67" s="63"/>
       <c r="H67" s="63"/>
       <c r="I67" s="40"/>
-      <c r="J67" s="199"/>
-      <c r="K67" s="200"/>
-      <c r="L67" s="200"/>
-      <c r="M67" s="201"/>
+      <c r="J67" s="200"/>
+      <c r="K67" s="201"/>
+      <c r="L67" s="201"/>
+      <c r="M67" s="202"/>
       <c r="N67" s="84"/>
       <c r="O67" s="84"/>
       <c r="P67" s="76"/>
@@ -12104,10 +12109,10 @@
       <c r="G68" s="63"/>
       <c r="H68" s="63"/>
       <c r="I68" s="40"/>
-      <c r="J68" s="199"/>
-      <c r="K68" s="200"/>
-      <c r="L68" s="200"/>
-      <c r="M68" s="201"/>
+      <c r="J68" s="200"/>
+      <c r="K68" s="201"/>
+      <c r="L68" s="201"/>
+      <c r="M68" s="202"/>
       <c r="N68" s="84"/>
       <c r="O68" s="84"/>
       <c r="P68" s="76"/>
@@ -12126,10 +12131,10 @@
       <c r="G69" s="63"/>
       <c r="H69" s="63"/>
       <c r="I69" s="40"/>
-      <c r="J69" s="199"/>
-      <c r="K69" s="200"/>
-      <c r="L69" s="200"/>
-      <c r="M69" s="201"/>
+      <c r="J69" s="200"/>
+      <c r="K69" s="201"/>
+      <c r="L69" s="201"/>
+      <c r="M69" s="202"/>
       <c r="N69" s="84"/>
       <c r="O69" s="84"/>
       <c r="P69" s="76"/>
@@ -12148,10 +12153,10 @@
       <c r="G70" s="63"/>
       <c r="H70" s="63"/>
       <c r="I70" s="40"/>
-      <c r="J70" s="199"/>
-      <c r="K70" s="200"/>
-      <c r="L70" s="200"/>
-      <c r="M70" s="201"/>
+      <c r="J70" s="200"/>
+      <c r="K70" s="201"/>
+      <c r="L70" s="201"/>
+      <c r="M70" s="202"/>
       <c r="N70" s="84"/>
       <c r="O70" s="84"/>
       <c r="P70" s="76"/>
@@ -12170,10 +12175,10 @@
       <c r="G71" s="63"/>
       <c r="H71" s="63"/>
       <c r="I71" s="40"/>
-      <c r="J71" s="199"/>
-      <c r="K71" s="200"/>
-      <c r="L71" s="200"/>
-      <c r="M71" s="201"/>
+      <c r="J71" s="200"/>
+      <c r="K71" s="201"/>
+      <c r="L71" s="201"/>
+      <c r="M71" s="202"/>
       <c r="N71" s="84"/>
       <c r="O71" s="84"/>
       <c r="P71" s="76"/>
@@ -12192,10 +12197,10 @@
       <c r="G72" s="63"/>
       <c r="H72" s="63"/>
       <c r="I72" s="40"/>
-      <c r="J72" s="199"/>
-      <c r="K72" s="200"/>
-      <c r="L72" s="200"/>
-      <c r="M72" s="201"/>
+      <c r="J72" s="200"/>
+      <c r="K72" s="201"/>
+      <c r="L72" s="201"/>
+      <c r="M72" s="202"/>
       <c r="N72" s="84"/>
       <c r="O72" s="84"/>
       <c r="P72" s="76"/>
@@ -12214,10 +12219,10 @@
       <c r="G73" s="63"/>
       <c r="H73" s="63"/>
       <c r="I73" s="40"/>
-      <c r="J73" s="199"/>
-      <c r="K73" s="200"/>
-      <c r="L73" s="200"/>
-      <c r="M73" s="201"/>
+      <c r="J73" s="200"/>
+      <c r="K73" s="201"/>
+      <c r="L73" s="201"/>
+      <c r="M73" s="202"/>
       <c r="N73" s="84"/>
       <c r="O73" s="84"/>
       <c r="P73" s="76"/>
@@ -12236,10 +12241,10 @@
       <c r="G74" s="63"/>
       <c r="H74" s="63"/>
       <c r="I74" s="40"/>
-      <c r="J74" s="199"/>
-      <c r="K74" s="200"/>
-      <c r="L74" s="200"/>
-      <c r="M74" s="201"/>
+      <c r="J74" s="200"/>
+      <c r="K74" s="201"/>
+      <c r="L74" s="201"/>
+      <c r="M74" s="202"/>
       <c r="N74" s="84"/>
       <c r="O74" s="84"/>
       <c r="P74" s="76"/>
@@ -12258,10 +12263,10 @@
       <c r="G75" s="63"/>
       <c r="H75" s="63"/>
       <c r="I75" s="40"/>
-      <c r="J75" s="199"/>
-      <c r="K75" s="200"/>
-      <c r="L75" s="200"/>
-      <c r="M75" s="201"/>
+      <c r="J75" s="200"/>
+      <c r="K75" s="201"/>
+      <c r="L75" s="201"/>
+      <c r="M75" s="202"/>
       <c r="N75" s="84"/>
       <c r="O75" s="84"/>
       <c r="P75" s="76"/>
@@ -12280,10 +12285,10 @@
       <c r="G76" s="63"/>
       <c r="H76" s="63"/>
       <c r="I76" s="40"/>
-      <c r="J76" s="199"/>
-      <c r="K76" s="200"/>
-      <c r="L76" s="200"/>
-      <c r="M76" s="201"/>
+      <c r="J76" s="200"/>
+      <c r="K76" s="201"/>
+      <c r="L76" s="201"/>
+      <c r="M76" s="202"/>
       <c r="N76" s="84"/>
       <c r="O76" s="84"/>
       <c r="P76" s="76"/>
@@ -12302,10 +12307,10 @@
       <c r="G77" s="63"/>
       <c r="H77" s="63"/>
       <c r="I77" s="40"/>
-      <c r="J77" s="199"/>
-      <c r="K77" s="200"/>
-      <c r="L77" s="200"/>
-      <c r="M77" s="201"/>
+      <c r="J77" s="200"/>
+      <c r="K77" s="201"/>
+      <c r="L77" s="201"/>
+      <c r="M77" s="202"/>
       <c r="N77" s="84"/>
       <c r="O77" s="84"/>
       <c r="P77" s="76"/>
@@ -12324,10 +12329,10 @@
       <c r="G78" s="63"/>
       <c r="H78" s="63"/>
       <c r="I78" s="40"/>
-      <c r="J78" s="199"/>
-      <c r="K78" s="200"/>
-      <c r="L78" s="200"/>
-      <c r="M78" s="201"/>
+      <c r="J78" s="200"/>
+      <c r="K78" s="201"/>
+      <c r="L78" s="201"/>
+      <c r="M78" s="202"/>
       <c r="N78" s="84"/>
       <c r="O78" s="84"/>
       <c r="P78" s="76"/>
@@ -12346,10 +12351,10 @@
       <c r="G79" s="63"/>
       <c r="H79" s="63"/>
       <c r="I79" s="40"/>
-      <c r="J79" s="199"/>
-      <c r="K79" s="200"/>
-      <c r="L79" s="200"/>
-      <c r="M79" s="201"/>
+      <c r="J79" s="200"/>
+      <c r="K79" s="201"/>
+      <c r="L79" s="201"/>
+      <c r="M79" s="202"/>
       <c r="N79" s="84"/>
       <c r="O79" s="84"/>
       <c r="P79" s="76"/>
@@ -12368,10 +12373,10 @@
       <c r="G80" s="63"/>
       <c r="H80" s="63"/>
       <c r="I80" s="40"/>
-      <c r="J80" s="199"/>
-      <c r="K80" s="200"/>
-      <c r="L80" s="200"/>
-      <c r="M80" s="201"/>
+      <c r="J80" s="200"/>
+      <c r="K80" s="201"/>
+      <c r="L80" s="201"/>
+      <c r="M80" s="202"/>
       <c r="N80" s="84"/>
       <c r="O80" s="84"/>
       <c r="P80" s="76"/>
@@ -12390,10 +12395,10 @@
       <c r="G81" s="63"/>
       <c r="H81" s="63"/>
       <c r="I81" s="40"/>
-      <c r="J81" s="199"/>
-      <c r="K81" s="200"/>
-      <c r="L81" s="200"/>
-      <c r="M81" s="201"/>
+      <c r="J81" s="200"/>
+      <c r="K81" s="201"/>
+      <c r="L81" s="201"/>
+      <c r="M81" s="202"/>
       <c r="N81" s="84"/>
       <c r="O81" s="84"/>
       <c r="P81" s="76"/>
@@ -12412,10 +12417,10 @@
       <c r="G82" s="63"/>
       <c r="H82" s="63"/>
       <c r="I82" s="40"/>
-      <c r="J82" s="199"/>
-      <c r="K82" s="200"/>
-      <c r="L82" s="200"/>
-      <c r="M82" s="201"/>
+      <c r="J82" s="200"/>
+      <c r="K82" s="201"/>
+      <c r="L82" s="201"/>
+      <c r="M82" s="202"/>
       <c r="N82" s="84"/>
       <c r="O82" s="84"/>
       <c r="P82" s="76"/>
@@ -12434,10 +12439,10 @@
       <c r="G83" s="63"/>
       <c r="H83" s="63"/>
       <c r="I83" s="40"/>
-      <c r="J83" s="199"/>
-      <c r="K83" s="200"/>
-      <c r="L83" s="200"/>
-      <c r="M83" s="201"/>
+      <c r="J83" s="200"/>
+      <c r="K83" s="201"/>
+      <c r="L83" s="201"/>
+      <c r="M83" s="202"/>
       <c r="N83" s="84"/>
       <c r="O83" s="84"/>
       <c r="P83" s="76"/>
@@ -12456,10 +12461,10 @@
       <c r="G84" s="63"/>
       <c r="H84" s="63"/>
       <c r="I84" s="40"/>
-      <c r="J84" s="199"/>
-      <c r="K84" s="200"/>
-      <c r="L84" s="200"/>
-      <c r="M84" s="201"/>
+      <c r="J84" s="200"/>
+      <c r="K84" s="201"/>
+      <c r="L84" s="201"/>
+      <c r="M84" s="202"/>
       <c r="N84" s="84"/>
       <c r="O84" s="84"/>
       <c r="P84" s="76"/>
@@ -12478,10 +12483,10 @@
       <c r="G85" s="63"/>
       <c r="H85" s="63"/>
       <c r="I85" s="40"/>
-      <c r="J85" s="199"/>
-      <c r="K85" s="200"/>
-      <c r="L85" s="200"/>
-      <c r="M85" s="201"/>
+      <c r="J85" s="200"/>
+      <c r="K85" s="201"/>
+      <c r="L85" s="201"/>
+      <c r="M85" s="202"/>
       <c r="N85" s="84"/>
       <c r="O85" s="84"/>
       <c r="P85" s="76"/>
@@ -12500,10 +12505,10 @@
       <c r="G86" s="63"/>
       <c r="H86" s="63"/>
       <c r="I86" s="40"/>
-      <c r="J86" s="199"/>
-      <c r="K86" s="200"/>
-      <c r="L86" s="200"/>
-      <c r="M86" s="201"/>
+      <c r="J86" s="200"/>
+      <c r="K86" s="201"/>
+      <c r="L86" s="201"/>
+      <c r="M86" s="202"/>
       <c r="N86" s="84"/>
       <c r="O86" s="84"/>
       <c r="P86" s="76"/>
@@ -12522,10 +12527,10 @@
       <c r="G87" s="63"/>
       <c r="H87" s="63"/>
       <c r="I87" s="40"/>
-      <c r="J87" s="199"/>
-      <c r="K87" s="200"/>
-      <c r="L87" s="200"/>
-      <c r="M87" s="201"/>
+      <c r="J87" s="200"/>
+      <c r="K87" s="201"/>
+      <c r="L87" s="201"/>
+      <c r="M87" s="202"/>
       <c r="N87" s="84"/>
       <c r="O87" s="84"/>
       <c r="P87" s="76"/>
@@ -12544,10 +12549,10 @@
       <c r="G88" s="63"/>
       <c r="H88" s="63"/>
       <c r="I88" s="40"/>
-      <c r="J88" s="199"/>
-      <c r="K88" s="200"/>
-      <c r="L88" s="200"/>
-      <c r="M88" s="201"/>
+      <c r="J88" s="200"/>
+      <c r="K88" s="201"/>
+      <c r="L88" s="201"/>
+      <c r="M88" s="202"/>
       <c r="N88" s="84"/>
       <c r="O88" s="84"/>
       <c r="P88" s="76"/>
@@ -12566,10 +12571,10 @@
       <c r="G89" s="63"/>
       <c r="H89" s="63"/>
       <c r="I89" s="40"/>
-      <c r="J89" s="199"/>
-      <c r="K89" s="200"/>
-      <c r="L89" s="200"/>
-      <c r="M89" s="201"/>
+      <c r="J89" s="200"/>
+      <c r="K89" s="201"/>
+      <c r="L89" s="201"/>
+      <c r="M89" s="202"/>
       <c r="N89" s="84"/>
       <c r="O89" s="84"/>
       <c r="P89" s="76"/>
@@ -12588,10 +12593,10 @@
       <c r="G90" s="63"/>
       <c r="H90" s="63"/>
       <c r="I90" s="40"/>
-      <c r="J90" s="199"/>
-      <c r="K90" s="200"/>
-      <c r="L90" s="200"/>
-      <c r="M90" s="201"/>
+      <c r="J90" s="200"/>
+      <c r="K90" s="201"/>
+      <c r="L90" s="201"/>
+      <c r="M90" s="202"/>
       <c r="N90" s="84"/>
       <c r="O90" s="84"/>
       <c r="P90" s="76"/>
@@ -12610,10 +12615,10 @@
       <c r="G91" s="63"/>
       <c r="H91" s="63"/>
       <c r="I91" s="40"/>
-      <c r="J91" s="199"/>
-      <c r="K91" s="200"/>
-      <c r="L91" s="200"/>
-      <c r="M91" s="201"/>
+      <c r="J91" s="200"/>
+      <c r="K91" s="201"/>
+      <c r="L91" s="201"/>
+      <c r="M91" s="202"/>
       <c r="N91" s="84"/>
       <c r="O91" s="84"/>
       <c r="P91" s="76"/>
@@ -12632,10 +12637,10 @@
       <c r="G92" s="63"/>
       <c r="H92" s="63"/>
       <c r="I92" s="40"/>
-      <c r="J92" s="199"/>
-      <c r="K92" s="200"/>
-      <c r="L92" s="200"/>
-      <c r="M92" s="201"/>
+      <c r="J92" s="200"/>
+      <c r="K92" s="201"/>
+      <c r="L92" s="201"/>
+      <c r="M92" s="202"/>
       <c r="N92" s="84"/>
       <c r="O92" s="84"/>
       <c r="P92" s="76"/>
@@ -12654,10 +12659,10 @@
       <c r="G93" s="63"/>
       <c r="H93" s="63"/>
       <c r="I93" s="40"/>
-      <c r="J93" s="199"/>
-      <c r="K93" s="200"/>
-      <c r="L93" s="200"/>
-      <c r="M93" s="201"/>
+      <c r="J93" s="200"/>
+      <c r="K93" s="201"/>
+      <c r="L93" s="201"/>
+      <c r="M93" s="202"/>
       <c r="N93" s="84"/>
       <c r="O93" s="84"/>
       <c r="P93" s="76"/>
@@ -12676,10 +12681,10 @@
       <c r="G94" s="63"/>
       <c r="H94" s="63"/>
       <c r="I94" s="40"/>
-      <c r="J94" s="199"/>
-      <c r="K94" s="200"/>
-      <c r="L94" s="200"/>
-      <c r="M94" s="201"/>
+      <c r="J94" s="200"/>
+      <c r="K94" s="201"/>
+      <c r="L94" s="201"/>
+      <c r="M94" s="202"/>
       <c r="N94" s="84"/>
       <c r="O94" s="84"/>
       <c r="P94" s="76"/>
@@ -12814,7 +12819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
@@ -12831,10 +12836,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12864,8 +12869,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13051,7 +13056,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -13122,7 +13127,7 @@
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="B23" s="80"/>
       <c r="C23" s="43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -13160,10 +13165,10 @@
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="73" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -13177,7 +13182,7 @@
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="86" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="43"/>
@@ -13447,7 +13452,7 @@
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="A49" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B49" s="80"/>
       <c r="C49" s="86"/>
@@ -13946,10 +13951,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13977,8 +13982,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Thong ke thoi gian giao hang/CRMF3030_Thong ke thoi gian giao hang.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Thong ke thoi gian giao hang/CRMF3030_Thong ke thoi gian giao hang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <definedName name="OLE_LINK1" localSheetId="10">'Code Standar'!$B$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$Q$58</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$R$94</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$S$94</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$J$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
@@ -513,7 +513,7 @@
     <author>Le Thi Thu Hien</author>
   </authors>
   <commentList>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -526,7 +526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -550,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="1" shapeId="0">
+    <comment ref="D4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -564,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -577,7 +577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -590,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -603,7 +603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -629,7 +629,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -646,7 +646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -659,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="1" shapeId="0">
+    <comment ref="K4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -673,7 +673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -765,7 +765,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0">
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -800,7 +800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="1" shapeId="0">
+    <comment ref="N4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -816,7 +816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="O4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1026,7 +1026,7 @@
     <author>Le Thi Thu Hien</author>
   </authors>
   <commentList>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1039,7 +1039,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="Q2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1063,7 +1063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1080,7 +1080,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1095,7 +1095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1113,7 +1113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1127,7 +1127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="O4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1141,7 +1141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0" shapeId="0">
+    <comment ref="P4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1155,7 +1155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="1" shapeId="0">
+    <comment ref="R4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1575,7 +1575,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="229">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2927,7 +2927,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3269,9 +3269,30 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3317,23 +3338,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3374,9 +3380,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3438,6 +3441,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3445,18 +3460,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4407,65 +4410,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="142"/>
-      <c r="B1" s="142"/>
-      <c r="C1" s="144" t="s">
+      <c r="A1" s="149"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="143" t="s">
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="150" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143" t="s">
+      <c r="H1" s="150"/>
+      <c r="I1" s="150" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="143"/>
+      <c r="J1" s="150"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="143" t="s">
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="150" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="142"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="139" t="s">
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="146" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="140"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="140"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="147"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="116"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="141"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
+      <c r="A13" s="148"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="148"/>
       <c r="K13" s="117"/>
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
@@ -4476,56 +4479,56 @@
       <c r="R13" s="117"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="137"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="137"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="142"/>
+      <c r="R14" s="142"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="137"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="142"/>
+      <c r="P15" s="142"/>
+      <c r="Q15" s="142"/>
+      <c r="R15" s="142"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="138" t="s">
+      <c r="A16" s="145" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
       <c r="K16" s="118"/>
       <c r="L16" s="118"/>
       <c r="M16" s="118"/>
@@ -4536,384 +4539,384 @@
       <c r="R16" s="118"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="137"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="142"/>
+      <c r="O17" s="142"/>
+      <c r="P17" s="142"/>
+      <c r="Q17" s="142"/>
+      <c r="R17" s="142"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="137"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="142"/>
+      <c r="Q18" s="142"/>
+      <c r="R18" s="142"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="154"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="144"/>
+      <c r="O19" s="144"/>
+      <c r="P19" s="144"/>
+      <c r="Q19" s="144"/>
+      <c r="R19" s="144"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="137"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="137"/>
-      <c r="R20" s="137"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="142"/>
+      <c r="R20" s="142"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="137"/>
-      <c r="Q21" s="137"/>
-      <c r="R21" s="137"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="142"/>
+      <c r="P21" s="142"/>
+      <c r="Q21" s="142"/>
+      <c r="R21" s="142"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="153"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="153"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="143"/>
+      <c r="P22" s="143"/>
+      <c r="Q22" s="143"/>
+      <c r="R22" s="143"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="153"/>
-      <c r="C23" s="153"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="143"/>
+      <c r="Q23" s="143"/>
+      <c r="R23" s="143"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="155"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="140"/>
+      <c r="N26" s="140"/>
+      <c r="O26" s="140"/>
+      <c r="P26" s="140"/>
+      <c r="Q26" s="140"/>
+      <c r="R26" s="140"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="157"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="157"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="157"/>
-      <c r="O28" s="157"/>
-      <c r="P28" s="157"/>
-      <c r="Q28" s="157"/>
-      <c r="R28" s="157"/>
-      <c r="S28" s="156"/>
-      <c r="T28" s="156"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="156"/>
-      <c r="W28" s="156"/>
-      <c r="X28" s="156"/>
-      <c r="Y28" s="156"/>
-      <c r="Z28" s="156"/>
-      <c r="AA28" s="156"/>
-      <c r="AB28" s="156"/>
-      <c r="AC28" s="156"/>
-      <c r="AD28" s="156"/>
-      <c r="AE28" s="156"/>
-      <c r="AF28" s="156"/>
-      <c r="AG28" s="156"/>
-      <c r="AH28" s="156"/>
-      <c r="AI28" s="156"/>
-      <c r="AJ28" s="156"/>
-      <c r="AK28" s="156"/>
-      <c r="AL28" s="156"/>
-      <c r="AM28" s="156"/>
-      <c r="AN28" s="156"/>
-      <c r="AO28" s="156"/>
-      <c r="AP28" s="156"/>
-      <c r="AQ28" s="156"/>
-      <c r="AR28" s="156"/>
-      <c r="AS28" s="156"/>
-      <c r="AT28" s="156"/>
-      <c r="AU28" s="156"/>
-      <c r="AV28" s="156"/>
-      <c r="AW28" s="156"/>
-      <c r="AX28" s="156"/>
-      <c r="AY28" s="156"/>
-      <c r="AZ28" s="156"/>
-      <c r="BA28" s="156"/>
-      <c r="BB28" s="156"/>
-      <c r="BC28" s="156"/>
-      <c r="BD28" s="156"/>
-      <c r="BE28" s="156"/>
-      <c r="BF28" s="156"/>
-      <c r="BG28" s="156"/>
-      <c r="BH28" s="156"/>
-      <c r="BI28" s="156"/>
-      <c r="BJ28" s="156"/>
-      <c r="BK28" s="156"/>
-      <c r="BL28" s="156"/>
-      <c r="BM28" s="156"/>
-      <c r="BN28" s="156"/>
-      <c r="BO28" s="156"/>
-      <c r="BP28" s="156"/>
-      <c r="BQ28" s="156"/>
-      <c r="BR28" s="156"/>
-      <c r="BS28" s="156"/>
-      <c r="BT28" s="156"/>
-      <c r="BU28" s="156"/>
-      <c r="BV28" s="156"/>
-      <c r="BW28" s="156"/>
-      <c r="BX28" s="156"/>
-      <c r="BY28" s="156"/>
-      <c r="BZ28" s="156"/>
-      <c r="CA28" s="156"/>
-      <c r="CB28" s="156"/>
-      <c r="CC28" s="156"/>
-      <c r="CD28" s="156"/>
-      <c r="CE28" s="156"/>
-      <c r="CF28" s="156"/>
-      <c r="CG28" s="156"/>
-      <c r="CH28" s="156"/>
-      <c r="CI28" s="156"/>
-      <c r="CJ28" s="156"/>
-      <c r="CK28" s="156"/>
-      <c r="CL28" s="156"/>
-      <c r="CM28" s="156"/>
-      <c r="CN28" s="156"/>
-      <c r="CO28" s="156"/>
-      <c r="CP28" s="156"/>
-      <c r="CQ28" s="156"/>
-      <c r="CR28" s="156"/>
-      <c r="CS28" s="156"/>
-      <c r="CT28" s="156"/>
-      <c r="CU28" s="156"/>
-      <c r="CV28" s="156"/>
-      <c r="CW28" s="156"/>
-      <c r="CX28" s="156"/>
-      <c r="CY28" s="156"/>
-      <c r="CZ28" s="156"/>
-      <c r="DA28" s="156"/>
-      <c r="DB28" s="156"/>
-      <c r="DC28" s="156"/>
-      <c r="DD28" s="156"/>
-      <c r="DE28" s="156"/>
-      <c r="DF28" s="156"/>
-      <c r="DG28" s="156"/>
-      <c r="DH28" s="156"/>
-      <c r="DI28" s="156"/>
-      <c r="DJ28" s="156"/>
-      <c r="DK28" s="156"/>
-      <c r="DL28" s="156"/>
-      <c r="DM28" s="156"/>
-      <c r="DN28" s="156"/>
-      <c r="DO28" s="156"/>
-      <c r="DP28" s="156"/>
-      <c r="DQ28" s="156"/>
-      <c r="DR28" s="156"/>
-      <c r="DS28" s="156"/>
-      <c r="DT28" s="156"/>
-      <c r="DU28" s="156"/>
-      <c r="DV28" s="156"/>
-      <c r="DW28" s="156"/>
-      <c r="DX28" s="156"/>
-      <c r="DY28" s="156"/>
-      <c r="DZ28" s="156"/>
-      <c r="EA28" s="156"/>
-      <c r="EB28" s="156"/>
-      <c r="EC28" s="156"/>
-      <c r="ED28" s="156"/>
-      <c r="EE28" s="156"/>
-      <c r="EF28" s="156"/>
-      <c r="EG28" s="156"/>
-      <c r="EH28" s="156"/>
-      <c r="EI28" s="156"/>
-      <c r="EJ28" s="156"/>
-      <c r="EK28" s="156"/>
-      <c r="EL28" s="156"/>
-      <c r="EM28" s="156"/>
-      <c r="EN28" s="156"/>
-      <c r="EO28" s="156"/>
-      <c r="EP28" s="156"/>
-      <c r="EQ28" s="156"/>
-      <c r="ER28" s="156"/>
-      <c r="ES28" s="156"/>
-      <c r="ET28" s="156"/>
-      <c r="EU28" s="156"/>
-      <c r="EV28" s="156"/>
-      <c r="EW28" s="156"/>
-      <c r="EX28" s="156"/>
-      <c r="EY28" s="156"/>
-      <c r="EZ28" s="156"/>
-      <c r="FA28" s="156"/>
-      <c r="FB28" s="156"/>
-      <c r="FC28" s="156"/>
-      <c r="FD28" s="156"/>
-      <c r="FE28" s="156"/>
-      <c r="FF28" s="156"/>
-      <c r="FG28" s="156"/>
-      <c r="FH28" s="156"/>
-      <c r="FI28" s="156"/>
-      <c r="FJ28" s="156"/>
-      <c r="FK28" s="156"/>
-      <c r="FL28" s="156"/>
-      <c r="FM28" s="156"/>
-      <c r="FN28" s="156"/>
-      <c r="FO28" s="156"/>
-      <c r="FP28" s="156"/>
-      <c r="FQ28" s="156"/>
-      <c r="FR28" s="156"/>
-      <c r="FS28" s="156"/>
-      <c r="FT28" s="156"/>
-      <c r="FU28" s="156"/>
-      <c r="FV28" s="156"/>
-      <c r="FW28" s="156"/>
-      <c r="FX28" s="156"/>
-      <c r="FY28" s="156"/>
-      <c r="FZ28" s="156"/>
-      <c r="GA28" s="156"/>
-      <c r="GB28" s="156"/>
-      <c r="GC28" s="156"/>
-      <c r="GD28" s="156"/>
-      <c r="GE28" s="156"/>
-      <c r="GF28" s="156"/>
-      <c r="GG28" s="156"/>
-      <c r="GH28" s="156"/>
-      <c r="GI28" s="156"/>
-      <c r="GJ28" s="156"/>
-      <c r="GK28" s="156"/>
-      <c r="GL28" s="156"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="141"/>
+      <c r="P28" s="141"/>
+      <c r="Q28" s="141"/>
+      <c r="R28" s="141"/>
+      <c r="S28" s="139"/>
+      <c r="T28" s="139"/>
+      <c r="U28" s="139"/>
+      <c r="V28" s="139"/>
+      <c r="W28" s="139"/>
+      <c r="X28" s="139"/>
+      <c r="Y28" s="139"/>
+      <c r="Z28" s="139"/>
+      <c r="AA28" s="139"/>
+      <c r="AB28" s="139"/>
+      <c r="AC28" s="139"/>
+      <c r="AD28" s="139"/>
+      <c r="AE28" s="139"/>
+      <c r="AF28" s="139"/>
+      <c r="AG28" s="139"/>
+      <c r="AH28" s="139"/>
+      <c r="AI28" s="139"/>
+      <c r="AJ28" s="139"/>
+      <c r="AK28" s="139"/>
+      <c r="AL28" s="139"/>
+      <c r="AM28" s="139"/>
+      <c r="AN28" s="139"/>
+      <c r="AO28" s="139"/>
+      <c r="AP28" s="139"/>
+      <c r="AQ28" s="139"/>
+      <c r="AR28" s="139"/>
+      <c r="AS28" s="139"/>
+      <c r="AT28" s="139"/>
+      <c r="AU28" s="139"/>
+      <c r="AV28" s="139"/>
+      <c r="AW28" s="139"/>
+      <c r="AX28" s="139"/>
+      <c r="AY28" s="139"/>
+      <c r="AZ28" s="139"/>
+      <c r="BA28" s="139"/>
+      <c r="BB28" s="139"/>
+      <c r="BC28" s="139"/>
+      <c r="BD28" s="139"/>
+      <c r="BE28" s="139"/>
+      <c r="BF28" s="139"/>
+      <c r="BG28" s="139"/>
+      <c r="BH28" s="139"/>
+      <c r="BI28" s="139"/>
+      <c r="BJ28" s="139"/>
+      <c r="BK28" s="139"/>
+      <c r="BL28" s="139"/>
+      <c r="BM28" s="139"/>
+      <c r="BN28" s="139"/>
+      <c r="BO28" s="139"/>
+      <c r="BP28" s="139"/>
+      <c r="BQ28" s="139"/>
+      <c r="BR28" s="139"/>
+      <c r="BS28" s="139"/>
+      <c r="BT28" s="139"/>
+      <c r="BU28" s="139"/>
+      <c r="BV28" s="139"/>
+      <c r="BW28" s="139"/>
+      <c r="BX28" s="139"/>
+      <c r="BY28" s="139"/>
+      <c r="BZ28" s="139"/>
+      <c r="CA28" s="139"/>
+      <c r="CB28" s="139"/>
+      <c r="CC28" s="139"/>
+      <c r="CD28" s="139"/>
+      <c r="CE28" s="139"/>
+      <c r="CF28" s="139"/>
+      <c r="CG28" s="139"/>
+      <c r="CH28" s="139"/>
+      <c r="CI28" s="139"/>
+      <c r="CJ28" s="139"/>
+      <c r="CK28" s="139"/>
+      <c r="CL28" s="139"/>
+      <c r="CM28" s="139"/>
+      <c r="CN28" s="139"/>
+      <c r="CO28" s="139"/>
+      <c r="CP28" s="139"/>
+      <c r="CQ28" s="139"/>
+      <c r="CR28" s="139"/>
+      <c r="CS28" s="139"/>
+      <c r="CT28" s="139"/>
+      <c r="CU28" s="139"/>
+      <c r="CV28" s="139"/>
+      <c r="CW28" s="139"/>
+      <c r="CX28" s="139"/>
+      <c r="CY28" s="139"/>
+      <c r="CZ28" s="139"/>
+      <c r="DA28" s="139"/>
+      <c r="DB28" s="139"/>
+      <c r="DC28" s="139"/>
+      <c r="DD28" s="139"/>
+      <c r="DE28" s="139"/>
+      <c r="DF28" s="139"/>
+      <c r="DG28" s="139"/>
+      <c r="DH28" s="139"/>
+      <c r="DI28" s="139"/>
+      <c r="DJ28" s="139"/>
+      <c r="DK28" s="139"/>
+      <c r="DL28" s="139"/>
+      <c r="DM28" s="139"/>
+      <c r="DN28" s="139"/>
+      <c r="DO28" s="139"/>
+      <c r="DP28" s="139"/>
+      <c r="DQ28" s="139"/>
+      <c r="DR28" s="139"/>
+      <c r="DS28" s="139"/>
+      <c r="DT28" s="139"/>
+      <c r="DU28" s="139"/>
+      <c r="DV28" s="139"/>
+      <c r="DW28" s="139"/>
+      <c r="DX28" s="139"/>
+      <c r="DY28" s="139"/>
+      <c r="DZ28" s="139"/>
+      <c r="EA28" s="139"/>
+      <c r="EB28" s="139"/>
+      <c r="EC28" s="139"/>
+      <c r="ED28" s="139"/>
+      <c r="EE28" s="139"/>
+      <c r="EF28" s="139"/>
+      <c r="EG28" s="139"/>
+      <c r="EH28" s="139"/>
+      <c r="EI28" s="139"/>
+      <c r="EJ28" s="139"/>
+      <c r="EK28" s="139"/>
+      <c r="EL28" s="139"/>
+      <c r="EM28" s="139"/>
+      <c r="EN28" s="139"/>
+      <c r="EO28" s="139"/>
+      <c r="EP28" s="139"/>
+      <c r="EQ28" s="139"/>
+      <c r="ER28" s="139"/>
+      <c r="ES28" s="139"/>
+      <c r="ET28" s="139"/>
+      <c r="EU28" s="139"/>
+      <c r="EV28" s="139"/>
+      <c r="EW28" s="139"/>
+      <c r="EX28" s="139"/>
+      <c r="EY28" s="139"/>
+      <c r="EZ28" s="139"/>
+      <c r="FA28" s="139"/>
+      <c r="FB28" s="139"/>
+      <c r="FC28" s="139"/>
+      <c r="FD28" s="139"/>
+      <c r="FE28" s="139"/>
+      <c r="FF28" s="139"/>
+      <c r="FG28" s="139"/>
+      <c r="FH28" s="139"/>
+      <c r="FI28" s="139"/>
+      <c r="FJ28" s="139"/>
+      <c r="FK28" s="139"/>
+      <c r="FL28" s="139"/>
+      <c r="FM28" s="139"/>
+      <c r="FN28" s="139"/>
+      <c r="FO28" s="139"/>
+      <c r="FP28" s="139"/>
+      <c r="FQ28" s="139"/>
+      <c r="FR28" s="139"/>
+      <c r="FS28" s="139"/>
+      <c r="FT28" s="139"/>
+      <c r="FU28" s="139"/>
+      <c r="FV28" s="139"/>
+      <c r="FW28" s="139"/>
+      <c r="FX28" s="139"/>
+      <c r="FY28" s="139"/>
+      <c r="FZ28" s="139"/>
+      <c r="GA28" s="139"/>
+      <c r="GB28" s="139"/>
+      <c r="GC28" s="139"/>
+      <c r="GD28" s="139"/>
+      <c r="GE28" s="139"/>
+      <c r="GF28" s="139"/>
+      <c r="GG28" s="139"/>
+      <c r="GH28" s="139"/>
+      <c r="GI28" s="139"/>
+      <c r="GJ28" s="139"/>
+      <c r="GK28" s="139"/>
+      <c r="GL28" s="139"/>
       <c r="GM28" s="119"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="155"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="155"/>
-      <c r="P29" s="155"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="155"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="140"/>
+      <c r="N29" s="140"/>
+      <c r="O29" s="140"/>
+      <c r="P29" s="140"/>
+      <c r="Q29" s="140"/>
+      <c r="R29" s="140"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="158"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
+      <c r="A30" s="138"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="138"/>
       <c r="K30" s="120"/>
       <c r="L30" s="120"/>
       <c r="M30" s="120"/>
@@ -4924,16 +4927,16 @@
       <c r="R30" s="120"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="158"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
+      <c r="A31" s="138"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="138"/>
       <c r="K31" s="120"/>
       <c r="L31" s="120"/>
       <c r="M31" s="120"/>
@@ -4945,28 +4948,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4980,6 +4961,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5006,14 +5009,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="204" t="s">
+      <c r="B1" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5206,11 +5209,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="205" t="s">
+      <c r="E27" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="206"/>
-      <c r="G27" s="207"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="208"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5534,10 +5537,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5564,8 +5567,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5604,14 +5607,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="127">
@@ -5626,14 +5629,14 @@
       <c r="D5" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="167" t="s">
+      <c r="E5" s="169" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="90">
@@ -5644,12 +5647,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="173"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="91">
@@ -5660,12 +5663,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="163"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="92">
@@ -5676,12 +5679,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="166"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="93">
@@ -5692,12 +5695,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="163"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="94">
@@ -5708,12 +5711,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="163"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="95">
@@ -5724,12 +5727,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="163"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="96">
@@ -5740,12 +5743,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="163"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="97">
@@ -5756,12 +5759,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="161"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="163"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="98">
@@ -5772,12 +5775,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="163"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5788,12 +5791,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="90">
@@ -5804,12 +5807,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="91">
@@ -5820,12 +5823,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="160"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="92">
@@ -5836,12 +5839,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="93">
@@ -5852,12 +5855,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="172"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="94">
@@ -5868,12 +5871,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="172"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="95">
@@ -5884,12 +5887,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="172"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="96">
@@ -5900,12 +5903,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="172"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="160"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="97">
@@ -5916,12 +5919,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="172"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="98">
@@ -5932,12 +5935,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="160"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5948,12 +5951,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="172"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="160"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5964,12 +5967,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="172"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="90">
@@ -5980,12 +5983,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="172"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="91">
@@ -5996,12 +5999,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="172"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="92">
@@ -6012,12 +6015,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="93">
@@ -6028,12 +6031,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="172"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="160"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="94">
@@ -6044,12 +6047,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="172"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="95">
@@ -6060,12 +6063,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="172"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="172"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="96">
@@ -6076,12 +6079,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="172"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="160"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="97">
@@ -6092,12 +6095,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="172"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="98">
@@ -6108,12 +6111,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6124,12 +6127,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="172"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="160"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="90">
@@ -6140,12 +6143,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="172"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="160"/>
+      <c r="I37" s="160"/>
+      <c r="J37" s="160"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="91">
@@ -6156,12 +6159,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="172"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="160"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="92">
@@ -6172,12 +6175,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="172"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="172"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="160"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="93">
@@ -6188,12 +6191,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="172"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="172"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="160"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="94">
@@ -6204,12 +6207,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="172"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="172"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="160"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="95">
@@ -6220,32 +6223,23 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="172"/>
-      <c r="F42" s="172"/>
-      <c r="G42" s="172"/>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="172"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6261,14 +6255,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6313,10 +6316,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6346,8 +6349,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6377,20 +6380,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="173" t="s">
+      <c r="A4" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="173" t="s">
+      <c r="B4" s="176"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="174"/>
+      <c r="J4" s="175"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6401,10 +6404,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="182" t="s">
+      <c r="I5" s="183" t="s">
         <v>193</v>
       </c>
-      <c r="J5" s="183"/>
+      <c r="J5" s="184"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6415,8 +6418,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="184"/>
-      <c r="J6" s="185"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="186"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6427,8 +6430,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="184"/>
-      <c r="J7" s="185"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="186"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6439,8 +6442,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="185"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="186"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6451,8 +6454,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="185"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="186"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6463,8 +6466,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="187"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="188"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6475,10 +6478,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="173" t="s">
+      <c r="I11" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="174"/>
+      <c r="J11" s="175"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6489,10 +6492,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="176" t="s">
+      <c r="I12" s="177" t="s">
         <v>212</v>
       </c>
-      <c r="J12" s="177"/>
+      <c r="J12" s="178"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6503,8 +6506,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="179"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="180"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6515,8 +6518,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="179"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="180"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6527,8 +6530,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="180"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6539,8 +6542,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="179"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="180"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6551,8 +6554,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="179"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="180"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6563,8 +6566,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="179"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="180"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6575,8 +6578,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="179"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="180"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6587,8 +6590,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="179"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="180"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6599,8 +6602,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="179"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="180"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6611,8 +6614,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="179"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="180"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6623,8 +6626,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="179"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="180"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6635,8 +6638,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="179"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="180"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6647,8 +6650,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="179"/>
+      <c r="I25" s="179"/>
+      <c r="J25" s="180"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6659,8 +6662,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="179"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="180"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6671,8 +6674,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="179"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="180"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6683,8 +6686,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="179"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="180"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6695,8 +6698,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="179"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="180"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6707,8 +6710,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="179"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="180"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6719,8 +6722,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="179"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="180"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6731,8 +6734,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="179"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="180"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6743,8 +6746,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="179"/>
+      <c r="I33" s="179"/>
+      <c r="J33" s="180"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6755,8 +6758,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="179"/>
+      <c r="I34" s="179"/>
+      <c r="J34" s="180"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6767,8 +6770,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="178"/>
-      <c r="J35" s="179"/>
+      <c r="I35" s="179"/>
+      <c r="J35" s="180"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6779,8 +6782,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="179"/>
+      <c r="I36" s="179"/>
+      <c r="J36" s="180"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6791,8 +6794,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="178"/>
-      <c r="J37" s="179"/>
+      <c r="I37" s="179"/>
+      <c r="J37" s="180"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6803,8 +6806,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="178"/>
-      <c r="J38" s="179"/>
+      <c r="I38" s="179"/>
+      <c r="J38" s="180"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6815,8 +6818,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="178"/>
-      <c r="J39" s="179"/>
+      <c r="I39" s="179"/>
+      <c r="J39" s="180"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6827,8 +6830,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="178"/>
-      <c r="J40" s="179"/>
+      <c r="I40" s="179"/>
+      <c r="J40" s="180"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6839,8 +6842,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="178"/>
-      <c r="J41" s="179"/>
+      <c r="I41" s="179"/>
+      <c r="J41" s="180"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6851,8 +6854,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="178"/>
-      <c r="J42" s="179"/>
+      <c r="I42" s="179"/>
+      <c r="J42" s="180"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6863,8 +6866,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="180"/>
-      <c r="J43" s="181"/>
+      <c r="I43" s="181"/>
+      <c r="J43" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6892,156 +6895,162 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="22" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="23" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="23" customWidth="1"/>
-    <col min="14" max="14" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" style="22" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="22"/>
+    <col min="3" max="3" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="23" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="23" customWidth="1"/>
+    <col min="15" max="15" width="12" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" style="22" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+    <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="27" t="str">
+      <c r="G1" s="27" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="188" t="s">
+      <c r="H1" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="189"/>
-      <c r="I1" s="190" t="s">
+      <c r="I1" s="190"/>
+      <c r="J1" s="191" t="s">
         <v>205</v>
       </c>
-      <c r="J1" s="191"/>
       <c r="K1" s="192"/>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="193"/>
+      <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="29" t="str">
+      <c r="N1" s="29" t="str">
         <f>'Update History'!H1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="67" t="s">
+      <c r="P1" s="67" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="30" t="s">
+    <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="27" t="str">
+      <c r="G2" s="27" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="G2" s="188" t="s">
+      <c r="H2" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="189"/>
-      <c r="I2" s="190" t="str">
+      <c r="I2" s="190"/>
+      <c r="J2" s="191" t="str">
         <f>'Update History'!F2</f>
         <v>Thống kê thời gian giao hàng</v>
       </c>
-      <c r="J2" s="191"/>
       <c r="K2" s="192"/>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="193"/>
+      <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="28">
+      <c r="N2" s="28">
         <f>'Update History'!H2</f>
         <v>42401</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="67">
+      <c r="P2" s="67">
         <v>42418</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="21" customFormat="1" ht="23.25" customHeight="1">
+    <row r="4" spans="1:16" s="21" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="137" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="H4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="I4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="J4" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="K4" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="L4" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="M4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="N4" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="O4" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="P4" s="24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="34" customFormat="1" ht="14.25" customHeight="1">
+    <row r="5" spans="1:16" s="34" customFormat="1" ht="14.25" customHeight="1">
       <c r="A5" s="33">
         <v>1</v>
       </c>
@@ -7049,29 +7058,32 @@
         <v>161</v>
       </c>
       <c r="C5" s="33">
+        <v>51</v>
+      </c>
+      <c r="D5" s="33">
         <v>1</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="E5" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="83" t="str">
+      <c r="F5" s="83" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF3030</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="69"/>
+      <c r="H5" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="62"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="62"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="69"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="40"/>
       <c r="M5" s="69"/>
       <c r="N5" s="69"/>
       <c r="O5" s="69"/>
-    </row>
-    <row r="6" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="P5" s="69"/>
+    </row>
+    <row r="6" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="33">
         <v>2</v>
       </c>
@@ -7079,28 +7091,31 @@
         <v>161</v>
       </c>
       <c r="C6" s="33">
+        <v>51</v>
+      </c>
+      <c r="D6" s="33">
         <v>2</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="88"/>
+      <c r="H6" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="I6" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="I6" s="62"/>
       <c r="J6" s="62"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="69"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="69"/>
       <c r="N6" s="69"/>
-      <c r="O6" s="88"/>
-    </row>
-    <row r="7" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O6" s="69"/>
+      <c r="P6" s="88"/>
+    </row>
+    <row r="7" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="33">
         <v>3</v>
       </c>
@@ -7108,34 +7123,37 @@
         <v>161</v>
       </c>
       <c r="C7" s="33">
+        <v>51</v>
+      </c>
+      <c r="D7" s="33">
         <v>3</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="E7" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="F7" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="126" t="s">
+      <c r="G7" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="H7" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="I7" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="I7" s="62"/>
       <c r="J7" s="62"/>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="62"/>
+      <c r="L7" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="L7" s="88"/>
       <c r="M7" s="88"/>
       <c r="N7" s="88"/>
       <c r="O7" s="88"/>
-    </row>
-    <row r="8" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="P7" s="88"/>
+    </row>
+    <row r="8" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
         <v>4</v>
       </c>
@@ -7143,34 +7161,37 @@
         <v>161</v>
       </c>
       <c r="C8" s="33">
+        <v>51</v>
+      </c>
+      <c r="D8" s="33">
         <v>4</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="E8" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="F8" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="F8" s="126" t="s">
+      <c r="G8" s="126" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="H8" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="I8" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="I8" s="62"/>
       <c r="J8" s="62"/>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="62"/>
+      <c r="L8" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="L8" s="69"/>
       <c r="M8" s="69"/>
       <c r="N8" s="69"/>
-      <c r="O8" s="88"/>
-    </row>
-    <row r="9" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O8" s="69"/>
+      <c r="P8" s="88"/>
+    </row>
+    <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
         <v>5</v>
       </c>
@@ -7178,28 +7199,31 @@
         <v>161</v>
       </c>
       <c r="C9" s="33">
+        <v>51</v>
+      </c>
+      <c r="D9" s="33">
         <v>5</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="126" t="s">
+      <c r="E9" s="59"/>
+      <c r="F9" s="126" t="s">
         <v>173</v>
       </c>
-      <c r="F9" s="126"/>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="126"/>
+      <c r="H9" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="I9" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="I9" s="62"/>
       <c r="J9" s="62"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="88"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="40"/>
       <c r="M9" s="88"/>
       <c r="N9" s="88"/>
       <c r="O9" s="88"/>
-    </row>
-    <row r="10" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="P9" s="88"/>
+    </row>
+    <row r="10" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
         <v>6</v>
       </c>
@@ -7207,34 +7231,37 @@
         <v>161</v>
       </c>
       <c r="C10" s="33">
+        <v>51</v>
+      </c>
+      <c r="D10" s="33">
         <v>6</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="E10" s="59" t="s">
         <v>165</v>
-      </c>
-      <c r="E10" s="132" t="s">
-        <v>174</v>
       </c>
       <c r="F10" s="132" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="132" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="I10" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="I10" s="62"/>
       <c r="J10" s="62"/>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="62"/>
+      <c r="L10" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="L10" s="132"/>
       <c r="M10" s="132"/>
       <c r="N10" s="132"/>
       <c r="O10" s="132"/>
-    </row>
-    <row r="11" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="P10" s="132"/>
+    </row>
+    <row r="11" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
         <v>7</v>
       </c>
@@ -7242,34 +7269,37 @@
         <v>161</v>
       </c>
       <c r="C11" s="33">
+        <v>51</v>
+      </c>
+      <c r="D11" s="33">
         <v>7</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="E11" s="59" t="s">
         <v>166</v>
-      </c>
-      <c r="E11" s="132" t="s">
-        <v>175</v>
       </c>
       <c r="F11" s="132" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="132" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="I11" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="I11" s="62"/>
       <c r="J11" s="62"/>
-      <c r="K11" s="40" t="s">
+      <c r="K11" s="62"/>
+      <c r="L11" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="L11" s="132"/>
       <c r="M11" s="132"/>
       <c r="N11" s="132"/>
       <c r="O11" s="132"/>
-    </row>
-    <row r="12" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="P11" s="132"/>
+    </row>
+    <row r="12" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
         <v>8</v>
       </c>
@@ -7277,36 +7307,39 @@
         <v>161</v>
       </c>
       <c r="C12" s="33">
+        <v>51</v>
+      </c>
+      <c r="D12" s="33">
         <v>8</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="E12" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="132" t="s">
+      <c r="F12" s="132" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="132" t="s">
+      <c r="G12" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="H12" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="I12" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="I12" s="62">
+      <c r="J12" s="62">
         <v>50</v>
       </c>
-      <c r="J12" s="62"/>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="62"/>
+      <c r="L12" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="L12" s="132"/>
       <c r="M12" s="132"/>
       <c r="N12" s="132"/>
       <c r="O12" s="132"/>
-    </row>
-    <row r="13" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="P12" s="132"/>
+    </row>
+    <row r="13" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
         <v>9</v>
       </c>
@@ -7314,36 +7347,39 @@
         <v>161</v>
       </c>
       <c r="C13" s="33">
+        <v>51</v>
+      </c>
+      <c r="D13" s="33">
         <v>9</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="E13" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="E13" s="132" t="s">
+      <c r="F13" s="132" t="s">
         <v>199</v>
       </c>
-      <c r="F13" s="132" t="s">
+      <c r="G13" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="H13" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="I13" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="I13" s="62">
+      <c r="J13" s="62">
         <v>50</v>
       </c>
-      <c r="J13" s="62"/>
-      <c r="K13" s="40" t="s">
+      <c r="K13" s="62"/>
+      <c r="L13" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="L13" s="132"/>
       <c r="M13" s="132"/>
       <c r="N13" s="132"/>
       <c r="O13" s="132"/>
-    </row>
-    <row r="14" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="P13" s="132"/>
+    </row>
+    <row r="14" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
         <v>10</v>
       </c>
@@ -7351,28 +7387,31 @@
         <v>161</v>
       </c>
       <c r="C14" s="33">
+        <v>51</v>
+      </c>
+      <c r="D14" s="33">
         <v>10</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="E14" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="136" t="s">
+      <c r="F14" s="136" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="132"/>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="132"/>
+      <c r="H14" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="62"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="62"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="132"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="132"/>
       <c r="N14" s="132"/>
       <c r="O14" s="132"/>
-    </row>
-    <row r="15" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="P14" s="132"/>
+    </row>
+    <row r="15" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
         <v>11</v>
       </c>
@@ -7380,775 +7419,825 @@
         <v>161</v>
       </c>
       <c r="C15" s="33">
+        <v>51</v>
+      </c>
+      <c r="D15" s="33">
         <v>11</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="E15" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="E15" s="132" t="s">
+      <c r="F15" s="132" t="s">
         <v>227</v>
       </c>
-      <c r="F15" s="132"/>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="132"/>
+      <c r="H15" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="62"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="62"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="132"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="40"/>
       <c r="M15" s="132"/>
       <c r="N15" s="132"/>
       <c r="O15" s="132"/>
-    </row>
-    <row r="16" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="P15" s="132"/>
+    </row>
+    <row r="16" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
         <v>12</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="132"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="132"/>
-      <c r="G16" s="40"/>
+      <c r="G16" s="132"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="62"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="62"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="132"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="40"/>
       <c r="M16" s="132"/>
       <c r="N16" s="132"/>
       <c r="O16" s="132"/>
-    </row>
-    <row r="17" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="P16" s="132"/>
+    </row>
+    <row r="17" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="33">
         <v>13</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="132"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="132"/>
-      <c r="G17" s="40"/>
+      <c r="G17" s="132"/>
       <c r="H17" s="40"/>
-      <c r="I17" s="62"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="62"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="132"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="62"/>
       <c r="N17" s="132"/>
       <c r="O17" s="132"/>
-    </row>
-    <row r="18" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="P17" s="132"/>
+    </row>
+    <row r="18" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
         <v>14</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="40"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="84"/>
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="88"/>
-    </row>
-    <row r="19" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="N18" s="40"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="88"/>
+    </row>
+    <row r="19" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
         <v>15</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="88"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="88"/>
-      <c r="G19" s="40"/>
+      <c r="G19" s="88"/>
       <c r="H19" s="40"/>
       <c r="I19" s="40"/>
       <c r="J19" s="40"/>
       <c r="K19" s="40"/>
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="88"/>
-    </row>
-    <row r="20" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="N19" s="40"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="88"/>
+    </row>
+    <row r="20" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
         <v>16</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="88"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="88"/>
-      <c r="G20" s="40"/>
+      <c r="G20" s="88"/>
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
       <c r="K20" s="40"/>
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="88"/>
-    </row>
-    <row r="21" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="N20" s="40"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="88"/>
+    </row>
+    <row r="21" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="33">
         <v>17</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="88"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="88"/>
-      <c r="G21" s="40"/>
+      <c r="G21" s="88"/>
       <c r="H21" s="40"/>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
       <c r="K21" s="40"/>
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
-      <c r="N21" s="88"/>
+      <c r="N21" s="40"/>
       <c r="O21" s="88"/>
-    </row>
-    <row r="22" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="P21" s="88"/>
+    </row>
+    <row r="22" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
         <v>18</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="88"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="88"/>
-      <c r="G22" s="40"/>
+      <c r="G22" s="88"/>
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
       <c r="K22" s="40"/>
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="88"/>
-    </row>
-    <row r="23" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="N22" s="40"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="88"/>
+    </row>
+    <row r="23" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
         <v>19</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="84"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="84"/>
-      <c r="G23" s="40"/>
+      <c r="G23" s="84"/>
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="61"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="40"/>
       <c r="M23" s="61"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="32"/>
-    </row>
-    <row r="24" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="N23" s="61"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="24" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
         <v>20</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="40"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="83"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="61"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="62"/>
       <c r="N24" s="61"/>
-      <c r="O24" s="32"/>
-    </row>
-    <row r="25" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O24" s="61"/>
+      <c r="P24" s="32"/>
+    </row>
+    <row r="25" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
         <v>22</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
-      <c r="D25" s="87"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="87"/>
-      <c r="F25" s="40"/>
+      <c r="F25" s="87"/>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
       <c r="I25" s="40"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="61"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="62"/>
       <c r="N25" s="61"/>
-      <c r="O25" s="32"/>
-    </row>
-    <row r="26" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O25" s="61"/>
+      <c r="P25" s="32"/>
+    </row>
+    <row r="26" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
         <v>23</v>
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
-      <c r="D26" s="69"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="69"/>
-      <c r="F26" s="40"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="61"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="62"/>
       <c r="N26" s="61"/>
-      <c r="O26" s="32"/>
-    </row>
-    <row r="27" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O26" s="61"/>
+      <c r="P26" s="32"/>
+    </row>
+    <row r="27" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
         <v>24</v>
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
-      <c r="D27" s="69"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="69"/>
-      <c r="F27" s="40"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="61"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="62"/>
       <c r="N27" s="61"/>
-      <c r="O27" s="32"/>
-    </row>
-    <row r="28" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O27" s="61"/>
+      <c r="P27" s="32"/>
+    </row>
+    <row r="28" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
         <v>25</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
-      <c r="D28" s="69"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="69"/>
-      <c r="F28" s="40"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="61"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="62"/>
       <c r="N28" s="61"/>
-      <c r="O28" s="32"/>
-    </row>
-    <row r="29" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O28" s="61"/>
+      <c r="P28" s="32"/>
+    </row>
+    <row r="29" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
         <v>26</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
-      <c r="D29" s="69"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="69"/>
-      <c r="F29" s="40"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="61"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="62"/>
       <c r="N29" s="61"/>
-      <c r="O29" s="32"/>
-    </row>
-    <row r="30" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O29" s="61"/>
+      <c r="P29" s="32"/>
+    </row>
+    <row r="30" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="33">
         <v>27</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
-      <c r="D30" s="69"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="69"/>
-      <c r="F30" s="40"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="61"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="62"/>
       <c r="N30" s="61"/>
-      <c r="O30" s="32"/>
-    </row>
-    <row r="31" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O30" s="61"/>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="33">
         <v>28</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
-      <c r="D31" s="69"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="69"/>
-      <c r="F31" s="40"/>
+      <c r="F31" s="69"/>
       <c r="G31" s="40"/>
       <c r="H31" s="40"/>
       <c r="I31" s="40"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="61"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="62"/>
       <c r="N31" s="61"/>
-      <c r="O31" s="32"/>
-    </row>
-    <row r="32" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O31" s="61"/>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="33">
         <v>29</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
-      <c r="D32" s="69"/>
+      <c r="D32" s="33"/>
       <c r="E32" s="69"/>
-      <c r="F32" s="40"/>
+      <c r="F32" s="69"/>
       <c r="G32" s="40"/>
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="61"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="62"/>
       <c r="N32" s="61"/>
-      <c r="O32" s="32"/>
-    </row>
-    <row r="33" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O32" s="61"/>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="33">
         <v>30</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
-      <c r="D33" s="69"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="69"/>
-      <c r="F33" s="40"/>
+      <c r="F33" s="69"/>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
       <c r="I33" s="40"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="61"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="62"/>
       <c r="N33" s="61"/>
-      <c r="O33" s="32"/>
-    </row>
-    <row r="34" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O33" s="61"/>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="33">
         <v>31</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
-      <c r="D34" s="69"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="69"/>
-      <c r="F34" s="40"/>
+      <c r="F34" s="69"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
       <c r="I34" s="40"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="61"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="62"/>
       <c r="N34" s="61"/>
-      <c r="O34" s="32"/>
-    </row>
-    <row r="35" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O34" s="61"/>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="33">
         <v>32</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
-      <c r="D35" s="69"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="69"/>
-      <c r="F35" s="40"/>
+      <c r="F35" s="69"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
       <c r="I35" s="40"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="61"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="62"/>
       <c r="N35" s="61"/>
-      <c r="O35" s="32"/>
-    </row>
-    <row r="36" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O35" s="61"/>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="36" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="33">
         <v>33</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
-      <c r="D36" s="69"/>
+      <c r="D36" s="33"/>
       <c r="E36" s="69"/>
-      <c r="F36" s="40"/>
+      <c r="F36" s="69"/>
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="61"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="62"/>
       <c r="N36" s="61"/>
-      <c r="O36" s="32"/>
-    </row>
-    <row r="37" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O36" s="61"/>
+      <c r="P36" s="32"/>
+    </row>
+    <row r="37" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="33">
         <v>34</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
-      <c r="D37" s="69"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="69"/>
-      <c r="F37" s="40"/>
+      <c r="F37" s="69"/>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="61"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="62"/>
       <c r="N37" s="61"/>
-      <c r="O37" s="32"/>
-    </row>
-    <row r="38" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O37" s="61"/>
+      <c r="P37" s="32"/>
+    </row>
+    <row r="38" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="33">
         <v>35</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
-      <c r="D38" s="69"/>
+      <c r="D38" s="33"/>
       <c r="E38" s="69"/>
-      <c r="F38" s="40"/>
+      <c r="F38" s="69"/>
       <c r="G38" s="40"/>
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="61"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="62"/>
       <c r="N38" s="61"/>
-      <c r="O38" s="32"/>
-    </row>
-    <row r="39" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O38" s="61"/>
+      <c r="P38" s="32"/>
+    </row>
+    <row r="39" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="33">
         <v>36</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="69"/>
+      <c r="D39" s="33"/>
       <c r="E39" s="69"/>
-      <c r="F39" s="40"/>
+      <c r="F39" s="69"/>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
       <c r="I39" s="40"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="61"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="62"/>
       <c r="N39" s="61"/>
-      <c r="O39" s="32"/>
-    </row>
-    <row r="40" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O39" s="61"/>
+      <c r="P39" s="32"/>
+    </row>
+    <row r="40" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="33">
         <v>37</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
-      <c r="D40" s="69"/>
+      <c r="D40" s="33"/>
       <c r="E40" s="69"/>
-      <c r="F40" s="40"/>
+      <c r="F40" s="69"/>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
       <c r="I40" s="40"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="61"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="62"/>
       <c r="N40" s="61"/>
-      <c r="O40" s="32"/>
-    </row>
-    <row r="41" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O40" s="61"/>
+      <c r="P40" s="32"/>
+    </row>
+    <row r="41" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="33">
         <v>38</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
-      <c r="D41" s="69"/>
+      <c r="D41" s="33"/>
       <c r="E41" s="69"/>
-      <c r="F41" s="40"/>
+      <c r="F41" s="69"/>
       <c r="G41" s="40"/>
       <c r="H41" s="40"/>
       <c r="I41" s="40"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="61"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="62"/>
       <c r="N41" s="61"/>
-      <c r="O41" s="32"/>
-    </row>
-    <row r="42" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O41" s="61"/>
+      <c r="P41" s="32"/>
+    </row>
+    <row r="42" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="33">
         <v>39</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
-      <c r="D42" s="69"/>
+      <c r="D42" s="33"/>
       <c r="E42" s="69"/>
-      <c r="F42" s="40"/>
+      <c r="F42" s="69"/>
       <c r="G42" s="40"/>
       <c r="H42" s="40"/>
       <c r="I42" s="40"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="61"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="62"/>
       <c r="N42" s="61"/>
-      <c r="O42" s="32"/>
-    </row>
-    <row r="43" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O42" s="61"/>
+      <c r="P42" s="32"/>
+    </row>
+    <row r="43" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A43" s="33">
         <v>40</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
-      <c r="D43" s="69"/>
+      <c r="D43" s="33"/>
       <c r="E43" s="69"/>
-      <c r="F43" s="40"/>
+      <c r="F43" s="69"/>
       <c r="G43" s="40"/>
       <c r="H43" s="40"/>
       <c r="I43" s="40"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="61"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="62"/>
       <c r="N43" s="61"/>
-      <c r="O43" s="32"/>
-    </row>
-    <row r="44" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O43" s="61"/>
+      <c r="P43" s="32"/>
+    </row>
+    <row r="44" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="33">
         <v>41</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="69"/>
+      <c r="D44" s="33"/>
       <c r="E44" s="69"/>
-      <c r="F44" s="40"/>
+      <c r="F44" s="69"/>
       <c r="G44" s="40"/>
       <c r="H44" s="40"/>
       <c r="I44" s="40"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="61"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="62"/>
       <c r="N44" s="61"/>
-      <c r="O44" s="32"/>
-    </row>
-    <row r="45" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O44" s="61"/>
+      <c r="P44" s="32"/>
+    </row>
+    <row r="45" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="33">
         <v>42</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="69"/>
+      <c r="D45" s="33"/>
       <c r="E45" s="69"/>
-      <c r="F45" s="40"/>
+      <c r="F45" s="69"/>
       <c r="G45" s="40"/>
       <c r="H45" s="40"/>
       <c r="I45" s="40"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="61"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="62"/>
       <c r="N45" s="61"/>
-      <c r="O45" s="32"/>
-    </row>
-    <row r="46" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O45" s="61"/>
+      <c r="P45" s="32"/>
+    </row>
+    <row r="46" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A46" s="33">
         <v>43</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
-      <c r="D46" s="69"/>
+      <c r="D46" s="33"/>
       <c r="E46" s="69"/>
-      <c r="F46" s="40"/>
+      <c r="F46" s="69"/>
       <c r="G46" s="40"/>
       <c r="H46" s="40"/>
       <c r="I46" s="40"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="61"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="62"/>
       <c r="N46" s="61"/>
-      <c r="O46" s="32"/>
-    </row>
-    <row r="47" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O46" s="61"/>
+      <c r="P46" s="32"/>
+    </row>
+    <row r="47" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A47" s="33">
         <v>44</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
-      <c r="D47" s="74"/>
+      <c r="D47" s="33"/>
       <c r="E47" s="74"/>
       <c r="F47" s="74"/>
-      <c r="G47" s="40"/>
+      <c r="G47" s="74"/>
       <c r="H47" s="40"/>
       <c r="I47" s="40"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="61"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="62"/>
       <c r="N47" s="61"/>
-      <c r="O47" s="32"/>
-    </row>
-    <row r="48" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O47" s="61"/>
+      <c r="P47" s="32"/>
+    </row>
+    <row r="48" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A48" s="33">
         <v>45</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
-      <c r="D48" s="74"/>
+      <c r="D48" s="33"/>
       <c r="E48" s="74"/>
-      <c r="F48" s="40"/>
+      <c r="F48" s="74"/>
       <c r="G48" s="40"/>
       <c r="H48" s="40"/>
       <c r="I48" s="40"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="61"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="62"/>
       <c r="N48" s="61"/>
-      <c r="O48" s="32"/>
-    </row>
-    <row r="49" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O48" s="61"/>
+      <c r="P48" s="32"/>
+    </row>
+    <row r="49" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="33">
         <v>46</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
-      <c r="D49" s="74"/>
+      <c r="D49" s="33"/>
       <c r="E49" s="74"/>
       <c r="F49" s="74"/>
-      <c r="G49" s="40"/>
+      <c r="G49" s="74"/>
       <c r="H49" s="40"/>
       <c r="I49" s="40"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="61"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="62"/>
       <c r="N49" s="61"/>
-      <c r="O49" s="32"/>
-    </row>
-    <row r="50" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O49" s="61"/>
+      <c r="P49" s="32"/>
+    </row>
+    <row r="50" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="33">
         <v>47</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="74"/>
+      <c r="D50" s="33"/>
       <c r="E50" s="74"/>
-      <c r="F50" s="40"/>
+      <c r="F50" s="74"/>
       <c r="G50" s="40"/>
       <c r="H50" s="40"/>
       <c r="I50" s="40"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="61"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="62"/>
       <c r="N50" s="61"/>
-      <c r="O50" s="32"/>
-    </row>
-    <row r="51" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O50" s="61"/>
+      <c r="P50" s="32"/>
+    </row>
+    <row r="51" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A51" s="33">
         <v>48</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
-      <c r="D51" s="74"/>
+      <c r="D51" s="33"/>
       <c r="E51" s="74"/>
-      <c r="F51" s="40"/>
+      <c r="F51" s="74"/>
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
       <c r="I51" s="40"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="61"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="62"/>
       <c r="N51" s="61"/>
-      <c r="O51" s="32"/>
-    </row>
-    <row r="52" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O51" s="61"/>
+      <c r="P51" s="32"/>
+    </row>
+    <row r="52" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="33">
         <v>49</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
-      <c r="D52" s="74"/>
+      <c r="D52" s="33"/>
       <c r="E52" s="74"/>
-      <c r="F52" s="40"/>
+      <c r="F52" s="74"/>
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
       <c r="I52" s="40"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="61"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="62"/>
       <c r="N52" s="61"/>
-      <c r="O52" s="32"/>
-    </row>
-    <row r="53" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O52" s="61"/>
+      <c r="P52" s="32"/>
+    </row>
+    <row r="53" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A53" s="33">
         <v>50</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
-      <c r="D53" s="74"/>
+      <c r="D53" s="33"/>
       <c r="E53" s="74"/>
-      <c r="F53" s="40"/>
+      <c r="F53" s="74"/>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
       <c r="I53" s="40"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="61"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="62"/>
       <c r="N53" s="61"/>
-      <c r="O53" s="32"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="32"/>
+    </row>
+    <row r="54" spans="1:16" ht="12" customHeight="1">
+      <c r="C54" s="33"/>
+    </row>
+    <row r="55" spans="1:16" ht="12" customHeight="1">
+      <c r="C55" s="33"/>
+    </row>
+    <row r="56" spans="1:16" ht="12" customHeight="1">
+      <c r="C56" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M24:N53 L23:M23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N24:O53 M23:N23">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21:H53 H5:H18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21:I53 I5:I18">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="F25:F53 F5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G9 G14:G53">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G25:G53 G5"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H9 H14:H53">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H11">
       <formula1>"Caption,Textbox,DropdownChecklist,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L53">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12:G13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H13">
       <formula1>"Caption,Textbox,DropDownCheckList, DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9127,7 +9216,7 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:K5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9153,7 +9242,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="196" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="134"/>
@@ -9189,7 +9278,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="199"/>
+      <c r="A2" s="197"/>
       <c r="B2" s="135"/>
       <c r="C2" s="124"/>
       <c r="D2" s="31" t="s">
@@ -9241,15 +9330,15 @@
       <c r="F4" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="165" t="s">
+      <c r="G4" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165" t="s">
+      <c r="H4" s="167"/>
+      <c r="I4" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33">
@@ -9266,15 +9355,15 @@
         <v>215</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="196" t="s">
+      <c r="G5" s="194" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="197"/>
-      <c r="I5" s="193" t="s">
+      <c r="H5" s="195"/>
+      <c r="I5" s="198" t="s">
         <v>219</v>
       </c>
-      <c r="J5" s="194"/>
-      <c r="K5" s="195"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="200"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1">
       <c r="A6" s="33">
@@ -9291,15 +9380,15 @@
         <v>134</v>
       </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="196" t="s">
+      <c r="G6" s="194" t="s">
         <v>218</v>
       </c>
-      <c r="H6" s="197"/>
-      <c r="I6" s="193" t="s">
+      <c r="H6" s="195"/>
+      <c r="I6" s="198" t="s">
         <v>180</v>
       </c>
-      <c r="J6" s="194"/>
-      <c r="K6" s="195"/>
+      <c r="J6" s="199"/>
+      <c r="K6" s="200"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9310,11 +9399,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="130"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="195"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="199"/>
+      <c r="K7" s="200"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9325,11 +9414,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="195"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="199"/>
+      <c r="K8" s="200"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9340,11 +9429,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="195"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="195"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="199"/>
+      <c r="K9" s="200"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9355,11 +9444,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="195"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="195"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="199"/>
+      <c r="K10" s="200"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9370,11 +9459,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="195"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="195"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="199"/>
+      <c r="K11" s="200"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9385,11 +9474,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="195"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="195"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="199"/>
+      <c r="K12" s="200"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9400,11 +9489,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="194"/>
-      <c r="K13" s="195"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="195"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="199"/>
+      <c r="K13" s="200"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9415,11 +9504,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="195"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="198"/>
+      <c r="J14" s="199"/>
+      <c r="K14" s="200"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9430,11 +9519,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="194"/>
-      <c r="K15" s="195"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="195"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="199"/>
+      <c r="K15" s="200"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9445,11 +9534,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="195"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="199"/>
+      <c r="K16" s="200"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9460,11 +9549,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="195"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="199"/>
+      <c r="K17" s="200"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9475,11 +9564,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="195"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="195"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="199"/>
+      <c r="K18" s="200"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9490,11 +9579,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="194"/>
-      <c r="K19" s="195"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="195"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="199"/>
+      <c r="K19" s="200"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9505,11 +9594,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="194"/>
-      <c r="K20" s="195"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="195"/>
+      <c r="I20" s="198"/>
+      <c r="J20" s="199"/>
+      <c r="K20" s="200"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9520,11 +9609,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="194"/>
-      <c r="K21" s="195"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="195"/>
+      <c r="I21" s="198"/>
+      <c r="J21" s="199"/>
+      <c r="K21" s="200"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9535,11 +9624,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="194"/>
-      <c r="K22" s="195"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="199"/>
+      <c r="K22" s="200"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9550,11 +9639,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="194"/>
-      <c r="K23" s="195"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="198"/>
+      <c r="J23" s="199"/>
+      <c r="K23" s="200"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9565,11 +9654,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="194"/>
-      <c r="K24" s="195"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="198"/>
+      <c r="J24" s="199"/>
+      <c r="K24" s="200"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9580,11 +9669,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="194"/>
-      <c r="K25" s="195"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="198"/>
+      <c r="J25" s="199"/>
+      <c r="K25" s="200"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9595,11 +9684,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="194"/>
-      <c r="K26" s="195"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="198"/>
+      <c r="J26" s="199"/>
+      <c r="K26" s="200"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9610,11 +9699,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="194"/>
-      <c r="K27" s="195"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="198"/>
+      <c r="J27" s="199"/>
+      <c r="K27" s="200"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9625,11 +9714,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="194"/>
-      <c r="K28" s="195"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="198"/>
+      <c r="J28" s="199"/>
+      <c r="K28" s="200"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9640,11 +9729,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="195"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="198"/>
+      <c r="J29" s="199"/>
+      <c r="K29" s="200"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9655,11 +9744,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="195"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="198"/>
+      <c r="J30" s="199"/>
+      <c r="K30" s="200"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9670,11 +9759,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="195"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="198"/>
+      <c r="J31" s="199"/>
+      <c r="K31" s="200"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -9685,11 +9774,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="195"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="199"/>
+      <c r="K32" s="200"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9707,11 +9796,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="195"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="198"/>
+      <c r="J33" s="199"/>
+      <c r="K33" s="200"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -9729,11 +9818,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="194"/>
-      <c r="K34" s="195"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="163"/>
+      <c r="I34" s="198"/>
+      <c r="J34" s="199"/>
+      <c r="K34" s="200"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9751,11 +9840,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="161"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="194"/>
-      <c r="K35" s="195"/>
+      <c r="G35" s="161"/>
+      <c r="H35" s="163"/>
+      <c r="I35" s="198"/>
+      <c r="J35" s="199"/>
+      <c r="K35" s="200"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9773,11 +9862,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="194"/>
-      <c r="K36" s="195"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="163"/>
+      <c r="I36" s="198"/>
+      <c r="J36" s="199"/>
+      <c r="K36" s="200"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9795,11 +9884,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="194"/>
-      <c r="K37" s="195"/>
+      <c r="G37" s="161"/>
+      <c r="H37" s="163"/>
+      <c r="I37" s="198"/>
+      <c r="J37" s="199"/>
+      <c r="K37" s="200"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9817,11 +9906,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="159"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="193"/>
-      <c r="J38" s="194"/>
-      <c r="K38" s="195"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="163"/>
+      <c r="I38" s="198"/>
+      <c r="J38" s="199"/>
+      <c r="K38" s="200"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9839,11 +9928,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="159"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="193"/>
-      <c r="J39" s="194"/>
-      <c r="K39" s="195"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="163"/>
+      <c r="I39" s="198"/>
+      <c r="J39" s="199"/>
+      <c r="K39" s="200"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9861,11 +9950,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="159"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="193"/>
-      <c r="J40" s="194"/>
-      <c r="K40" s="195"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="163"/>
+      <c r="I40" s="198"/>
+      <c r="J40" s="199"/>
+      <c r="K40" s="200"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9883,11 +9972,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="161"/>
-      <c r="I41" s="193"/>
-      <c r="J41" s="194"/>
-      <c r="K41" s="195"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="163"/>
+      <c r="I41" s="198"/>
+      <c r="J41" s="199"/>
+      <c r="K41" s="200"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -9905,11 +9994,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="159"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="194"/>
-      <c r="K42" s="195"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="163"/>
+      <c r="I42" s="198"/>
+      <c r="J42" s="199"/>
+      <c r="K42" s="200"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -9927,11 +10016,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="159"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="193"/>
-      <c r="J43" s="194"/>
-      <c r="K43" s="195"/>
+      <c r="G43" s="161"/>
+      <c r="H43" s="163"/>
+      <c r="I43" s="198"/>
+      <c r="J43" s="199"/>
+      <c r="K43" s="200"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -9949,11 +10038,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="159"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="193"/>
-      <c r="J44" s="194"/>
-      <c r="K44" s="195"/>
+      <c r="G44" s="161"/>
+      <c r="H44" s="163"/>
+      <c r="I44" s="198"/>
+      <c r="J44" s="199"/>
+      <c r="K44" s="200"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -9971,11 +10060,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="159"/>
-      <c r="H45" s="161"/>
-      <c r="I45" s="193"/>
-      <c r="J45" s="194"/>
-      <c r="K45" s="195"/>
+      <c r="G45" s="161"/>
+      <c r="H45" s="163"/>
+      <c r="I45" s="198"/>
+      <c r="J45" s="199"/>
+      <c r="K45" s="200"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -9993,11 +10082,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="159"/>
-      <c r="H46" s="161"/>
-      <c r="I46" s="193"/>
-      <c r="J46" s="194"/>
-      <c r="K46" s="195"/>
+      <c r="G46" s="161"/>
+      <c r="H46" s="163"/>
+      <c r="I46" s="198"/>
+      <c r="J46" s="199"/>
+      <c r="K46" s="200"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10015,11 +10104,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="159"/>
-      <c r="H47" s="161"/>
-      <c r="I47" s="193"/>
-      <c r="J47" s="194"/>
-      <c r="K47" s="195"/>
+      <c r="G47" s="161"/>
+      <c r="H47" s="163"/>
+      <c r="I47" s="198"/>
+      <c r="J47" s="199"/>
+      <c r="K47" s="200"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10037,11 +10126,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="159"/>
-      <c r="H48" s="161"/>
-      <c r="I48" s="193"/>
-      <c r="J48" s="194"/>
-      <c r="K48" s="195"/>
+      <c r="G48" s="161"/>
+      <c r="H48" s="163"/>
+      <c r="I48" s="198"/>
+      <c r="J48" s="199"/>
+      <c r="K48" s="200"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10059,11 +10148,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="159"/>
-      <c r="H49" s="161"/>
-      <c r="I49" s="193"/>
-      <c r="J49" s="194"/>
-      <c r="K49" s="195"/>
+      <c r="G49" s="161"/>
+      <c r="H49" s="163"/>
+      <c r="I49" s="198"/>
+      <c r="J49" s="199"/>
+      <c r="K49" s="200"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10081,11 +10170,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="161"/>
-      <c r="I50" s="193"/>
-      <c r="J50" s="194"/>
-      <c r="K50" s="195"/>
+      <c r="G50" s="161"/>
+      <c r="H50" s="163"/>
+      <c r="I50" s="198"/>
+      <c r="J50" s="199"/>
+      <c r="K50" s="200"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10103,11 +10192,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="159"/>
-      <c r="H51" s="161"/>
-      <c r="I51" s="193"/>
-      <c r="J51" s="194"/>
-      <c r="K51" s="195"/>
+      <c r="G51" s="161"/>
+      <c r="H51" s="163"/>
+      <c r="I51" s="198"/>
+      <c r="J51" s="199"/>
+      <c r="K51" s="200"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10125,11 +10214,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="159"/>
-      <c r="H52" s="161"/>
-      <c r="I52" s="193"/>
-      <c r="J52" s="194"/>
-      <c r="K52" s="195"/>
+      <c r="G52" s="161"/>
+      <c r="H52" s="163"/>
+      <c r="I52" s="198"/>
+      <c r="J52" s="199"/>
+      <c r="K52" s="200"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10147,11 +10236,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="161"/>
-      <c r="I53" s="193"/>
-      <c r="J53" s="194"/>
-      <c r="K53" s="195"/>
+      <c r="G53" s="161"/>
+      <c r="H53" s="163"/>
+      <c r="I53" s="198"/>
+      <c r="J53" s="199"/>
+      <c r="K53" s="200"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10169,11 +10258,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="159"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="193"/>
-      <c r="J54" s="194"/>
-      <c r="K54" s="195"/>
+      <c r="G54" s="161"/>
+      <c r="H54" s="163"/>
+      <c r="I54" s="198"/>
+      <c r="J54" s="199"/>
+      <c r="K54" s="200"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10191,11 +10280,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="159"/>
-      <c r="H55" s="161"/>
-      <c r="I55" s="193"/>
-      <c r="J55" s="194"/>
-      <c r="K55" s="195"/>
+      <c r="G55" s="161"/>
+      <c r="H55" s="163"/>
+      <c r="I55" s="198"/>
+      <c r="J55" s="199"/>
+      <c r="K55" s="200"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10213,11 +10302,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="161"/>
-      <c r="I56" s="193"/>
-      <c r="J56" s="194"/>
-      <c r="K56" s="195"/>
+      <c r="G56" s="161"/>
+      <c r="H56" s="163"/>
+      <c r="I56" s="198"/>
+      <c r="J56" s="199"/>
+      <c r="K56" s="200"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10229,25 +10318,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
@@ -10262,80 +10406,25 @@
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -10351,537 +10440,562 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1048467"/>
+  <dimension ref="A1:U1048467"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="C4" sqref="C4:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="22" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="23" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="23" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" style="23" customWidth="1"/>
-    <col min="16" max="17" width="14.140625" style="23" customWidth="1"/>
-    <col min="18" max="18" width="36.7109375" style="23" customWidth="1"/>
-    <col min="19" max="20" width="12.7109375" style="23" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="22" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="22"/>
+    <col min="2" max="3" width="7.5703125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="22" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="23" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="23" customWidth="1"/>
+    <col min="17" max="18" width="14.140625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" style="23" customWidth="1"/>
+    <col min="20" max="21" width="12.7109375" style="23" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="22" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+    <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="31" t="s">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="203" t="str">
+      <c r="J1" s="204" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="J1" s="203"/>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="204"/>
+      <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="53" t="str">
+      <c r="M1" s="53" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF3030</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="50" t="str">
+      <c r="O1" s="50" t="str">
         <f>'Update History'!H1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="67" t="s">
+      <c r="Q1" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="52"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="35"/>
       <c r="T1" s="52"/>
-    </row>
-    <row r="2" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="31" t="s">
+      <c r="U1" s="52"/>
+    </row>
+    <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="203" t="str">
+      <c r="J2" s="204" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="J2" s="203"/>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="204"/>
+      <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="53" t="str">
+      <c r="M2" s="53" t="str">
         <f>'Update History'!F2</f>
         <v>Thống kê thời gian giao hàng</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="N2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="51">
+      <c r="O2" s="51">
         <f>'Update History'!H2</f>
         <v>42401</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="67">
+      <c r="Q2" s="67">
         <v>42418</v>
       </c>
-      <c r="Q2" s="51"/>
       <c r="R2" s="51"/>
-      <c r="S2" s="52"/>
+      <c r="S2" s="51"/>
       <c r="T2" s="52"/>
-    </row>
-    <row r="4" spans="1:20" s="23" customFormat="1" ht="12" customHeight="1">
+      <c r="U2" s="52"/>
+    </row>
+    <row r="4" spans="1:21" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="39" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="137" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="E4" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="F4" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="G4" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="H4" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="I4" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="J4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="173" t="s">
+      <c r="K4" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="175"/>
-      <c r="L4" s="175"/>
-      <c r="M4" s="174"/>
-      <c r="N4" s="39" t="s">
+      <c r="L4" s="176"/>
+      <c r="M4" s="176"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="P4" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="Q4" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="R4" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="S4" s="39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="34" customFormat="1" ht="22.5">
+    <row r="5" spans="1:21" s="34" customFormat="1" ht="22.5">
       <c r="A5" s="33">
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="33">
+        <v>51</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="88" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="88" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="H5" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="I5" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="131" t="s">
+      <c r="J5" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="J5" s="200" t="s">
+      <c r="K5" s="201" t="s">
         <v>185</v>
       </c>
-      <c r="K5" s="201"/>
-      <c r="L5" s="201"/>
+      <c r="L5" s="202"/>
       <c r="M5" s="202"/>
-      <c r="N5" s="125" t="s">
+      <c r="N5" s="203"/>
+      <c r="O5" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="O5" s="89" t="s">
+      <c r="P5" s="89" t="s">
         <v>189</v>
       </c>
-      <c r="P5" s="76" t="s">
+      <c r="Q5" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="Q5" s="75" t="s">
+      <c r="R5" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="R5" s="88" t="s">
+      <c r="S5" s="88" t="s">
         <v>209</v>
       </c>
-      <c r="S5" s="64"/>
       <c r="T5" s="64"/>
-    </row>
-    <row r="6" spans="1:20" s="34" customFormat="1" ht="22.5">
+      <c r="U5" s="64"/>
+    </row>
+    <row r="6" spans="1:21" s="34" customFormat="1" ht="22.5">
       <c r="A6" s="33">
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="33">
+        <v>51</v>
+      </c>
       <c r="D6" s="33"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="88" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="88" t="s">
         <v>210</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="H6" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="I6" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="131" t="s">
+      <c r="J6" s="131" t="s">
         <v>183</v>
       </c>
-      <c r="J6" s="200" t="s">
+      <c r="K6" s="201" t="s">
         <v>181</v>
       </c>
-      <c r="K6" s="201"/>
-      <c r="L6" s="201"/>
+      <c r="L6" s="202"/>
       <c r="M6" s="202"/>
-      <c r="N6" s="125" t="s">
+      <c r="N6" s="203"/>
+      <c r="O6" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="O6" s="125" t="s">
+      <c r="P6" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="P6" s="76" t="s">
+      <c r="Q6" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="Q6" s="75" t="s">
+      <c r="R6" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="R6" s="88" t="s">
+      <c r="S6" s="88" t="s">
         <v>211</v>
       </c>
-      <c r="S6" s="64"/>
       <c r="T6" s="64"/>
-    </row>
-    <row r="7" spans="1:20" s="34" customFormat="1" ht="48" customHeight="1">
+      <c r="U6" s="64"/>
+    </row>
+    <row r="7" spans="1:21" s="34" customFormat="1" ht="48" customHeight="1">
       <c r="A7" s="33">
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="33">
+        <v>51</v>
+      </c>
       <c r="D7" s="33"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="132" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="H7" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="I7" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="131" t="s">
+      <c r="J7" s="131" t="s">
         <v>201</v>
       </c>
-      <c r="J7" s="200" t="s">
+      <c r="K7" s="201" t="s">
         <v>208</v>
       </c>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
+      <c r="L7" s="202"/>
       <c r="M7" s="202"/>
-      <c r="N7" s="125" t="s">
+      <c r="N7" s="203"/>
+      <c r="O7" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="O7" s="125" t="s">
+      <c r="P7" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="64"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="82"/>
       <c r="T7" s="64"/>
-    </row>
-    <row r="8" spans="1:20" s="34" customFormat="1" ht="112.5">
+      <c r="U7" s="64"/>
+    </row>
+    <row r="8" spans="1:21" s="34" customFormat="1" ht="112.5">
       <c r="A8" s="33">
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="33"/>
+      <c r="C8" s="33">
+        <v>51</v>
+      </c>
       <c r="D8" s="33"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="132" t="s">
+      <c r="E8" s="33"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="132" t="s">
         <v>202</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="H8" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="I8" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="131" t="s">
+      <c r="J8" s="131" t="s">
         <v>203</v>
       </c>
-      <c r="J8" s="200" t="s">
+      <c r="K8" s="201" t="s">
         <v>222</v>
       </c>
-      <c r="K8" s="201"/>
-      <c r="L8" s="201"/>
+      <c r="L8" s="202"/>
       <c r="M8" s="202"/>
-      <c r="N8" s="125" t="s">
+      <c r="N8" s="203"/>
+      <c r="O8" s="125" t="s">
         <v>223</v>
       </c>
-      <c r="O8" s="125" t="s">
+      <c r="P8" s="125" t="s">
         <v>224</v>
       </c>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="64"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="82"/>
       <c r="T8" s="64"/>
-    </row>
-    <row r="9" spans="1:20" s="34" customFormat="1" ht="11.25">
+      <c r="U8" s="64"/>
+    </row>
+    <row r="9" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A9" s="33">
         <v>5</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="63"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="88"/>
       <c r="H9" s="63"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="200"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="82"/>
       <c r="K9" s="201"/>
-      <c r="L9" s="201"/>
+      <c r="L9" s="202"/>
       <c r="M9" s="202"/>
-      <c r="N9" s="89"/>
+      <c r="N9" s="203"/>
       <c r="O9" s="89"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="64"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="82"/>
       <c r="T9" s="64"/>
-    </row>
-    <row r="10" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U9" s="64"/>
+    </row>
+    <row r="10" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
         <v>6</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="63"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="88"/>
       <c r="H10" s="63"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="200"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="82"/>
       <c r="K10" s="201"/>
-      <c r="L10" s="201"/>
+      <c r="L10" s="202"/>
       <c r="M10" s="202"/>
-      <c r="N10" s="89"/>
+      <c r="N10" s="203"/>
       <c r="O10" s="89"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="64"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="82"/>
       <c r="T10" s="64"/>
-    </row>
-    <row r="11" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U10" s="64"/>
+    </row>
+    <row r="11" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
         <v>7</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="63"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="88"/>
       <c r="H11" s="63"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="200"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="82"/>
       <c r="K11" s="201"/>
-      <c r="L11" s="201"/>
+      <c r="L11" s="202"/>
       <c r="M11" s="202"/>
-      <c r="N11" s="89"/>
+      <c r="N11" s="203"/>
       <c r="O11" s="89"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="64"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="82"/>
       <c r="T11" s="64"/>
-    </row>
-    <row r="12" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U11" s="64"/>
+    </row>
+    <row r="12" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
         <v>8</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="63"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="88"/>
       <c r="H12" s="63"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="200"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="82"/>
       <c r="K12" s="201"/>
-      <c r="L12" s="201"/>
+      <c r="L12" s="202"/>
       <c r="M12" s="202"/>
-      <c r="N12" s="85"/>
+      <c r="N12" s="203"/>
       <c r="O12" s="85"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="64"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="82"/>
       <c r="T12" s="64"/>
-    </row>
-    <row r="13" spans="1:20" s="34" customFormat="1" ht="11.25">
+      <c r="U12" s="64"/>
+    </row>
+    <row r="13" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A13" s="33">
         <v>9</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="63"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="88"/>
       <c r="H13" s="63"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="200"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="82"/>
       <c r="K13" s="201"/>
-      <c r="L13" s="201"/>
+      <c r="L13" s="202"/>
       <c r="M13" s="202"/>
-      <c r="N13" s="85"/>
+      <c r="N13" s="203"/>
       <c r="O13" s="85"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="64"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="82"/>
       <c r="T13" s="64"/>
-    </row>
-    <row r="14" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U13" s="64"/>
+    </row>
+    <row r="14" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
         <v>10</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="63"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="84"/>
       <c r="H14" s="63"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="200"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="82"/>
       <c r="K14" s="201"/>
-      <c r="L14" s="201"/>
+      <c r="L14" s="202"/>
       <c r="M14" s="202"/>
-      <c r="N14" s="81"/>
+      <c r="N14" s="203"/>
       <c r="O14" s="81"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="64"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="88"/>
       <c r="T14" s="64"/>
-    </row>
-    <row r="15" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U14" s="64"/>
+    </row>
+    <row r="15" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
         <v>11</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="63"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="84"/>
       <c r="H15" s="63"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="200"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="82"/>
       <c r="K15" s="201"/>
-      <c r="L15" s="201"/>
+      <c r="L15" s="202"/>
       <c r="M15" s="202"/>
-      <c r="N15" s="81"/>
+      <c r="N15" s="203"/>
       <c r="O15" s="81"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="64"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="88"/>
       <c r="T15" s="64"/>
-    </row>
-    <row r="16" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U15" s="64"/>
+    </row>
+    <row r="16" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
         <v>12</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="63"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="84"/>
       <c r="H16" s="63"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="200"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="201"/>
-      <c r="L16" s="201"/>
+      <c r="L16" s="202"/>
       <c r="M16" s="202"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="64"/>
+      <c r="N16" s="203"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="88"/>
       <c r="T16" s="64"/>
-    </row>
-    <row r="17" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U16" s="64"/>
+    </row>
+    <row r="17" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="33">
         <v>13</v>
       </c>
@@ -10889,23 +11003,24 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="63"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="84"/>
       <c r="H17" s="63"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="200"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="201"/>
-      <c r="L17" s="201"/>
+      <c r="L17" s="202"/>
       <c r="M17" s="202"/>
-      <c r="N17" s="60"/>
+      <c r="N17" s="203"/>
       <c r="O17" s="60"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="88"/>
-      <c r="S17" s="64"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="88"/>
       <c r="T17" s="64"/>
-    </row>
-    <row r="18" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U17" s="64"/>
+    </row>
+    <row r="18" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
         <v>14</v>
       </c>
@@ -10913,23 +11028,24 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="63"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="84"/>
       <c r="H18" s="63"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="200"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="40"/>
       <c r="K18" s="201"/>
-      <c r="L18" s="201"/>
+      <c r="L18" s="202"/>
       <c r="M18" s="202"/>
-      <c r="N18" s="60"/>
+      <c r="N18" s="203"/>
       <c r="O18" s="60"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="64"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="88"/>
       <c r="T18" s="64"/>
-    </row>
-    <row r="19" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U18" s="64"/>
+    </row>
+    <row r="19" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
         <v>15</v>
       </c>
@@ -10937,23 +11053,24 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="63"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="84"/>
       <c r="H19" s="63"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="200"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="40"/>
       <c r="K19" s="201"/>
-      <c r="L19" s="201"/>
+      <c r="L19" s="202"/>
       <c r="M19" s="202"/>
-      <c r="N19" s="60"/>
+      <c r="N19" s="203"/>
       <c r="O19" s="60"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="64"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="88"/>
       <c r="T19" s="64"/>
-    </row>
-    <row r="20" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U19" s="64"/>
+    </row>
+    <row r="20" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
         <v>16</v>
       </c>
@@ -10961,23 +11078,24 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="63"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="84"/>
       <c r="H20" s="63"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="200"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="40"/>
       <c r="K20" s="201"/>
-      <c r="L20" s="201"/>
+      <c r="L20" s="202"/>
       <c r="M20" s="202"/>
-      <c r="N20" s="60"/>
+      <c r="N20" s="203"/>
       <c r="O20" s="60"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="64"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="88"/>
       <c r="T20" s="64"/>
-    </row>
-    <row r="21" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U20" s="64"/>
+    </row>
+    <row r="21" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="33">
         <v>17</v>
       </c>
@@ -10985,23 +11103,24 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="63"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="84"/>
       <c r="H21" s="63"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="200"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="201"/>
-      <c r="L21" s="201"/>
+      <c r="L21" s="202"/>
       <c r="M21" s="202"/>
-      <c r="N21" s="60"/>
+      <c r="N21" s="203"/>
       <c r="O21" s="60"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="64"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="88"/>
       <c r="T21" s="64"/>
-    </row>
-    <row r="22" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U21" s="64"/>
+    </row>
+    <row r="22" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
         <v>18</v>
       </c>
@@ -11009,23 +11128,24 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="63"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="84"/>
       <c r="H22" s="63"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="200"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="40"/>
       <c r="K22" s="201"/>
-      <c r="L22" s="201"/>
+      <c r="L22" s="202"/>
       <c r="M22" s="202"/>
-      <c r="N22" s="60"/>
+      <c r="N22" s="203"/>
       <c r="O22" s="60"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="64"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="88"/>
       <c r="T22" s="64"/>
-    </row>
-    <row r="23" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U22" s="64"/>
+    </row>
+    <row r="23" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
         <v>19</v>
       </c>
@@ -11033,23 +11153,24 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="63"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="84"/>
       <c r="H23" s="63"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="200"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="40"/>
       <c r="K23" s="201"/>
-      <c r="L23" s="201"/>
+      <c r="L23" s="202"/>
       <c r="M23" s="202"/>
-      <c r="N23" s="60"/>
+      <c r="N23" s="203"/>
       <c r="O23" s="60"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="64"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="88"/>
       <c r="T23" s="64"/>
-    </row>
-    <row r="24" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U23" s="64"/>
+    </row>
+    <row r="24" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
         <v>20</v>
       </c>
@@ -11057,23 +11178,24 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="63"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="84"/>
       <c r="H24" s="63"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="200"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="40"/>
       <c r="K24" s="201"/>
-      <c r="L24" s="201"/>
+      <c r="L24" s="202"/>
       <c r="M24" s="202"/>
-      <c r="N24" s="60"/>
+      <c r="N24" s="203"/>
       <c r="O24" s="60"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="64"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="88"/>
       <c r="T24" s="64"/>
-    </row>
-    <row r="25" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U24" s="64"/>
+    </row>
+    <row r="25" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
         <v>21</v>
       </c>
@@ -11081,23 +11203,24 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="63"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="84"/>
       <c r="H25" s="63"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="200"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="40"/>
       <c r="K25" s="201"/>
-      <c r="L25" s="201"/>
+      <c r="L25" s="202"/>
       <c r="M25" s="202"/>
-      <c r="N25" s="60"/>
+      <c r="N25" s="203"/>
       <c r="O25" s="60"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="64"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="88"/>
       <c r="T25" s="64"/>
-    </row>
-    <row r="26" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U25" s="64"/>
+    </row>
+    <row r="26" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
         <v>22</v>
       </c>
@@ -11105,23 +11228,24 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="63"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="84"/>
       <c r="H26" s="63"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="200"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="40"/>
       <c r="K26" s="201"/>
-      <c r="L26" s="201"/>
+      <c r="L26" s="202"/>
       <c r="M26" s="202"/>
-      <c r="N26" s="60"/>
+      <c r="N26" s="203"/>
       <c r="O26" s="60"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="64"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="88"/>
       <c r="T26" s="64"/>
-    </row>
-    <row r="27" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U26" s="64"/>
+    </row>
+    <row r="27" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
         <v>23</v>
       </c>
@@ -11129,23 +11253,24 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="63"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="84"/>
       <c r="H27" s="63"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="200"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="201"/>
-      <c r="L27" s="201"/>
+      <c r="L27" s="202"/>
       <c r="M27" s="202"/>
-      <c r="N27" s="60"/>
+      <c r="N27" s="203"/>
       <c r="O27" s="60"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="64"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="88"/>
       <c r="T27" s="64"/>
-    </row>
-    <row r="28" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U27" s="64"/>
+    </row>
+    <row r="28" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
         <v>24</v>
       </c>
@@ -11153,23 +11278,24 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="63"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="84"/>
       <c r="H28" s="63"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="200"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="40"/>
       <c r="K28" s="201"/>
-      <c r="L28" s="201"/>
+      <c r="L28" s="202"/>
       <c r="M28" s="202"/>
-      <c r="N28" s="60"/>
+      <c r="N28" s="203"/>
       <c r="O28" s="60"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="64"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="88"/>
       <c r="T28" s="64"/>
-    </row>
-    <row r="29" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U28" s="64"/>
+    </row>
+    <row r="29" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
         <v>25</v>
       </c>
@@ -11177,23 +11303,24 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="63"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="84"/>
       <c r="H29" s="63"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="200"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="40"/>
       <c r="K29" s="201"/>
-      <c r="L29" s="201"/>
+      <c r="L29" s="202"/>
       <c r="M29" s="202"/>
-      <c r="N29" s="60"/>
+      <c r="N29" s="203"/>
       <c r="O29" s="60"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="64"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="88"/>
       <c r="T29" s="64"/>
-    </row>
-    <row r="30" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U29" s="64"/>
+    </row>
+    <row r="30" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="33">
         <v>26</v>
       </c>
@@ -11201,23 +11328,24 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="63"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="84"/>
       <c r="H30" s="63"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="200"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="201"/>
-      <c r="L30" s="201"/>
+      <c r="L30" s="202"/>
       <c r="M30" s="202"/>
-      <c r="N30" s="60"/>
+      <c r="N30" s="203"/>
       <c r="O30" s="60"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="88"/>
-      <c r="S30" s="64"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="88"/>
       <c r="T30" s="64"/>
-    </row>
-    <row r="31" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U30" s="64"/>
+    </row>
+    <row r="31" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="33">
         <v>27</v>
       </c>
@@ -11225,23 +11353,24 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="63"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="84"/>
       <c r="H31" s="63"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="200"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="40"/>
       <c r="K31" s="201"/>
-      <c r="L31" s="201"/>
+      <c r="L31" s="202"/>
       <c r="M31" s="202"/>
-      <c r="N31" s="60"/>
+      <c r="N31" s="203"/>
       <c r="O31" s="60"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="75"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="64"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="88"/>
       <c r="T31" s="64"/>
-    </row>
-    <row r="32" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U31" s="64"/>
+    </row>
+    <row r="32" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="33">
         <v>28</v>
       </c>
@@ -11249,23 +11378,24 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="63"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="84"/>
       <c r="H32" s="63"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="200"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="40"/>
       <c r="K32" s="201"/>
-      <c r="L32" s="201"/>
+      <c r="L32" s="202"/>
       <c r="M32" s="202"/>
-      <c r="N32" s="60"/>
+      <c r="N32" s="203"/>
       <c r="O32" s="60"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="88"/>
-      <c r="S32" s="64"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="75"/>
+      <c r="S32" s="88"/>
       <c r="T32" s="64"/>
-    </row>
-    <row r="33" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U32" s="64"/>
+    </row>
+    <row r="33" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="33">
         <v>29</v>
       </c>
@@ -11273,47 +11403,49 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="63"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="84"/>
       <c r="H33" s="63"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="200"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="40"/>
       <c r="K33" s="201"/>
-      <c r="L33" s="201"/>
+      <c r="L33" s="202"/>
       <c r="M33" s="202"/>
-      <c r="N33" s="60"/>
+      <c r="N33" s="203"/>
       <c r="O33" s="60"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="75"/>
-      <c r="R33" s="88"/>
-      <c r="S33" s="64"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="88"/>
       <c r="T33" s="64"/>
-    </row>
-    <row r="34" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U33" s="64"/>
+    </row>
+    <row r="34" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="33">
         <v>30</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="63"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="84"/>
       <c r="H34" s="63"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="200"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="82"/>
       <c r="K34" s="201"/>
-      <c r="L34" s="201"/>
+      <c r="L34" s="202"/>
       <c r="M34" s="202"/>
-      <c r="N34" s="85"/>
+      <c r="N34" s="203"/>
       <c r="O34" s="85"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="88"/>
-      <c r="S34" s="64"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="88"/>
       <c r="T34" s="64"/>
-    </row>
-    <row r="35" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U34" s="64"/>
+    </row>
+    <row r="35" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="33">
         <v>31</v>
       </c>
@@ -11321,23 +11453,24 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="63"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="84"/>
       <c r="H35" s="63"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="200"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="40"/>
       <c r="K35" s="201"/>
-      <c r="L35" s="201"/>
+      <c r="L35" s="202"/>
       <c r="M35" s="202"/>
-      <c r="N35" s="60"/>
+      <c r="N35" s="203"/>
       <c r="O35" s="60"/>
-      <c r="P35" s="76"/>
-      <c r="Q35" s="75"/>
-      <c r="R35" s="88"/>
-      <c r="S35" s="64"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="88"/>
       <c r="T35" s="64"/>
-    </row>
-    <row r="36" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U35" s="64"/>
+    </row>
+    <row r="36" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="33">
         <v>32</v>
       </c>
@@ -11345,23 +11478,24 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="63"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="84"/>
       <c r="H36" s="63"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="200"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="40"/>
       <c r="K36" s="201"/>
-      <c r="L36" s="201"/>
+      <c r="L36" s="202"/>
       <c r="M36" s="202"/>
-      <c r="N36" s="60"/>
+      <c r="N36" s="203"/>
       <c r="O36" s="60"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="75"/>
-      <c r="R36" s="88"/>
-      <c r="S36" s="64"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="88"/>
       <c r="T36" s="64"/>
-    </row>
-    <row r="37" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U36" s="64"/>
+    </row>
+    <row r="37" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="33">
         <v>33</v>
       </c>
@@ -11369,23 +11503,24 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="63"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="84"/>
       <c r="H37" s="63"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="200"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="40"/>
       <c r="K37" s="201"/>
-      <c r="L37" s="201"/>
+      <c r="L37" s="202"/>
       <c r="M37" s="202"/>
-      <c r="N37" s="60"/>
+      <c r="N37" s="203"/>
       <c r="O37" s="60"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="75"/>
-      <c r="R37" s="88"/>
-      <c r="S37" s="64"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="88"/>
       <c r="T37" s="64"/>
-    </row>
-    <row r="38" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U37" s="64"/>
+    </row>
+    <row r="38" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="33">
         <v>34</v>
       </c>
@@ -11393,23 +11528,24 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="63"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="84"/>
       <c r="H38" s="63"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="200"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="40"/>
       <c r="K38" s="201"/>
-      <c r="L38" s="201"/>
+      <c r="L38" s="202"/>
       <c r="M38" s="202"/>
-      <c r="N38" s="60"/>
+      <c r="N38" s="203"/>
       <c r="O38" s="60"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="75"/>
-      <c r="R38" s="88"/>
-      <c r="S38" s="64"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="76"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="88"/>
       <c r="T38" s="64"/>
-    </row>
-    <row r="39" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U38" s="64"/>
+    </row>
+    <row r="39" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="33">
         <v>35</v>
       </c>
@@ -11417,23 +11553,24 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="63"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="84"/>
       <c r="H39" s="63"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="200"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="40"/>
       <c r="K39" s="201"/>
-      <c r="L39" s="201"/>
+      <c r="L39" s="202"/>
       <c r="M39" s="202"/>
-      <c r="N39" s="60"/>
+      <c r="N39" s="203"/>
       <c r="O39" s="60"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="88"/>
-      <c r="S39" s="64"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="76"/>
+      <c r="R39" s="75"/>
+      <c r="S39" s="88"/>
       <c r="T39" s="64"/>
-    </row>
-    <row r="40" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U39" s="64"/>
+    </row>
+    <row r="40" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="33">
         <v>36</v>
       </c>
@@ -11441,23 +11578,24 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="63"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="84"/>
       <c r="H40" s="63"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="200"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="40"/>
       <c r="K40" s="201"/>
-      <c r="L40" s="201"/>
+      <c r="L40" s="202"/>
       <c r="M40" s="202"/>
-      <c r="N40" s="74"/>
+      <c r="N40" s="203"/>
       <c r="O40" s="74"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="88"/>
-      <c r="S40" s="64"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="76"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="88"/>
       <c r="T40" s="64"/>
-    </row>
-    <row r="41" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U40" s="64"/>
+    </row>
+    <row r="41" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="33">
         <v>37</v>
       </c>
@@ -11465,23 +11603,24 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="63"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="84"/>
       <c r="H41" s="63"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="200"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="40"/>
       <c r="K41" s="201"/>
-      <c r="L41" s="201"/>
+      <c r="L41" s="202"/>
       <c r="M41" s="202"/>
-      <c r="N41" s="74"/>
+      <c r="N41" s="203"/>
       <c r="O41" s="74"/>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="64"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="76"/>
+      <c r="R41" s="75"/>
+      <c r="S41" s="88"/>
       <c r="T41" s="64"/>
-    </row>
-    <row r="42" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U41" s="64"/>
+    </row>
+    <row r="42" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="33">
         <v>38</v>
       </c>
@@ -11489,23 +11628,24 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="63"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="84"/>
       <c r="H42" s="63"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="200"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="40"/>
       <c r="K42" s="201"/>
-      <c r="L42" s="201"/>
+      <c r="L42" s="202"/>
       <c r="M42" s="202"/>
-      <c r="N42" s="74"/>
+      <c r="N42" s="203"/>
       <c r="O42" s="74"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="88"/>
-      <c r="S42" s="64"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="75"/>
+      <c r="S42" s="88"/>
       <c r="T42" s="64"/>
-    </row>
-    <row r="43" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U42" s="64"/>
+    </row>
+    <row r="43" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A43" s="33">
         <v>39</v>
       </c>
@@ -11513,23 +11653,24 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="63"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="84"/>
       <c r="H43" s="63"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="200"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="40"/>
       <c r="K43" s="201"/>
-      <c r="L43" s="201"/>
+      <c r="L43" s="202"/>
       <c r="M43" s="202"/>
-      <c r="N43" s="74"/>
+      <c r="N43" s="203"/>
       <c r="O43" s="74"/>
-      <c r="P43" s="76"/>
-      <c r="Q43" s="75"/>
-      <c r="R43" s="88"/>
-      <c r="S43" s="64"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="76"/>
+      <c r="R43" s="75"/>
+      <c r="S43" s="88"/>
       <c r="T43" s="64"/>
-    </row>
-    <row r="44" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U43" s="64"/>
+    </row>
+    <row r="44" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="33">
         <v>40</v>
       </c>
@@ -11537,23 +11678,24 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="63"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="84"/>
       <c r="H44" s="63"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="200"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="40"/>
       <c r="K44" s="201"/>
-      <c r="L44" s="201"/>
+      <c r="L44" s="202"/>
       <c r="M44" s="202"/>
-      <c r="N44" s="74"/>
+      <c r="N44" s="203"/>
       <c r="O44" s="74"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="75"/>
-      <c r="R44" s="88"/>
-      <c r="S44" s="64"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="76"/>
+      <c r="R44" s="75"/>
+      <c r="S44" s="88"/>
       <c r="T44" s="64"/>
-    </row>
-    <row r="45" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U44" s="64"/>
+    </row>
+    <row r="45" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="33">
         <v>41</v>
       </c>
@@ -11561,23 +11703,24 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="63"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="84"/>
       <c r="H45" s="63"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="200"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="40"/>
       <c r="K45" s="201"/>
-      <c r="L45" s="201"/>
+      <c r="L45" s="202"/>
       <c r="M45" s="202"/>
-      <c r="N45" s="74"/>
+      <c r="N45" s="203"/>
       <c r="O45" s="74"/>
-      <c r="P45" s="76"/>
-      <c r="Q45" s="75"/>
-      <c r="R45" s="88"/>
-      <c r="S45" s="64"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="75"/>
+      <c r="S45" s="88"/>
       <c r="T45" s="64"/>
-    </row>
-    <row r="46" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U45" s="64"/>
+    </row>
+    <row r="46" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A46" s="33">
         <v>42</v>
       </c>
@@ -11585,23 +11728,24 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="63"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="84"/>
       <c r="H46" s="63"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="200"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="40"/>
       <c r="K46" s="201"/>
-      <c r="L46" s="201"/>
+      <c r="L46" s="202"/>
       <c r="M46" s="202"/>
-      <c r="N46" s="74"/>
+      <c r="N46" s="203"/>
       <c r="O46" s="74"/>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="75"/>
-      <c r="R46" s="88"/>
-      <c r="S46" s="64"/>
+      <c r="P46" s="74"/>
+      <c r="Q46" s="76"/>
+      <c r="R46" s="75"/>
+      <c r="S46" s="88"/>
       <c r="T46" s="64"/>
-    </row>
-    <row r="47" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U46" s="64"/>
+    </row>
+    <row r="47" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A47" s="33">
         <v>43</v>
       </c>
@@ -11609,23 +11753,24 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="63"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="84"/>
       <c r="H47" s="63"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="200"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="40"/>
       <c r="K47" s="201"/>
-      <c r="L47" s="201"/>
+      <c r="L47" s="202"/>
       <c r="M47" s="202"/>
-      <c r="N47" s="74"/>
+      <c r="N47" s="203"/>
       <c r="O47" s="74"/>
-      <c r="P47" s="76"/>
-      <c r="Q47" s="75"/>
-      <c r="R47" s="88"/>
-      <c r="S47" s="64"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="76"/>
+      <c r="R47" s="75"/>
+      <c r="S47" s="88"/>
       <c r="T47" s="64"/>
-    </row>
-    <row r="48" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U47" s="64"/>
+    </row>
+    <row r="48" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A48" s="33">
         <v>44</v>
       </c>
@@ -11633,23 +11778,24 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="63"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="84"/>
       <c r="H48" s="63"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="200"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="40"/>
       <c r="K48" s="201"/>
-      <c r="L48" s="201"/>
+      <c r="L48" s="202"/>
       <c r="M48" s="202"/>
-      <c r="N48" s="74"/>
+      <c r="N48" s="203"/>
       <c r="O48" s="74"/>
-      <c r="P48" s="76"/>
-      <c r="Q48" s="75"/>
-      <c r="R48" s="88"/>
-      <c r="S48" s="64"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="76"/>
+      <c r="R48" s="75"/>
+      <c r="S48" s="88"/>
       <c r="T48" s="64"/>
-    </row>
-    <row r="49" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U48" s="64"/>
+    </row>
+    <row r="49" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="33">
         <v>45</v>
       </c>
@@ -11657,23 +11803,24 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="63"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="84"/>
       <c r="H49" s="63"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="200"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="40"/>
       <c r="K49" s="201"/>
-      <c r="L49" s="201"/>
+      <c r="L49" s="202"/>
       <c r="M49" s="202"/>
-      <c r="N49" s="74"/>
+      <c r="N49" s="203"/>
       <c r="O49" s="74"/>
-      <c r="P49" s="76"/>
-      <c r="Q49" s="75"/>
-      <c r="R49" s="88"/>
-      <c r="S49" s="64"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="76"/>
+      <c r="R49" s="75"/>
+      <c r="S49" s="88"/>
       <c r="T49" s="64"/>
-    </row>
-    <row r="50" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U49" s="64"/>
+    </row>
+    <row r="50" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="33">
         <v>46</v>
       </c>
@@ -11681,23 +11828,24 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="63"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="84"/>
       <c r="H50" s="63"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="200"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="40"/>
       <c r="K50" s="201"/>
-      <c r="L50" s="201"/>
+      <c r="L50" s="202"/>
       <c r="M50" s="202"/>
-      <c r="N50" s="74"/>
+      <c r="N50" s="203"/>
       <c r="O50" s="74"/>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="75"/>
-      <c r="R50" s="88"/>
-      <c r="S50" s="64"/>
+      <c r="P50" s="74"/>
+      <c r="Q50" s="76"/>
+      <c r="R50" s="75"/>
+      <c r="S50" s="88"/>
       <c r="T50" s="64"/>
-    </row>
-    <row r="51" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U50" s="64"/>
+    </row>
+    <row r="51" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A51" s="33">
         <v>47</v>
       </c>
@@ -11705,23 +11853,24 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="63"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="84"/>
       <c r="H51" s="63"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="200"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="40"/>
       <c r="K51" s="201"/>
-      <c r="L51" s="201"/>
+      <c r="L51" s="202"/>
       <c r="M51" s="202"/>
-      <c r="N51" s="74"/>
+      <c r="N51" s="203"/>
       <c r="O51" s="74"/>
-      <c r="P51" s="76"/>
-      <c r="Q51" s="75"/>
-      <c r="R51" s="88"/>
-      <c r="S51" s="64"/>
+      <c r="P51" s="74"/>
+      <c r="Q51" s="76"/>
+      <c r="R51" s="75"/>
+      <c r="S51" s="88"/>
       <c r="T51" s="64"/>
-    </row>
-    <row r="52" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U51" s="64"/>
+    </row>
+    <row r="52" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="33">
         <v>48</v>
       </c>
@@ -11729,23 +11878,24 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="63"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="84"/>
       <c r="H52" s="63"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="200"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="40"/>
       <c r="K52" s="201"/>
-      <c r="L52" s="201"/>
+      <c r="L52" s="202"/>
       <c r="M52" s="202"/>
-      <c r="N52" s="74"/>
+      <c r="N52" s="203"/>
       <c r="O52" s="74"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="75"/>
-      <c r="R52" s="88"/>
-      <c r="S52" s="64"/>
+      <c r="P52" s="74"/>
+      <c r="Q52" s="76"/>
+      <c r="R52" s="75"/>
+      <c r="S52" s="88"/>
       <c r="T52" s="64"/>
-    </row>
-    <row r="53" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U52" s="64"/>
+    </row>
+    <row r="53" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A53" s="33">
         <v>49</v>
       </c>
@@ -11753,23 +11903,24 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="63"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="84"/>
       <c r="H53" s="63"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="200"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="40"/>
       <c r="K53" s="201"/>
-      <c r="L53" s="201"/>
+      <c r="L53" s="202"/>
       <c r="M53" s="202"/>
-      <c r="N53" s="74"/>
+      <c r="N53" s="203"/>
       <c r="O53" s="74"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="75"/>
-      <c r="R53" s="88"/>
-      <c r="S53" s="64"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="76"/>
+      <c r="R53" s="75"/>
+      <c r="S53" s="88"/>
       <c r="T53" s="64"/>
-    </row>
-    <row r="54" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U53" s="64"/>
+    </row>
+    <row r="54" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A54" s="33">
         <v>50</v>
       </c>
@@ -11777,23 +11928,24 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="63"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="84"/>
       <c r="H54" s="63"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="200"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="40"/>
       <c r="K54" s="201"/>
-      <c r="L54" s="201"/>
+      <c r="L54" s="202"/>
       <c r="M54" s="202"/>
-      <c r="N54" s="74"/>
+      <c r="N54" s="203"/>
       <c r="O54" s="74"/>
-      <c r="P54" s="76"/>
-      <c r="Q54" s="75"/>
-      <c r="R54" s="88"/>
-      <c r="S54" s="64"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="76"/>
+      <c r="R54" s="75"/>
+      <c r="S54" s="88"/>
       <c r="T54" s="64"/>
-    </row>
-    <row r="55" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U54" s="64"/>
+    </row>
+    <row r="55" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A55" s="33">
         <v>51</v>
       </c>
@@ -11801,23 +11953,24 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="63"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="84"/>
       <c r="H55" s="63"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="200"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="40"/>
       <c r="K55" s="201"/>
-      <c r="L55" s="201"/>
+      <c r="L55" s="202"/>
       <c r="M55" s="202"/>
-      <c r="N55" s="74"/>
+      <c r="N55" s="203"/>
       <c r="O55" s="74"/>
-      <c r="P55" s="76"/>
-      <c r="Q55" s="75"/>
-      <c r="R55" s="88"/>
-      <c r="S55" s="64"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="76"/>
+      <c r="R55" s="75"/>
+      <c r="S55" s="88"/>
       <c r="T55" s="64"/>
-    </row>
-    <row r="56" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U55" s="64"/>
+    </row>
+    <row r="56" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A56" s="33">
         <v>52</v>
       </c>
@@ -11825,23 +11978,24 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="63"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="84"/>
       <c r="H56" s="63"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="200"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="40"/>
       <c r="K56" s="201"/>
-      <c r="L56" s="201"/>
+      <c r="L56" s="202"/>
       <c r="M56" s="202"/>
-      <c r="N56" s="74"/>
+      <c r="N56" s="203"/>
       <c r="O56" s="74"/>
-      <c r="P56" s="76"/>
-      <c r="Q56" s="75"/>
-      <c r="R56" s="88"/>
-      <c r="S56" s="64"/>
+      <c r="P56" s="74"/>
+      <c r="Q56" s="76"/>
+      <c r="R56" s="75"/>
+      <c r="S56" s="88"/>
       <c r="T56" s="64"/>
-    </row>
-    <row r="57" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U56" s="64"/>
+    </row>
+    <row r="57" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A57" s="33">
         <v>53</v>
       </c>
@@ -11849,23 +12003,24 @@
       <c r="C57" s="33"/>
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="63"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="84"/>
       <c r="H57" s="63"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="200"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="40"/>
       <c r="K57" s="201"/>
-      <c r="L57" s="201"/>
+      <c r="L57" s="202"/>
       <c r="M57" s="202"/>
-      <c r="N57" s="74"/>
+      <c r="N57" s="203"/>
       <c r="O57" s="74"/>
-      <c r="P57" s="76"/>
-      <c r="Q57" s="75"/>
-      <c r="R57" s="88"/>
-      <c r="S57" s="64"/>
+      <c r="P57" s="74"/>
+      <c r="Q57" s="76"/>
+      <c r="R57" s="75"/>
+      <c r="S57" s="88"/>
       <c r="T57" s="64"/>
-    </row>
-    <row r="58" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U57" s="64"/>
+    </row>
+    <row r="58" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A58" s="33">
         <v>54</v>
       </c>
@@ -11873,23 +12028,24 @@
       <c r="C58" s="33"/>
       <c r="D58" s="33"/>
       <c r="E58" s="33"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="63"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="84"/>
       <c r="H58" s="63"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="200"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="40"/>
       <c r="K58" s="201"/>
-      <c r="L58" s="201"/>
+      <c r="L58" s="202"/>
       <c r="M58" s="202"/>
-      <c r="N58" s="74"/>
+      <c r="N58" s="203"/>
       <c r="O58" s="74"/>
-      <c r="P58" s="76"/>
-      <c r="Q58" s="75"/>
-      <c r="R58" s="88"/>
-      <c r="S58" s="64"/>
+      <c r="P58" s="74"/>
+      <c r="Q58" s="76"/>
+      <c r="R58" s="75"/>
+      <c r="S58" s="88"/>
       <c r="T58" s="64"/>
-    </row>
-    <row r="59" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U58" s="64"/>
+    </row>
+    <row r="59" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A59" s="33">
         <v>55</v>
       </c>
@@ -11897,23 +12053,24 @@
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="63"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="84"/>
       <c r="H59" s="63"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="200"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="40"/>
       <c r="K59" s="201"/>
-      <c r="L59" s="201"/>
+      <c r="L59" s="202"/>
       <c r="M59" s="202"/>
-      <c r="N59" s="74"/>
+      <c r="N59" s="203"/>
       <c r="O59" s="74"/>
-      <c r="P59" s="76"/>
-      <c r="Q59" s="75"/>
-      <c r="R59" s="88"/>
-      <c r="S59" s="64"/>
+      <c r="P59" s="74"/>
+      <c r="Q59" s="76"/>
+      <c r="R59" s="75"/>
+      <c r="S59" s="88"/>
       <c r="T59" s="64"/>
-    </row>
-    <row r="60" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U59" s="64"/>
+    </row>
+    <row r="60" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A60" s="33">
         <v>56</v>
       </c>
@@ -11921,23 +12078,24 @@
       <c r="C60" s="33"/>
       <c r="D60" s="33"/>
       <c r="E60" s="33"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="63"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="84"/>
       <c r="H60" s="63"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="200"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="40"/>
       <c r="K60" s="201"/>
-      <c r="L60" s="201"/>
+      <c r="L60" s="202"/>
       <c r="M60" s="202"/>
-      <c r="N60" s="74"/>
+      <c r="N60" s="203"/>
       <c r="O60" s="74"/>
-      <c r="P60" s="76"/>
-      <c r="Q60" s="75"/>
-      <c r="R60" s="88"/>
-      <c r="S60" s="64"/>
+      <c r="P60" s="74"/>
+      <c r="Q60" s="76"/>
+      <c r="R60" s="75"/>
+      <c r="S60" s="88"/>
       <c r="T60" s="64"/>
-    </row>
-    <row r="61" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U60" s="64"/>
+    </row>
+    <row r="61" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A61" s="33">
         <v>57</v>
       </c>
@@ -11945,23 +12103,24 @@
       <c r="C61" s="33"/>
       <c r="D61" s="33"/>
       <c r="E61" s="33"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="63"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="84"/>
       <c r="H61" s="63"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="200"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="40"/>
       <c r="K61" s="201"/>
-      <c r="L61" s="201"/>
+      <c r="L61" s="202"/>
       <c r="M61" s="202"/>
-      <c r="N61" s="74"/>
+      <c r="N61" s="203"/>
       <c r="O61" s="74"/>
-      <c r="P61" s="76"/>
-      <c r="Q61" s="75"/>
-      <c r="R61" s="88"/>
-      <c r="S61" s="64"/>
+      <c r="P61" s="74"/>
+      <c r="Q61" s="76"/>
+      <c r="R61" s="75"/>
+      <c r="S61" s="88"/>
       <c r="T61" s="64"/>
-    </row>
-    <row r="62" spans="1:20" s="34" customFormat="1" ht="11.25">
+      <c r="U61" s="64"/>
+    </row>
+    <row r="62" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A62" s="33">
         <v>58</v>
       </c>
@@ -11969,23 +12128,24 @@
       <c r="C62" s="33"/>
       <c r="D62" s="33"/>
       <c r="E62" s="33"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="63"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="84"/>
       <c r="H62" s="63"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="200"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="40"/>
       <c r="K62" s="201"/>
-      <c r="L62" s="201"/>
+      <c r="L62" s="202"/>
       <c r="M62" s="202"/>
-      <c r="N62" s="84"/>
+      <c r="N62" s="203"/>
       <c r="O62" s="84"/>
-      <c r="P62" s="76"/>
-      <c r="Q62" s="75"/>
-      <c r="R62" s="88"/>
-      <c r="S62" s="64"/>
+      <c r="P62" s="84"/>
+      <c r="Q62" s="76"/>
+      <c r="R62" s="75"/>
+      <c r="S62" s="88"/>
       <c r="T62" s="64"/>
-    </row>
-    <row r="63" spans="1:20" s="34" customFormat="1" ht="11.25">
+      <c r="U62" s="64"/>
+    </row>
+    <row r="63" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A63" s="33">
         <v>59</v>
       </c>
@@ -11993,23 +12153,24 @@
       <c r="C63" s="33"/>
       <c r="D63" s="33"/>
       <c r="E63" s="33"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="63"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="84"/>
       <c r="H63" s="63"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="200"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="40"/>
       <c r="K63" s="201"/>
-      <c r="L63" s="201"/>
+      <c r="L63" s="202"/>
       <c r="M63" s="202"/>
-      <c r="N63" s="84"/>
+      <c r="N63" s="203"/>
       <c r="O63" s="84"/>
-      <c r="P63" s="76"/>
-      <c r="Q63" s="75"/>
-      <c r="R63" s="88"/>
-      <c r="S63" s="64"/>
+      <c r="P63" s="84"/>
+      <c r="Q63" s="76"/>
+      <c r="R63" s="75"/>
+      <c r="S63" s="88"/>
       <c r="T63" s="64"/>
-    </row>
-    <row r="64" spans="1:20" ht="24.75" customHeight="1">
+      <c r="U63" s="64"/>
+    </row>
+    <row r="64" spans="1:21" ht="24.75" customHeight="1">
       <c r="A64" s="33">
         <v>60</v>
       </c>
@@ -12017,21 +12178,22 @@
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
       <c r="E64" s="33"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="63"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="84"/>
       <c r="H64" s="63"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="200"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="40"/>
       <c r="K64" s="201"/>
-      <c r="L64" s="201"/>
+      <c r="L64" s="202"/>
       <c r="M64" s="202"/>
-      <c r="N64" s="84"/>
+      <c r="N64" s="203"/>
       <c r="O64" s="84"/>
-      <c r="P64" s="76"/>
-      <c r="Q64" s="75"/>
-      <c r="R64" s="88"/>
-    </row>
-    <row r="65" spans="1:18" ht="12" customHeight="1">
+      <c r="P64" s="84"/>
+      <c r="Q64" s="76"/>
+      <c r="R64" s="75"/>
+      <c r="S64" s="88"/>
+    </row>
+    <row r="65" spans="1:19" ht="12" customHeight="1">
       <c r="A65" s="33">
         <v>61</v>
       </c>
@@ -12039,21 +12201,22 @@
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
       <c r="E65" s="33"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="63"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="84"/>
       <c r="H65" s="63"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="200"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="40"/>
       <c r="K65" s="201"/>
-      <c r="L65" s="201"/>
+      <c r="L65" s="202"/>
       <c r="M65" s="202"/>
-      <c r="N65" s="84"/>
+      <c r="N65" s="203"/>
       <c r="O65" s="84"/>
-      <c r="P65" s="76"/>
-      <c r="Q65" s="75"/>
-      <c r="R65" s="88"/>
-    </row>
-    <row r="66" spans="1:18" ht="12" customHeight="1">
+      <c r="P65" s="84"/>
+      <c r="Q65" s="76"/>
+      <c r="R65" s="75"/>
+      <c r="S65" s="88"/>
+    </row>
+    <row r="66" spans="1:19" ht="12" customHeight="1">
       <c r="A66" s="33">
         <v>62</v>
       </c>
@@ -12061,21 +12224,22 @@
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
       <c r="E66" s="33"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="63"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="84"/>
       <c r="H66" s="63"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="200"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="40"/>
       <c r="K66" s="201"/>
-      <c r="L66" s="201"/>
+      <c r="L66" s="202"/>
       <c r="M66" s="202"/>
-      <c r="N66" s="84"/>
+      <c r="N66" s="203"/>
       <c r="O66" s="84"/>
-      <c r="P66" s="76"/>
-      <c r="Q66" s="75"/>
-      <c r="R66" s="88"/>
-    </row>
-    <row r="67" spans="1:18" ht="12" customHeight="1">
+      <c r="P66" s="84"/>
+      <c r="Q66" s="76"/>
+      <c r="R66" s="75"/>
+      <c r="S66" s="88"/>
+    </row>
+    <row r="67" spans="1:19" ht="12" customHeight="1">
       <c r="A67" s="33">
         <v>63</v>
       </c>
@@ -12083,21 +12247,22 @@
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
       <c r="E67" s="33"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="63"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="84"/>
       <c r="H67" s="63"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="200"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="40"/>
       <c r="K67" s="201"/>
-      <c r="L67" s="201"/>
+      <c r="L67" s="202"/>
       <c r="M67" s="202"/>
-      <c r="N67" s="84"/>
+      <c r="N67" s="203"/>
       <c r="O67" s="84"/>
-      <c r="P67" s="76"/>
-      <c r="Q67" s="75"/>
-      <c r="R67" s="88"/>
-    </row>
-    <row r="68" spans="1:18" ht="12" customHeight="1">
+      <c r="P67" s="84"/>
+      <c r="Q67" s="76"/>
+      <c r="R67" s="75"/>
+      <c r="S67" s="88"/>
+    </row>
+    <row r="68" spans="1:19" ht="12" customHeight="1">
       <c r="A68" s="33">
         <v>64</v>
       </c>
@@ -12105,21 +12270,22 @@
       <c r="C68" s="33"/>
       <c r="D68" s="33"/>
       <c r="E68" s="33"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="63"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="84"/>
       <c r="H68" s="63"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="200"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="40"/>
       <c r="K68" s="201"/>
-      <c r="L68" s="201"/>
+      <c r="L68" s="202"/>
       <c r="M68" s="202"/>
-      <c r="N68" s="84"/>
+      <c r="N68" s="203"/>
       <c r="O68" s="84"/>
-      <c r="P68" s="76"/>
-      <c r="Q68" s="75"/>
-      <c r="R68" s="88"/>
-    </row>
-    <row r="69" spans="1:18" ht="12" customHeight="1">
+      <c r="P68" s="84"/>
+      <c r="Q68" s="76"/>
+      <c r="R68" s="75"/>
+      <c r="S68" s="88"/>
+    </row>
+    <row r="69" spans="1:19" ht="12" customHeight="1">
       <c r="A69" s="33">
         <v>65</v>
       </c>
@@ -12127,21 +12293,22 @@
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
       <c r="E69" s="33"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="63"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="84"/>
       <c r="H69" s="63"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="200"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="40"/>
       <c r="K69" s="201"/>
-      <c r="L69" s="201"/>
+      <c r="L69" s="202"/>
       <c r="M69" s="202"/>
-      <c r="N69" s="84"/>
+      <c r="N69" s="203"/>
       <c r="O69" s="84"/>
-      <c r="P69" s="76"/>
-      <c r="Q69" s="75"/>
-      <c r="R69" s="88"/>
-    </row>
-    <row r="70" spans="1:18" ht="12" customHeight="1">
+      <c r="P69" s="84"/>
+      <c r="Q69" s="76"/>
+      <c r="R69" s="75"/>
+      <c r="S69" s="88"/>
+    </row>
+    <row r="70" spans="1:19" ht="12" customHeight="1">
       <c r="A70" s="33">
         <v>66</v>
       </c>
@@ -12149,21 +12316,22 @@
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
       <c r="E70" s="33"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="63"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="84"/>
       <c r="H70" s="63"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="200"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="40"/>
       <c r="K70" s="201"/>
-      <c r="L70" s="201"/>
+      <c r="L70" s="202"/>
       <c r="M70" s="202"/>
-      <c r="N70" s="84"/>
+      <c r="N70" s="203"/>
       <c r="O70" s="84"/>
-      <c r="P70" s="76"/>
-      <c r="Q70" s="75"/>
-      <c r="R70" s="88"/>
-    </row>
-    <row r="71" spans="1:18" ht="12" customHeight="1">
+      <c r="P70" s="84"/>
+      <c r="Q70" s="76"/>
+      <c r="R70" s="75"/>
+      <c r="S70" s="88"/>
+    </row>
+    <row r="71" spans="1:19" ht="12" customHeight="1">
       <c r="A71" s="33">
         <v>67</v>
       </c>
@@ -12171,21 +12339,22 @@
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
       <c r="E71" s="33"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="63"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="84"/>
       <c r="H71" s="63"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="200"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="40"/>
       <c r="K71" s="201"/>
-      <c r="L71" s="201"/>
+      <c r="L71" s="202"/>
       <c r="M71" s="202"/>
-      <c r="N71" s="84"/>
+      <c r="N71" s="203"/>
       <c r="O71" s="84"/>
-      <c r="P71" s="76"/>
-      <c r="Q71" s="75"/>
-      <c r="R71" s="88"/>
-    </row>
-    <row r="72" spans="1:18" ht="12" customHeight="1">
+      <c r="P71" s="84"/>
+      <c r="Q71" s="76"/>
+      <c r="R71" s="75"/>
+      <c r="S71" s="88"/>
+    </row>
+    <row r="72" spans="1:19" ht="12" customHeight="1">
       <c r="A72" s="33">
         <v>68</v>
       </c>
@@ -12193,21 +12362,22 @@
       <c r="C72" s="33"/>
       <c r="D72" s="33"/>
       <c r="E72" s="33"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="63"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="84"/>
       <c r="H72" s="63"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="200"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="40"/>
       <c r="K72" s="201"/>
-      <c r="L72" s="201"/>
+      <c r="L72" s="202"/>
       <c r="M72" s="202"/>
-      <c r="N72" s="84"/>
+      <c r="N72" s="203"/>
       <c r="O72" s="84"/>
-      <c r="P72" s="76"/>
-      <c r="Q72" s="75"/>
-      <c r="R72" s="88"/>
-    </row>
-    <row r="73" spans="1:18" ht="12" customHeight="1">
+      <c r="P72" s="84"/>
+      <c r="Q72" s="76"/>
+      <c r="R72" s="75"/>
+      <c r="S72" s="88"/>
+    </row>
+    <row r="73" spans="1:19" ht="12" customHeight="1">
       <c r="A73" s="33">
         <v>69</v>
       </c>
@@ -12215,21 +12385,22 @@
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
       <c r="E73" s="33"/>
-      <c r="F73" s="84"/>
-      <c r="G73" s="63"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="84"/>
       <c r="H73" s="63"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="200"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="40"/>
       <c r="K73" s="201"/>
-      <c r="L73" s="201"/>
+      <c r="L73" s="202"/>
       <c r="M73" s="202"/>
-      <c r="N73" s="84"/>
+      <c r="N73" s="203"/>
       <c r="O73" s="84"/>
-      <c r="P73" s="76"/>
-      <c r="Q73" s="75"/>
-      <c r="R73" s="88"/>
-    </row>
-    <row r="74" spans="1:18" ht="12" customHeight="1">
+      <c r="P73" s="84"/>
+      <c r="Q73" s="76"/>
+      <c r="R73" s="75"/>
+      <c r="S73" s="88"/>
+    </row>
+    <row r="74" spans="1:19" ht="12" customHeight="1">
       <c r="A74" s="33">
         <v>70</v>
       </c>
@@ -12237,21 +12408,22 @@
       <c r="C74" s="33"/>
       <c r="D74" s="33"/>
       <c r="E74" s="33"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="63"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="84"/>
       <c r="H74" s="63"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="200"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="40"/>
       <c r="K74" s="201"/>
-      <c r="L74" s="201"/>
+      <c r="L74" s="202"/>
       <c r="M74" s="202"/>
-      <c r="N74" s="84"/>
+      <c r="N74" s="203"/>
       <c r="O74" s="84"/>
-      <c r="P74" s="76"/>
-      <c r="Q74" s="75"/>
-      <c r="R74" s="88"/>
-    </row>
-    <row r="75" spans="1:18" ht="12" customHeight="1">
+      <c r="P74" s="84"/>
+      <c r="Q74" s="76"/>
+      <c r="R74" s="75"/>
+      <c r="S74" s="88"/>
+    </row>
+    <row r="75" spans="1:19" ht="12" customHeight="1">
       <c r="A75" s="33">
         <v>71</v>
       </c>
@@ -12259,21 +12431,22 @@
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
       <c r="E75" s="33"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="63"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="84"/>
       <c r="H75" s="63"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="200"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="40"/>
       <c r="K75" s="201"/>
-      <c r="L75" s="201"/>
+      <c r="L75" s="202"/>
       <c r="M75" s="202"/>
-      <c r="N75" s="84"/>
+      <c r="N75" s="203"/>
       <c r="O75" s="84"/>
-      <c r="P75" s="76"/>
-      <c r="Q75" s="75"/>
-      <c r="R75" s="88"/>
-    </row>
-    <row r="76" spans="1:18" ht="12" customHeight="1">
+      <c r="P75" s="84"/>
+      <c r="Q75" s="76"/>
+      <c r="R75" s="75"/>
+      <c r="S75" s="88"/>
+    </row>
+    <row r="76" spans="1:19" ht="12" customHeight="1">
       <c r="A76" s="33">
         <v>72</v>
       </c>
@@ -12281,21 +12454,22 @@
       <c r="C76" s="33"/>
       <c r="D76" s="33"/>
       <c r="E76" s="33"/>
-      <c r="F76" s="84"/>
-      <c r="G76" s="63"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="84"/>
       <c r="H76" s="63"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="200"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="40"/>
       <c r="K76" s="201"/>
-      <c r="L76" s="201"/>
+      <c r="L76" s="202"/>
       <c r="M76" s="202"/>
-      <c r="N76" s="84"/>
+      <c r="N76" s="203"/>
       <c r="O76" s="84"/>
-      <c r="P76" s="76"/>
-      <c r="Q76" s="75"/>
-      <c r="R76" s="88"/>
-    </row>
-    <row r="77" spans="1:18" ht="12" customHeight="1">
+      <c r="P76" s="84"/>
+      <c r="Q76" s="76"/>
+      <c r="R76" s="75"/>
+      <c r="S76" s="88"/>
+    </row>
+    <row r="77" spans="1:19" ht="12" customHeight="1">
       <c r="A77" s="33">
         <v>73</v>
       </c>
@@ -12303,21 +12477,22 @@
       <c r="C77" s="33"/>
       <c r="D77" s="33"/>
       <c r="E77" s="33"/>
-      <c r="F77" s="84"/>
-      <c r="G77" s="63"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="84"/>
       <c r="H77" s="63"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="200"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="40"/>
       <c r="K77" s="201"/>
-      <c r="L77" s="201"/>
+      <c r="L77" s="202"/>
       <c r="M77" s="202"/>
-      <c r="N77" s="84"/>
+      <c r="N77" s="203"/>
       <c r="O77" s="84"/>
-      <c r="P77" s="76"/>
-      <c r="Q77" s="75"/>
-      <c r="R77" s="88"/>
-    </row>
-    <row r="78" spans="1:18" ht="12" customHeight="1">
+      <c r="P77" s="84"/>
+      <c r="Q77" s="76"/>
+      <c r="R77" s="75"/>
+      <c r="S77" s="88"/>
+    </row>
+    <row r="78" spans="1:19" ht="12" customHeight="1">
       <c r="A78" s="33">
         <v>74</v>
       </c>
@@ -12325,21 +12500,22 @@
       <c r="C78" s="33"/>
       <c r="D78" s="33"/>
       <c r="E78" s="33"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="63"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="84"/>
       <c r="H78" s="63"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="200"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="40"/>
       <c r="K78" s="201"/>
-      <c r="L78" s="201"/>
+      <c r="L78" s="202"/>
       <c r="M78" s="202"/>
-      <c r="N78" s="84"/>
+      <c r="N78" s="203"/>
       <c r="O78" s="84"/>
-      <c r="P78" s="76"/>
-      <c r="Q78" s="75"/>
-      <c r="R78" s="88"/>
-    </row>
-    <row r="79" spans="1:18" ht="12" customHeight="1">
+      <c r="P78" s="84"/>
+      <c r="Q78" s="76"/>
+      <c r="R78" s="75"/>
+      <c r="S78" s="88"/>
+    </row>
+    <row r="79" spans="1:19" ht="12" customHeight="1">
       <c r="A79" s="33">
         <v>75</v>
       </c>
@@ -12347,21 +12523,22 @@
       <c r="C79" s="33"/>
       <c r="D79" s="33"/>
       <c r="E79" s="33"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="63"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="84"/>
       <c r="H79" s="63"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="200"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="40"/>
       <c r="K79" s="201"/>
-      <c r="L79" s="201"/>
+      <c r="L79" s="202"/>
       <c r="M79" s="202"/>
-      <c r="N79" s="84"/>
+      <c r="N79" s="203"/>
       <c r="O79" s="84"/>
-      <c r="P79" s="76"/>
-      <c r="Q79" s="75"/>
-      <c r="R79" s="88"/>
-    </row>
-    <row r="80" spans="1:18" ht="12" customHeight="1">
+      <c r="P79" s="84"/>
+      <c r="Q79" s="76"/>
+      <c r="R79" s="75"/>
+      <c r="S79" s="88"/>
+    </row>
+    <row r="80" spans="1:19" ht="12" customHeight="1">
       <c r="A80" s="33">
         <v>76</v>
       </c>
@@ -12369,21 +12546,22 @@
       <c r="C80" s="33"/>
       <c r="D80" s="33"/>
       <c r="E80" s="33"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="63"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="84"/>
       <c r="H80" s="63"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="200"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="40"/>
       <c r="K80" s="201"/>
-      <c r="L80" s="201"/>
+      <c r="L80" s="202"/>
       <c r="M80" s="202"/>
-      <c r="N80" s="84"/>
+      <c r="N80" s="203"/>
       <c r="O80" s="84"/>
-      <c r="P80" s="76"/>
-      <c r="Q80" s="75"/>
-      <c r="R80" s="88"/>
-    </row>
-    <row r="81" spans="1:18" ht="12" customHeight="1">
+      <c r="P80" s="84"/>
+      <c r="Q80" s="76"/>
+      <c r="R80" s="75"/>
+      <c r="S80" s="88"/>
+    </row>
+    <row r="81" spans="1:19" ht="12" customHeight="1">
       <c r="A81" s="33">
         <v>77</v>
       </c>
@@ -12391,21 +12569,22 @@
       <c r="C81" s="33"/>
       <c r="D81" s="33"/>
       <c r="E81" s="33"/>
-      <c r="F81" s="84"/>
-      <c r="G81" s="63"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="84"/>
       <c r="H81" s="63"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="200"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="40"/>
       <c r="K81" s="201"/>
-      <c r="L81" s="201"/>
+      <c r="L81" s="202"/>
       <c r="M81" s="202"/>
-      <c r="N81" s="84"/>
+      <c r="N81" s="203"/>
       <c r="O81" s="84"/>
-      <c r="P81" s="76"/>
-      <c r="Q81" s="75"/>
-      <c r="R81" s="88"/>
-    </row>
-    <row r="82" spans="1:18" ht="12" customHeight="1">
+      <c r="P81" s="84"/>
+      <c r="Q81" s="76"/>
+      <c r="R81" s="75"/>
+      <c r="S81" s="88"/>
+    </row>
+    <row r="82" spans="1:19" ht="12" customHeight="1">
       <c r="A82" s="33">
         <v>78</v>
       </c>
@@ -12413,21 +12592,22 @@
       <c r="C82" s="33"/>
       <c r="D82" s="33"/>
       <c r="E82" s="33"/>
-      <c r="F82" s="84"/>
-      <c r="G82" s="63"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="84"/>
       <c r="H82" s="63"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="200"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="40"/>
       <c r="K82" s="201"/>
-      <c r="L82" s="201"/>
+      <c r="L82" s="202"/>
       <c r="M82" s="202"/>
-      <c r="N82" s="84"/>
+      <c r="N82" s="203"/>
       <c r="O82" s="84"/>
-      <c r="P82" s="76"/>
-      <c r="Q82" s="75"/>
-      <c r="R82" s="88"/>
-    </row>
-    <row r="83" spans="1:18" ht="12" customHeight="1">
+      <c r="P82" s="84"/>
+      <c r="Q82" s="76"/>
+      <c r="R82" s="75"/>
+      <c r="S82" s="88"/>
+    </row>
+    <row r="83" spans="1:19" ht="12" customHeight="1">
       <c r="A83" s="33">
         <v>79</v>
       </c>
@@ -12435,21 +12615,22 @@
       <c r="C83" s="33"/>
       <c r="D83" s="33"/>
       <c r="E83" s="33"/>
-      <c r="F83" s="84"/>
-      <c r="G83" s="63"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="84"/>
       <c r="H83" s="63"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="200"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="40"/>
       <c r="K83" s="201"/>
-      <c r="L83" s="201"/>
+      <c r="L83" s="202"/>
       <c r="M83" s="202"/>
-      <c r="N83" s="84"/>
+      <c r="N83" s="203"/>
       <c r="O83" s="84"/>
-      <c r="P83" s="76"/>
-      <c r="Q83" s="75"/>
-      <c r="R83" s="88"/>
-    </row>
-    <row r="84" spans="1:18" ht="12" customHeight="1">
+      <c r="P83" s="84"/>
+      <c r="Q83" s="76"/>
+      <c r="R83" s="75"/>
+      <c r="S83" s="88"/>
+    </row>
+    <row r="84" spans="1:19" ht="12" customHeight="1">
       <c r="A84" s="33">
         <v>80</v>
       </c>
@@ -12457,21 +12638,22 @@
       <c r="C84" s="33"/>
       <c r="D84" s="33"/>
       <c r="E84" s="33"/>
-      <c r="F84" s="84"/>
-      <c r="G84" s="63"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="84"/>
       <c r="H84" s="63"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="200"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="40"/>
       <c r="K84" s="201"/>
-      <c r="L84" s="201"/>
+      <c r="L84" s="202"/>
       <c r="M84" s="202"/>
-      <c r="N84" s="84"/>
+      <c r="N84" s="203"/>
       <c r="O84" s="84"/>
-      <c r="P84" s="76"/>
-      <c r="Q84" s="75"/>
-      <c r="R84" s="88"/>
-    </row>
-    <row r="85" spans="1:18" ht="12" customHeight="1">
+      <c r="P84" s="84"/>
+      <c r="Q84" s="76"/>
+      <c r="R84" s="75"/>
+      <c r="S84" s="88"/>
+    </row>
+    <row r="85" spans="1:19" ht="12" customHeight="1">
       <c r="A85" s="33">
         <v>81</v>
       </c>
@@ -12479,21 +12661,22 @@
       <c r="C85" s="33"/>
       <c r="D85" s="33"/>
       <c r="E85" s="33"/>
-      <c r="F85" s="84"/>
-      <c r="G85" s="63"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="84"/>
       <c r="H85" s="63"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="200"/>
+      <c r="I85" s="63"/>
+      <c r="J85" s="40"/>
       <c r="K85" s="201"/>
-      <c r="L85" s="201"/>
+      <c r="L85" s="202"/>
       <c r="M85" s="202"/>
-      <c r="N85" s="84"/>
+      <c r="N85" s="203"/>
       <c r="O85" s="84"/>
-      <c r="P85" s="76"/>
-      <c r="Q85" s="75"/>
-      <c r="R85" s="88"/>
-    </row>
-    <row r="86" spans="1:18" ht="12" customHeight="1">
+      <c r="P85" s="84"/>
+      <c r="Q85" s="76"/>
+      <c r="R85" s="75"/>
+      <c r="S85" s="88"/>
+    </row>
+    <row r="86" spans="1:19" ht="12" customHeight="1">
       <c r="A86" s="33">
         <v>82</v>
       </c>
@@ -12501,21 +12684,22 @@
       <c r="C86" s="33"/>
       <c r="D86" s="33"/>
       <c r="E86" s="33"/>
-      <c r="F86" s="84"/>
-      <c r="G86" s="63"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="84"/>
       <c r="H86" s="63"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="200"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="40"/>
       <c r="K86" s="201"/>
-      <c r="L86" s="201"/>
+      <c r="L86" s="202"/>
       <c r="M86" s="202"/>
-      <c r="N86" s="84"/>
+      <c r="N86" s="203"/>
       <c r="O86" s="84"/>
-      <c r="P86" s="76"/>
-      <c r="Q86" s="75"/>
-      <c r="R86" s="88"/>
-    </row>
-    <row r="87" spans="1:18" ht="12" customHeight="1">
+      <c r="P86" s="84"/>
+      <c r="Q86" s="76"/>
+      <c r="R86" s="75"/>
+      <c r="S86" s="88"/>
+    </row>
+    <row r="87" spans="1:19" ht="12" customHeight="1">
       <c r="A87" s="33">
         <v>83</v>
       </c>
@@ -12523,21 +12707,22 @@
       <c r="C87" s="33"/>
       <c r="D87" s="33"/>
       <c r="E87" s="33"/>
-      <c r="F87" s="84"/>
-      <c r="G87" s="63"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="84"/>
       <c r="H87" s="63"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="200"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="40"/>
       <c r="K87" s="201"/>
-      <c r="L87" s="201"/>
+      <c r="L87" s="202"/>
       <c r="M87" s="202"/>
-      <c r="N87" s="84"/>
+      <c r="N87" s="203"/>
       <c r="O87" s="84"/>
-      <c r="P87" s="76"/>
-      <c r="Q87" s="75"/>
-      <c r="R87" s="88"/>
-    </row>
-    <row r="88" spans="1:18" ht="12" customHeight="1">
+      <c r="P87" s="84"/>
+      <c r="Q87" s="76"/>
+      <c r="R87" s="75"/>
+      <c r="S87" s="88"/>
+    </row>
+    <row r="88" spans="1:19" ht="12" customHeight="1">
       <c r="A88" s="33">
         <v>84</v>
       </c>
@@ -12545,21 +12730,22 @@
       <c r="C88" s="33"/>
       <c r="D88" s="33"/>
       <c r="E88" s="33"/>
-      <c r="F88" s="84"/>
-      <c r="G88" s="63"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="84"/>
       <c r="H88" s="63"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="200"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="40"/>
       <c r="K88" s="201"/>
-      <c r="L88" s="201"/>
+      <c r="L88" s="202"/>
       <c r="M88" s="202"/>
-      <c r="N88" s="84"/>
+      <c r="N88" s="203"/>
       <c r="O88" s="84"/>
-      <c r="P88" s="76"/>
-      <c r="Q88" s="75"/>
-      <c r="R88" s="88"/>
-    </row>
-    <row r="89" spans="1:18" ht="12" customHeight="1">
+      <c r="P88" s="84"/>
+      <c r="Q88" s="76"/>
+      <c r="R88" s="75"/>
+      <c r="S88" s="88"/>
+    </row>
+    <row r="89" spans="1:19" ht="12" customHeight="1">
       <c r="A89" s="33">
         <v>85</v>
       </c>
@@ -12567,21 +12753,22 @@
       <c r="C89" s="33"/>
       <c r="D89" s="33"/>
       <c r="E89" s="33"/>
-      <c r="F89" s="84"/>
-      <c r="G89" s="63"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="84"/>
       <c r="H89" s="63"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="200"/>
+      <c r="I89" s="63"/>
+      <c r="J89" s="40"/>
       <c r="K89" s="201"/>
-      <c r="L89" s="201"/>
+      <c r="L89" s="202"/>
       <c r="M89" s="202"/>
-      <c r="N89" s="84"/>
+      <c r="N89" s="203"/>
       <c r="O89" s="84"/>
-      <c r="P89" s="76"/>
-      <c r="Q89" s="75"/>
-      <c r="R89" s="88"/>
-    </row>
-    <row r="90" spans="1:18" ht="12" customHeight="1">
+      <c r="P89" s="84"/>
+      <c r="Q89" s="76"/>
+      <c r="R89" s="75"/>
+      <c r="S89" s="88"/>
+    </row>
+    <row r="90" spans="1:19" ht="12" customHeight="1">
       <c r="A90" s="33">
         <v>86</v>
       </c>
@@ -12589,21 +12776,22 @@
       <c r="C90" s="33"/>
       <c r="D90" s="33"/>
       <c r="E90" s="33"/>
-      <c r="F90" s="84"/>
-      <c r="G90" s="63"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="84"/>
       <c r="H90" s="63"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="200"/>
+      <c r="I90" s="63"/>
+      <c r="J90" s="40"/>
       <c r="K90" s="201"/>
-      <c r="L90" s="201"/>
+      <c r="L90" s="202"/>
       <c r="M90" s="202"/>
-      <c r="N90" s="84"/>
+      <c r="N90" s="203"/>
       <c r="O90" s="84"/>
-      <c r="P90" s="76"/>
-      <c r="Q90" s="75"/>
-      <c r="R90" s="88"/>
-    </row>
-    <row r="91" spans="1:18" ht="12" customHeight="1">
+      <c r="P90" s="84"/>
+      <c r="Q90" s="76"/>
+      <c r="R90" s="75"/>
+      <c r="S90" s="88"/>
+    </row>
+    <row r="91" spans="1:19" ht="12" customHeight="1">
       <c r="A91" s="33">
         <v>87</v>
       </c>
@@ -12611,21 +12799,22 @@
       <c r="C91" s="33"/>
       <c r="D91" s="33"/>
       <c r="E91" s="33"/>
-      <c r="F91" s="84"/>
-      <c r="G91" s="63"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="84"/>
       <c r="H91" s="63"/>
-      <c r="I91" s="40"/>
-      <c r="J91" s="200"/>
+      <c r="I91" s="63"/>
+      <c r="J91" s="40"/>
       <c r="K91" s="201"/>
-      <c r="L91" s="201"/>
+      <c r="L91" s="202"/>
       <c r="M91" s="202"/>
-      <c r="N91" s="84"/>
+      <c r="N91" s="203"/>
       <c r="O91" s="84"/>
-      <c r="P91" s="76"/>
-      <c r="Q91" s="75"/>
-      <c r="R91" s="88"/>
-    </row>
-    <row r="92" spans="1:18" ht="12" customHeight="1">
+      <c r="P91" s="84"/>
+      <c r="Q91" s="76"/>
+      <c r="R91" s="75"/>
+      <c r="S91" s="88"/>
+    </row>
+    <row r="92" spans="1:19" ht="12" customHeight="1">
       <c r="A92" s="33">
         <v>88</v>
       </c>
@@ -12633,21 +12822,22 @@
       <c r="C92" s="33"/>
       <c r="D92" s="33"/>
       <c r="E92" s="33"/>
-      <c r="F92" s="84"/>
-      <c r="G92" s="63"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="84"/>
       <c r="H92" s="63"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="200"/>
+      <c r="I92" s="63"/>
+      <c r="J92" s="40"/>
       <c r="K92" s="201"/>
-      <c r="L92" s="201"/>
+      <c r="L92" s="202"/>
       <c r="M92" s="202"/>
-      <c r="N92" s="84"/>
+      <c r="N92" s="203"/>
       <c r="O92" s="84"/>
-      <c r="P92" s="76"/>
-      <c r="Q92" s="75"/>
-      <c r="R92" s="88"/>
-    </row>
-    <row r="93" spans="1:18" ht="12" customHeight="1">
+      <c r="P92" s="84"/>
+      <c r="Q92" s="76"/>
+      <c r="R92" s="75"/>
+      <c r="S92" s="88"/>
+    </row>
+    <row r="93" spans="1:19" ht="12" customHeight="1">
       <c r="A93" s="33">
         <v>89</v>
       </c>
@@ -12655,21 +12845,22 @@
       <c r="C93" s="33"/>
       <c r="D93" s="33"/>
       <c r="E93" s="33"/>
-      <c r="F93" s="84"/>
-      <c r="G93" s="63"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="84"/>
       <c r="H93" s="63"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="200"/>
+      <c r="I93" s="63"/>
+      <c r="J93" s="40"/>
       <c r="K93" s="201"/>
-      <c r="L93" s="201"/>
+      <c r="L93" s="202"/>
       <c r="M93" s="202"/>
-      <c r="N93" s="84"/>
+      <c r="N93" s="203"/>
       <c r="O93" s="84"/>
-      <c r="P93" s="76"/>
-      <c r="Q93" s="75"/>
-      <c r="R93" s="88"/>
-    </row>
-    <row r="94" spans="1:18" ht="12" customHeight="1">
+      <c r="P93" s="84"/>
+      <c r="Q93" s="76"/>
+      <c r="R93" s="75"/>
+      <c r="S93" s="88"/>
+    </row>
+    <row r="94" spans="1:19" ht="12" customHeight="1">
       <c r="A94" s="33">
         <v>90</v>
       </c>
@@ -12677,130 +12868,131 @@
       <c r="C94" s="33"/>
       <c r="D94" s="33"/>
       <c r="E94" s="33"/>
-      <c r="F94" s="84"/>
-      <c r="G94" s="63"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="84"/>
       <c r="H94" s="63"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="200"/>
+      <c r="I94" s="63"/>
+      <c r="J94" s="40"/>
       <c r="K94" s="201"/>
-      <c r="L94" s="201"/>
+      <c r="L94" s="202"/>
       <c r="M94" s="202"/>
-      <c r="N94" s="84"/>
+      <c r="N94" s="203"/>
       <c r="O94" s="84"/>
-      <c r="P94" s="76"/>
-      <c r="Q94" s="75"/>
-      <c r="R94" s="88"/>
-    </row>
-    <row r="1048467" spans="16:16" ht="12" customHeight="1">
-      <c r="P1048467" s="76"/>
+      <c r="P94" s="84"/>
+      <c r="Q94" s="76"/>
+      <c r="R94" s="75"/>
+      <c r="S94" s="88"/>
+    </row>
+    <row r="1048467" spans="17:17" ht="12" customHeight="1">
+      <c r="Q1048467" s="76"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="J93:M93"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="P1048467:P1048576 P5:P94"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G94">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H94">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I94">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R94">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12819,8 +13011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12836,10 +13028,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12869,8 +13061,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13934,7 +14126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -13951,10 +14143,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13982,8 +14174,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Thong ke thoi gian giao hang/CRMF3030_Thong ke thoi gian giao hang.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Thong ke thoi gian giao hang/CRMF3030_Thong ke thoi gian giao hang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1575,7 +1575,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="231">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2277,12 +2277,6 @@
     <t>@SQL0003</t>
   </si>
   <si>
-    <t>Load màn hình Báo cáo để xem trước khi in</t>
-  </si>
-  <si>
-    <t>@SQL0004</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
@@ -2304,104 +2298,80 @@
     <t>Đổ nguồn DropdownCheckList đơn vị</t>
   </si>
   <si>
-    <t>Đổ nguồn DropDowncheckList chọn kỳ</t>
-  </si>
-  <si>
-    <t>Đổ nguồn DropdownCheckList chọn kỳ</t>
+    <t>Thực thi @SQL0003 phụ thuộc @DivisionID của @SQL0001</t>
+  </si>
+  <si>
+    <t>@FormID</t>
+  </si>
+  <si>
+    <t>CustomizeIndex</t>
+  </si>
+  <si>
+    <t>Tạo tài liệu mới Customize Hoàng Trần
+Màn hình in báo cáo Thống kê thời gian giao hàng</t>
+  </si>
+  <si>
+    <t>Truyền tham số @DivisionID để gọi tab mới load báo cáo CRMR30301 khi in</t>
+  </si>
+  <si>
+    <t>Click vào Link Báo cáo Thống kê thời gian giao hàng</t>
+  </si>
+  <si>
+    <t>Click vào bttnClose thực thi đóng màn hình CRMF3030 trở về màn hình CRMF3000</t>
+  </si>
+  <si>
+    <t>BttnClose</t>
+  </si>
+  <si>
+    <t>Đóng</t>
   </si>
   <si>
     <t>Login -&gt; ASOFT-CRM 
--&gt;Menu[Báo cáo] -&gt; menuItem[Báo cáo Biểu đồ]
+-&gt;Menu[Báo cáo]
+ -&gt; Page[Báo cáo Biểu đồ]
 -&gt; Click vào Link Báo cáo thống kê thời gian giao hàng
 -&gt; Pop[Thống kê thời gian giao hàng_ CRMF3030]</t>
   </si>
   <si>
-    <t>thực thi @SQL0001, @SQL0002 đổ nguồn cho DropdownCheckList</t>
-  </si>
-  <si>
-    <t>Thực thi @SQL0003 phụ thuộc @DivisionID của @SQL0001</t>
-  </si>
-  <si>
-    <t>@FormID</t>
-  </si>
-  <si>
-    <t>CustomizeIndex</t>
-  </si>
-  <si>
-    <t>Tạo tài liệu mới Customize Hoàng Trần
-Màn hình in báo cáo Thống kê thời gian giao hàng</t>
-  </si>
-  <si>
-    <t>Truyền tham số @DivisionID để gọi tab mới load báo cáo CRMR30301 khi in</t>
-  </si>
-  <si>
-    <t>Click vào Link Báo cáo Thống kê thời gian giao hàng</t>
-  </si>
-  <si>
-    <t>Click vào bttnClose thực thi đóng màn hình CRMF3030 trở về màn hình CRMF3000</t>
-  </si>
-  <si>
-    <t>Click vào BttnPrint thực thi @SQL0004 Load  tab màn hình báo cáo view trước khi In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXEC CRMP30301(
- @DivisionID       VARCHAR(50),  
-  @DivisionIDList    NVARCHAR(2000), 
-  @FromDate         DATETIME,
-  @ToDate           DATETIME,
-  @IsDate           TINYINT,
-@Period   Nvarchar(max), 
-@FromAccountID       Varchar(50),
-  @ToAccountID         Varchar(50,
-  @UserID  VARCHAR(50))
-</t>
-  </si>
-  <si>
-    <r>
-      <t>@DivisionID @DivisionIDList  @FromDate @ToDate   @IsDate</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">@Period  
-@FromAccountID @ToAccountID 
-@UserID
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Biến môi trường @@DivisionIDList  @@FromDate @@ToDate   @@IsDate 
-@@Period
-@@FromAccountID @@ToAccountID
-Biến môi trường
-</t>
-  </si>
-  <si>
-    <t>NV1</t>
-  </si>
-  <si>
-    <t>Tham khảo luồng NV1</t>
-  </si>
-  <si>
-    <t>BttnClose</t>
-  </si>
-  <si>
-    <t>Đóng</t>
+    <t>GetDate()</t>
+  </si>
+  <si>
+    <t>MM/YYYY</t>
+  </si>
+  <si>
+    <t>DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu không chọn DivisionID thì mặt định truyền là biến môi trường </t>
+  </si>
+  <si>
+    <t>Đổ nguồn Combobox chọn kỳ</t>
+  </si>
+  <si>
+    <t>Đổ nguồn Combobox Khách hàng phụ thuộc
+nếu DivisionID từ DropdownChecklist đơn vị rỗng thì truyền biến môi trường vào để load combobox, ngược lại khác rỗng thì truyền DivisionID từ DropdownChecklist đơn vị để load combobox</t>
+  </si>
+  <si>
+    <t>ID SQL</t>
+  </si>
+  <si>
+    <t>thực thi @SQL0001 đổ nguồn cho DropdownCheckList</t>
+  </si>
+  <si>
+    <t>thực thi @SQL0002 đổ nguồn cho Combobox</t>
+  </si>
+  <si>
+    <t>Cho phép In báo cáo thống kê thời gian giao hàng</t>
+  </si>
+  <si>
+    <t>Tham khảo sheet Code Standar</t>
+  </si>
+  <si>
+    <t>Click vào Button In thực hiện truyền các tham số trên màn hình vào Store CRMP30301 để mở tab mới Load màn hình view trước khi In
+Tham khảo thêm Store CRMP30301</t>
   </si>
 </sst>
 </file>
@@ -2927,7 +2897,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3272,114 +3242,117 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3441,6 +3414,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3452,15 +3434,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3484,6 +3457,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3566,19 +3545,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3598,8 +3577,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3019425" y="1619250"/>
-          <a:ext cx="4543425" cy="2724150"/>
+          <a:off x="2933700" y="1485900"/>
+          <a:ext cx="4381500" cy="2752725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4410,65 +4389,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="149"/>
-      <c r="B1" s="149"/>
-      <c r="C1" s="151" t="s">
+      <c r="A1" s="144"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="146" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="150" t="s">
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="145" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150" t="s">
+      <c r="H1" s="145"/>
+      <c r="I1" s="145" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="150"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="150" t="s">
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="145" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="149"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="146" t="s">
+      <c r="A3" s="144"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="147"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="147"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="142"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="116"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="148"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="148"/>
+      <c r="A13" s="143"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
       <c r="K13" s="117"/>
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
@@ -4479,56 +4458,56 @@
       <c r="R13" s="117"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="142"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="142"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="142"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="139"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="139"/>
+      <c r="R14" s="139"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="142"/>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="142"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="139"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="145" t="s">
+      <c r="A16" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="145"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="140"/>
       <c r="K16" s="118"/>
       <c r="L16" s="118"/>
       <c r="M16" s="118"/>
@@ -4539,384 +4518,384 @@
       <c r="R16" s="118"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="142"/>
-      <c r="P17" s="142"/>
-      <c r="Q17" s="142"/>
-      <c r="R17" s="142"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="139"/>
+      <c r="N17" s="139"/>
+      <c r="O17" s="139"/>
+      <c r="P17" s="139"/>
+      <c r="Q17" s="139"/>
+      <c r="R17" s="139"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="142"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="142"/>
-      <c r="O18" s="142"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="142"/>
-      <c r="R18" s="142"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="139"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="144"/>
-      <c r="N19" s="144"/>
-      <c r="O19" s="144"/>
-      <c r="P19" s="144"/>
-      <c r="Q19" s="144"/>
-      <c r="R19" s="144"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="156"/>
+      <c r="Q19" s="156"/>
+      <c r="R19" s="156"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="142"/>
-      <c r="R20" s="142"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
+      <c r="O20" s="139"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="139"/>
+      <c r="R20" s="139"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="142"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="142"/>
-      <c r="O21" s="142"/>
-      <c r="P21" s="142"/>
-      <c r="Q21" s="142"/>
-      <c r="R21" s="142"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="139"/>
+      <c r="R21" s="139"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="143"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="143"/>
-      <c r="O22" s="143"/>
-      <c r="P22" s="143"/>
-      <c r="Q22" s="143"/>
-      <c r="R22" s="143"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="155"/>
+      <c r="O22" s="155"/>
+      <c r="P22" s="155"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="155"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="143"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="143"/>
-      <c r="O23" s="143"/>
-      <c r="P23" s="143"/>
-      <c r="Q23" s="143"/>
-      <c r="R23" s="143"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="155"/>
+      <c r="O23" s="155"/>
+      <c r="P23" s="155"/>
+      <c r="Q23" s="155"/>
+      <c r="R23" s="155"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="140"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="140"/>
-      <c r="N26" s="140"/>
-      <c r="O26" s="140"/>
-      <c r="P26" s="140"/>
-      <c r="Q26" s="140"/>
-      <c r="R26" s="140"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="157"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="157"/>
+      <c r="O26" s="157"/>
+      <c r="P26" s="157"/>
+      <c r="Q26" s="157"/>
+      <c r="R26" s="157"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="139"/>
-      <c r="T28" s="139"/>
-      <c r="U28" s="139"/>
-      <c r="V28" s="139"/>
-      <c r="W28" s="139"/>
-      <c r="X28" s="139"/>
-      <c r="Y28" s="139"/>
-      <c r="Z28" s="139"/>
-      <c r="AA28" s="139"/>
-      <c r="AB28" s="139"/>
-      <c r="AC28" s="139"/>
-      <c r="AD28" s="139"/>
-      <c r="AE28" s="139"/>
-      <c r="AF28" s="139"/>
-      <c r="AG28" s="139"/>
-      <c r="AH28" s="139"/>
-      <c r="AI28" s="139"/>
-      <c r="AJ28" s="139"/>
-      <c r="AK28" s="139"/>
-      <c r="AL28" s="139"/>
-      <c r="AM28" s="139"/>
-      <c r="AN28" s="139"/>
-      <c r="AO28" s="139"/>
-      <c r="AP28" s="139"/>
-      <c r="AQ28" s="139"/>
-      <c r="AR28" s="139"/>
-      <c r="AS28" s="139"/>
-      <c r="AT28" s="139"/>
-      <c r="AU28" s="139"/>
-      <c r="AV28" s="139"/>
-      <c r="AW28" s="139"/>
-      <c r="AX28" s="139"/>
-      <c r="AY28" s="139"/>
-      <c r="AZ28" s="139"/>
-      <c r="BA28" s="139"/>
-      <c r="BB28" s="139"/>
-      <c r="BC28" s="139"/>
-      <c r="BD28" s="139"/>
-      <c r="BE28" s="139"/>
-      <c r="BF28" s="139"/>
-      <c r="BG28" s="139"/>
-      <c r="BH28" s="139"/>
-      <c r="BI28" s="139"/>
-      <c r="BJ28" s="139"/>
-      <c r="BK28" s="139"/>
-      <c r="BL28" s="139"/>
-      <c r="BM28" s="139"/>
-      <c r="BN28" s="139"/>
-      <c r="BO28" s="139"/>
-      <c r="BP28" s="139"/>
-      <c r="BQ28" s="139"/>
-      <c r="BR28" s="139"/>
-      <c r="BS28" s="139"/>
-      <c r="BT28" s="139"/>
-      <c r="BU28" s="139"/>
-      <c r="BV28" s="139"/>
-      <c r="BW28" s="139"/>
-      <c r="BX28" s="139"/>
-      <c r="BY28" s="139"/>
-      <c r="BZ28" s="139"/>
-      <c r="CA28" s="139"/>
-      <c r="CB28" s="139"/>
-      <c r="CC28" s="139"/>
-      <c r="CD28" s="139"/>
-      <c r="CE28" s="139"/>
-      <c r="CF28" s="139"/>
-      <c r="CG28" s="139"/>
-      <c r="CH28" s="139"/>
-      <c r="CI28" s="139"/>
-      <c r="CJ28" s="139"/>
-      <c r="CK28" s="139"/>
-      <c r="CL28" s="139"/>
-      <c r="CM28" s="139"/>
-      <c r="CN28" s="139"/>
-      <c r="CO28" s="139"/>
-      <c r="CP28" s="139"/>
-      <c r="CQ28" s="139"/>
-      <c r="CR28" s="139"/>
-      <c r="CS28" s="139"/>
-      <c r="CT28" s="139"/>
-      <c r="CU28" s="139"/>
-      <c r="CV28" s="139"/>
-      <c r="CW28" s="139"/>
-      <c r="CX28" s="139"/>
-      <c r="CY28" s="139"/>
-      <c r="CZ28" s="139"/>
-      <c r="DA28" s="139"/>
-      <c r="DB28" s="139"/>
-      <c r="DC28" s="139"/>
-      <c r="DD28" s="139"/>
-      <c r="DE28" s="139"/>
-      <c r="DF28" s="139"/>
-      <c r="DG28" s="139"/>
-      <c r="DH28" s="139"/>
-      <c r="DI28" s="139"/>
-      <c r="DJ28" s="139"/>
-      <c r="DK28" s="139"/>
-      <c r="DL28" s="139"/>
-      <c r="DM28" s="139"/>
-      <c r="DN28" s="139"/>
-      <c r="DO28" s="139"/>
-      <c r="DP28" s="139"/>
-      <c r="DQ28" s="139"/>
-      <c r="DR28" s="139"/>
-      <c r="DS28" s="139"/>
-      <c r="DT28" s="139"/>
-      <c r="DU28" s="139"/>
-      <c r="DV28" s="139"/>
-      <c r="DW28" s="139"/>
-      <c r="DX28" s="139"/>
-      <c r="DY28" s="139"/>
-      <c r="DZ28" s="139"/>
-      <c r="EA28" s="139"/>
-      <c r="EB28" s="139"/>
-      <c r="EC28" s="139"/>
-      <c r="ED28" s="139"/>
-      <c r="EE28" s="139"/>
-      <c r="EF28" s="139"/>
-      <c r="EG28" s="139"/>
-      <c r="EH28" s="139"/>
-      <c r="EI28" s="139"/>
-      <c r="EJ28" s="139"/>
-      <c r="EK28" s="139"/>
-      <c r="EL28" s="139"/>
-      <c r="EM28" s="139"/>
-      <c r="EN28" s="139"/>
-      <c r="EO28" s="139"/>
-      <c r="EP28" s="139"/>
-      <c r="EQ28" s="139"/>
-      <c r="ER28" s="139"/>
-      <c r="ES28" s="139"/>
-      <c r="ET28" s="139"/>
-      <c r="EU28" s="139"/>
-      <c r="EV28" s="139"/>
-      <c r="EW28" s="139"/>
-      <c r="EX28" s="139"/>
-      <c r="EY28" s="139"/>
-      <c r="EZ28" s="139"/>
-      <c r="FA28" s="139"/>
-      <c r="FB28" s="139"/>
-      <c r="FC28" s="139"/>
-      <c r="FD28" s="139"/>
-      <c r="FE28" s="139"/>
-      <c r="FF28" s="139"/>
-      <c r="FG28" s="139"/>
-      <c r="FH28" s="139"/>
-      <c r="FI28" s="139"/>
-      <c r="FJ28" s="139"/>
-      <c r="FK28" s="139"/>
-      <c r="FL28" s="139"/>
-      <c r="FM28" s="139"/>
-      <c r="FN28" s="139"/>
-      <c r="FO28" s="139"/>
-      <c r="FP28" s="139"/>
-      <c r="FQ28" s="139"/>
-      <c r="FR28" s="139"/>
-      <c r="FS28" s="139"/>
-      <c r="FT28" s="139"/>
-      <c r="FU28" s="139"/>
-      <c r="FV28" s="139"/>
-      <c r="FW28" s="139"/>
-      <c r="FX28" s="139"/>
-      <c r="FY28" s="139"/>
-      <c r="FZ28" s="139"/>
-      <c r="GA28" s="139"/>
-      <c r="GB28" s="139"/>
-      <c r="GC28" s="139"/>
-      <c r="GD28" s="139"/>
-      <c r="GE28" s="139"/>
-      <c r="GF28" s="139"/>
-      <c r="GG28" s="139"/>
-      <c r="GH28" s="139"/>
-      <c r="GI28" s="139"/>
-      <c r="GJ28" s="139"/>
-      <c r="GK28" s="139"/>
-      <c r="GL28" s="139"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="159"/>
+      <c r="L28" s="159"/>
+      <c r="M28" s="159"/>
+      <c r="N28" s="159"/>
+      <c r="O28" s="159"/>
+      <c r="P28" s="159"/>
+      <c r="Q28" s="159"/>
+      <c r="R28" s="159"/>
+      <c r="S28" s="158"/>
+      <c r="T28" s="158"/>
+      <c r="U28" s="158"/>
+      <c r="V28" s="158"/>
+      <c r="W28" s="158"/>
+      <c r="X28" s="158"/>
+      <c r="Y28" s="158"/>
+      <c r="Z28" s="158"/>
+      <c r="AA28" s="158"/>
+      <c r="AB28" s="158"/>
+      <c r="AC28" s="158"/>
+      <c r="AD28" s="158"/>
+      <c r="AE28" s="158"/>
+      <c r="AF28" s="158"/>
+      <c r="AG28" s="158"/>
+      <c r="AH28" s="158"/>
+      <c r="AI28" s="158"/>
+      <c r="AJ28" s="158"/>
+      <c r="AK28" s="158"/>
+      <c r="AL28" s="158"/>
+      <c r="AM28" s="158"/>
+      <c r="AN28" s="158"/>
+      <c r="AO28" s="158"/>
+      <c r="AP28" s="158"/>
+      <c r="AQ28" s="158"/>
+      <c r="AR28" s="158"/>
+      <c r="AS28" s="158"/>
+      <c r="AT28" s="158"/>
+      <c r="AU28" s="158"/>
+      <c r="AV28" s="158"/>
+      <c r="AW28" s="158"/>
+      <c r="AX28" s="158"/>
+      <c r="AY28" s="158"/>
+      <c r="AZ28" s="158"/>
+      <c r="BA28" s="158"/>
+      <c r="BB28" s="158"/>
+      <c r="BC28" s="158"/>
+      <c r="BD28" s="158"/>
+      <c r="BE28" s="158"/>
+      <c r="BF28" s="158"/>
+      <c r="BG28" s="158"/>
+      <c r="BH28" s="158"/>
+      <c r="BI28" s="158"/>
+      <c r="BJ28" s="158"/>
+      <c r="BK28" s="158"/>
+      <c r="BL28" s="158"/>
+      <c r="BM28" s="158"/>
+      <c r="BN28" s="158"/>
+      <c r="BO28" s="158"/>
+      <c r="BP28" s="158"/>
+      <c r="BQ28" s="158"/>
+      <c r="BR28" s="158"/>
+      <c r="BS28" s="158"/>
+      <c r="BT28" s="158"/>
+      <c r="BU28" s="158"/>
+      <c r="BV28" s="158"/>
+      <c r="BW28" s="158"/>
+      <c r="BX28" s="158"/>
+      <c r="BY28" s="158"/>
+      <c r="BZ28" s="158"/>
+      <c r="CA28" s="158"/>
+      <c r="CB28" s="158"/>
+      <c r="CC28" s="158"/>
+      <c r="CD28" s="158"/>
+      <c r="CE28" s="158"/>
+      <c r="CF28" s="158"/>
+      <c r="CG28" s="158"/>
+      <c r="CH28" s="158"/>
+      <c r="CI28" s="158"/>
+      <c r="CJ28" s="158"/>
+      <c r="CK28" s="158"/>
+      <c r="CL28" s="158"/>
+      <c r="CM28" s="158"/>
+      <c r="CN28" s="158"/>
+      <c r="CO28" s="158"/>
+      <c r="CP28" s="158"/>
+      <c r="CQ28" s="158"/>
+      <c r="CR28" s="158"/>
+      <c r="CS28" s="158"/>
+      <c r="CT28" s="158"/>
+      <c r="CU28" s="158"/>
+      <c r="CV28" s="158"/>
+      <c r="CW28" s="158"/>
+      <c r="CX28" s="158"/>
+      <c r="CY28" s="158"/>
+      <c r="CZ28" s="158"/>
+      <c r="DA28" s="158"/>
+      <c r="DB28" s="158"/>
+      <c r="DC28" s="158"/>
+      <c r="DD28" s="158"/>
+      <c r="DE28" s="158"/>
+      <c r="DF28" s="158"/>
+      <c r="DG28" s="158"/>
+      <c r="DH28" s="158"/>
+      <c r="DI28" s="158"/>
+      <c r="DJ28" s="158"/>
+      <c r="DK28" s="158"/>
+      <c r="DL28" s="158"/>
+      <c r="DM28" s="158"/>
+      <c r="DN28" s="158"/>
+      <c r="DO28" s="158"/>
+      <c r="DP28" s="158"/>
+      <c r="DQ28" s="158"/>
+      <c r="DR28" s="158"/>
+      <c r="DS28" s="158"/>
+      <c r="DT28" s="158"/>
+      <c r="DU28" s="158"/>
+      <c r="DV28" s="158"/>
+      <c r="DW28" s="158"/>
+      <c r="DX28" s="158"/>
+      <c r="DY28" s="158"/>
+      <c r="DZ28" s="158"/>
+      <c r="EA28" s="158"/>
+      <c r="EB28" s="158"/>
+      <c r="EC28" s="158"/>
+      <c r="ED28" s="158"/>
+      <c r="EE28" s="158"/>
+      <c r="EF28" s="158"/>
+      <c r="EG28" s="158"/>
+      <c r="EH28" s="158"/>
+      <c r="EI28" s="158"/>
+      <c r="EJ28" s="158"/>
+      <c r="EK28" s="158"/>
+      <c r="EL28" s="158"/>
+      <c r="EM28" s="158"/>
+      <c r="EN28" s="158"/>
+      <c r="EO28" s="158"/>
+      <c r="EP28" s="158"/>
+      <c r="EQ28" s="158"/>
+      <c r="ER28" s="158"/>
+      <c r="ES28" s="158"/>
+      <c r="ET28" s="158"/>
+      <c r="EU28" s="158"/>
+      <c r="EV28" s="158"/>
+      <c r="EW28" s="158"/>
+      <c r="EX28" s="158"/>
+      <c r="EY28" s="158"/>
+      <c r="EZ28" s="158"/>
+      <c r="FA28" s="158"/>
+      <c r="FB28" s="158"/>
+      <c r="FC28" s="158"/>
+      <c r="FD28" s="158"/>
+      <c r="FE28" s="158"/>
+      <c r="FF28" s="158"/>
+      <c r="FG28" s="158"/>
+      <c r="FH28" s="158"/>
+      <c r="FI28" s="158"/>
+      <c r="FJ28" s="158"/>
+      <c r="FK28" s="158"/>
+      <c r="FL28" s="158"/>
+      <c r="FM28" s="158"/>
+      <c r="FN28" s="158"/>
+      <c r="FO28" s="158"/>
+      <c r="FP28" s="158"/>
+      <c r="FQ28" s="158"/>
+      <c r="FR28" s="158"/>
+      <c r="FS28" s="158"/>
+      <c r="FT28" s="158"/>
+      <c r="FU28" s="158"/>
+      <c r="FV28" s="158"/>
+      <c r="FW28" s="158"/>
+      <c r="FX28" s="158"/>
+      <c r="FY28" s="158"/>
+      <c r="FZ28" s="158"/>
+      <c r="GA28" s="158"/>
+      <c r="GB28" s="158"/>
+      <c r="GC28" s="158"/>
+      <c r="GD28" s="158"/>
+      <c r="GE28" s="158"/>
+      <c r="GF28" s="158"/>
+      <c r="GG28" s="158"/>
+      <c r="GH28" s="158"/>
+      <c r="GI28" s="158"/>
+      <c r="GJ28" s="158"/>
+      <c r="GK28" s="158"/>
+      <c r="GL28" s="158"/>
       <c r="GM28" s="119"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="140"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="140"/>
-      <c r="N29" s="140"/>
-      <c r="O29" s="140"/>
-      <c r="P29" s="140"/>
-      <c r="Q29" s="140"/>
-      <c r="R29" s="140"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="157"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="157"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="157"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="138"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="138"/>
+      <c r="A30" s="160"/>
+      <c r="B30" s="160"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="160"/>
       <c r="K30" s="120"/>
       <c r="L30" s="120"/>
       <c r="M30" s="120"/>
@@ -4927,16 +4906,16 @@
       <c r="R30" s="120"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="138"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="138"/>
+      <c r="A31" s="160"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
       <c r="K31" s="120"/>
       <c r="L31" s="120"/>
       <c r="M31" s="120"/>
@@ -4948,6 +4927,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4961,28 +4962,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5009,14 +4988,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5209,11 +5188,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="206" t="s">
+      <c r="E27" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="207"/>
-      <c r="G27" s="208"/>
+      <c r="F27" s="208"/>
+      <c r="G27" s="209"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5551,7 +5530,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5579,7 +5558,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>6</v>
@@ -5630,7 +5609,7 @@
         <v>160</v>
       </c>
       <c r="E5" s="169" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F5" s="170"/>
       <c r="G5" s="170"/>
@@ -5791,12 +5770,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="90">
@@ -5807,12 +5786,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="91">
@@ -5823,12 +5802,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="174"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="92">
@@ -5839,12 +5818,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="93">
@@ -5855,12 +5834,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="174"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="94">
@@ -5871,12 +5850,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="174"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="95">
@@ -5887,12 +5866,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="160"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="174"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="96">
@@ -5903,12 +5882,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="160"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="174"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="97">
@@ -5919,12 +5898,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="174"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="98">
@@ -5935,12 +5914,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="160"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="174"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5951,12 +5930,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="174"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5967,12 +5946,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="160"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="174"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="90">
@@ -5983,12 +5962,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="160"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="174"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="91">
@@ -5999,12 +5978,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="174"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="92">
@@ -6015,12 +5994,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="160"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="174"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="93">
@@ -6031,12 +6010,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="160"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="174"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="94">
@@ -6047,12 +6026,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="160"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="174"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="95">
@@ -6063,12 +6042,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="160"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="174"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="96">
@@ -6079,12 +6058,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="160"/>
-      <c r="I33" s="160"/>
-      <c r="J33" s="160"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="174"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="97">
@@ -6095,12 +6074,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="174"/>
+      <c r="I34" s="174"/>
+      <c r="J34" s="174"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="98">
@@ -6111,12 +6090,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="160"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="160"/>
+      <c r="E35" s="174"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="174"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6127,12 +6106,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="160"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="174"/>
+      <c r="G36" s="174"/>
+      <c r="H36" s="174"/>
+      <c r="I36" s="174"/>
+      <c r="J36" s="174"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="90">
@@ -6143,12 +6122,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="160"/>
-      <c r="F37" s="160"/>
-      <c r="G37" s="160"/>
-      <c r="H37" s="160"/>
-      <c r="I37" s="160"/>
-      <c r="J37" s="160"/>
+      <c r="E37" s="174"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="174"/>
+      <c r="H37" s="174"/>
+      <c r="I37" s="174"/>
+      <c r="J37" s="174"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="91">
@@ -6159,12 +6138,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="160"/>
-      <c r="J38" s="160"/>
+      <c r="E38" s="174"/>
+      <c r="F38" s="174"/>
+      <c r="G38" s="174"/>
+      <c r="H38" s="174"/>
+      <c r="I38" s="174"/>
+      <c r="J38" s="174"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="92">
@@ -6175,12 +6154,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="160"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="160"/>
-      <c r="J39" s="160"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="174"/>
+      <c r="H39" s="174"/>
+      <c r="I39" s="174"/>
+      <c r="J39" s="174"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="93">
@@ -6191,12 +6170,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="160"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="160"/>
-      <c r="I40" s="160"/>
-      <c r="J40" s="160"/>
+      <c r="E40" s="174"/>
+      <c r="F40" s="174"/>
+      <c r="G40" s="174"/>
+      <c r="H40" s="174"/>
+      <c r="I40" s="174"/>
+      <c r="J40" s="174"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="94">
@@ -6207,12 +6186,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="160"/>
-      <c r="J41" s="160"/>
+      <c r="E41" s="174"/>
+      <c r="F41" s="174"/>
+      <c r="G41" s="174"/>
+      <c r="H41" s="174"/>
+      <c r="I41" s="174"/>
+      <c r="J41" s="174"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="95">
@@ -6223,23 +6202,32 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="160"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="160"/>
-      <c r="I42" s="160"/>
-      <c r="J42" s="160"/>
+      <c r="E42" s="174"/>
+      <c r="F42" s="174"/>
+      <c r="G42" s="174"/>
+      <c r="H42" s="174"/>
+      <c r="I42" s="174"/>
+      <c r="J42" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6255,23 +6243,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6297,7 +6276,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I12" sqref="I12:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6380,20 +6359,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="174" t="s">
+      <c r="A4" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="174" t="s">
+      <c r="B4" s="177"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="175"/>
+      <c r="J4" s="176"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6404,10 +6383,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="183" t="s">
+      <c r="I5" s="184" t="s">
         <v>193</v>
       </c>
-      <c r="J5" s="184"/>
+      <c r="J5" s="185"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6418,8 +6397,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="187"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6430,8 +6409,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="187"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6442,8 +6421,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="187"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6454,8 +6433,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="186"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="187"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6466,8 +6445,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="188"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="189"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6478,10 +6457,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="174" t="s">
+      <c r="I11" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="175"/>
+      <c r="J11" s="176"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6492,10 +6471,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="177" t="s">
-        <v>212</v>
-      </c>
-      <c r="J12" s="178"/>
+      <c r="I12" s="178" t="s">
+        <v>217</v>
+      </c>
+      <c r="J12" s="179"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6506,8 +6485,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="181"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6518,8 +6497,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="181"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6530,8 +6509,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="180"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="181"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6542,8 +6521,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="181"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6554,8 +6533,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="181"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6566,8 +6545,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="180"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="181"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6578,8 +6557,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="180"/>
+      <c r="I19" s="180"/>
+      <c r="J19" s="181"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6590,8 +6569,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="180"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="181"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6602,8 +6581,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="180"/>
+      <c r="I21" s="180"/>
+      <c r="J21" s="181"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6614,8 +6593,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="180"/>
+      <c r="I22" s="180"/>
+      <c r="J22" s="181"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6626,8 +6605,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="180"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="181"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6638,8 +6617,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="180"/>
+      <c r="I24" s="180"/>
+      <c r="J24" s="181"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6650,8 +6629,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="180"/>
+      <c r="I25" s="180"/>
+      <c r="J25" s="181"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6662,8 +6641,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="180"/>
+      <c r="I26" s="180"/>
+      <c r="J26" s="181"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6674,8 +6653,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="180"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="181"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6686,8 +6665,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="180"/>
+      <c r="I28" s="180"/>
+      <c r="J28" s="181"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6698,8 +6677,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="180"/>
+      <c r="I29" s="180"/>
+      <c r="J29" s="181"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6710,8 +6689,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="180"/>
+      <c r="I30" s="180"/>
+      <c r="J30" s="181"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6722,8 +6701,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="179"/>
-      <c r="J31" s="180"/>
+      <c r="I31" s="180"/>
+      <c r="J31" s="181"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6734,8 +6713,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="180"/>
+      <c r="I32" s="180"/>
+      <c r="J32" s="181"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6746,8 +6725,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="179"/>
-      <c r="J33" s="180"/>
+      <c r="I33" s="180"/>
+      <c r="J33" s="181"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6758,8 +6737,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="179"/>
-      <c r="J34" s="180"/>
+      <c r="I34" s="180"/>
+      <c r="J34" s="181"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6770,8 +6749,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="179"/>
-      <c r="J35" s="180"/>
+      <c r="I35" s="180"/>
+      <c r="J35" s="181"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6782,8 +6761,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="179"/>
-      <c r="J36" s="180"/>
+      <c r="I36" s="180"/>
+      <c r="J36" s="181"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6794,8 +6773,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="179"/>
-      <c r="J37" s="180"/>
+      <c r="I37" s="180"/>
+      <c r="J37" s="181"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6806,8 +6785,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="179"/>
-      <c r="J38" s="180"/>
+      <c r="I38" s="180"/>
+      <c r="J38" s="181"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6818,8 +6797,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="179"/>
-      <c r="J39" s="180"/>
+      <c r="I39" s="180"/>
+      <c r="J39" s="181"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6830,8 +6809,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="179"/>
-      <c r="J40" s="180"/>
+      <c r="I40" s="180"/>
+      <c r="J40" s="181"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6842,8 +6821,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="179"/>
-      <c r="J41" s="180"/>
+      <c r="I41" s="180"/>
+      <c r="J41" s="181"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6854,8 +6833,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="179"/>
-      <c r="J42" s="180"/>
+      <c r="I42" s="180"/>
+      <c r="J42" s="181"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6866,8 +6845,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="181"/>
-      <c r="J43" s="182"/>
+      <c r="I43" s="182"/>
+      <c r="J43" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6898,10 +6877,10 @@
   <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4:C8"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6940,15 +6919,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="189" t="s">
+      <c r="H1" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="190"/>
-      <c r="J1" s="191" t="s">
-        <v>205</v>
-      </c>
-      <c r="K1" s="192"/>
-      <c r="L1" s="193"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="192" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="193"/>
+      <c r="L1" s="194"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -6976,16 +6955,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="H2" s="189" t="s">
+      <c r="H2" s="190" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="190"/>
-      <c r="J2" s="191" t="str">
+      <c r="I2" s="191"/>
+      <c r="J2" s="192" t="str">
         <f>'Update History'!F2</f>
         <v>Thống kê thời gian giao hàng</v>
       </c>
-      <c r="K2" s="192"/>
-      <c r="L2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="194"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -7008,7 +6987,7 @@
         <v>162</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>109</v>
@@ -7096,7 +7075,9 @@
       <c r="D6" s="33">
         <v>2</v>
       </c>
-      <c r="E6" s="59"/>
+      <c r="E6" s="59" t="s">
+        <v>163</v>
+      </c>
       <c r="F6" s="88" t="s">
         <v>173</v>
       </c>
@@ -7110,10 +7091,12 @@
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="88"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="138">
+        <v>1</v>
+      </c>
+      <c r="P6" s="138"/>
     </row>
     <row r="7" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="33">
@@ -7148,10 +7131,12 @@
       <c r="L7" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138" t="s">
+        <v>218</v>
+      </c>
+      <c r="P7" s="138"/>
     </row>
     <row r="8" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -7186,10 +7171,12 @@
       <c r="L8" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="88"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="138"/>
+      <c r="O8" s="138" t="s">
+        <v>218</v>
+      </c>
+      <c r="P8" s="138"/>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -7204,7 +7191,9 @@
       <c r="D9" s="33">
         <v>5</v>
       </c>
-      <c r="E9" s="59"/>
+      <c r="E9" s="59" t="s">
+        <v>165</v>
+      </c>
       <c r="F9" s="126" t="s">
         <v>173</v>
       </c>
@@ -7218,10 +7207,12 @@
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="40"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138">
+        <v>0</v>
+      </c>
+      <c r="P9" s="138"/>
     </row>
     <row r="10" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -7246,20 +7237,24 @@
         <v>174</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="J10" s="62"/>
+        <v>177</v>
+      </c>
+      <c r="J10" s="62">
+        <v>50</v>
+      </c>
       <c r="K10" s="62"/>
       <c r="L10" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="132"/>
+      <c r="M10" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="138"/>
     </row>
     <row r="11" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -7287,17 +7282,23 @@
         <v>194</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
       <c r="L11" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="132"/>
+      <c r="M11" s="138" t="s">
+        <v>220</v>
+      </c>
+      <c r="N11" s="138"/>
+      <c r="O11" s="138" t="s">
+        <v>221</v>
+      </c>
+      <c r="P11" s="138" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="12" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -7334,10 +7335,10 @@
       <c r="L12" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="132"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="138"/>
     </row>
     <row r="13" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -7374,10 +7375,10 @@
       <c r="L13" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="132"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="138"/>
     </row>
     <row r="14" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -7406,10 +7407,10 @@
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
       <c r="L14" s="40"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="132"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="138"/>
     </row>
     <row r="15" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -7425,10 +7426,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F15" s="132" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="G15" s="132"/>
       <c r="H15" s="40" t="s">
@@ -9242,7 +9243,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="134"/>
@@ -9278,7 +9279,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="197"/>
+      <c r="A2" s="201"/>
       <c r="B2" s="135"/>
       <c r="C2" s="124"/>
       <c r="D2" s="31" t="s">
@@ -9316,7 +9317,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C4" s="121" t="s">
         <v>32</v>
@@ -9352,18 +9353,18 @@
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="130" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="194" t="s">
-        <v>207</v>
-      </c>
-      <c r="H5" s="195"/>
-      <c r="I5" s="198" t="s">
-        <v>219</v>
-      </c>
-      <c r="J5" s="199"/>
-      <c r="K5" s="200"/>
+      <c r="G5" s="198" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="199"/>
+      <c r="I5" s="195" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="196"/>
+      <c r="K5" s="197"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1">
       <c r="A6" s="33">
@@ -9380,15 +9381,15 @@
         <v>134</v>
       </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="194" t="s">
-        <v>218</v>
-      </c>
-      <c r="H6" s="195"/>
-      <c r="I6" s="198" t="s">
+      <c r="G6" s="198" t="s">
+        <v>212</v>
+      </c>
+      <c r="H6" s="199"/>
+      <c r="I6" s="195" t="s">
         <v>180</v>
       </c>
-      <c r="J6" s="199"/>
-      <c r="K6" s="200"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="197"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9399,11 +9400,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="130"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="195"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="199"/>
-      <c r="K7" s="200"/>
+      <c r="G7" s="198"/>
+      <c r="H7" s="199"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="197"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9414,11 +9415,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="195"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="200"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="197"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9429,11 +9430,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="198"/>
-      <c r="J9" s="199"/>
-      <c r="K9" s="200"/>
+      <c r="G9" s="198"/>
+      <c r="H9" s="199"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="197"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9444,11 +9445,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="195"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199"/>
-      <c r="K10" s="200"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="199"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="196"/>
+      <c r="K10" s="197"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9459,11 +9460,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="195"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="199"/>
-      <c r="K11" s="200"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="197"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9474,11 +9475,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="195"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="199"/>
-      <c r="K12" s="200"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="196"/>
+      <c r="K12" s="197"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9489,11 +9490,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="195"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="199"/>
-      <c r="K13" s="200"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="197"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9504,11 +9505,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="195"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="199"/>
-      <c r="K14" s="200"/>
+      <c r="G14" s="198"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="197"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9519,11 +9520,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="195"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="199"/>
-      <c r="K15" s="200"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="197"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9534,11 +9535,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="199"/>
-      <c r="K16" s="200"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="197"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9549,11 +9550,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="195"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="199"/>
-      <c r="K17" s="200"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="197"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9564,11 +9565,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="195"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="200"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="196"/>
+      <c r="K18" s="197"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9579,11 +9580,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="195"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="199"/>
-      <c r="K19" s="200"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="196"/>
+      <c r="K19" s="197"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9594,11 +9595,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="195"/>
-      <c r="I20" s="198"/>
-      <c r="J20" s="199"/>
-      <c r="K20" s="200"/>
+      <c r="G20" s="198"/>
+      <c r="H20" s="199"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="196"/>
+      <c r="K20" s="197"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9609,11 +9610,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="195"/>
-      <c r="I21" s="198"/>
-      <c r="J21" s="199"/>
-      <c r="K21" s="200"/>
+      <c r="G21" s="198"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="196"/>
+      <c r="K21" s="197"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9626,9 +9627,9 @@
       <c r="F22" s="32"/>
       <c r="G22" s="161"/>
       <c r="H22" s="163"/>
-      <c r="I22" s="198"/>
-      <c r="J22" s="199"/>
-      <c r="K22" s="200"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="196"/>
+      <c r="K22" s="197"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9641,9 +9642,9 @@
       <c r="F23" s="32"/>
       <c r="G23" s="161"/>
       <c r="H23" s="163"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="199"/>
-      <c r="K23" s="200"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="196"/>
+      <c r="K23" s="197"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9656,9 +9657,9 @@
       <c r="F24" s="32"/>
       <c r="G24" s="161"/>
       <c r="H24" s="163"/>
-      <c r="I24" s="198"/>
-      <c r="J24" s="199"/>
-      <c r="K24" s="200"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="196"/>
+      <c r="K24" s="197"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9671,9 +9672,9 @@
       <c r="F25" s="32"/>
       <c r="G25" s="161"/>
       <c r="H25" s="163"/>
-      <c r="I25" s="198"/>
-      <c r="J25" s="199"/>
-      <c r="K25" s="200"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="196"/>
+      <c r="K25" s="197"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9686,9 +9687,9 @@
       <c r="F26" s="32"/>
       <c r="G26" s="161"/>
       <c r="H26" s="163"/>
-      <c r="I26" s="198"/>
-      <c r="J26" s="199"/>
-      <c r="K26" s="200"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="196"/>
+      <c r="K26" s="197"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9701,9 +9702,9 @@
       <c r="F27" s="32"/>
       <c r="G27" s="161"/>
       <c r="H27" s="163"/>
-      <c r="I27" s="198"/>
-      <c r="J27" s="199"/>
-      <c r="K27" s="200"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="197"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9716,9 +9717,9 @@
       <c r="F28" s="32"/>
       <c r="G28" s="161"/>
       <c r="H28" s="163"/>
-      <c r="I28" s="198"/>
-      <c r="J28" s="199"/>
-      <c r="K28" s="200"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="196"/>
+      <c r="K28" s="197"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9731,9 +9732,9 @@
       <c r="F29" s="32"/>
       <c r="G29" s="161"/>
       <c r="H29" s="163"/>
-      <c r="I29" s="198"/>
-      <c r="J29" s="199"/>
-      <c r="K29" s="200"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="196"/>
+      <c r="K29" s="197"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9746,9 +9747,9 @@
       <c r="F30" s="32"/>
       <c r="G30" s="161"/>
       <c r="H30" s="163"/>
-      <c r="I30" s="198"/>
-      <c r="J30" s="199"/>
-      <c r="K30" s="200"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="196"/>
+      <c r="K30" s="197"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9761,9 +9762,9 @@
       <c r="F31" s="32"/>
       <c r="G31" s="161"/>
       <c r="H31" s="163"/>
-      <c r="I31" s="198"/>
-      <c r="J31" s="199"/>
-      <c r="K31" s="200"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="197"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -9776,9 +9777,9 @@
       <c r="F32" s="32"/>
       <c r="G32" s="161"/>
       <c r="H32" s="163"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="199"/>
-      <c r="K32" s="200"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="197"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9798,9 +9799,9 @@
       <c r="F33" s="32"/>
       <c r="G33" s="161"/>
       <c r="H33" s="163"/>
-      <c r="I33" s="198"/>
-      <c r="J33" s="199"/>
-      <c r="K33" s="200"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="197"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -9820,9 +9821,9 @@
       <c r="F34" s="32"/>
       <c r="G34" s="161"/>
       <c r="H34" s="163"/>
-      <c r="I34" s="198"/>
-      <c r="J34" s="199"/>
-      <c r="K34" s="200"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="196"/>
+      <c r="K34" s="197"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9842,9 +9843,9 @@
       <c r="F35" s="32"/>
       <c r="G35" s="161"/>
       <c r="H35" s="163"/>
-      <c r="I35" s="198"/>
-      <c r="J35" s="199"/>
-      <c r="K35" s="200"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="196"/>
+      <c r="K35" s="197"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9864,9 +9865,9 @@
       <c r="F36" s="32"/>
       <c r="G36" s="161"/>
       <c r="H36" s="163"/>
-      <c r="I36" s="198"/>
-      <c r="J36" s="199"/>
-      <c r="K36" s="200"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="196"/>
+      <c r="K36" s="197"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9886,9 +9887,9 @@
       <c r="F37" s="32"/>
       <c r="G37" s="161"/>
       <c r="H37" s="163"/>
-      <c r="I37" s="198"/>
-      <c r="J37" s="199"/>
-      <c r="K37" s="200"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="196"/>
+      <c r="K37" s="197"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9908,9 +9909,9 @@
       <c r="F38" s="32"/>
       <c r="G38" s="161"/>
       <c r="H38" s="163"/>
-      <c r="I38" s="198"/>
-      <c r="J38" s="199"/>
-      <c r="K38" s="200"/>
+      <c r="I38" s="195"/>
+      <c r="J38" s="196"/>
+      <c r="K38" s="197"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9930,9 +9931,9 @@
       <c r="F39" s="32"/>
       <c r="G39" s="161"/>
       <c r="H39" s="163"/>
-      <c r="I39" s="198"/>
-      <c r="J39" s="199"/>
-      <c r="K39" s="200"/>
+      <c r="I39" s="195"/>
+      <c r="J39" s="196"/>
+      <c r="K39" s="197"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9952,9 +9953,9 @@
       <c r="F40" s="32"/>
       <c r="G40" s="161"/>
       <c r="H40" s="163"/>
-      <c r="I40" s="198"/>
-      <c r="J40" s="199"/>
-      <c r="K40" s="200"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="196"/>
+      <c r="K40" s="197"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9974,9 +9975,9 @@
       <c r="F41" s="32"/>
       <c r="G41" s="161"/>
       <c r="H41" s="163"/>
-      <c r="I41" s="198"/>
-      <c r="J41" s="199"/>
-      <c r="K41" s="200"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="196"/>
+      <c r="K41" s="197"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -9996,9 +9997,9 @@
       <c r="F42" s="32"/>
       <c r="G42" s="161"/>
       <c r="H42" s="163"/>
-      <c r="I42" s="198"/>
-      <c r="J42" s="199"/>
-      <c r="K42" s="200"/>
+      <c r="I42" s="195"/>
+      <c r="J42" s="196"/>
+      <c r="K42" s="197"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10018,9 +10019,9 @@
       <c r="F43" s="32"/>
       <c r="G43" s="161"/>
       <c r="H43" s="163"/>
-      <c r="I43" s="198"/>
-      <c r="J43" s="199"/>
-      <c r="K43" s="200"/>
+      <c r="I43" s="195"/>
+      <c r="J43" s="196"/>
+      <c r="K43" s="197"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10040,9 +10041,9 @@
       <c r="F44" s="32"/>
       <c r="G44" s="161"/>
       <c r="H44" s="163"/>
-      <c r="I44" s="198"/>
-      <c r="J44" s="199"/>
-      <c r="K44" s="200"/>
+      <c r="I44" s="195"/>
+      <c r="J44" s="196"/>
+      <c r="K44" s="197"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10062,9 +10063,9 @@
       <c r="F45" s="32"/>
       <c r="G45" s="161"/>
       <c r="H45" s="163"/>
-      <c r="I45" s="198"/>
-      <c r="J45" s="199"/>
-      <c r="K45" s="200"/>
+      <c r="I45" s="195"/>
+      <c r="J45" s="196"/>
+      <c r="K45" s="197"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10084,9 +10085,9 @@
       <c r="F46" s="32"/>
       <c r="G46" s="161"/>
       <c r="H46" s="163"/>
-      <c r="I46" s="198"/>
-      <c r="J46" s="199"/>
-      <c r="K46" s="200"/>
+      <c r="I46" s="195"/>
+      <c r="J46" s="196"/>
+      <c r="K46" s="197"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10106,9 +10107,9 @@
       <c r="F47" s="32"/>
       <c r="G47" s="161"/>
       <c r="H47" s="163"/>
-      <c r="I47" s="198"/>
-      <c r="J47" s="199"/>
-      <c r="K47" s="200"/>
+      <c r="I47" s="195"/>
+      <c r="J47" s="196"/>
+      <c r="K47" s="197"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10128,9 +10129,9 @@
       <c r="F48" s="32"/>
       <c r="G48" s="161"/>
       <c r="H48" s="163"/>
-      <c r="I48" s="198"/>
-      <c r="J48" s="199"/>
-      <c r="K48" s="200"/>
+      <c r="I48" s="195"/>
+      <c r="J48" s="196"/>
+      <c r="K48" s="197"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10150,9 +10151,9 @@
       <c r="F49" s="32"/>
       <c r="G49" s="161"/>
       <c r="H49" s="163"/>
-      <c r="I49" s="198"/>
-      <c r="J49" s="199"/>
-      <c r="K49" s="200"/>
+      <c r="I49" s="195"/>
+      <c r="J49" s="196"/>
+      <c r="K49" s="197"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10172,9 +10173,9 @@
       <c r="F50" s="32"/>
       <c r="G50" s="161"/>
       <c r="H50" s="163"/>
-      <c r="I50" s="198"/>
-      <c r="J50" s="199"/>
-      <c r="K50" s="200"/>
+      <c r="I50" s="195"/>
+      <c r="J50" s="196"/>
+      <c r="K50" s="197"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10194,9 +10195,9 @@
       <c r="F51" s="32"/>
       <c r="G51" s="161"/>
       <c r="H51" s="163"/>
-      <c r="I51" s="198"/>
-      <c r="J51" s="199"/>
-      <c r="K51" s="200"/>
+      <c r="I51" s="195"/>
+      <c r="J51" s="196"/>
+      <c r="K51" s="197"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10216,9 +10217,9 @@
       <c r="F52" s="32"/>
       <c r="G52" s="161"/>
       <c r="H52" s="163"/>
-      <c r="I52" s="198"/>
-      <c r="J52" s="199"/>
-      <c r="K52" s="200"/>
+      <c r="I52" s="195"/>
+      <c r="J52" s="196"/>
+      <c r="K52" s="197"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10238,9 +10239,9 @@
       <c r="F53" s="32"/>
       <c r="G53" s="161"/>
       <c r="H53" s="163"/>
-      <c r="I53" s="198"/>
-      <c r="J53" s="199"/>
-      <c r="K53" s="200"/>
+      <c r="I53" s="195"/>
+      <c r="J53" s="196"/>
+      <c r="K53" s="197"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10260,9 +10261,9 @@
       <c r="F54" s="32"/>
       <c r="G54" s="161"/>
       <c r="H54" s="163"/>
-      <c r="I54" s="198"/>
-      <c r="J54" s="199"/>
-      <c r="K54" s="200"/>
+      <c r="I54" s="195"/>
+      <c r="J54" s="196"/>
+      <c r="K54" s="197"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10282,9 +10283,9 @@
       <c r="F55" s="32"/>
       <c r="G55" s="161"/>
       <c r="H55" s="163"/>
-      <c r="I55" s="198"/>
-      <c r="J55" s="199"/>
-      <c r="K55" s="200"/>
+      <c r="I55" s="195"/>
+      <c r="J55" s="196"/>
+      <c r="K55" s="197"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10304,9 +10305,9 @@
       <c r="F56" s="32"/>
       <c r="G56" s="161"/>
       <c r="H56" s="163"/>
-      <c r="I56" s="198"/>
-      <c r="J56" s="199"/>
-      <c r="K56" s="200"/>
+      <c r="I56" s="195"/>
+      <c r="J56" s="196"/>
+      <c r="K56" s="197"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10318,6 +10319,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="G54:H54"/>
@@ -10332,99 +10426,6 @@
     <mergeCell ref="I54:K54"/>
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="I56:K56"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -10442,8 +10443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10484,11 +10485,11 @@
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="204" t="str">
+      <c r="J1" s="205" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="204"/>
+      <c r="K1" s="205"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10526,11 +10527,11 @@
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="204" t="str">
+      <c r="J2" s="205" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="K2" s="204"/>
+      <c r="K2" s="205"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10564,7 +10565,7 @@
         <v>162</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D4" s="68" t="s">
         <v>97</v>
@@ -10587,12 +10588,12 @@
       <c r="J4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="174" t="s">
+      <c r="K4" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="176"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="175"/>
+      <c r="L4" s="177"/>
+      <c r="M4" s="177"/>
+      <c r="N4" s="176"/>
       <c r="O4" s="39" t="s">
         <v>56</v>
       </c>
@@ -10625,23 +10626,23 @@
       <c r="E5" s="33"/>
       <c r="F5" s="32"/>
       <c r="G5" s="88" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H5" s="63" t="s">
         <v>184</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="J5" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="K5" s="201" t="s">
+      <c r="K5" s="202" t="s">
         <v>185</v>
       </c>
-      <c r="L5" s="202"/>
-      <c r="M5" s="202"/>
-      <c r="N5" s="203"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="203"/>
+      <c r="N5" s="204"/>
       <c r="O5" s="125" t="s">
         <v>188</v>
       </c>
@@ -10655,12 +10656,12 @@
         <v>190</v>
       </c>
       <c r="S5" s="88" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
     </row>
-    <row r="6" spans="1:21" s="34" customFormat="1" ht="22.5">
+    <row r="6" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
         <v>2</v>
       </c>
@@ -10674,23 +10675,23 @@
       <c r="E6" s="33"/>
       <c r="F6" s="32"/>
       <c r="G6" s="88" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="H6" s="63" t="s">
         <v>184</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="J6" s="131" t="s">
         <v>183</v>
       </c>
-      <c r="K6" s="201" t="s">
+      <c r="K6" s="202" t="s">
         <v>181</v>
       </c>
-      <c r="L6" s="202"/>
-      <c r="M6" s="202"/>
-      <c r="N6" s="203"/>
+      <c r="L6" s="203"/>
+      <c r="M6" s="203"/>
+      <c r="N6" s="204"/>
       <c r="O6" s="125" t="s">
         <v>134</v>
       </c>
@@ -10703,8 +10704,8 @@
       <c r="R6" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="S6" s="88" t="s">
-        <v>211</v>
+      <c r="S6" s="138" t="s">
+        <v>223</v>
       </c>
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
@@ -10734,12 +10735,12 @@
       <c r="J7" s="131" t="s">
         <v>201</v>
       </c>
-      <c r="K7" s="201" t="s">
-        <v>208</v>
-      </c>
-      <c r="L7" s="202"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="203"/>
+      <c r="K7" s="202" t="s">
+        <v>206</v>
+      </c>
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="204"/>
       <c r="O7" s="125" t="s">
         <v>134</v>
       </c>
@@ -10748,47 +10749,31 @@
       </c>
       <c r="Q7" s="76"/>
       <c r="R7" s="75"/>
-      <c r="S7" s="82"/>
+      <c r="S7" s="82" t="s">
+        <v>224</v>
+      </c>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
     </row>
-    <row r="8" spans="1:21" s="34" customFormat="1" ht="112.5">
+    <row r="8" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A8" s="33">
         <v>4</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="33">
-        <v>51</v>
-      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="132" t="s">
-        <v>202</v>
-      </c>
-      <c r="H8" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="I8" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="131" t="s">
-        <v>203</v>
-      </c>
-      <c r="K8" s="201" t="s">
-        <v>222</v>
-      </c>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="203"/>
-      <c r="O8" s="125" t="s">
-        <v>223</v>
-      </c>
-      <c r="P8" s="125" t="s">
-        <v>224</v>
-      </c>
+      <c r="G8" s="132"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="203"/>
+      <c r="M8" s="203"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
       <c r="Q8" s="76"/>
       <c r="R8" s="75"/>
       <c r="S8" s="82"/>
@@ -10808,10 +10793,10 @@
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
       <c r="J9" s="82"/>
-      <c r="K9" s="201"/>
-      <c r="L9" s="202"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="203"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="203"/>
+      <c r="M9" s="203"/>
+      <c r="N9" s="204"/>
       <c r="O9" s="89"/>
       <c r="P9" s="89"/>
       <c r="Q9" s="76"/>
@@ -10833,10 +10818,10 @@
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
       <c r="J10" s="82"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="202"/>
-      <c r="M10" s="202"/>
-      <c r="N10" s="203"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="203"/>
+      <c r="M10" s="203"/>
+      <c r="N10" s="204"/>
       <c r="O10" s="89"/>
       <c r="P10" s="89"/>
       <c r="Q10" s="76"/>
@@ -10858,10 +10843,10 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="82"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="202"/>
-      <c r="M11" s="202"/>
-      <c r="N11" s="203"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="203"/>
+      <c r="M11" s="203"/>
+      <c r="N11" s="204"/>
       <c r="O11" s="89"/>
       <c r="P11" s="89"/>
       <c r="Q11" s="76"/>
@@ -10883,10 +10868,10 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="82"/>
-      <c r="K12" s="201"/>
-      <c r="L12" s="202"/>
-      <c r="M12" s="202"/>
-      <c r="N12" s="203"/>
+      <c r="K12" s="202"/>
+      <c r="L12" s="203"/>
+      <c r="M12" s="203"/>
+      <c r="N12" s="204"/>
       <c r="O12" s="85"/>
       <c r="P12" s="85"/>
       <c r="Q12" s="76"/>
@@ -10908,10 +10893,10 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="82"/>
-      <c r="K13" s="201"/>
-      <c r="L13" s="202"/>
-      <c r="M13" s="202"/>
-      <c r="N13" s="203"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="203"/>
+      <c r="M13" s="203"/>
+      <c r="N13" s="204"/>
       <c r="O13" s="85"/>
       <c r="P13" s="85"/>
       <c r="Q13" s="76"/>
@@ -10933,10 +10918,10 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="82"/>
-      <c r="K14" s="201"/>
-      <c r="L14" s="202"/>
-      <c r="M14" s="202"/>
-      <c r="N14" s="203"/>
+      <c r="K14" s="202"/>
+      <c r="L14" s="203"/>
+      <c r="M14" s="203"/>
+      <c r="N14" s="204"/>
       <c r="O14" s="81"/>
       <c r="P14" s="81"/>
       <c r="Q14" s="76"/>
@@ -10958,10 +10943,10 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="82"/>
-      <c r="K15" s="201"/>
-      <c r="L15" s="202"/>
-      <c r="M15" s="202"/>
-      <c r="N15" s="203"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="203"/>
+      <c r="M15" s="203"/>
+      <c r="N15" s="204"/>
       <c r="O15" s="81"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="76"/>
@@ -10983,10 +10968,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="201"/>
-      <c r="L16" s="202"/>
-      <c r="M16" s="202"/>
-      <c r="N16" s="203"/>
+      <c r="K16" s="202"/>
+      <c r="L16" s="203"/>
+      <c r="M16" s="203"/>
+      <c r="N16" s="204"/>
       <c r="O16" s="72"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="76"/>
@@ -11008,10 +10993,10 @@
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="201"/>
-      <c r="L17" s="202"/>
-      <c r="M17" s="202"/>
-      <c r="N17" s="203"/>
+      <c r="K17" s="202"/>
+      <c r="L17" s="203"/>
+      <c r="M17" s="203"/>
+      <c r="N17" s="204"/>
       <c r="O17" s="60"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="76"/>
@@ -11033,10 +11018,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="201"/>
-      <c r="L18" s="202"/>
-      <c r="M18" s="202"/>
-      <c r="N18" s="203"/>
+      <c r="K18" s="202"/>
+      <c r="L18" s="203"/>
+      <c r="M18" s="203"/>
+      <c r="N18" s="204"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="76"/>
@@ -11058,10 +11043,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="201"/>
-      <c r="L19" s="202"/>
-      <c r="M19" s="202"/>
-      <c r="N19" s="203"/>
+      <c r="K19" s="202"/>
+      <c r="L19" s="203"/>
+      <c r="M19" s="203"/>
+      <c r="N19" s="204"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="76"/>
@@ -11083,10 +11068,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="201"/>
-      <c r="L20" s="202"/>
-      <c r="M20" s="202"/>
-      <c r="N20" s="203"/>
+      <c r="K20" s="202"/>
+      <c r="L20" s="203"/>
+      <c r="M20" s="203"/>
+      <c r="N20" s="204"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="76"/>
@@ -11108,10 +11093,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="201"/>
-      <c r="L21" s="202"/>
-      <c r="M21" s="202"/>
-      <c r="N21" s="203"/>
+      <c r="K21" s="202"/>
+      <c r="L21" s="203"/>
+      <c r="M21" s="203"/>
+      <c r="N21" s="204"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="76"/>
@@ -11133,10 +11118,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="201"/>
-      <c r="L22" s="202"/>
-      <c r="M22" s="202"/>
-      <c r="N22" s="203"/>
+      <c r="K22" s="202"/>
+      <c r="L22" s="203"/>
+      <c r="M22" s="203"/>
+      <c r="N22" s="204"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="76"/>
@@ -11158,10 +11143,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="201"/>
-      <c r="L23" s="202"/>
-      <c r="M23" s="202"/>
-      <c r="N23" s="203"/>
+      <c r="K23" s="202"/>
+      <c r="L23" s="203"/>
+      <c r="M23" s="203"/>
+      <c r="N23" s="204"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="76"/>
@@ -11183,10 +11168,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="201"/>
-      <c r="L24" s="202"/>
-      <c r="M24" s="202"/>
-      <c r="N24" s="203"/>
+      <c r="K24" s="202"/>
+      <c r="L24" s="203"/>
+      <c r="M24" s="203"/>
+      <c r="N24" s="204"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="76"/>
@@ -11208,10 +11193,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="201"/>
-      <c r="L25" s="202"/>
-      <c r="M25" s="202"/>
-      <c r="N25" s="203"/>
+      <c r="K25" s="202"/>
+      <c r="L25" s="203"/>
+      <c r="M25" s="203"/>
+      <c r="N25" s="204"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="76"/>
@@ -11233,10 +11218,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="201"/>
-      <c r="L26" s="202"/>
-      <c r="M26" s="202"/>
-      <c r="N26" s="203"/>
+      <c r="K26" s="202"/>
+      <c r="L26" s="203"/>
+      <c r="M26" s="203"/>
+      <c r="N26" s="204"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="76"/>
@@ -11258,10 +11243,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="201"/>
-      <c r="L27" s="202"/>
-      <c r="M27" s="202"/>
-      <c r="N27" s="203"/>
+      <c r="K27" s="202"/>
+      <c r="L27" s="203"/>
+      <c r="M27" s="203"/>
+      <c r="N27" s="204"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="76"/>
@@ -11283,10 +11268,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="201"/>
-      <c r="L28" s="202"/>
-      <c r="M28" s="202"/>
-      <c r="N28" s="203"/>
+      <c r="K28" s="202"/>
+      <c r="L28" s="203"/>
+      <c r="M28" s="203"/>
+      <c r="N28" s="204"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="76"/>
@@ -11308,10 +11293,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="201"/>
-      <c r="L29" s="202"/>
-      <c r="M29" s="202"/>
-      <c r="N29" s="203"/>
+      <c r="K29" s="202"/>
+      <c r="L29" s="203"/>
+      <c r="M29" s="203"/>
+      <c r="N29" s="204"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="76"/>
@@ -11333,10 +11318,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="201"/>
-      <c r="L30" s="202"/>
-      <c r="M30" s="202"/>
-      <c r="N30" s="203"/>
+      <c r="K30" s="202"/>
+      <c r="L30" s="203"/>
+      <c r="M30" s="203"/>
+      <c r="N30" s="204"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="76"/>
@@ -11358,10 +11343,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="201"/>
-      <c r="L31" s="202"/>
-      <c r="M31" s="202"/>
-      <c r="N31" s="203"/>
+      <c r="K31" s="202"/>
+      <c r="L31" s="203"/>
+      <c r="M31" s="203"/>
+      <c r="N31" s="204"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="76"/>
@@ -11383,10 +11368,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="201"/>
-      <c r="L32" s="202"/>
-      <c r="M32" s="202"/>
-      <c r="N32" s="203"/>
+      <c r="K32" s="202"/>
+      <c r="L32" s="203"/>
+      <c r="M32" s="203"/>
+      <c r="N32" s="204"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="76"/>
@@ -11408,10 +11393,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="201"/>
-      <c r="L33" s="202"/>
-      <c r="M33" s="202"/>
-      <c r="N33" s="203"/>
+      <c r="K33" s="202"/>
+      <c r="L33" s="203"/>
+      <c r="M33" s="203"/>
+      <c r="N33" s="204"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="76"/>
@@ -11433,10 +11418,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="82"/>
-      <c r="K34" s="201"/>
-      <c r="L34" s="202"/>
-      <c r="M34" s="202"/>
-      <c r="N34" s="203"/>
+      <c r="K34" s="202"/>
+      <c r="L34" s="203"/>
+      <c r="M34" s="203"/>
+      <c r="N34" s="204"/>
       <c r="O34" s="85"/>
       <c r="P34" s="85"/>
       <c r="Q34" s="76"/>
@@ -11458,10 +11443,10 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="201"/>
-      <c r="L35" s="202"/>
-      <c r="M35" s="202"/>
-      <c r="N35" s="203"/>
+      <c r="K35" s="202"/>
+      <c r="L35" s="203"/>
+      <c r="M35" s="203"/>
+      <c r="N35" s="204"/>
       <c r="O35" s="60"/>
       <c r="P35" s="60"/>
       <c r="Q35" s="76"/>
@@ -11483,10 +11468,10 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="201"/>
-      <c r="L36" s="202"/>
-      <c r="M36" s="202"/>
-      <c r="N36" s="203"/>
+      <c r="K36" s="202"/>
+      <c r="L36" s="203"/>
+      <c r="M36" s="203"/>
+      <c r="N36" s="204"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="76"/>
@@ -11508,10 +11493,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="201"/>
-      <c r="L37" s="202"/>
-      <c r="M37" s="202"/>
-      <c r="N37" s="203"/>
+      <c r="K37" s="202"/>
+      <c r="L37" s="203"/>
+      <c r="M37" s="203"/>
+      <c r="N37" s="204"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="76"/>
@@ -11533,10 +11518,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="201"/>
-      <c r="L38" s="202"/>
-      <c r="M38" s="202"/>
-      <c r="N38" s="203"/>
+      <c r="K38" s="202"/>
+      <c r="L38" s="203"/>
+      <c r="M38" s="203"/>
+      <c r="N38" s="204"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="76"/>
@@ -11558,10 +11543,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="201"/>
-      <c r="L39" s="202"/>
-      <c r="M39" s="202"/>
-      <c r="N39" s="203"/>
+      <c r="K39" s="202"/>
+      <c r="L39" s="203"/>
+      <c r="M39" s="203"/>
+      <c r="N39" s="204"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="76"/>
@@ -11583,10 +11568,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="201"/>
-      <c r="L40" s="202"/>
-      <c r="M40" s="202"/>
-      <c r="N40" s="203"/>
+      <c r="K40" s="202"/>
+      <c r="L40" s="203"/>
+      <c r="M40" s="203"/>
+      <c r="N40" s="204"/>
       <c r="O40" s="74"/>
       <c r="P40" s="74"/>
       <c r="Q40" s="76"/>
@@ -11608,10 +11593,10 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="201"/>
-      <c r="L41" s="202"/>
-      <c r="M41" s="202"/>
-      <c r="N41" s="203"/>
+      <c r="K41" s="202"/>
+      <c r="L41" s="203"/>
+      <c r="M41" s="203"/>
+      <c r="N41" s="204"/>
       <c r="O41" s="74"/>
       <c r="P41" s="74"/>
       <c r="Q41" s="76"/>
@@ -11633,10 +11618,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="201"/>
-      <c r="L42" s="202"/>
-      <c r="M42" s="202"/>
-      <c r="N42" s="203"/>
+      <c r="K42" s="202"/>
+      <c r="L42" s="203"/>
+      <c r="M42" s="203"/>
+      <c r="N42" s="204"/>
       <c r="O42" s="74"/>
       <c r="P42" s="74"/>
       <c r="Q42" s="76"/>
@@ -11658,10 +11643,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="201"/>
-      <c r="L43" s="202"/>
-      <c r="M43" s="202"/>
-      <c r="N43" s="203"/>
+      <c r="K43" s="202"/>
+      <c r="L43" s="203"/>
+      <c r="M43" s="203"/>
+      <c r="N43" s="204"/>
       <c r="O43" s="74"/>
       <c r="P43" s="74"/>
       <c r="Q43" s="76"/>
@@ -11683,10 +11668,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="201"/>
-      <c r="L44" s="202"/>
-      <c r="M44" s="202"/>
-      <c r="N44" s="203"/>
+      <c r="K44" s="202"/>
+      <c r="L44" s="203"/>
+      <c r="M44" s="203"/>
+      <c r="N44" s="204"/>
       <c r="O44" s="74"/>
       <c r="P44" s="74"/>
       <c r="Q44" s="76"/>
@@ -11708,10 +11693,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="201"/>
-      <c r="L45" s="202"/>
-      <c r="M45" s="202"/>
-      <c r="N45" s="203"/>
+      <c r="K45" s="202"/>
+      <c r="L45" s="203"/>
+      <c r="M45" s="203"/>
+      <c r="N45" s="204"/>
       <c r="O45" s="74"/>
       <c r="P45" s="74"/>
       <c r="Q45" s="76"/>
@@ -11733,10 +11718,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="201"/>
-      <c r="L46" s="202"/>
-      <c r="M46" s="202"/>
-      <c r="N46" s="203"/>
+      <c r="K46" s="202"/>
+      <c r="L46" s="203"/>
+      <c r="M46" s="203"/>
+      <c r="N46" s="204"/>
       <c r="O46" s="74"/>
       <c r="P46" s="74"/>
       <c r="Q46" s="76"/>
@@ -11758,10 +11743,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="201"/>
-      <c r="L47" s="202"/>
-      <c r="M47" s="202"/>
-      <c r="N47" s="203"/>
+      <c r="K47" s="202"/>
+      <c r="L47" s="203"/>
+      <c r="M47" s="203"/>
+      <c r="N47" s="204"/>
       <c r="O47" s="74"/>
       <c r="P47" s="74"/>
       <c r="Q47" s="76"/>
@@ -11783,10 +11768,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="201"/>
-      <c r="L48" s="202"/>
-      <c r="M48" s="202"/>
-      <c r="N48" s="203"/>
+      <c r="K48" s="202"/>
+      <c r="L48" s="203"/>
+      <c r="M48" s="203"/>
+      <c r="N48" s="204"/>
       <c r="O48" s="74"/>
       <c r="P48" s="74"/>
       <c r="Q48" s="76"/>
@@ -11808,10 +11793,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="201"/>
-      <c r="L49" s="202"/>
-      <c r="M49" s="202"/>
-      <c r="N49" s="203"/>
+      <c r="K49" s="202"/>
+      <c r="L49" s="203"/>
+      <c r="M49" s="203"/>
+      <c r="N49" s="204"/>
       <c r="O49" s="74"/>
       <c r="P49" s="74"/>
       <c r="Q49" s="76"/>
@@ -11833,10 +11818,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="201"/>
-      <c r="L50" s="202"/>
-      <c r="M50" s="202"/>
-      <c r="N50" s="203"/>
+      <c r="K50" s="202"/>
+      <c r="L50" s="203"/>
+      <c r="M50" s="203"/>
+      <c r="N50" s="204"/>
       <c r="O50" s="74"/>
       <c r="P50" s="74"/>
       <c r="Q50" s="76"/>
@@ -11858,10 +11843,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="201"/>
-      <c r="L51" s="202"/>
-      <c r="M51" s="202"/>
-      <c r="N51" s="203"/>
+      <c r="K51" s="202"/>
+      <c r="L51" s="203"/>
+      <c r="M51" s="203"/>
+      <c r="N51" s="204"/>
       <c r="O51" s="74"/>
       <c r="P51" s="74"/>
       <c r="Q51" s="76"/>
@@ -11883,10 +11868,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="201"/>
-      <c r="L52" s="202"/>
-      <c r="M52" s="202"/>
-      <c r="N52" s="203"/>
+      <c r="K52" s="202"/>
+      <c r="L52" s="203"/>
+      <c r="M52" s="203"/>
+      <c r="N52" s="204"/>
       <c r="O52" s="74"/>
       <c r="P52" s="74"/>
       <c r="Q52" s="76"/>
@@ -11908,10 +11893,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="201"/>
-      <c r="L53" s="202"/>
-      <c r="M53" s="202"/>
-      <c r="N53" s="203"/>
+      <c r="K53" s="202"/>
+      <c r="L53" s="203"/>
+      <c r="M53" s="203"/>
+      <c r="N53" s="204"/>
       <c r="O53" s="74"/>
       <c r="P53" s="74"/>
       <c r="Q53" s="76"/>
@@ -11933,10 +11918,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="201"/>
-      <c r="L54" s="202"/>
-      <c r="M54" s="202"/>
-      <c r="N54" s="203"/>
+      <c r="K54" s="202"/>
+      <c r="L54" s="203"/>
+      <c r="M54" s="203"/>
+      <c r="N54" s="204"/>
       <c r="O54" s="74"/>
       <c r="P54" s="74"/>
       <c r="Q54" s="76"/>
@@ -11958,10 +11943,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="201"/>
-      <c r="L55" s="202"/>
-      <c r="M55" s="202"/>
-      <c r="N55" s="203"/>
+      <c r="K55" s="202"/>
+      <c r="L55" s="203"/>
+      <c r="M55" s="203"/>
+      <c r="N55" s="204"/>
       <c r="O55" s="74"/>
       <c r="P55" s="74"/>
       <c r="Q55" s="76"/>
@@ -11983,10 +11968,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="201"/>
-      <c r="L56" s="202"/>
-      <c r="M56" s="202"/>
-      <c r="N56" s="203"/>
+      <c r="K56" s="202"/>
+      <c r="L56" s="203"/>
+      <c r="M56" s="203"/>
+      <c r="N56" s="204"/>
       <c r="O56" s="74"/>
       <c r="P56" s="74"/>
       <c r="Q56" s="76"/>
@@ -12008,10 +11993,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="201"/>
-      <c r="L57" s="202"/>
-      <c r="M57" s="202"/>
-      <c r="N57" s="203"/>
+      <c r="K57" s="202"/>
+      <c r="L57" s="203"/>
+      <c r="M57" s="203"/>
+      <c r="N57" s="204"/>
       <c r="O57" s="74"/>
       <c r="P57" s="74"/>
       <c r="Q57" s="76"/>
@@ -12033,10 +12018,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="201"/>
-      <c r="L58" s="202"/>
-      <c r="M58" s="202"/>
-      <c r="N58" s="203"/>
+      <c r="K58" s="202"/>
+      <c r="L58" s="203"/>
+      <c r="M58" s="203"/>
+      <c r="N58" s="204"/>
       <c r="O58" s="74"/>
       <c r="P58" s="74"/>
       <c r="Q58" s="76"/>
@@ -12058,10 +12043,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="201"/>
-      <c r="L59" s="202"/>
-      <c r="M59" s="202"/>
-      <c r="N59" s="203"/>
+      <c r="K59" s="202"/>
+      <c r="L59" s="203"/>
+      <c r="M59" s="203"/>
+      <c r="N59" s="204"/>
       <c r="O59" s="74"/>
       <c r="P59" s="74"/>
       <c r="Q59" s="76"/>
@@ -12083,10 +12068,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="201"/>
-      <c r="L60" s="202"/>
-      <c r="M60" s="202"/>
-      <c r="N60" s="203"/>
+      <c r="K60" s="202"/>
+      <c r="L60" s="203"/>
+      <c r="M60" s="203"/>
+      <c r="N60" s="204"/>
       <c r="O60" s="74"/>
       <c r="P60" s="74"/>
       <c r="Q60" s="76"/>
@@ -12108,10 +12093,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="201"/>
-      <c r="L61" s="202"/>
-      <c r="M61" s="202"/>
-      <c r="N61" s="203"/>
+      <c r="K61" s="202"/>
+      <c r="L61" s="203"/>
+      <c r="M61" s="203"/>
+      <c r="N61" s="204"/>
       <c r="O61" s="74"/>
       <c r="P61" s="74"/>
       <c r="Q61" s="76"/>
@@ -12133,10 +12118,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="201"/>
-      <c r="L62" s="202"/>
-      <c r="M62" s="202"/>
-      <c r="N62" s="203"/>
+      <c r="K62" s="202"/>
+      <c r="L62" s="203"/>
+      <c r="M62" s="203"/>
+      <c r="N62" s="204"/>
       <c r="O62" s="84"/>
       <c r="P62" s="84"/>
       <c r="Q62" s="76"/>
@@ -12158,10 +12143,10 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="201"/>
-      <c r="L63" s="202"/>
-      <c r="M63" s="202"/>
-      <c r="N63" s="203"/>
+      <c r="K63" s="202"/>
+      <c r="L63" s="203"/>
+      <c r="M63" s="203"/>
+      <c r="N63" s="204"/>
       <c r="O63" s="84"/>
       <c r="P63" s="84"/>
       <c r="Q63" s="76"/>
@@ -12183,10 +12168,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="201"/>
-      <c r="L64" s="202"/>
-      <c r="M64" s="202"/>
-      <c r="N64" s="203"/>
+      <c r="K64" s="202"/>
+      <c r="L64" s="203"/>
+      <c r="M64" s="203"/>
+      <c r="N64" s="204"/>
       <c r="O64" s="84"/>
       <c r="P64" s="84"/>
       <c r="Q64" s="76"/>
@@ -12206,10 +12191,10 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="201"/>
-      <c r="L65" s="202"/>
-      <c r="M65" s="202"/>
-      <c r="N65" s="203"/>
+      <c r="K65" s="202"/>
+      <c r="L65" s="203"/>
+      <c r="M65" s="203"/>
+      <c r="N65" s="204"/>
       <c r="O65" s="84"/>
       <c r="P65" s="84"/>
       <c r="Q65" s="76"/>
@@ -12229,10 +12214,10 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="201"/>
-      <c r="L66" s="202"/>
-      <c r="M66" s="202"/>
-      <c r="N66" s="203"/>
+      <c r="K66" s="202"/>
+      <c r="L66" s="203"/>
+      <c r="M66" s="203"/>
+      <c r="N66" s="204"/>
       <c r="O66" s="84"/>
       <c r="P66" s="84"/>
       <c r="Q66" s="76"/>
@@ -12252,10 +12237,10 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="201"/>
-      <c r="L67" s="202"/>
-      <c r="M67" s="202"/>
-      <c r="N67" s="203"/>
+      <c r="K67" s="202"/>
+      <c r="L67" s="203"/>
+      <c r="M67" s="203"/>
+      <c r="N67" s="204"/>
       <c r="O67" s="84"/>
       <c r="P67" s="84"/>
       <c r="Q67" s="76"/>
@@ -12275,10 +12260,10 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="201"/>
-      <c r="L68" s="202"/>
-      <c r="M68" s="202"/>
-      <c r="N68" s="203"/>
+      <c r="K68" s="202"/>
+      <c r="L68" s="203"/>
+      <c r="M68" s="203"/>
+      <c r="N68" s="204"/>
       <c r="O68" s="84"/>
       <c r="P68" s="84"/>
       <c r="Q68" s="76"/>
@@ -12298,10 +12283,10 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="201"/>
-      <c r="L69" s="202"/>
-      <c r="M69" s="202"/>
-      <c r="N69" s="203"/>
+      <c r="K69" s="202"/>
+      <c r="L69" s="203"/>
+      <c r="M69" s="203"/>
+      <c r="N69" s="204"/>
       <c r="O69" s="84"/>
       <c r="P69" s="84"/>
       <c r="Q69" s="76"/>
@@ -12321,10 +12306,10 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="201"/>
-      <c r="L70" s="202"/>
-      <c r="M70" s="202"/>
-      <c r="N70" s="203"/>
+      <c r="K70" s="202"/>
+      <c r="L70" s="203"/>
+      <c r="M70" s="203"/>
+      <c r="N70" s="204"/>
       <c r="O70" s="84"/>
       <c r="P70" s="84"/>
       <c r="Q70" s="76"/>
@@ -12344,10 +12329,10 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="201"/>
-      <c r="L71" s="202"/>
-      <c r="M71" s="202"/>
-      <c r="N71" s="203"/>
+      <c r="K71" s="202"/>
+      <c r="L71" s="203"/>
+      <c r="M71" s="203"/>
+      <c r="N71" s="204"/>
       <c r="O71" s="84"/>
       <c r="P71" s="84"/>
       <c r="Q71" s="76"/>
@@ -12367,10 +12352,10 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="201"/>
-      <c r="L72" s="202"/>
-      <c r="M72" s="202"/>
-      <c r="N72" s="203"/>
+      <c r="K72" s="202"/>
+      <c r="L72" s="203"/>
+      <c r="M72" s="203"/>
+      <c r="N72" s="204"/>
       <c r="O72" s="84"/>
       <c r="P72" s="84"/>
       <c r="Q72" s="76"/>
@@ -12390,10 +12375,10 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="201"/>
-      <c r="L73" s="202"/>
-      <c r="M73" s="202"/>
-      <c r="N73" s="203"/>
+      <c r="K73" s="202"/>
+      <c r="L73" s="203"/>
+      <c r="M73" s="203"/>
+      <c r="N73" s="204"/>
       <c r="O73" s="84"/>
       <c r="P73" s="84"/>
       <c r="Q73" s="76"/>
@@ -12413,10 +12398,10 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="201"/>
-      <c r="L74" s="202"/>
-      <c r="M74" s="202"/>
-      <c r="N74" s="203"/>
+      <c r="K74" s="202"/>
+      <c r="L74" s="203"/>
+      <c r="M74" s="203"/>
+      <c r="N74" s="204"/>
       <c r="O74" s="84"/>
       <c r="P74" s="84"/>
       <c r="Q74" s="76"/>
@@ -12436,10 +12421,10 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="201"/>
-      <c r="L75" s="202"/>
-      <c r="M75" s="202"/>
-      <c r="N75" s="203"/>
+      <c r="K75" s="202"/>
+      <c r="L75" s="203"/>
+      <c r="M75" s="203"/>
+      <c r="N75" s="204"/>
       <c r="O75" s="84"/>
       <c r="P75" s="84"/>
       <c r="Q75" s="76"/>
@@ -12459,10 +12444,10 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="201"/>
-      <c r="L76" s="202"/>
-      <c r="M76" s="202"/>
-      <c r="N76" s="203"/>
+      <c r="K76" s="202"/>
+      <c r="L76" s="203"/>
+      <c r="M76" s="203"/>
+      <c r="N76" s="204"/>
       <c r="O76" s="84"/>
       <c r="P76" s="84"/>
       <c r="Q76" s="76"/>
@@ -12482,10 +12467,10 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="201"/>
-      <c r="L77" s="202"/>
-      <c r="M77" s="202"/>
-      <c r="N77" s="203"/>
+      <c r="K77" s="202"/>
+      <c r="L77" s="203"/>
+      <c r="M77" s="203"/>
+      <c r="N77" s="204"/>
       <c r="O77" s="84"/>
       <c r="P77" s="84"/>
       <c r="Q77" s="76"/>
@@ -12505,10 +12490,10 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="201"/>
-      <c r="L78" s="202"/>
-      <c r="M78" s="202"/>
-      <c r="N78" s="203"/>
+      <c r="K78" s="202"/>
+      <c r="L78" s="203"/>
+      <c r="M78" s="203"/>
+      <c r="N78" s="204"/>
       <c r="O78" s="84"/>
       <c r="P78" s="84"/>
       <c r="Q78" s="76"/>
@@ -12528,10 +12513,10 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="201"/>
-      <c r="L79" s="202"/>
-      <c r="M79" s="202"/>
-      <c r="N79" s="203"/>
+      <c r="K79" s="202"/>
+      <c r="L79" s="203"/>
+      <c r="M79" s="203"/>
+      <c r="N79" s="204"/>
       <c r="O79" s="84"/>
       <c r="P79" s="84"/>
       <c r="Q79" s="76"/>
@@ -12551,10 +12536,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="201"/>
-      <c r="L80" s="202"/>
-      <c r="M80" s="202"/>
-      <c r="N80" s="203"/>
+      <c r="K80" s="202"/>
+      <c r="L80" s="203"/>
+      <c r="M80" s="203"/>
+      <c r="N80" s="204"/>
       <c r="O80" s="84"/>
       <c r="P80" s="84"/>
       <c r="Q80" s="76"/>
@@ -12574,10 +12559,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="201"/>
-      <c r="L81" s="202"/>
-      <c r="M81" s="202"/>
-      <c r="N81" s="203"/>
+      <c r="K81" s="202"/>
+      <c r="L81" s="203"/>
+      <c r="M81" s="203"/>
+      <c r="N81" s="204"/>
       <c r="O81" s="84"/>
       <c r="P81" s="84"/>
       <c r="Q81" s="76"/>
@@ -12597,10 +12582,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="201"/>
-      <c r="L82" s="202"/>
-      <c r="M82" s="202"/>
-      <c r="N82" s="203"/>
+      <c r="K82" s="202"/>
+      <c r="L82" s="203"/>
+      <c r="M82" s="203"/>
+      <c r="N82" s="204"/>
       <c r="O82" s="84"/>
       <c r="P82" s="84"/>
       <c r="Q82" s="76"/>
@@ -12620,10 +12605,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="201"/>
-      <c r="L83" s="202"/>
-      <c r="M83" s="202"/>
-      <c r="N83" s="203"/>
+      <c r="K83" s="202"/>
+      <c r="L83" s="203"/>
+      <c r="M83" s="203"/>
+      <c r="N83" s="204"/>
       <c r="O83" s="84"/>
       <c r="P83" s="84"/>
       <c r="Q83" s="76"/>
@@ -12643,10 +12628,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="201"/>
-      <c r="L84" s="202"/>
-      <c r="M84" s="202"/>
-      <c r="N84" s="203"/>
+      <c r="K84" s="202"/>
+      <c r="L84" s="203"/>
+      <c r="M84" s="203"/>
+      <c r="N84" s="204"/>
       <c r="O84" s="84"/>
       <c r="P84" s="84"/>
       <c r="Q84" s="76"/>
@@ -12666,10 +12651,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="201"/>
-      <c r="L85" s="202"/>
-      <c r="M85" s="202"/>
-      <c r="N85" s="203"/>
+      <c r="K85" s="202"/>
+      <c r="L85" s="203"/>
+      <c r="M85" s="203"/>
+      <c r="N85" s="204"/>
       <c r="O85" s="84"/>
       <c r="P85" s="84"/>
       <c r="Q85" s="76"/>
@@ -12689,10 +12674,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="201"/>
-      <c r="L86" s="202"/>
-      <c r="M86" s="202"/>
-      <c r="N86" s="203"/>
+      <c r="K86" s="202"/>
+      <c r="L86" s="203"/>
+      <c r="M86" s="203"/>
+      <c r="N86" s="204"/>
       <c r="O86" s="84"/>
       <c r="P86" s="84"/>
       <c r="Q86" s="76"/>
@@ -12712,10 +12697,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="201"/>
-      <c r="L87" s="202"/>
-      <c r="M87" s="202"/>
-      <c r="N87" s="203"/>
+      <c r="K87" s="202"/>
+      <c r="L87" s="203"/>
+      <c r="M87" s="203"/>
+      <c r="N87" s="204"/>
       <c r="O87" s="84"/>
       <c r="P87" s="84"/>
       <c r="Q87" s="76"/>
@@ -12735,10 +12720,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="201"/>
-      <c r="L88" s="202"/>
-      <c r="M88" s="202"/>
-      <c r="N88" s="203"/>
+      <c r="K88" s="202"/>
+      <c r="L88" s="203"/>
+      <c r="M88" s="203"/>
+      <c r="N88" s="204"/>
       <c r="O88" s="84"/>
       <c r="P88" s="84"/>
       <c r="Q88" s="76"/>
@@ -12758,10 +12743,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="201"/>
-      <c r="L89" s="202"/>
-      <c r="M89" s="202"/>
-      <c r="N89" s="203"/>
+      <c r="K89" s="202"/>
+      <c r="L89" s="203"/>
+      <c r="M89" s="203"/>
+      <c r="N89" s="204"/>
       <c r="O89" s="84"/>
       <c r="P89" s="84"/>
       <c r="Q89" s="76"/>
@@ -12781,10 +12766,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="201"/>
-      <c r="L90" s="202"/>
-      <c r="M90" s="202"/>
-      <c r="N90" s="203"/>
+      <c r="K90" s="202"/>
+      <c r="L90" s="203"/>
+      <c r="M90" s="203"/>
+      <c r="N90" s="204"/>
       <c r="O90" s="84"/>
       <c r="P90" s="84"/>
       <c r="Q90" s="76"/>
@@ -12804,10 +12789,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="201"/>
-      <c r="L91" s="202"/>
-      <c r="M91" s="202"/>
-      <c r="N91" s="203"/>
+      <c r="K91" s="202"/>
+      <c r="L91" s="203"/>
+      <c r="M91" s="203"/>
+      <c r="N91" s="204"/>
       <c r="O91" s="84"/>
       <c r="P91" s="84"/>
       <c r="Q91" s="76"/>
@@ -12827,10 +12812,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="201"/>
-      <c r="L92" s="202"/>
-      <c r="M92" s="202"/>
-      <c r="N92" s="203"/>
+      <c r="K92" s="202"/>
+      <c r="L92" s="203"/>
+      <c r="M92" s="203"/>
+      <c r="N92" s="204"/>
       <c r="O92" s="84"/>
       <c r="P92" s="84"/>
       <c r="Q92" s="76"/>
@@ -12850,10 +12835,10 @@
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="201"/>
-      <c r="L93" s="202"/>
-      <c r="M93" s="202"/>
-      <c r="N93" s="203"/>
+      <c r="K93" s="202"/>
+      <c r="L93" s="203"/>
+      <c r="M93" s="203"/>
+      <c r="N93" s="204"/>
       <c r="O93" s="84"/>
       <c r="P93" s="84"/>
       <c r="Q93" s="76"/>
@@ -12873,10 +12858,10 @@
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="201"/>
-      <c r="L94" s="202"/>
-      <c r="M94" s="202"/>
-      <c r="N94" s="203"/>
+      <c r="K94" s="202"/>
+      <c r="L94" s="203"/>
+      <c r="M94" s="203"/>
+      <c r="N94" s="204"/>
       <c r="O94" s="84"/>
       <c r="P94" s="84"/>
       <c r="Q94" s="76"/>
@@ -12889,47 +12874,43 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
     <mergeCell ref="K59:N59"/>
     <mergeCell ref="K42:N42"/>
     <mergeCell ref="K43:N43"/>
@@ -12946,43 +12927,47 @@
     <mergeCell ref="K57:N57"/>
     <mergeCell ref="K51:N51"/>
     <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -13011,8 +12996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -13119,7 +13104,9 @@
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
+      <c r="B6" s="43" t="s">
+        <v>228</v>
+      </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
@@ -13198,7 +13185,9 @@
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="80"/>
       <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
+      <c r="C12" s="43" t="s">
+        <v>229</v>
+      </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
@@ -13248,7 +13237,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -13260,7 +13249,9 @@
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
+      <c r="C18" s="43" t="s">
+        <v>227</v>
+      </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
       <c r="F18" s="43"/>
@@ -13319,7 +13310,7 @@
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="B23" s="80"/>
       <c r="C23" s="43" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -13356,12 +13347,8 @@
       <c r="J25" s="46"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
-      <c r="A26" s="73" t="s">
-        <v>225</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>221</v>
-      </c>
+      <c r="A26" s="73"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
@@ -13374,7 +13361,7 @@
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="86" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="43"/>
@@ -13643,27 +13630,26 @@
       <c r="J48" s="46"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
-      <c r="A49" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="B49" s="80"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
+      <c r="B49" s="210" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" s="211"/>
+      <c r="D49" s="211"/>
+      <c r="E49" s="211"/>
+      <c r="F49" s="211"/>
+      <c r="G49" s="211"/>
+      <c r="H49" s="211"/>
       <c r="I49" s="43"/>
       <c r="J49" s="46"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1">
-      <c r="B50" s="43"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
+      <c r="B50" s="211"/>
+      <c r="C50" s="211"/>
+      <c r="D50" s="211"/>
+      <c r="E50" s="211"/>
+      <c r="F50" s="211"/>
+      <c r="G50" s="211"/>
+      <c r="H50" s="211"/>
       <c r="I50" s="43"/>
       <c r="J50" s="46"/>
     </row>
@@ -14104,8 +14090,9 @@
       <c r="J87" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B49:H50"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.6" bottom="0.3" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
@@ -14126,8 +14113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Thong ke thoi gian giao hang/CRMF3030_Thong ke thoi gian giao hang.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Thong ke thoi gian giao hang/CRMF3030_Thong ke thoi gian giao hang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1575,7 +1575,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="225">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2165,9 +2165,6 @@
     <t>Đến ngày</t>
   </si>
   <si>
-    <t>Chọn kỳ</t>
-  </si>
-  <si>
     <t>Đơn vị</t>
   </si>
   <si>
@@ -2177,9 +2174,6 @@
     <t>Button</t>
   </si>
   <si>
-    <t>RadioButton</t>
-  </si>
-  <si>
     <t>ComboBox</t>
   </si>
   <si>
@@ -2189,12 +2183,6 @@
     <t>ToDate</t>
   </si>
   <si>
-    <t>RadioBttn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period </t>
-  </si>
-  <si>
     <t>DivisionID</t>
   </si>
   <si>
@@ -2205,9 +2193,6 @@
   </si>
   <si>
     <t>DateTime</t>
-  </si>
-  <si>
-    <t>Boolean</t>
   </si>
   <si>
     <t>Click vào Button In</t>
@@ -2334,9 +2319,6 @@
   </si>
   <si>
     <t>GetDate()</t>
-  </si>
-  <si>
-    <t>MM/YYYY</t>
   </si>
   <si>
     <t>DD/MM/YYYY</t>
@@ -3245,9 +3227,27 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3293,23 +3293,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3350,9 +3335,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3414,6 +3396,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3422,18 +3416,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3446,6 +3428,12 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3457,12 +3445,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3544,20 +3526,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1285875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3577,8 +3559,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2933700" y="1485900"/>
-          <a:ext cx="4381500" cy="2752725"/>
+          <a:off x="3371850" y="1457325"/>
+          <a:ext cx="4210050" cy="2238375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4389,65 +4371,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="144"/>
-      <c r="B1" s="144"/>
-      <c r="C1" s="146" t="s">
+      <c r="A1" s="150"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="152" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="145" t="s">
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="151" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145" t="s">
+      <c r="H1" s="151"/>
+      <c r="I1" s="151" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="145"/>
+      <c r="J1" s="151"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="145" t="s">
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="151" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="144"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="141" t="s">
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="147" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="142"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="142"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="148"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="116"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="143"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
+      <c r="A13" s="149"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
       <c r="K13" s="117"/>
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
@@ -4458,56 +4440,56 @@
       <c r="R13" s="117"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="139"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="139"/>
-      <c r="N14" s="139"/>
-      <c r="O14" s="139"/>
-      <c r="P14" s="139"/>
-      <c r="Q14" s="139"/>
-      <c r="R14" s="139"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="143"/>
+      <c r="R14" s="143"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="139"/>
-      <c r="R15" s="139"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="140" t="s">
+      <c r="A16" s="146" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="140"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="146"/>
       <c r="K16" s="118"/>
       <c r="L16" s="118"/>
       <c r="M16" s="118"/>
@@ -4518,384 +4500,384 @@
       <c r="R16" s="118"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="139"/>
-      <c r="O17" s="139"/>
-      <c r="P17" s="139"/>
-      <c r="Q17" s="139"/>
-      <c r="R17" s="139"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="143"/>
+      <c r="R17" s="143"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="139"/>
-      <c r="K18" s="139"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="139"/>
-      <c r="P18" s="139"/>
-      <c r="Q18" s="139"/>
-      <c r="R18" s="139"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="143"/>
+      <c r="Q18" s="143"/>
+      <c r="R18" s="143"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="156"/>
-      <c r="Q19" s="156"/>
-      <c r="R19" s="156"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
+      <c r="K19" s="145"/>
+      <c r="L19" s="145"/>
+      <c r="M19" s="145"/>
+      <c r="N19" s="145"/>
+      <c r="O19" s="145"/>
+      <c r="P19" s="145"/>
+      <c r="Q19" s="145"/>
+      <c r="R19" s="145"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="139"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="139"/>
-      <c r="K20" s="139"/>
-      <c r="L20" s="139"/>
-      <c r="M20" s="139"/>
-      <c r="N20" s="139"/>
-      <c r="O20" s="139"/>
-      <c r="P20" s="139"/>
-      <c r="Q20" s="139"/>
-      <c r="R20" s="139"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="143"/>
+      <c r="P20" s="143"/>
+      <c r="Q20" s="143"/>
+      <c r="R20" s="143"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="139"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="139"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="139"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="139"/>
-      <c r="P21" s="139"/>
-      <c r="Q21" s="139"/>
-      <c r="R21" s="139"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="143"/>
+      <c r="N21" s="143"/>
+      <c r="O21" s="143"/>
+      <c r="P21" s="143"/>
+      <c r="Q21" s="143"/>
+      <c r="R21" s="143"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="155"/>
-      <c r="O22" s="155"/>
-      <c r="P22" s="155"/>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="155"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="144"/>
+      <c r="O22" s="144"/>
+      <c r="P22" s="144"/>
+      <c r="Q22" s="144"/>
+      <c r="R22" s="144"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="155"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="155"/>
-      <c r="O23" s="155"/>
-      <c r="P23" s="155"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="155"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="144"/>
+      <c r="N23" s="144"/>
+      <c r="O23" s="144"/>
+      <c r="P23" s="144"/>
+      <c r="Q23" s="144"/>
+      <c r="R23" s="144"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="157"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="157"/>
-      <c r="L26" s="157"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="157"/>
-      <c r="O26" s="157"/>
-      <c r="P26" s="157"/>
-      <c r="Q26" s="157"/>
-      <c r="R26" s="157"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="141"/>
+      <c r="N26" s="141"/>
+      <c r="O26" s="141"/>
+      <c r="P26" s="141"/>
+      <c r="Q26" s="141"/>
+      <c r="R26" s="141"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="159"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159"/>
-      <c r="K28" s="159"/>
-      <c r="L28" s="159"/>
-      <c r="M28" s="159"/>
-      <c r="N28" s="159"/>
-      <c r="O28" s="159"/>
-      <c r="P28" s="159"/>
-      <c r="Q28" s="159"/>
-      <c r="R28" s="159"/>
-      <c r="S28" s="158"/>
-      <c r="T28" s="158"/>
-      <c r="U28" s="158"/>
-      <c r="V28" s="158"/>
-      <c r="W28" s="158"/>
-      <c r="X28" s="158"/>
-      <c r="Y28" s="158"/>
-      <c r="Z28" s="158"/>
-      <c r="AA28" s="158"/>
-      <c r="AB28" s="158"/>
-      <c r="AC28" s="158"/>
-      <c r="AD28" s="158"/>
-      <c r="AE28" s="158"/>
-      <c r="AF28" s="158"/>
-      <c r="AG28" s="158"/>
-      <c r="AH28" s="158"/>
-      <c r="AI28" s="158"/>
-      <c r="AJ28" s="158"/>
-      <c r="AK28" s="158"/>
-      <c r="AL28" s="158"/>
-      <c r="AM28" s="158"/>
-      <c r="AN28" s="158"/>
-      <c r="AO28" s="158"/>
-      <c r="AP28" s="158"/>
-      <c r="AQ28" s="158"/>
-      <c r="AR28" s="158"/>
-      <c r="AS28" s="158"/>
-      <c r="AT28" s="158"/>
-      <c r="AU28" s="158"/>
-      <c r="AV28" s="158"/>
-      <c r="AW28" s="158"/>
-      <c r="AX28" s="158"/>
-      <c r="AY28" s="158"/>
-      <c r="AZ28" s="158"/>
-      <c r="BA28" s="158"/>
-      <c r="BB28" s="158"/>
-      <c r="BC28" s="158"/>
-      <c r="BD28" s="158"/>
-      <c r="BE28" s="158"/>
-      <c r="BF28" s="158"/>
-      <c r="BG28" s="158"/>
-      <c r="BH28" s="158"/>
-      <c r="BI28" s="158"/>
-      <c r="BJ28" s="158"/>
-      <c r="BK28" s="158"/>
-      <c r="BL28" s="158"/>
-      <c r="BM28" s="158"/>
-      <c r="BN28" s="158"/>
-      <c r="BO28" s="158"/>
-      <c r="BP28" s="158"/>
-      <c r="BQ28" s="158"/>
-      <c r="BR28" s="158"/>
-      <c r="BS28" s="158"/>
-      <c r="BT28" s="158"/>
-      <c r="BU28" s="158"/>
-      <c r="BV28" s="158"/>
-      <c r="BW28" s="158"/>
-      <c r="BX28" s="158"/>
-      <c r="BY28" s="158"/>
-      <c r="BZ28" s="158"/>
-      <c r="CA28" s="158"/>
-      <c r="CB28" s="158"/>
-      <c r="CC28" s="158"/>
-      <c r="CD28" s="158"/>
-      <c r="CE28" s="158"/>
-      <c r="CF28" s="158"/>
-      <c r="CG28" s="158"/>
-      <c r="CH28" s="158"/>
-      <c r="CI28" s="158"/>
-      <c r="CJ28" s="158"/>
-      <c r="CK28" s="158"/>
-      <c r="CL28" s="158"/>
-      <c r="CM28" s="158"/>
-      <c r="CN28" s="158"/>
-      <c r="CO28" s="158"/>
-      <c r="CP28" s="158"/>
-      <c r="CQ28" s="158"/>
-      <c r="CR28" s="158"/>
-      <c r="CS28" s="158"/>
-      <c r="CT28" s="158"/>
-      <c r="CU28" s="158"/>
-      <c r="CV28" s="158"/>
-      <c r="CW28" s="158"/>
-      <c r="CX28" s="158"/>
-      <c r="CY28" s="158"/>
-      <c r="CZ28" s="158"/>
-      <c r="DA28" s="158"/>
-      <c r="DB28" s="158"/>
-      <c r="DC28" s="158"/>
-      <c r="DD28" s="158"/>
-      <c r="DE28" s="158"/>
-      <c r="DF28" s="158"/>
-      <c r="DG28" s="158"/>
-      <c r="DH28" s="158"/>
-      <c r="DI28" s="158"/>
-      <c r="DJ28" s="158"/>
-      <c r="DK28" s="158"/>
-      <c r="DL28" s="158"/>
-      <c r="DM28" s="158"/>
-      <c r="DN28" s="158"/>
-      <c r="DO28" s="158"/>
-      <c r="DP28" s="158"/>
-      <c r="DQ28" s="158"/>
-      <c r="DR28" s="158"/>
-      <c r="DS28" s="158"/>
-      <c r="DT28" s="158"/>
-      <c r="DU28" s="158"/>
-      <c r="DV28" s="158"/>
-      <c r="DW28" s="158"/>
-      <c r="DX28" s="158"/>
-      <c r="DY28" s="158"/>
-      <c r="DZ28" s="158"/>
-      <c r="EA28" s="158"/>
-      <c r="EB28" s="158"/>
-      <c r="EC28" s="158"/>
-      <c r="ED28" s="158"/>
-      <c r="EE28" s="158"/>
-      <c r="EF28" s="158"/>
-      <c r="EG28" s="158"/>
-      <c r="EH28" s="158"/>
-      <c r="EI28" s="158"/>
-      <c r="EJ28" s="158"/>
-      <c r="EK28" s="158"/>
-      <c r="EL28" s="158"/>
-      <c r="EM28" s="158"/>
-      <c r="EN28" s="158"/>
-      <c r="EO28" s="158"/>
-      <c r="EP28" s="158"/>
-      <c r="EQ28" s="158"/>
-      <c r="ER28" s="158"/>
-      <c r="ES28" s="158"/>
-      <c r="ET28" s="158"/>
-      <c r="EU28" s="158"/>
-      <c r="EV28" s="158"/>
-      <c r="EW28" s="158"/>
-      <c r="EX28" s="158"/>
-      <c r="EY28" s="158"/>
-      <c r="EZ28" s="158"/>
-      <c r="FA28" s="158"/>
-      <c r="FB28" s="158"/>
-      <c r="FC28" s="158"/>
-      <c r="FD28" s="158"/>
-      <c r="FE28" s="158"/>
-      <c r="FF28" s="158"/>
-      <c r="FG28" s="158"/>
-      <c r="FH28" s="158"/>
-      <c r="FI28" s="158"/>
-      <c r="FJ28" s="158"/>
-      <c r="FK28" s="158"/>
-      <c r="FL28" s="158"/>
-      <c r="FM28" s="158"/>
-      <c r="FN28" s="158"/>
-      <c r="FO28" s="158"/>
-      <c r="FP28" s="158"/>
-      <c r="FQ28" s="158"/>
-      <c r="FR28" s="158"/>
-      <c r="FS28" s="158"/>
-      <c r="FT28" s="158"/>
-      <c r="FU28" s="158"/>
-      <c r="FV28" s="158"/>
-      <c r="FW28" s="158"/>
-      <c r="FX28" s="158"/>
-      <c r="FY28" s="158"/>
-      <c r="FZ28" s="158"/>
-      <c r="GA28" s="158"/>
-      <c r="GB28" s="158"/>
-      <c r="GC28" s="158"/>
-      <c r="GD28" s="158"/>
-      <c r="GE28" s="158"/>
-      <c r="GF28" s="158"/>
-      <c r="GG28" s="158"/>
-      <c r="GH28" s="158"/>
-      <c r="GI28" s="158"/>
-      <c r="GJ28" s="158"/>
-      <c r="GK28" s="158"/>
-      <c r="GL28" s="158"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="142"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="142"/>
+      <c r="M28" s="142"/>
+      <c r="N28" s="142"/>
+      <c r="O28" s="142"/>
+      <c r="P28" s="142"/>
+      <c r="Q28" s="142"/>
+      <c r="R28" s="142"/>
+      <c r="S28" s="140"/>
+      <c r="T28" s="140"/>
+      <c r="U28" s="140"/>
+      <c r="V28" s="140"/>
+      <c r="W28" s="140"/>
+      <c r="X28" s="140"/>
+      <c r="Y28" s="140"/>
+      <c r="Z28" s="140"/>
+      <c r="AA28" s="140"/>
+      <c r="AB28" s="140"/>
+      <c r="AC28" s="140"/>
+      <c r="AD28" s="140"/>
+      <c r="AE28" s="140"/>
+      <c r="AF28" s="140"/>
+      <c r="AG28" s="140"/>
+      <c r="AH28" s="140"/>
+      <c r="AI28" s="140"/>
+      <c r="AJ28" s="140"/>
+      <c r="AK28" s="140"/>
+      <c r="AL28" s="140"/>
+      <c r="AM28" s="140"/>
+      <c r="AN28" s="140"/>
+      <c r="AO28" s="140"/>
+      <c r="AP28" s="140"/>
+      <c r="AQ28" s="140"/>
+      <c r="AR28" s="140"/>
+      <c r="AS28" s="140"/>
+      <c r="AT28" s="140"/>
+      <c r="AU28" s="140"/>
+      <c r="AV28" s="140"/>
+      <c r="AW28" s="140"/>
+      <c r="AX28" s="140"/>
+      <c r="AY28" s="140"/>
+      <c r="AZ28" s="140"/>
+      <c r="BA28" s="140"/>
+      <c r="BB28" s="140"/>
+      <c r="BC28" s="140"/>
+      <c r="BD28" s="140"/>
+      <c r="BE28" s="140"/>
+      <c r="BF28" s="140"/>
+      <c r="BG28" s="140"/>
+      <c r="BH28" s="140"/>
+      <c r="BI28" s="140"/>
+      <c r="BJ28" s="140"/>
+      <c r="BK28" s="140"/>
+      <c r="BL28" s="140"/>
+      <c r="BM28" s="140"/>
+      <c r="BN28" s="140"/>
+      <c r="BO28" s="140"/>
+      <c r="BP28" s="140"/>
+      <c r="BQ28" s="140"/>
+      <c r="BR28" s="140"/>
+      <c r="BS28" s="140"/>
+      <c r="BT28" s="140"/>
+      <c r="BU28" s="140"/>
+      <c r="BV28" s="140"/>
+      <c r="BW28" s="140"/>
+      <c r="BX28" s="140"/>
+      <c r="BY28" s="140"/>
+      <c r="BZ28" s="140"/>
+      <c r="CA28" s="140"/>
+      <c r="CB28" s="140"/>
+      <c r="CC28" s="140"/>
+      <c r="CD28" s="140"/>
+      <c r="CE28" s="140"/>
+      <c r="CF28" s="140"/>
+      <c r="CG28" s="140"/>
+      <c r="CH28" s="140"/>
+      <c r="CI28" s="140"/>
+      <c r="CJ28" s="140"/>
+      <c r="CK28" s="140"/>
+      <c r="CL28" s="140"/>
+      <c r="CM28" s="140"/>
+      <c r="CN28" s="140"/>
+      <c r="CO28" s="140"/>
+      <c r="CP28" s="140"/>
+      <c r="CQ28" s="140"/>
+      <c r="CR28" s="140"/>
+      <c r="CS28" s="140"/>
+      <c r="CT28" s="140"/>
+      <c r="CU28" s="140"/>
+      <c r="CV28" s="140"/>
+      <c r="CW28" s="140"/>
+      <c r="CX28" s="140"/>
+      <c r="CY28" s="140"/>
+      <c r="CZ28" s="140"/>
+      <c r="DA28" s="140"/>
+      <c r="DB28" s="140"/>
+      <c r="DC28" s="140"/>
+      <c r="DD28" s="140"/>
+      <c r="DE28" s="140"/>
+      <c r="DF28" s="140"/>
+      <c r="DG28" s="140"/>
+      <c r="DH28" s="140"/>
+      <c r="DI28" s="140"/>
+      <c r="DJ28" s="140"/>
+      <c r="DK28" s="140"/>
+      <c r="DL28" s="140"/>
+      <c r="DM28" s="140"/>
+      <c r="DN28" s="140"/>
+      <c r="DO28" s="140"/>
+      <c r="DP28" s="140"/>
+      <c r="DQ28" s="140"/>
+      <c r="DR28" s="140"/>
+      <c r="DS28" s="140"/>
+      <c r="DT28" s="140"/>
+      <c r="DU28" s="140"/>
+      <c r="DV28" s="140"/>
+      <c r="DW28" s="140"/>
+      <c r="DX28" s="140"/>
+      <c r="DY28" s="140"/>
+      <c r="DZ28" s="140"/>
+      <c r="EA28" s="140"/>
+      <c r="EB28" s="140"/>
+      <c r="EC28" s="140"/>
+      <c r="ED28" s="140"/>
+      <c r="EE28" s="140"/>
+      <c r="EF28" s="140"/>
+      <c r="EG28" s="140"/>
+      <c r="EH28" s="140"/>
+      <c r="EI28" s="140"/>
+      <c r="EJ28" s="140"/>
+      <c r="EK28" s="140"/>
+      <c r="EL28" s="140"/>
+      <c r="EM28" s="140"/>
+      <c r="EN28" s="140"/>
+      <c r="EO28" s="140"/>
+      <c r="EP28" s="140"/>
+      <c r="EQ28" s="140"/>
+      <c r="ER28" s="140"/>
+      <c r="ES28" s="140"/>
+      <c r="ET28" s="140"/>
+      <c r="EU28" s="140"/>
+      <c r="EV28" s="140"/>
+      <c r="EW28" s="140"/>
+      <c r="EX28" s="140"/>
+      <c r="EY28" s="140"/>
+      <c r="EZ28" s="140"/>
+      <c r="FA28" s="140"/>
+      <c r="FB28" s="140"/>
+      <c r="FC28" s="140"/>
+      <c r="FD28" s="140"/>
+      <c r="FE28" s="140"/>
+      <c r="FF28" s="140"/>
+      <c r="FG28" s="140"/>
+      <c r="FH28" s="140"/>
+      <c r="FI28" s="140"/>
+      <c r="FJ28" s="140"/>
+      <c r="FK28" s="140"/>
+      <c r="FL28" s="140"/>
+      <c r="FM28" s="140"/>
+      <c r="FN28" s="140"/>
+      <c r="FO28" s="140"/>
+      <c r="FP28" s="140"/>
+      <c r="FQ28" s="140"/>
+      <c r="FR28" s="140"/>
+      <c r="FS28" s="140"/>
+      <c r="FT28" s="140"/>
+      <c r="FU28" s="140"/>
+      <c r="FV28" s="140"/>
+      <c r="FW28" s="140"/>
+      <c r="FX28" s="140"/>
+      <c r="FY28" s="140"/>
+      <c r="FZ28" s="140"/>
+      <c r="GA28" s="140"/>
+      <c r="GB28" s="140"/>
+      <c r="GC28" s="140"/>
+      <c r="GD28" s="140"/>
+      <c r="GE28" s="140"/>
+      <c r="GF28" s="140"/>
+      <c r="GG28" s="140"/>
+      <c r="GH28" s="140"/>
+      <c r="GI28" s="140"/>
+      <c r="GJ28" s="140"/>
+      <c r="GK28" s="140"/>
+      <c r="GL28" s="140"/>
       <c r="GM28" s="119"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="157"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="157"/>
-      <c r="L29" s="157"/>
-      <c r="M29" s="157"/>
-      <c r="N29" s="157"/>
-      <c r="O29" s="157"/>
-      <c r="P29" s="157"/>
-      <c r="Q29" s="157"/>
-      <c r="R29" s="157"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="141"/>
+      <c r="Q29" s="141"/>
+      <c r="R29" s="141"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="160"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="160"/>
+      <c r="A30" s="139"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
       <c r="K30" s="120"/>
       <c r="L30" s="120"/>
       <c r="M30" s="120"/>
@@ -4906,16 +4888,16 @@
       <c r="R30" s="120"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="160"/>
-      <c r="B31" s="160"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="160"/>
+      <c r="A31" s="139"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
       <c r="K31" s="120"/>
       <c r="L31" s="120"/>
       <c r="M31" s="120"/>
@@ -4927,28 +4909,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4962,6 +4922,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -4988,14 +4970,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="206" t="s">
+      <c r="B1" s="208" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5188,11 +5170,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="207" t="s">
+      <c r="E27" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="208"/>
-      <c r="G27" s="209"/>
+      <c r="F27" s="210"/>
+      <c r="G27" s="211"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5516,10 +5498,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="168"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5530,7 +5512,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5546,8 +5528,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5558,7 +5540,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>6</v>
@@ -5586,14 +5568,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="168" t="s">
+      <c r="E4" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="127">
@@ -5608,14 +5590,14 @@
       <c r="D5" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="169" t="s">
-        <v>211</v>
-      </c>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
+      <c r="E5" s="170" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="90">
@@ -5626,12 +5608,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="173"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="174"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="91">
@@ -5642,12 +5624,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="163"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="164"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="92">
@@ -5658,12 +5640,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="166"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="167"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="93">
@@ -5674,12 +5656,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="163"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="164"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="94">
@@ -5690,12 +5672,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="163"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="164"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="95">
@@ -5706,12 +5688,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="163"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="164"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="96">
@@ -5722,12 +5704,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="163"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="164"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="97">
@@ -5738,12 +5720,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="163"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="164"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="98">
@@ -5754,12 +5736,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="163"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="164"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5770,12 +5752,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="174"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="90">
@@ -5786,12 +5768,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="174"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="91">
@@ -5802,12 +5784,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="174"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="92">
@@ -5818,12 +5800,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="93">
@@ -5834,12 +5816,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="174"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="94">
@@ -5850,12 +5832,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="174"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="95">
@@ -5866,12 +5848,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="174"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="96">
@@ -5882,12 +5864,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="174"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="97">
@@ -5898,12 +5880,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="174"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="98">
@@ -5914,12 +5896,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="174"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="161"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5930,12 +5912,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="174"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="161"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5946,12 +5928,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="174"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="90">
@@ -5962,12 +5944,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="174"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="161"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="91">
@@ -5978,12 +5960,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="161"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="92">
@@ -5994,12 +5976,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="174"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="93">
@@ -6010,12 +5992,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="161"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="94">
@@ -6026,12 +6008,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="174"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="161"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="95">
@@ -6042,12 +6024,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="174"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="161"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="96">
@@ -6058,12 +6040,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="174"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="174"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="161"/>
+      <c r="J33" s="161"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="97">
@@ -6074,12 +6056,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="174"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="161"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="98">
@@ -6090,12 +6072,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="174"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161"/>
+      <c r="H35" s="161"/>
+      <c r="I35" s="161"/>
+      <c r="J35" s="161"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6106,12 +6088,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="174"/>
-      <c r="F36" s="174"/>
-      <c r="G36" s="174"/>
-      <c r="H36" s="174"/>
-      <c r="I36" s="174"/>
-      <c r="J36" s="174"/>
+      <c r="E36" s="161"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="161"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="90">
@@ -6122,12 +6104,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="174"/>
-      <c r="F37" s="174"/>
-      <c r="G37" s="174"/>
-      <c r="H37" s="174"/>
-      <c r="I37" s="174"/>
-      <c r="J37" s="174"/>
+      <c r="E37" s="161"/>
+      <c r="F37" s="161"/>
+      <c r="G37" s="161"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="161"/>
+      <c r="J37" s="161"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="91">
@@ -6138,12 +6120,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="174"/>
-      <c r="F38" s="174"/>
-      <c r="G38" s="174"/>
-      <c r="H38" s="174"/>
-      <c r="I38" s="174"/>
-      <c r="J38" s="174"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="161"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="92">
@@ -6154,12 +6136,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="174"/>
-      <c r="F39" s="174"/>
-      <c r="G39" s="174"/>
-      <c r="H39" s="174"/>
-      <c r="I39" s="174"/>
-      <c r="J39" s="174"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="161"/>
+      <c r="J39" s="161"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="93">
@@ -6170,12 +6152,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="174"/>
-      <c r="F40" s="174"/>
-      <c r="G40" s="174"/>
-      <c r="H40" s="174"/>
-      <c r="I40" s="174"/>
-      <c r="J40" s="174"/>
+      <c r="E40" s="161"/>
+      <c r="F40" s="161"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="161"/>
+      <c r="J40" s="161"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="94">
@@ -6186,12 +6168,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="174"/>
-      <c r="F41" s="174"/>
-      <c r="G41" s="174"/>
-      <c r="H41" s="174"/>
-      <c r="I41" s="174"/>
-      <c r="J41" s="174"/>
+      <c r="E41" s="161"/>
+      <c r="F41" s="161"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="161"/>
+      <c r="J41" s="161"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="95">
@@ -6202,32 +6184,23 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="174"/>
-      <c r="F42" s="174"/>
-      <c r="G42" s="174"/>
-      <c r="H42" s="174"/>
-      <c r="I42" s="174"/>
-      <c r="J42" s="174"/>
+      <c r="E42" s="161"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6243,14 +6216,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6276,7 +6258,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:J43"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6295,10 +6277,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="168"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6328,8 +6310,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6384,7 +6366,7 @@
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
       <c r="I5" s="184" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="J5" s="185"/>
     </row>
@@ -6472,7 +6454,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
       <c r="I12" s="178" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J12" s="179"/>
     </row>
@@ -6874,13 +6856,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6905,13 +6887,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6924,7 +6906,7 @@
       </c>
       <c r="I1" s="191"/>
       <c r="J1" s="192" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K1" s="193"/>
       <c r="L1" s="194"/>
@@ -6943,11 +6925,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6987,7 +6969,7 @@
         <v>162</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>109</v>
@@ -7043,7 +7025,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F5" s="83" t="str">
         <f>'Update History'!F1</f>
@@ -7064,7 +7046,7 @@
     </row>
     <row r="6" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>161</v>
@@ -7079,28 +7061,32 @@
         <v>163</v>
       </c>
       <c r="F6" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" s="88"/>
+        <v>169</v>
+      </c>
+      <c r="G6" s="126" t="s">
+        <v>169</v>
+      </c>
       <c r="H6" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
-      <c r="L6" s="40"/>
+      <c r="L6" s="40" t="s">
+        <v>150</v>
+      </c>
       <c r="M6" s="138"/>
       <c r="N6" s="138"/>
-      <c r="O6" s="138">
-        <v>1</v>
+      <c r="O6" s="138" t="s">
+        <v>213</v>
       </c>
       <c r="P6" s="138"/>
     </row>
     <row r="7" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>161</v>
@@ -7112,19 +7098,19 @@
         <v>3</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F7" s="88" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G7" s="126" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
@@ -7134,13 +7120,13 @@
       <c r="M7" s="138"/>
       <c r="N7" s="138"/>
       <c r="O7" s="138" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P7" s="138"/>
     </row>
     <row r="8" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>161</v>
@@ -7152,35 +7138,39 @@
         <v>4</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="F8" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="G8" s="126" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="F8" s="132" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="132" t="s">
+        <v>171</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
       <c r="L8" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M8" s="138"/>
+      <c r="M8" s="138" t="s">
+        <v>214</v>
+      </c>
       <c r="N8" s="138"/>
       <c r="O8" s="138" t="s">
-        <v>218</v>
-      </c>
-      <c r="P8" s="138"/>
+        <v>215</v>
+      </c>
+      <c r="P8" s="138" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>161</v>
@@ -7192,31 +7182,35 @@
         <v>5</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="F9" s="126" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="132" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="132" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="I9" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="G9" s="126"/>
-      <c r="H9" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="J9" s="62"/>
+      <c r="J9" s="62">
+        <v>50</v>
+      </c>
       <c r="K9" s="62"/>
-      <c r="L9" s="40"/>
+      <c r="L9" s="40" t="s">
+        <v>150</v>
+      </c>
       <c r="M9" s="138"/>
       <c r="N9" s="138"/>
-      <c r="O9" s="138">
-        <v>0</v>
-      </c>
+      <c r="O9" s="138"/>
       <c r="P9" s="138"/>
     </row>
     <row r="10" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>161</v>
@@ -7228,19 +7222,19 @@
         <v>6</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F10" s="132" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G10" s="132" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J10" s="62">
         <v>50</v>
@@ -7249,16 +7243,14 @@
       <c r="L10" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M10" s="138" t="s">
-        <v>219</v>
-      </c>
+      <c r="M10" s="138"/>
       <c r="N10" s="138"/>
       <c r="O10" s="138"/>
       <c r="P10" s="138"/>
     </row>
     <row r="11" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>161</v>
@@ -7272,37 +7264,25 @@
       <c r="E11" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="132" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" s="132" t="s">
-        <v>175</v>
-      </c>
+      <c r="F11" s="136" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="132"/>
       <c r="H11" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>202</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="I11" s="40"/>
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
-      <c r="L11" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="M11" s="138" t="s">
-        <v>220</v>
-      </c>
+      <c r="L11" s="40"/>
+      <c r="M11" s="138"/>
       <c r="N11" s="138"/>
-      <c r="O11" s="138" t="s">
-        <v>221</v>
-      </c>
-      <c r="P11" s="138" t="s">
-        <v>222</v>
-      </c>
+      <c r="O11" s="138"/>
+      <c r="P11" s="138"/>
     </row>
     <row r="12" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>161</v>
@@ -7314,186 +7294,134 @@
         <v>8</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="F12" s="132" t="s">
-        <v>196</v>
-      </c>
-      <c r="G12" s="132" t="s">
-        <v>197</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G12" s="132"/>
       <c r="H12" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="I12" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="J12" s="62">
-        <v>50</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="I12" s="40"/>
+      <c r="J12" s="62"/>
       <c r="K12" s="62"/>
-      <c r="L12" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="M12" s="138"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="138"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="132"/>
     </row>
     <row r="13" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
-        <v>9</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="33">
-        <v>51</v>
-      </c>
-      <c r="D13" s="33">
-        <v>9</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13" s="132" t="s">
-        <v>199</v>
-      </c>
-      <c r="G13" s="132" t="s">
-        <v>197</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="I13" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="J13" s="62">
-        <v>50</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="62"/>
       <c r="K13" s="62"/>
-      <c r="L13" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="M13" s="138"/>
-      <c r="N13" s="138"/>
-      <c r="O13" s="138"/>
-      <c r="P13" s="138"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
     </row>
     <row r="14" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
-        <v>10</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="33">
-        <v>51</v>
-      </c>
-      <c r="D14" s="33">
-        <v>10</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="136" t="s">
-        <v>176</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="132"/>
       <c r="G14" s="132"/>
-      <c r="H14" s="40" t="s">
-        <v>168</v>
-      </c>
+      <c r="H14" s="40"/>
       <c r="I14" s="40"/>
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
       <c r="L14" s="40"/>
-      <c r="M14" s="138"/>
-      <c r="N14" s="138"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="138"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="132"/>
     </row>
     <row r="15" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
-        <v>11</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="33">
-        <v>51</v>
-      </c>
-      <c r="D15" s="33">
-        <v>11</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="F15" s="132" t="s">
-        <v>215</v>
-      </c>
-      <c r="G15" s="132"/>
-      <c r="H15" s="40" t="s">
-        <v>168</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="40"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
       <c r="L15" s="40"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="132"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="88"/>
     </row>
     <row r="16" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="59"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
       <c r="L16" s="40"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="132"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="88"/>
     </row>
     <row r="17" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="33">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="59"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
       <c r="L17" s="40"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="132"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="88"/>
     </row>
     <row r="18" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="59"/>
       <c r="F18" s="88"/>
-      <c r="G18" s="84"/>
+      <c r="G18" s="88"/>
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
@@ -7501,12 +7429,12 @@
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
       <c r="N18" s="40"/>
-      <c r="O18" s="83"/>
+      <c r="O18" s="88"/>
       <c r="P18" s="88"/>
     </row>
     <row r="19" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
@@ -7526,94 +7454,94 @@
     </row>
     <row r="20" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="59"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
+      <c r="K20" s="61"/>
       <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="88"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="33">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="59"/>
       <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
+      <c r="G21" s="83"/>
       <c r="H21" s="40"/>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="K21" s="61"/>
       <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
+      <c r="K22" s="61"/>
       <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="88"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="40"/>
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
       <c r="J23" s="40"/>
       <c r="K23" s="61"/>
       <c r="L23" s="40"/>
-      <c r="M23" s="61"/>
+      <c r="M23" s="62"/>
       <c r="N23" s="61"/>
-      <c r="O23" s="40"/>
+      <c r="O23" s="61"/>
       <c r="P23" s="32"/>
     </row>
     <row r="24" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="83"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
@@ -7626,13 +7554,13 @@
     </row>
     <row r="25" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
       <c r="I25" s="40"/>
@@ -7646,7 +7574,7 @@
     </row>
     <row r="26" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -7666,7 +7594,7 @@
     </row>
     <row r="27" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
@@ -7686,7 +7614,7 @@
     </row>
     <row r="28" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -7706,7 +7634,7 @@
     </row>
     <row r="29" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
@@ -7726,7 +7654,7 @@
     </row>
     <row r="30" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="33">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
@@ -7746,7 +7674,7 @@
     </row>
     <row r="31" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="33">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -7766,7 +7694,7 @@
     </row>
     <row r="32" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="33">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -7786,7 +7714,7 @@
     </row>
     <row r="33" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="33">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
@@ -7806,7 +7734,7 @@
     </row>
     <row r="34" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="33">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
@@ -7826,7 +7754,7 @@
     </row>
     <row r="35" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="33">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -7846,7 +7774,7 @@
     </row>
     <row r="36" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="33">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -7866,7 +7794,7 @@
     </row>
     <row r="37" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="33">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -7886,7 +7814,7 @@
     </row>
     <row r="38" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="33">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -7906,7 +7834,7 @@
     </row>
     <row r="39" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="33">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -7926,7 +7854,7 @@
     </row>
     <row r="40" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="33">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -7946,7 +7874,7 @@
     </row>
     <row r="41" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="33">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -7966,7 +7894,7 @@
     </row>
     <row r="42" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="33">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -7986,7 +7914,7 @@
     </row>
     <row r="43" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A43" s="33">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -8006,14 +7934,14 @@
     </row>
     <row r="44" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="33">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="40"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
       <c r="H44" s="40"/>
       <c r="I44" s="40"/>
       <c r="J44" s="40"/>
@@ -8026,13 +7954,13 @@
     </row>
     <row r="45" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="33">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
       <c r="G45" s="40"/>
       <c r="H45" s="40"/>
       <c r="I45" s="40"/>
@@ -8046,14 +7974,14 @@
     </row>
     <row r="46" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A46" s="33">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="40"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
       <c r="H46" s="40"/>
       <c r="I46" s="40"/>
       <c r="J46" s="40"/>
@@ -8066,14 +7994,14 @@
     </row>
     <row r="47" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A47" s="33">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="74"/>
       <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
+      <c r="G47" s="40"/>
       <c r="H47" s="40"/>
       <c r="I47" s="40"/>
       <c r="J47" s="40"/>
@@ -8086,7 +8014,7 @@
     </row>
     <row r="48" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A48" s="33">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -8106,14 +8034,14 @@
     </row>
     <row r="49" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="33">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="74"/>
       <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
+      <c r="G49" s="40"/>
       <c r="H49" s="40"/>
       <c r="I49" s="40"/>
       <c r="J49" s="40"/>
@@ -8126,7 +8054,7 @@
     </row>
     <row r="50" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="33">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -8144,74 +8072,14 @@
       <c r="O50" s="61"/>
       <c r="P50" s="32"/>
     </row>
-    <row r="51" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="33">
-        <v>48</v>
-      </c>
-      <c r="B51" s="33"/>
+    <row r="51" spans="1:16" ht="12" customHeight="1">
       <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="32"/>
-    </row>
-    <row r="52" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="33">
-        <v>49</v>
-      </c>
-      <c r="B52" s="33"/>
+    </row>
+    <row r="52" spans="1:16" ht="12" customHeight="1">
       <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="61"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="61"/>
-      <c r="O52" s="61"/>
-      <c r="P52" s="32"/>
-    </row>
-    <row r="53" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="33">
-        <v>50</v>
-      </c>
-      <c r="B53" s="33"/>
+    </row>
+    <row r="53" spans="1:16" ht="12" customHeight="1">
       <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="61"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="32"/>
-    </row>
-    <row r="54" spans="1:16" ht="12" customHeight="1">
-      <c r="C54" s="33"/>
-    </row>
-    <row r="55" spans="1:16" ht="12" customHeight="1">
-      <c r="C55" s="33"/>
-    </row>
-    <row r="56" spans="1:16" ht="12" customHeight="1">
-      <c r="C56" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8222,24 +8090,24 @@
     <mergeCell ref="J2:L2"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N24:O53 M23:N23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N21:O50 M20:N20">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21:I53 I5:I18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18:I50 I5:I15">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G25:G53 G5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H9 H14:H53">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G22:G50 G5"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11:H50 H5:H7">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H10">
+      <formula1>"Caption,Textbox,DropDownCheckList, DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8">
       <formula1>"Caption,Textbox,DropdownChecklist,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L50">
       <formula1>"I,O,I/O"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H13">
-      <formula1>"Caption,Textbox,DropDownCheckList, DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9243,7 +9111,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="134"/>
@@ -9279,7 +9147,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="201"/>
+      <c r="A2" s="198"/>
       <c r="B2" s="135"/>
       <c r="C2" s="124"/>
       <c r="D2" s="31" t="s">
@@ -9317,7 +9185,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C4" s="121" t="s">
         <v>32</v>
@@ -9331,15 +9199,15 @@
       <c r="F4" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="167" t="s">
+      <c r="G4" s="168" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167" t="s">
+      <c r="H4" s="168"/>
+      <c r="I4" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33">
@@ -9353,18 +9221,18 @@
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="130" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="198" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" s="199"/>
-      <c r="I5" s="195" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="196"/>
-      <c r="K5" s="197"/>
+      <c r="G5" s="195" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="196"/>
+      <c r="I5" s="199" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" s="200"/>
+      <c r="K5" s="201"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1">
       <c r="A6" s="33">
@@ -9381,15 +9249,15 @@
         <v>134</v>
       </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="198" t="s">
-        <v>212</v>
-      </c>
-      <c r="H6" s="199"/>
-      <c r="I6" s="195" t="s">
-        <v>180</v>
-      </c>
-      <c r="J6" s="196"/>
-      <c r="K6" s="197"/>
+      <c r="G6" s="195" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" s="196"/>
+      <c r="I6" s="199" t="s">
+        <v>175</v>
+      </c>
+      <c r="J6" s="200"/>
+      <c r="K6" s="201"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9400,11 +9268,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="130"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="196"/>
-      <c r="K7" s="197"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="201"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9415,11 +9283,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="197"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="201"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9430,11 +9298,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="198"/>
-      <c r="H9" s="199"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="197"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="199"/>
+      <c r="J9" s="200"/>
+      <c r="K9" s="201"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9445,11 +9313,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="199"/>
-      <c r="I10" s="195"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="197"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="199"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="201"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9460,11 +9328,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="199"/>
-      <c r="I11" s="195"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="197"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="199"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="201"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9475,11 +9343,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="199"/>
-      <c r="I12" s="195"/>
-      <c r="J12" s="196"/>
-      <c r="K12" s="197"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="200"/>
+      <c r="K12" s="201"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9490,11 +9358,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="195"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="197"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="199"/>
+      <c r="J13" s="200"/>
+      <c r="K13" s="201"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9505,11 +9373,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="198"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="195"/>
-      <c r="J14" s="196"/>
-      <c r="K14" s="197"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="199"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="201"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9520,11 +9388,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="195"/>
-      <c r="J15" s="196"/>
-      <c r="K15" s="197"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="199"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="201"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9535,11 +9403,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="195"/>
-      <c r="J16" s="196"/>
-      <c r="K16" s="197"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="201"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9550,11 +9418,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="196"/>
-      <c r="K17" s="197"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="201"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9565,11 +9433,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="195"/>
-      <c r="J18" s="196"/>
-      <c r="K18" s="197"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="201"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9580,11 +9448,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="195"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="197"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="201"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9595,11 +9463,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="198"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="195"/>
-      <c r="J20" s="196"/>
-      <c r="K20" s="197"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="200"/>
+      <c r="K20" s="201"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9610,11 +9478,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="198"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="195"/>
-      <c r="J21" s="196"/>
-      <c r="K21" s="197"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="200"/>
+      <c r="K21" s="201"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9625,11 +9493,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="195"/>
-      <c r="J22" s="196"/>
-      <c r="K22" s="197"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="199"/>
+      <c r="J22" s="200"/>
+      <c r="K22" s="201"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9640,11 +9508,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="196"/>
-      <c r="K23" s="197"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="200"/>
+      <c r="K23" s="201"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9655,11 +9523,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="195"/>
-      <c r="J24" s="196"/>
-      <c r="K24" s="197"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="200"/>
+      <c r="K24" s="201"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9670,11 +9538,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="195"/>
-      <c r="J25" s="196"/>
-      <c r="K25" s="197"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="200"/>
+      <c r="K25" s="201"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9685,11 +9553,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="195"/>
-      <c r="J26" s="196"/>
-      <c r="K26" s="197"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="200"/>
+      <c r="K26" s="201"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9700,11 +9568,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="196"/>
-      <c r="K27" s="197"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="199"/>
+      <c r="J27" s="200"/>
+      <c r="K27" s="201"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9715,11 +9583,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="195"/>
-      <c r="J28" s="196"/>
-      <c r="K28" s="197"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="200"/>
+      <c r="K28" s="201"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9730,11 +9598,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="195"/>
-      <c r="J29" s="196"/>
-      <c r="K29" s="197"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="199"/>
+      <c r="J29" s="200"/>
+      <c r="K29" s="201"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9745,11 +9613,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="195"/>
-      <c r="J30" s="196"/>
-      <c r="K30" s="197"/>
+      <c r="G30" s="162"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="200"/>
+      <c r="K30" s="201"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9760,11 +9628,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="195"/>
-      <c r="J31" s="196"/>
-      <c r="K31" s="197"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="200"/>
+      <c r="K31" s="201"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -9775,11 +9643,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="195"/>
-      <c r="J32" s="196"/>
-      <c r="K32" s="197"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="199"/>
+      <c r="J32" s="200"/>
+      <c r="K32" s="201"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9797,11 +9665,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="195"/>
-      <c r="J33" s="196"/>
-      <c r="K33" s="197"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="199"/>
+      <c r="J33" s="200"/>
+      <c r="K33" s="201"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -9819,11 +9687,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="163"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="196"/>
-      <c r="K34" s="197"/>
+      <c r="G34" s="162"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="200"/>
+      <c r="K34" s="201"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9841,11 +9709,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="163"/>
-      <c r="I35" s="195"/>
-      <c r="J35" s="196"/>
-      <c r="K35" s="197"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="164"/>
+      <c r="I35" s="199"/>
+      <c r="J35" s="200"/>
+      <c r="K35" s="201"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9863,11 +9731,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="163"/>
-      <c r="I36" s="195"/>
-      <c r="J36" s="196"/>
-      <c r="K36" s="197"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="164"/>
+      <c r="I36" s="199"/>
+      <c r="J36" s="200"/>
+      <c r="K36" s="201"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9885,11 +9753,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="163"/>
-      <c r="I37" s="195"/>
-      <c r="J37" s="196"/>
-      <c r="K37" s="197"/>
+      <c r="G37" s="162"/>
+      <c r="H37" s="164"/>
+      <c r="I37" s="199"/>
+      <c r="J37" s="200"/>
+      <c r="K37" s="201"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9907,11 +9775,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="163"/>
-      <c r="I38" s="195"/>
-      <c r="J38" s="196"/>
-      <c r="K38" s="197"/>
+      <c r="G38" s="162"/>
+      <c r="H38" s="164"/>
+      <c r="I38" s="199"/>
+      <c r="J38" s="200"/>
+      <c r="K38" s="201"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9929,11 +9797,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="163"/>
-      <c r="I39" s="195"/>
-      <c r="J39" s="196"/>
-      <c r="K39" s="197"/>
+      <c r="G39" s="162"/>
+      <c r="H39" s="164"/>
+      <c r="I39" s="199"/>
+      <c r="J39" s="200"/>
+      <c r="K39" s="201"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9951,11 +9819,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="163"/>
-      <c r="I40" s="195"/>
-      <c r="J40" s="196"/>
-      <c r="K40" s="197"/>
+      <c r="G40" s="162"/>
+      <c r="H40" s="164"/>
+      <c r="I40" s="199"/>
+      <c r="J40" s="200"/>
+      <c r="K40" s="201"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9973,11 +9841,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="161"/>
-      <c r="H41" s="163"/>
-      <c r="I41" s="195"/>
-      <c r="J41" s="196"/>
-      <c r="K41" s="197"/>
+      <c r="G41" s="162"/>
+      <c r="H41" s="164"/>
+      <c r="I41" s="199"/>
+      <c r="J41" s="200"/>
+      <c r="K41" s="201"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -9995,11 +9863,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="163"/>
-      <c r="I42" s="195"/>
-      <c r="J42" s="196"/>
-      <c r="K42" s="197"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="164"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="200"/>
+      <c r="K42" s="201"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10017,11 +9885,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="161"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="195"/>
-      <c r="J43" s="196"/>
-      <c r="K43" s="197"/>
+      <c r="G43" s="162"/>
+      <c r="H43" s="164"/>
+      <c r="I43" s="199"/>
+      <c r="J43" s="200"/>
+      <c r="K43" s="201"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10039,11 +9907,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="161"/>
-      <c r="H44" s="163"/>
-      <c r="I44" s="195"/>
-      <c r="J44" s="196"/>
-      <c r="K44" s="197"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="164"/>
+      <c r="I44" s="199"/>
+      <c r="J44" s="200"/>
+      <c r="K44" s="201"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10061,11 +9929,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="161"/>
-      <c r="H45" s="163"/>
-      <c r="I45" s="195"/>
-      <c r="J45" s="196"/>
-      <c r="K45" s="197"/>
+      <c r="G45" s="162"/>
+      <c r="H45" s="164"/>
+      <c r="I45" s="199"/>
+      <c r="J45" s="200"/>
+      <c r="K45" s="201"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10083,11 +9951,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="161"/>
-      <c r="H46" s="163"/>
-      <c r="I46" s="195"/>
-      <c r="J46" s="196"/>
-      <c r="K46" s="197"/>
+      <c r="G46" s="162"/>
+      <c r="H46" s="164"/>
+      <c r="I46" s="199"/>
+      <c r="J46" s="200"/>
+      <c r="K46" s="201"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10105,11 +9973,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="161"/>
-      <c r="H47" s="163"/>
-      <c r="I47" s="195"/>
-      <c r="J47" s="196"/>
-      <c r="K47" s="197"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="164"/>
+      <c r="I47" s="199"/>
+      <c r="J47" s="200"/>
+      <c r="K47" s="201"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10127,11 +9995,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="161"/>
-      <c r="H48" s="163"/>
-      <c r="I48" s="195"/>
-      <c r="J48" s="196"/>
-      <c r="K48" s="197"/>
+      <c r="G48" s="162"/>
+      <c r="H48" s="164"/>
+      <c r="I48" s="199"/>
+      <c r="J48" s="200"/>
+      <c r="K48" s="201"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10149,11 +10017,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="161"/>
-      <c r="H49" s="163"/>
-      <c r="I49" s="195"/>
-      <c r="J49" s="196"/>
-      <c r="K49" s="197"/>
+      <c r="G49" s="162"/>
+      <c r="H49" s="164"/>
+      <c r="I49" s="199"/>
+      <c r="J49" s="200"/>
+      <c r="K49" s="201"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10171,11 +10039,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="161"/>
-      <c r="H50" s="163"/>
-      <c r="I50" s="195"/>
-      <c r="J50" s="196"/>
-      <c r="K50" s="197"/>
+      <c r="G50" s="162"/>
+      <c r="H50" s="164"/>
+      <c r="I50" s="199"/>
+      <c r="J50" s="200"/>
+      <c r="K50" s="201"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10193,11 +10061,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="161"/>
-      <c r="H51" s="163"/>
-      <c r="I51" s="195"/>
-      <c r="J51" s="196"/>
-      <c r="K51" s="197"/>
+      <c r="G51" s="162"/>
+      <c r="H51" s="164"/>
+      <c r="I51" s="199"/>
+      <c r="J51" s="200"/>
+      <c r="K51" s="201"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10215,11 +10083,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="161"/>
-      <c r="H52" s="163"/>
-      <c r="I52" s="195"/>
-      <c r="J52" s="196"/>
-      <c r="K52" s="197"/>
+      <c r="G52" s="162"/>
+      <c r="H52" s="164"/>
+      <c r="I52" s="199"/>
+      <c r="J52" s="200"/>
+      <c r="K52" s="201"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10237,11 +10105,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="161"/>
-      <c r="H53" s="163"/>
-      <c r="I53" s="195"/>
-      <c r="J53" s="196"/>
-      <c r="K53" s="197"/>
+      <c r="G53" s="162"/>
+      <c r="H53" s="164"/>
+      <c r="I53" s="199"/>
+      <c r="J53" s="200"/>
+      <c r="K53" s="201"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10259,11 +10127,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="163"/>
-      <c r="I54" s="195"/>
-      <c r="J54" s="196"/>
-      <c r="K54" s="197"/>
+      <c r="G54" s="162"/>
+      <c r="H54" s="164"/>
+      <c r="I54" s="199"/>
+      <c r="J54" s="200"/>
+      <c r="K54" s="201"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10281,11 +10149,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="161"/>
-      <c r="H55" s="163"/>
-      <c r="I55" s="195"/>
-      <c r="J55" s="196"/>
-      <c r="K55" s="197"/>
+      <c r="G55" s="162"/>
+      <c r="H55" s="164"/>
+      <c r="I55" s="199"/>
+      <c r="J55" s="200"/>
+      <c r="K55" s="201"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10303,11 +10171,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="163"/>
-      <c r="I56" s="195"/>
-      <c r="J56" s="196"/>
-      <c r="K56" s="197"/>
+      <c r="G56" s="162"/>
+      <c r="H56" s="164"/>
+      <c r="I56" s="199"/>
+      <c r="J56" s="200"/>
+      <c r="K56" s="201"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10319,25 +10187,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
@@ -10352,80 +10275,25 @@
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -10443,7 +10311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
@@ -10472,16 +10340,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10516,14 +10384,14 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
@@ -10565,7 +10433,7 @@
         <v>162</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D4" s="68" t="s">
         <v>97</v>
@@ -10621,42 +10489,42 @@
         <v>51</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="32"/>
       <c r="G5" s="88" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J5" s="131" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K5" s="202" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L5" s="203"/>
       <c r="M5" s="203"/>
       <c r="N5" s="204"/>
       <c r="O5" s="125" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P5" s="89" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="76" t="s">
         <v>106</v>
       </c>
       <c r="R5" s="75" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="S5" s="88" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
@@ -10675,19 +10543,19 @@
       <c r="E6" s="33"/>
       <c r="F6" s="32"/>
       <c r="G6" s="88" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J6" s="131" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K6" s="202" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L6" s="203"/>
       <c r="M6" s="203"/>
@@ -10696,16 +10564,16 @@
         <v>134</v>
       </c>
       <c r="P6" s="125" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="R6" s="75" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="S6" s="138" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
@@ -10724,19 +10592,19 @@
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
       <c r="G7" s="132" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I7" s="63" t="s">
         <v>55</v>
       </c>
       <c r="J7" s="131" t="s">
+        <v>196</v>
+      </c>
+      <c r="K7" s="202" t="s">
         <v>201</v>
-      </c>
-      <c r="K7" s="202" t="s">
-        <v>206</v>
       </c>
       <c r="L7" s="203"/>
       <c r="M7" s="203"/>
@@ -10745,12 +10613,12 @@
         <v>134</v>
       </c>
       <c r="P7" s="125" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="76"/>
       <c r="R7" s="75"/>
       <c r="S7" s="82" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
@@ -12874,11 +12742,79 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
     <mergeCell ref="K77:N77"/>
     <mergeCell ref="K60:N60"/>
     <mergeCell ref="K87:N87"/>
@@ -12895,79 +12831,11 @@
     <mergeCell ref="K74:N74"/>
     <mergeCell ref="K75:N75"/>
     <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -13013,10 +12881,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="168"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13046,8 +12914,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13105,7 +12973,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -13186,7 +13054,7 @@
       <c r="A12" s="80"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -13237,7 +13105,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -13250,7 +13118,7 @@
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="B18" s="43"/>
       <c r="C18" s="43" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
@@ -13310,7 +13178,7 @@
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="B23" s="80"/>
       <c r="C23" s="43" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -13361,7 +13229,7 @@
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="86" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="43"/>
@@ -13630,26 +13498,26 @@
       <c r="J48" s="46"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
-      <c r="B49" s="210" t="s">
-        <v>230</v>
-      </c>
-      <c r="C49" s="211"/>
-      <c r="D49" s="211"/>
-      <c r="E49" s="211"/>
-      <c r="F49" s="211"/>
-      <c r="G49" s="211"/>
-      <c r="H49" s="211"/>
+      <c r="B49" s="206" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49" s="207"/>
+      <c r="D49" s="207"/>
+      <c r="E49" s="207"/>
+      <c r="F49" s="207"/>
+      <c r="G49" s="207"/>
+      <c r="H49" s="207"/>
       <c r="I49" s="43"/>
       <c r="J49" s="46"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1">
-      <c r="B50" s="211"/>
-      <c r="C50" s="211"/>
-      <c r="D50" s="211"/>
-      <c r="E50" s="211"/>
-      <c r="F50" s="211"/>
-      <c r="G50" s="211"/>
-      <c r="H50" s="211"/>
+      <c r="B50" s="207"/>
+      <c r="C50" s="207"/>
+      <c r="D50" s="207"/>
+      <c r="E50" s="207"/>
+      <c r="F50" s="207"/>
+      <c r="G50" s="207"/>
+      <c r="H50" s="207"/>
       <c r="I50" s="43"/>
       <c r="J50" s="46"/>
     </row>
@@ -14130,10 +13998,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="168"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14161,8 +14029,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Thong ke thoi gian giao hang/CRMF3030_Thong ke thoi gian giao hang.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Thong ke thoi gian giao hang/CRMF3030_Thong ke thoi gian giao hang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Thong ke thoi gian giao hang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\ThuViec\10_DOCUMENT\13_DETAIL_DESIGN\Thong ke thoi gian giao hang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
     <definedName name="OLE_LINK1" localSheetId="10">'Code Standar'!$B$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$Q$58</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$S$94</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$S$93</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$J$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
@@ -1575,7 +1575,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="219">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2198,15 +2198,9 @@
     <t>Click vào Button In</t>
   </si>
   <si>
-    <t>SQL_CMN_000002</t>
-  </si>
-  <si>
     <t>@SQL0001</t>
   </si>
   <si>
-    <t>@SQL0002</t>
-  </si>
-  <si>
     <t>Select</t>
   </si>
   <si>
@@ -2216,9 +2210,6 @@
     <t>AT1411</t>
   </si>
   <si>
-    <t>@@DivisionID</t>
-  </si>
-  <si>
     <t>@UserID</t>
   </si>
   <si>
@@ -2226,9 +2217,6 @@
   </si>
   <si>
     <t>Load</t>
-  </si>
-  <si>
-    <t>Click RadioBttn</t>
   </si>
   <si>
     <t>Báo cáo thống kê thời gian giao hàng</t>
@@ -2330,9 +2318,6 @@
     <t xml:space="preserve">Nếu không chọn DivisionID thì mặt định truyền là biến môi trường </t>
   </si>
   <si>
-    <t>Đổ nguồn Combobox chọn kỳ</t>
-  </si>
-  <si>
     <t>Đổ nguồn Combobox Khách hàng phụ thuộc
 nếu DivisionID từ DropdownChecklist đơn vị rỗng thì truyền biến môi trường vào để load combobox, ngược lại khác rỗng thì truyền DivisionID từ DropdownChecklist đơn vị để load combobox</t>
   </si>
@@ -2341,9 +2326,6 @@
   </si>
   <si>
     <t>thực thi @SQL0001 đổ nguồn cho DropdownCheckList</t>
-  </si>
-  <si>
-    <t>thực thi @SQL0002 đổ nguồn cho Combobox</t>
   </si>
   <si>
     <t>Cho phép In báo cáo thống kê thời gian giao hàng</t>
@@ -3227,114 +3209,114 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3396,6 +3378,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3406,15 +3397,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4371,65 +4353,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="150"/>
-      <c r="B1" s="150"/>
-      <c r="C1" s="152" t="s">
+      <c r="A1" s="144"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="146" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="151" t="s">
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="145" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151" t="s">
+      <c r="H1" s="145"/>
+      <c r="I1" s="145" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="151"/>
+      <c r="J1" s="145"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="151" t="s">
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="145" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="150"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="147" t="s">
+      <c r="A3" s="144"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="148"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="148"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="142"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="116"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="149"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="149"/>
+      <c r="A13" s="143"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
       <c r="K13" s="117"/>
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
@@ -4440,56 +4422,56 @@
       <c r="R13" s="117"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="143"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="143"/>
-      <c r="R14" s="143"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="139"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="139"/>
+      <c r="R14" s="139"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="143"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="139"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="140"/>
       <c r="K16" s="118"/>
       <c r="L16" s="118"/>
       <c r="M16" s="118"/>
@@ -4500,384 +4482,384 @@
       <c r="R16" s="118"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="143"/>
-      <c r="N17" s="143"/>
-      <c r="O17" s="143"/>
-      <c r="P17" s="143"/>
-      <c r="Q17" s="143"/>
-      <c r="R17" s="143"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="139"/>
+      <c r="N17" s="139"/>
+      <c r="O17" s="139"/>
+      <c r="P17" s="139"/>
+      <c r="Q17" s="139"/>
+      <c r="R17" s="139"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="143"/>
-      <c r="P18" s="143"/>
-      <c r="Q18" s="143"/>
-      <c r="R18" s="143"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="139"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="145"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="145"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="145"/>
-      <c r="O19" s="145"/>
-      <c r="P19" s="145"/>
-      <c r="Q19" s="145"/>
-      <c r="R19" s="145"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="156"/>
+      <c r="Q19" s="156"/>
+      <c r="R19" s="156"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="143"/>
-      <c r="R20" s="143"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
+      <c r="O20" s="139"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="139"/>
+      <c r="R20" s="139"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="143"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="143"/>
-      <c r="M21" s="143"/>
-      <c r="N21" s="143"/>
-      <c r="O21" s="143"/>
-      <c r="P21" s="143"/>
-      <c r="Q21" s="143"/>
-      <c r="R21" s="143"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="139"/>
+      <c r="R21" s="139"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="144"/>
-      <c r="N22" s="144"/>
-      <c r="O22" s="144"/>
-      <c r="P22" s="144"/>
-      <c r="Q22" s="144"/>
-      <c r="R22" s="144"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="155"/>
+      <c r="O22" s="155"/>
+      <c r="P22" s="155"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="155"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="144"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="144"/>
-      <c r="M23" s="144"/>
-      <c r="N23" s="144"/>
-      <c r="O23" s="144"/>
-      <c r="P23" s="144"/>
-      <c r="Q23" s="144"/>
-      <c r="R23" s="144"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="155"/>
+      <c r="O23" s="155"/>
+      <c r="P23" s="155"/>
+      <c r="Q23" s="155"/>
+      <c r="R23" s="155"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="141"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="141"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="141"/>
-      <c r="N26" s="141"/>
-      <c r="O26" s="141"/>
-      <c r="P26" s="141"/>
-      <c r="Q26" s="141"/>
-      <c r="R26" s="141"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="157"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="157"/>
+      <c r="O26" s="157"/>
+      <c r="P26" s="157"/>
+      <c r="Q26" s="157"/>
+      <c r="R26" s="157"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="142"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="142"/>
-      <c r="K28" s="142"/>
-      <c r="L28" s="142"/>
-      <c r="M28" s="142"/>
-      <c r="N28" s="142"/>
-      <c r="O28" s="142"/>
-      <c r="P28" s="142"/>
-      <c r="Q28" s="142"/>
-      <c r="R28" s="142"/>
-      <c r="S28" s="140"/>
-      <c r="T28" s="140"/>
-      <c r="U28" s="140"/>
-      <c r="V28" s="140"/>
-      <c r="W28" s="140"/>
-      <c r="X28" s="140"/>
-      <c r="Y28" s="140"/>
-      <c r="Z28" s="140"/>
-      <c r="AA28" s="140"/>
-      <c r="AB28" s="140"/>
-      <c r="AC28" s="140"/>
-      <c r="AD28" s="140"/>
-      <c r="AE28" s="140"/>
-      <c r="AF28" s="140"/>
-      <c r="AG28" s="140"/>
-      <c r="AH28" s="140"/>
-      <c r="AI28" s="140"/>
-      <c r="AJ28" s="140"/>
-      <c r="AK28" s="140"/>
-      <c r="AL28" s="140"/>
-      <c r="AM28" s="140"/>
-      <c r="AN28" s="140"/>
-      <c r="AO28" s="140"/>
-      <c r="AP28" s="140"/>
-      <c r="AQ28" s="140"/>
-      <c r="AR28" s="140"/>
-      <c r="AS28" s="140"/>
-      <c r="AT28" s="140"/>
-      <c r="AU28" s="140"/>
-      <c r="AV28" s="140"/>
-      <c r="AW28" s="140"/>
-      <c r="AX28" s="140"/>
-      <c r="AY28" s="140"/>
-      <c r="AZ28" s="140"/>
-      <c r="BA28" s="140"/>
-      <c r="BB28" s="140"/>
-      <c r="BC28" s="140"/>
-      <c r="BD28" s="140"/>
-      <c r="BE28" s="140"/>
-      <c r="BF28" s="140"/>
-      <c r="BG28" s="140"/>
-      <c r="BH28" s="140"/>
-      <c r="BI28" s="140"/>
-      <c r="BJ28" s="140"/>
-      <c r="BK28" s="140"/>
-      <c r="BL28" s="140"/>
-      <c r="BM28" s="140"/>
-      <c r="BN28" s="140"/>
-      <c r="BO28" s="140"/>
-      <c r="BP28" s="140"/>
-      <c r="BQ28" s="140"/>
-      <c r="BR28" s="140"/>
-      <c r="BS28" s="140"/>
-      <c r="BT28" s="140"/>
-      <c r="BU28" s="140"/>
-      <c r="BV28" s="140"/>
-      <c r="BW28" s="140"/>
-      <c r="BX28" s="140"/>
-      <c r="BY28" s="140"/>
-      <c r="BZ28" s="140"/>
-      <c r="CA28" s="140"/>
-      <c r="CB28" s="140"/>
-      <c r="CC28" s="140"/>
-      <c r="CD28" s="140"/>
-      <c r="CE28" s="140"/>
-      <c r="CF28" s="140"/>
-      <c r="CG28" s="140"/>
-      <c r="CH28" s="140"/>
-      <c r="CI28" s="140"/>
-      <c r="CJ28" s="140"/>
-      <c r="CK28" s="140"/>
-      <c r="CL28" s="140"/>
-      <c r="CM28" s="140"/>
-      <c r="CN28" s="140"/>
-      <c r="CO28" s="140"/>
-      <c r="CP28" s="140"/>
-      <c r="CQ28" s="140"/>
-      <c r="CR28" s="140"/>
-      <c r="CS28" s="140"/>
-      <c r="CT28" s="140"/>
-      <c r="CU28" s="140"/>
-      <c r="CV28" s="140"/>
-      <c r="CW28" s="140"/>
-      <c r="CX28" s="140"/>
-      <c r="CY28" s="140"/>
-      <c r="CZ28" s="140"/>
-      <c r="DA28" s="140"/>
-      <c r="DB28" s="140"/>
-      <c r="DC28" s="140"/>
-      <c r="DD28" s="140"/>
-      <c r="DE28" s="140"/>
-      <c r="DF28" s="140"/>
-      <c r="DG28" s="140"/>
-      <c r="DH28" s="140"/>
-      <c r="DI28" s="140"/>
-      <c r="DJ28" s="140"/>
-      <c r="DK28" s="140"/>
-      <c r="DL28" s="140"/>
-      <c r="DM28" s="140"/>
-      <c r="DN28" s="140"/>
-      <c r="DO28" s="140"/>
-      <c r="DP28" s="140"/>
-      <c r="DQ28" s="140"/>
-      <c r="DR28" s="140"/>
-      <c r="DS28" s="140"/>
-      <c r="DT28" s="140"/>
-      <c r="DU28" s="140"/>
-      <c r="DV28" s="140"/>
-      <c r="DW28" s="140"/>
-      <c r="DX28" s="140"/>
-      <c r="DY28" s="140"/>
-      <c r="DZ28" s="140"/>
-      <c r="EA28" s="140"/>
-      <c r="EB28" s="140"/>
-      <c r="EC28" s="140"/>
-      <c r="ED28" s="140"/>
-      <c r="EE28" s="140"/>
-      <c r="EF28" s="140"/>
-      <c r="EG28" s="140"/>
-      <c r="EH28" s="140"/>
-      <c r="EI28" s="140"/>
-      <c r="EJ28" s="140"/>
-      <c r="EK28" s="140"/>
-      <c r="EL28" s="140"/>
-      <c r="EM28" s="140"/>
-      <c r="EN28" s="140"/>
-      <c r="EO28" s="140"/>
-      <c r="EP28" s="140"/>
-      <c r="EQ28" s="140"/>
-      <c r="ER28" s="140"/>
-      <c r="ES28" s="140"/>
-      <c r="ET28" s="140"/>
-      <c r="EU28" s="140"/>
-      <c r="EV28" s="140"/>
-      <c r="EW28" s="140"/>
-      <c r="EX28" s="140"/>
-      <c r="EY28" s="140"/>
-      <c r="EZ28" s="140"/>
-      <c r="FA28" s="140"/>
-      <c r="FB28" s="140"/>
-      <c r="FC28" s="140"/>
-      <c r="FD28" s="140"/>
-      <c r="FE28" s="140"/>
-      <c r="FF28" s="140"/>
-      <c r="FG28" s="140"/>
-      <c r="FH28" s="140"/>
-      <c r="FI28" s="140"/>
-      <c r="FJ28" s="140"/>
-      <c r="FK28" s="140"/>
-      <c r="FL28" s="140"/>
-      <c r="FM28" s="140"/>
-      <c r="FN28" s="140"/>
-      <c r="FO28" s="140"/>
-      <c r="FP28" s="140"/>
-      <c r="FQ28" s="140"/>
-      <c r="FR28" s="140"/>
-      <c r="FS28" s="140"/>
-      <c r="FT28" s="140"/>
-      <c r="FU28" s="140"/>
-      <c r="FV28" s="140"/>
-      <c r="FW28" s="140"/>
-      <c r="FX28" s="140"/>
-      <c r="FY28" s="140"/>
-      <c r="FZ28" s="140"/>
-      <c r="GA28" s="140"/>
-      <c r="GB28" s="140"/>
-      <c r="GC28" s="140"/>
-      <c r="GD28" s="140"/>
-      <c r="GE28" s="140"/>
-      <c r="GF28" s="140"/>
-      <c r="GG28" s="140"/>
-      <c r="GH28" s="140"/>
-      <c r="GI28" s="140"/>
-      <c r="GJ28" s="140"/>
-      <c r="GK28" s="140"/>
-      <c r="GL28" s="140"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="159"/>
+      <c r="L28" s="159"/>
+      <c r="M28" s="159"/>
+      <c r="N28" s="159"/>
+      <c r="O28" s="159"/>
+      <c r="P28" s="159"/>
+      <c r="Q28" s="159"/>
+      <c r="R28" s="159"/>
+      <c r="S28" s="158"/>
+      <c r="T28" s="158"/>
+      <c r="U28" s="158"/>
+      <c r="V28" s="158"/>
+      <c r="W28" s="158"/>
+      <c r="X28" s="158"/>
+      <c r="Y28" s="158"/>
+      <c r="Z28" s="158"/>
+      <c r="AA28" s="158"/>
+      <c r="AB28" s="158"/>
+      <c r="AC28" s="158"/>
+      <c r="AD28" s="158"/>
+      <c r="AE28" s="158"/>
+      <c r="AF28" s="158"/>
+      <c r="AG28" s="158"/>
+      <c r="AH28" s="158"/>
+      <c r="AI28" s="158"/>
+      <c r="AJ28" s="158"/>
+      <c r="AK28" s="158"/>
+      <c r="AL28" s="158"/>
+      <c r="AM28" s="158"/>
+      <c r="AN28" s="158"/>
+      <c r="AO28" s="158"/>
+      <c r="AP28" s="158"/>
+      <c r="AQ28" s="158"/>
+      <c r="AR28" s="158"/>
+      <c r="AS28" s="158"/>
+      <c r="AT28" s="158"/>
+      <c r="AU28" s="158"/>
+      <c r="AV28" s="158"/>
+      <c r="AW28" s="158"/>
+      <c r="AX28" s="158"/>
+      <c r="AY28" s="158"/>
+      <c r="AZ28" s="158"/>
+      <c r="BA28" s="158"/>
+      <c r="BB28" s="158"/>
+      <c r="BC28" s="158"/>
+      <c r="BD28" s="158"/>
+      <c r="BE28" s="158"/>
+      <c r="BF28" s="158"/>
+      <c r="BG28" s="158"/>
+      <c r="BH28" s="158"/>
+      <c r="BI28" s="158"/>
+      <c r="BJ28" s="158"/>
+      <c r="BK28" s="158"/>
+      <c r="BL28" s="158"/>
+      <c r="BM28" s="158"/>
+      <c r="BN28" s="158"/>
+      <c r="BO28" s="158"/>
+      <c r="BP28" s="158"/>
+      <c r="BQ28" s="158"/>
+      <c r="BR28" s="158"/>
+      <c r="BS28" s="158"/>
+      <c r="BT28" s="158"/>
+      <c r="BU28" s="158"/>
+      <c r="BV28" s="158"/>
+      <c r="BW28" s="158"/>
+      <c r="BX28" s="158"/>
+      <c r="BY28" s="158"/>
+      <c r="BZ28" s="158"/>
+      <c r="CA28" s="158"/>
+      <c r="CB28" s="158"/>
+      <c r="CC28" s="158"/>
+      <c r="CD28" s="158"/>
+      <c r="CE28" s="158"/>
+      <c r="CF28" s="158"/>
+      <c r="CG28" s="158"/>
+      <c r="CH28" s="158"/>
+      <c r="CI28" s="158"/>
+      <c r="CJ28" s="158"/>
+      <c r="CK28" s="158"/>
+      <c r="CL28" s="158"/>
+      <c r="CM28" s="158"/>
+      <c r="CN28" s="158"/>
+      <c r="CO28" s="158"/>
+      <c r="CP28" s="158"/>
+      <c r="CQ28" s="158"/>
+      <c r="CR28" s="158"/>
+      <c r="CS28" s="158"/>
+      <c r="CT28" s="158"/>
+      <c r="CU28" s="158"/>
+      <c r="CV28" s="158"/>
+      <c r="CW28" s="158"/>
+      <c r="CX28" s="158"/>
+      <c r="CY28" s="158"/>
+      <c r="CZ28" s="158"/>
+      <c r="DA28" s="158"/>
+      <c r="DB28" s="158"/>
+      <c r="DC28" s="158"/>
+      <c r="DD28" s="158"/>
+      <c r="DE28" s="158"/>
+      <c r="DF28" s="158"/>
+      <c r="DG28" s="158"/>
+      <c r="DH28" s="158"/>
+      <c r="DI28" s="158"/>
+      <c r="DJ28" s="158"/>
+      <c r="DK28" s="158"/>
+      <c r="DL28" s="158"/>
+      <c r="DM28" s="158"/>
+      <c r="DN28" s="158"/>
+      <c r="DO28" s="158"/>
+      <c r="DP28" s="158"/>
+      <c r="DQ28" s="158"/>
+      <c r="DR28" s="158"/>
+      <c r="DS28" s="158"/>
+      <c r="DT28" s="158"/>
+      <c r="DU28" s="158"/>
+      <c r="DV28" s="158"/>
+      <c r="DW28" s="158"/>
+      <c r="DX28" s="158"/>
+      <c r="DY28" s="158"/>
+      <c r="DZ28" s="158"/>
+      <c r="EA28" s="158"/>
+      <c r="EB28" s="158"/>
+      <c r="EC28" s="158"/>
+      <c r="ED28" s="158"/>
+      <c r="EE28" s="158"/>
+      <c r="EF28" s="158"/>
+      <c r="EG28" s="158"/>
+      <c r="EH28" s="158"/>
+      <c r="EI28" s="158"/>
+      <c r="EJ28" s="158"/>
+      <c r="EK28" s="158"/>
+      <c r="EL28" s="158"/>
+      <c r="EM28" s="158"/>
+      <c r="EN28" s="158"/>
+      <c r="EO28" s="158"/>
+      <c r="EP28" s="158"/>
+      <c r="EQ28" s="158"/>
+      <c r="ER28" s="158"/>
+      <c r="ES28" s="158"/>
+      <c r="ET28" s="158"/>
+      <c r="EU28" s="158"/>
+      <c r="EV28" s="158"/>
+      <c r="EW28" s="158"/>
+      <c r="EX28" s="158"/>
+      <c r="EY28" s="158"/>
+      <c r="EZ28" s="158"/>
+      <c r="FA28" s="158"/>
+      <c r="FB28" s="158"/>
+      <c r="FC28" s="158"/>
+      <c r="FD28" s="158"/>
+      <c r="FE28" s="158"/>
+      <c r="FF28" s="158"/>
+      <c r="FG28" s="158"/>
+      <c r="FH28" s="158"/>
+      <c r="FI28" s="158"/>
+      <c r="FJ28" s="158"/>
+      <c r="FK28" s="158"/>
+      <c r="FL28" s="158"/>
+      <c r="FM28" s="158"/>
+      <c r="FN28" s="158"/>
+      <c r="FO28" s="158"/>
+      <c r="FP28" s="158"/>
+      <c r="FQ28" s="158"/>
+      <c r="FR28" s="158"/>
+      <c r="FS28" s="158"/>
+      <c r="FT28" s="158"/>
+      <c r="FU28" s="158"/>
+      <c r="FV28" s="158"/>
+      <c r="FW28" s="158"/>
+      <c r="FX28" s="158"/>
+      <c r="FY28" s="158"/>
+      <c r="FZ28" s="158"/>
+      <c r="GA28" s="158"/>
+      <c r="GB28" s="158"/>
+      <c r="GC28" s="158"/>
+      <c r="GD28" s="158"/>
+      <c r="GE28" s="158"/>
+      <c r="GF28" s="158"/>
+      <c r="GG28" s="158"/>
+      <c r="GH28" s="158"/>
+      <c r="GI28" s="158"/>
+      <c r="GJ28" s="158"/>
+      <c r="GK28" s="158"/>
+      <c r="GL28" s="158"/>
       <c r="GM28" s="119"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="141"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="141"/>
-      <c r="Q29" s="141"/>
-      <c r="R29" s="141"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="157"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="157"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="157"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="139"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
+      <c r="A30" s="160"/>
+      <c r="B30" s="160"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="160"/>
       <c r="K30" s="120"/>
       <c r="L30" s="120"/>
       <c r="M30" s="120"/>
@@ -4888,16 +4870,16 @@
       <c r="R30" s="120"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="139"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
+      <c r="A31" s="160"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
       <c r="K31" s="120"/>
       <c r="L31" s="120"/>
       <c r="M31" s="120"/>
@@ -4909,6 +4891,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4922,28 +4926,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5498,10 +5480,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5512,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5528,8 +5510,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5540,7 +5522,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>6</v>
@@ -5568,14 +5550,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="169" t="s">
+      <c r="E4" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="127">
@@ -5590,14 +5572,14 @@
       <c r="D5" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="170" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
+      <c r="E5" s="169" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="90">
@@ -5608,12 +5590,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="174"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="173"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="91">
@@ -5624,12 +5606,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="164"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="163"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="92">
@@ -5640,12 +5622,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="167"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="166"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="93">
@@ -5656,12 +5638,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="164"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="163"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="94">
@@ -5672,12 +5654,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="164"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="163"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="95">
@@ -5688,12 +5670,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="164"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="163"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="96">
@@ -5704,12 +5686,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="163"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="164"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="163"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="97">
@@ -5720,12 +5702,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="164"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="163"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="98">
@@ -5736,12 +5718,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="164"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="163"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5752,12 +5734,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="161"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="90">
@@ -5768,12 +5750,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="161"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="91">
@@ -5784,12 +5766,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="161"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="174"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="92">
@@ -5800,12 +5782,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="93">
@@ -5816,12 +5798,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="174"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="94">
@@ -5832,12 +5814,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="174"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="95">
@@ -5848,12 +5830,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="174"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="96">
@@ -5864,12 +5846,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="174"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="97">
@@ -5880,12 +5862,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="161"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="174"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="98">
@@ -5896,12 +5878,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="161"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="174"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5912,12 +5894,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="161"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="174"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5928,12 +5910,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="161"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="174"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="90">
@@ -5944,12 +5926,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="161"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="174"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="91">
@@ -5960,12 +5942,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="161"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="174"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="92">
@@ -5976,12 +5958,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="161"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="174"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="93">
@@ -5992,12 +5974,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="161"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="174"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="94">
@@ -6008,12 +5990,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="161"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="174"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="95">
@@ -6024,12 +6006,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="161"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="174"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="96">
@@ -6040,12 +6022,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="161"/>
-      <c r="J33" s="161"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="174"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="97">
@@ -6056,12 +6038,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="161"/>
-      <c r="J34" s="161"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="174"/>
+      <c r="I34" s="174"/>
+      <c r="J34" s="174"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="98">
@@ -6072,12 +6054,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="161"/>
-      <c r="I35" s="161"/>
-      <c r="J35" s="161"/>
+      <c r="E35" s="174"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="174"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6088,12 +6070,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="161"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="174"/>
+      <c r="G36" s="174"/>
+      <c r="H36" s="174"/>
+      <c r="I36" s="174"/>
+      <c r="J36" s="174"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="90">
@@ -6104,12 +6086,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="161"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="161"/>
-      <c r="J37" s="161"/>
+      <c r="E37" s="174"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="174"/>
+      <c r="H37" s="174"/>
+      <c r="I37" s="174"/>
+      <c r="J37" s="174"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="91">
@@ -6120,12 +6102,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="161"/>
+      <c r="E38" s="174"/>
+      <c r="F38" s="174"/>
+      <c r="G38" s="174"/>
+      <c r="H38" s="174"/>
+      <c r="I38" s="174"/>
+      <c r="J38" s="174"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="92">
@@ -6136,12 +6118,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="161"/>
-      <c r="J39" s="161"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="174"/>
+      <c r="H39" s="174"/>
+      <c r="I39" s="174"/>
+      <c r="J39" s="174"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="93">
@@ -6152,12 +6134,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="161"/>
-      <c r="J40" s="161"/>
+      <c r="E40" s="174"/>
+      <c r="F40" s="174"/>
+      <c r="G40" s="174"/>
+      <c r="H40" s="174"/>
+      <c r="I40" s="174"/>
+      <c r="J40" s="174"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="94">
@@ -6168,12 +6150,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="161"/>
-      <c r="F41" s="161"/>
-      <c r="G41" s="161"/>
-      <c r="H41" s="161"/>
-      <c r="I41" s="161"/>
-      <c r="J41" s="161"/>
+      <c r="E41" s="174"/>
+      <c r="F41" s="174"/>
+      <c r="G41" s="174"/>
+      <c r="H41" s="174"/>
+      <c r="I41" s="174"/>
+      <c r="J41" s="174"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="95">
@@ -6184,23 +6166,32 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="161"/>
-      <c r="F42" s="161"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="161"/>
+      <c r="E42" s="174"/>
+      <c r="F42" s="174"/>
+      <c r="G42" s="174"/>
+      <c r="H42" s="174"/>
+      <c r="I42" s="174"/>
+      <c r="J42" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6216,23 +6207,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6277,10 +6259,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6310,8 +6292,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6366,7 +6348,7 @@
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
       <c r="I5" s="184" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J5" s="185"/>
     </row>
@@ -6454,7 +6436,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
       <c r="I12" s="178" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J12" s="179"/>
     </row>
@@ -6862,7 +6844,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6887,13 +6869,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6906,7 +6888,7 @@
       </c>
       <c r="I1" s="191"/>
       <c r="J1" s="192" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K1" s="193"/>
       <c r="L1" s="194"/>
@@ -6925,11 +6907,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6969,7 +6951,7 @@
         <v>162</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>109</v>
@@ -7025,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F5" s="83" t="str">
         <f>'Update History'!F1</f>
@@ -7080,7 +7062,7 @@
       <c r="M6" s="138"/>
       <c r="N6" s="138"/>
       <c r="O6" s="138" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P6" s="138"/>
     </row>
@@ -7120,7 +7102,7 @@
       <c r="M7" s="138"/>
       <c r="N7" s="138"/>
       <c r="O7" s="138" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P7" s="138"/>
     </row>
@@ -7147,10 +7129,10 @@
         <v>171</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
@@ -7158,14 +7140,14 @@
         <v>150</v>
       </c>
       <c r="M8" s="138" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N8" s="138"/>
       <c r="O8" s="138" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P8" s="138" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -7182,13 +7164,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F9" s="132" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G9" s="132" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H9" s="40" t="s">
         <v>168</v>
@@ -7222,13 +7204,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F10" s="132" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G10" s="132" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>168</v>
@@ -7294,10 +7276,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F12" s="132" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G12" s="132"/>
       <c r="H12" s="40" t="s">
@@ -9111,7 +9093,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="200" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="134"/>
@@ -9147,7 +9129,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="198"/>
+      <c r="A2" s="201"/>
       <c r="B2" s="135"/>
       <c r="C2" s="124"/>
       <c r="D2" s="31" t="s">
@@ -9185,7 +9167,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C4" s="121" t="s">
         <v>32</v>
@@ -9199,15 +9181,15 @@
       <c r="F4" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="168" t="s">
+      <c r="G4" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168" t="s">
+      <c r="H4" s="167"/>
+      <c r="I4" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="168"/>
-      <c r="K4" s="168"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33">
@@ -9221,18 +9203,18 @@
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="130" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="198" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="199"/>
+      <c r="I5" s="195" t="s">
         <v>204</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="195" t="s">
-        <v>200</v>
-      </c>
-      <c r="H5" s="196"/>
-      <c r="I5" s="199" t="s">
-        <v>208</v>
-      </c>
-      <c r="J5" s="200"/>
-      <c r="K5" s="201"/>
+      <c r="J5" s="196"/>
+      <c r="K5" s="197"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1">
       <c r="A6" s="33">
@@ -9249,15 +9231,15 @@
         <v>134</v>
       </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="195" t="s">
-        <v>207</v>
-      </c>
-      <c r="H6" s="196"/>
-      <c r="I6" s="199" t="s">
+      <c r="G6" s="198" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="199"/>
+      <c r="I6" s="195" t="s">
         <v>175</v>
       </c>
-      <c r="J6" s="200"/>
-      <c r="K6" s="201"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="197"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9268,11 +9250,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="130"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="195"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="201"/>
+      <c r="G7" s="198"/>
+      <c r="H7" s="199"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="197"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9283,11 +9265,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="195"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="200"/>
-      <c r="K8" s="201"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="197"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9298,11 +9280,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="199"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="201"/>
+      <c r="G9" s="198"/>
+      <c r="H9" s="199"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="197"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9313,11 +9295,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="201"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="199"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="196"/>
+      <c r="K10" s="197"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9328,11 +9310,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="199"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="201"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="197"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9343,11 +9325,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="195"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="199"/>
-      <c r="J12" s="200"/>
-      <c r="K12" s="201"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="196"/>
+      <c r="K12" s="197"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9358,11 +9340,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="195"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="200"/>
-      <c r="K13" s="201"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="197"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9373,11 +9355,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="196"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="201"/>
+      <c r="G14" s="198"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="197"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9388,11 +9370,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="195"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="201"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="197"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9403,11 +9385,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="196"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="201"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="197"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9418,11 +9400,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="196"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="201"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="197"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9433,11 +9415,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="200"/>
-      <c r="K18" s="201"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="196"/>
+      <c r="K18" s="197"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9448,11 +9430,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="195"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="201"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="196"/>
+      <c r="K19" s="197"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9463,11 +9445,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="195"/>
-      <c r="H20" s="196"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="200"/>
-      <c r="K20" s="201"/>
+      <c r="G20" s="198"/>
+      <c r="H20" s="199"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="196"/>
+      <c r="K20" s="197"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9478,11 +9460,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="195"/>
-      <c r="H21" s="196"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="200"/>
-      <c r="K21" s="201"/>
+      <c r="G21" s="198"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="196"/>
+      <c r="K21" s="197"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9493,11 +9475,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="199"/>
-      <c r="J22" s="200"/>
-      <c r="K22" s="201"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="196"/>
+      <c r="K22" s="197"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9508,11 +9490,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="199"/>
-      <c r="J23" s="200"/>
-      <c r="K23" s="201"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="196"/>
+      <c r="K23" s="197"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9523,11 +9505,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="199"/>
-      <c r="J24" s="200"/>
-      <c r="K24" s="201"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="196"/>
+      <c r="K24" s="197"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9538,11 +9520,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="200"/>
-      <c r="K25" s="201"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="196"/>
+      <c r="K25" s="197"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9553,11 +9535,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="200"/>
-      <c r="K26" s="201"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="196"/>
+      <c r="K26" s="197"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9568,11 +9550,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="162"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="199"/>
-      <c r="J27" s="200"/>
-      <c r="K27" s="201"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="197"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9583,11 +9565,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="199"/>
-      <c r="J28" s="200"/>
-      <c r="K28" s="201"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="196"/>
+      <c r="K28" s="197"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9598,11 +9580,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="162"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="199"/>
-      <c r="J29" s="200"/>
-      <c r="K29" s="201"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="196"/>
+      <c r="K29" s="197"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9613,11 +9595,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="162"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="199"/>
-      <c r="J30" s="200"/>
-      <c r="K30" s="201"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="196"/>
+      <c r="K30" s="197"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9628,11 +9610,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="199"/>
-      <c r="J31" s="200"/>
-      <c r="K31" s="201"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="197"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -9643,11 +9625,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="199"/>
-      <c r="J32" s="200"/>
-      <c r="K32" s="201"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="197"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9665,11 +9647,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="162"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="199"/>
-      <c r="J33" s="200"/>
-      <c r="K33" s="201"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="197"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -9687,11 +9669,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="162"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="199"/>
-      <c r="J34" s="200"/>
-      <c r="K34" s="201"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="163"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="196"/>
+      <c r="K34" s="197"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9709,11 +9691,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="164"/>
-      <c r="I35" s="199"/>
-      <c r="J35" s="200"/>
-      <c r="K35" s="201"/>
+      <c r="G35" s="161"/>
+      <c r="H35" s="163"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="196"/>
+      <c r="K35" s="197"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9731,11 +9713,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="162"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="199"/>
-      <c r="J36" s="200"/>
-      <c r="K36" s="201"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="163"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="196"/>
+      <c r="K36" s="197"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9753,11 +9735,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="162"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="199"/>
-      <c r="J37" s="200"/>
-      <c r="K37" s="201"/>
+      <c r="G37" s="161"/>
+      <c r="H37" s="163"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="196"/>
+      <c r="K37" s="197"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9775,11 +9757,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="162"/>
-      <c r="H38" s="164"/>
-      <c r="I38" s="199"/>
-      <c r="J38" s="200"/>
-      <c r="K38" s="201"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="163"/>
+      <c r="I38" s="195"/>
+      <c r="J38" s="196"/>
+      <c r="K38" s="197"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9797,11 +9779,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="162"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="199"/>
-      <c r="J39" s="200"/>
-      <c r="K39" s="201"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="163"/>
+      <c r="I39" s="195"/>
+      <c r="J39" s="196"/>
+      <c r="K39" s="197"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9819,11 +9801,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="162"/>
-      <c r="H40" s="164"/>
-      <c r="I40" s="199"/>
-      <c r="J40" s="200"/>
-      <c r="K40" s="201"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="163"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="196"/>
+      <c r="K40" s="197"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9841,11 +9823,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="162"/>
-      <c r="H41" s="164"/>
-      <c r="I41" s="199"/>
-      <c r="J41" s="200"/>
-      <c r="K41" s="201"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="163"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="196"/>
+      <c r="K41" s="197"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -9863,11 +9845,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="162"/>
-      <c r="H42" s="164"/>
-      <c r="I42" s="199"/>
-      <c r="J42" s="200"/>
-      <c r="K42" s="201"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="163"/>
+      <c r="I42" s="195"/>
+      <c r="J42" s="196"/>
+      <c r="K42" s="197"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -9885,11 +9867,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="162"/>
-      <c r="H43" s="164"/>
-      <c r="I43" s="199"/>
-      <c r="J43" s="200"/>
-      <c r="K43" s="201"/>
+      <c r="G43" s="161"/>
+      <c r="H43" s="163"/>
+      <c r="I43" s="195"/>
+      <c r="J43" s="196"/>
+      <c r="K43" s="197"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -9907,11 +9889,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="162"/>
-      <c r="H44" s="164"/>
-      <c r="I44" s="199"/>
-      <c r="J44" s="200"/>
-      <c r="K44" s="201"/>
+      <c r="G44" s="161"/>
+      <c r="H44" s="163"/>
+      <c r="I44" s="195"/>
+      <c r="J44" s="196"/>
+      <c r="K44" s="197"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -9929,11 +9911,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="162"/>
-      <c r="H45" s="164"/>
-      <c r="I45" s="199"/>
-      <c r="J45" s="200"/>
-      <c r="K45" s="201"/>
+      <c r="G45" s="161"/>
+      <c r="H45" s="163"/>
+      <c r="I45" s="195"/>
+      <c r="J45" s="196"/>
+      <c r="K45" s="197"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -9951,11 +9933,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="162"/>
-      <c r="H46" s="164"/>
-      <c r="I46" s="199"/>
-      <c r="J46" s="200"/>
-      <c r="K46" s="201"/>
+      <c r="G46" s="161"/>
+      <c r="H46" s="163"/>
+      <c r="I46" s="195"/>
+      <c r="J46" s="196"/>
+      <c r="K46" s="197"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -9973,11 +9955,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="162"/>
-      <c r="H47" s="164"/>
-      <c r="I47" s="199"/>
-      <c r="J47" s="200"/>
-      <c r="K47" s="201"/>
+      <c r="G47" s="161"/>
+      <c r="H47" s="163"/>
+      <c r="I47" s="195"/>
+      <c r="J47" s="196"/>
+      <c r="K47" s="197"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -9995,11 +9977,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="162"/>
-      <c r="H48" s="164"/>
-      <c r="I48" s="199"/>
-      <c r="J48" s="200"/>
-      <c r="K48" s="201"/>
+      <c r="G48" s="161"/>
+      <c r="H48" s="163"/>
+      <c r="I48" s="195"/>
+      <c r="J48" s="196"/>
+      <c r="K48" s="197"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10017,11 +9999,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="162"/>
-      <c r="H49" s="164"/>
-      <c r="I49" s="199"/>
-      <c r="J49" s="200"/>
-      <c r="K49" s="201"/>
+      <c r="G49" s="161"/>
+      <c r="H49" s="163"/>
+      <c r="I49" s="195"/>
+      <c r="J49" s="196"/>
+      <c r="K49" s="197"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10039,11 +10021,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="162"/>
-      <c r="H50" s="164"/>
-      <c r="I50" s="199"/>
-      <c r="J50" s="200"/>
-      <c r="K50" s="201"/>
+      <c r="G50" s="161"/>
+      <c r="H50" s="163"/>
+      <c r="I50" s="195"/>
+      <c r="J50" s="196"/>
+      <c r="K50" s="197"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10061,11 +10043,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="162"/>
-      <c r="H51" s="164"/>
-      <c r="I51" s="199"/>
-      <c r="J51" s="200"/>
-      <c r="K51" s="201"/>
+      <c r="G51" s="161"/>
+      <c r="H51" s="163"/>
+      <c r="I51" s="195"/>
+      <c r="J51" s="196"/>
+      <c r="K51" s="197"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10083,11 +10065,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="162"/>
-      <c r="H52" s="164"/>
-      <c r="I52" s="199"/>
-      <c r="J52" s="200"/>
-      <c r="K52" s="201"/>
+      <c r="G52" s="161"/>
+      <c r="H52" s="163"/>
+      <c r="I52" s="195"/>
+      <c r="J52" s="196"/>
+      <c r="K52" s="197"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10105,11 +10087,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="162"/>
-      <c r="H53" s="164"/>
-      <c r="I53" s="199"/>
-      <c r="J53" s="200"/>
-      <c r="K53" s="201"/>
+      <c r="G53" s="161"/>
+      <c r="H53" s="163"/>
+      <c r="I53" s="195"/>
+      <c r="J53" s="196"/>
+      <c r="K53" s="197"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10127,11 +10109,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="162"/>
-      <c r="H54" s="164"/>
-      <c r="I54" s="199"/>
-      <c r="J54" s="200"/>
-      <c r="K54" s="201"/>
+      <c r="G54" s="161"/>
+      <c r="H54" s="163"/>
+      <c r="I54" s="195"/>
+      <c r="J54" s="196"/>
+      <c r="K54" s="197"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10149,11 +10131,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="162"/>
-      <c r="H55" s="164"/>
-      <c r="I55" s="199"/>
-      <c r="J55" s="200"/>
-      <c r="K55" s="201"/>
+      <c r="G55" s="161"/>
+      <c r="H55" s="163"/>
+      <c r="I55" s="195"/>
+      <c r="J55" s="196"/>
+      <c r="K55" s="197"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10171,11 +10153,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="162"/>
-      <c r="H56" s="164"/>
-      <c r="I56" s="199"/>
-      <c r="J56" s="200"/>
-      <c r="K56" s="201"/>
+      <c r="G56" s="161"/>
+      <c r="H56" s="163"/>
+      <c r="I56" s="195"/>
+      <c r="J56" s="196"/>
+      <c r="K56" s="197"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10187,6 +10169,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="G54:H54"/>
@@ -10201,99 +10276,6 @@
     <mergeCell ref="I54:K54"/>
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="I56:K56"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -10309,10 +10291,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1048467"/>
+  <dimension ref="A1:U1048466"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G10"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10340,16 +10322,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10384,14 +10366,14 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
@@ -10433,7 +10415,7 @@
         <v>162</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D4" s="68" t="s">
         <v>97</v>
@@ -10489,49 +10471,49 @@
         <v>51</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="32"/>
       <c r="G5" s="88" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="J5" s="131" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K5" s="202" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L5" s="203"/>
       <c r="M5" s="203"/>
       <c r="N5" s="204"/>
       <c r="O5" s="125" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P5" s="89" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="76" t="s">
         <v>106</v>
       </c>
       <c r="R5" s="75" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="S5" s="88" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
     </row>
-    <row r="6" spans="1:21" s="34" customFormat="1" ht="11.25">
+    <row r="6" spans="1:21" s="34" customFormat="1" ht="48" customHeight="1">
       <c r="A6" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>161</v>
@@ -10542,20 +10524,20 @@
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="88" t="s">
-        <v>217</v>
+      <c r="G6" s="132" t="s">
+        <v>191</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="J6" s="131" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="K6" s="202" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="L6" s="203"/>
       <c r="M6" s="203"/>
@@ -10564,93 +10546,69 @@
         <v>134</v>
       </c>
       <c r="P6" s="125" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q6" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="R6" s="75" t="s">
-        <v>185</v>
-      </c>
-      <c r="S6" s="138" t="s">
-        <v>217</v>
+        <v>181</v>
+      </c>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="82" t="s">
+        <v>213</v>
       </c>
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
     </row>
-    <row r="7" spans="1:21" s="34" customFormat="1" ht="48" customHeight="1">
+    <row r="7" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A7" s="33">
-        <v>3</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="33">
-        <v>51</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="132" t="s">
-        <v>195</v>
-      </c>
-      <c r="H7" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="I7" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="131" t="s">
-        <v>196</v>
-      </c>
-      <c r="K7" s="202" t="s">
-        <v>201</v>
-      </c>
+      <c r="G7" s="132"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="202"/>
       <c r="L7" s="203"/>
       <c r="M7" s="203"/>
       <c r="N7" s="204"/>
-      <c r="O7" s="125" t="s">
-        <v>134</v>
-      </c>
-      <c r="P7" s="125" t="s">
-        <v>184</v>
-      </c>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
       <c r="Q7" s="76"/>
       <c r="R7" s="75"/>
-      <c r="S7" s="82" t="s">
-        <v>218</v>
-      </c>
+      <c r="S7" s="82"/>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
     </row>
     <row r="8" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A8" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="132"/>
+      <c r="G8" s="88"/>
       <c r="H8" s="63"/>
       <c r="I8" s="63"/>
-      <c r="J8" s="131"/>
+      <c r="J8" s="82"/>
       <c r="K8" s="202"/>
       <c r="L8" s="203"/>
       <c r="M8" s="203"/>
       <c r="N8" s="204"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
       <c r="Q8" s="76"/>
       <c r="R8" s="75"/>
       <c r="S8" s="82"/>
       <c r="T8" s="64"/>
       <c r="U8" s="64"/>
     </row>
-    <row r="9" spans="1:21" s="34" customFormat="1" ht="11.25">
+    <row r="9" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -10675,7 +10633,7 @@
     </row>
     <row r="10" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -10700,7 +10658,7 @@
     </row>
     <row r="11" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -10715,17 +10673,17 @@
       <c r="L11" s="203"/>
       <c r="M11" s="203"/>
       <c r="N11" s="204"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
       <c r="Q11" s="76"/>
       <c r="R11" s="75"/>
       <c r="S11" s="82"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
     </row>
-    <row r="12" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A12" s="33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -10748,16 +10706,16 @@
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
     </row>
-    <row r="13" spans="1:21" s="34" customFormat="1" ht="11.25">
+    <row r="13" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="88"/>
+      <c r="G13" s="84"/>
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="82"/>
@@ -10765,17 +10723,17 @@
       <c r="L13" s="203"/>
       <c r="M13" s="203"/>
       <c r="N13" s="204"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
       <c r="Q13" s="76"/>
       <c r="R13" s="75"/>
-      <c r="S13" s="82"/>
+      <c r="S13" s="88"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
     </row>
     <row r="14" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -10800,23 +10758,23 @@
     </row>
     <row r="15" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="32"/>
       <c r="G15" s="84"/>
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
-      <c r="J15" s="82"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="202"/>
       <c r="L15" s="203"/>
       <c r="M15" s="203"/>
       <c r="N15" s="204"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="60"/>
       <c r="Q15" s="76"/>
       <c r="R15" s="75"/>
       <c r="S15" s="88"/>
@@ -10825,13 +10783,13 @@
     </row>
     <row r="16" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="84"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -10840,7 +10798,7 @@
       <c r="L16" s="203"/>
       <c r="M16" s="203"/>
       <c r="N16" s="204"/>
-      <c r="O16" s="72"/>
+      <c r="O16" s="60"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="76"/>
       <c r="R16" s="75"/>
@@ -10850,7 +10808,7 @@
     </row>
     <row r="17" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -10875,7 +10833,7 @@
     </row>
     <row r="18" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
@@ -10900,7 +10858,7 @@
     </row>
     <row r="19" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
@@ -10925,7 +10883,7 @@
     </row>
     <row r="20" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -10950,7 +10908,7 @@
     </row>
     <row r="21" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -10975,7 +10933,7 @@
     </row>
     <row r="22" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -11000,7 +10958,7 @@
     </row>
     <row r="23" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -11025,7 +10983,7 @@
     </row>
     <row r="24" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -11050,7 +11008,7 @@
     </row>
     <row r="25" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -11075,7 +11033,7 @@
     </row>
     <row r="26" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -11100,7 +11058,7 @@
     </row>
     <row r="27" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
@@ -11125,7 +11083,7 @@
     </row>
     <row r="28" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -11150,7 +11108,7 @@
     </row>
     <row r="29" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
@@ -11175,7 +11133,7 @@
     </row>
     <row r="30" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
@@ -11200,7 +11158,7 @@
     </row>
     <row r="31" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="33">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -11225,7 +11183,7 @@
     </row>
     <row r="32" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="33">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -11250,23 +11208,23 @@
     </row>
     <row r="33" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="33">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="84"/>
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
-      <c r="J33" s="40"/>
+      <c r="J33" s="82"/>
       <c r="K33" s="202"/>
       <c r="L33" s="203"/>
       <c r="M33" s="203"/>
       <c r="N33" s="204"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="60"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="85"/>
       <c r="Q33" s="76"/>
       <c r="R33" s="75"/>
       <c r="S33" s="88"/>
@@ -11275,23 +11233,23 @@
     </row>
     <row r="34" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
-      <c r="F34" s="32"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="84"/>
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
-      <c r="J34" s="82"/>
+      <c r="J34" s="40"/>
       <c r="K34" s="202"/>
       <c r="L34" s="203"/>
       <c r="M34" s="203"/>
       <c r="N34" s="204"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
       <c r="Q34" s="76"/>
       <c r="R34" s="75"/>
       <c r="S34" s="88"/>
@@ -11300,7 +11258,7 @@
     </row>
     <row r="35" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -11325,7 +11283,7 @@
     </row>
     <row r="36" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -11350,7 +11308,7 @@
     </row>
     <row r="37" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -11375,7 +11333,7 @@
     </row>
     <row r="38" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -11400,7 +11358,7 @@
     </row>
     <row r="39" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="33">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -11415,8 +11373,8 @@
       <c r="L39" s="203"/>
       <c r="M39" s="203"/>
       <c r="N39" s="204"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="60"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
       <c r="Q39" s="76"/>
       <c r="R39" s="75"/>
       <c r="S39" s="88"/>
@@ -11425,7 +11383,7 @@
     </row>
     <row r="40" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="33">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -11450,7 +11408,7 @@
     </row>
     <row r="41" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -11475,7 +11433,7 @@
     </row>
     <row r="42" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="33">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -11500,7 +11458,7 @@
     </row>
     <row r="43" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A43" s="33">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -11525,7 +11483,7 @@
     </row>
     <row r="44" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="33">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -11550,7 +11508,7 @@
     </row>
     <row r="45" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="33">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -11575,7 +11533,7 @@
     </row>
     <row r="46" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A46" s="33">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -11600,7 +11558,7 @@
     </row>
     <row r="47" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A47" s="33">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -11625,7 +11583,7 @@
     </row>
     <row r="48" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A48" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -11650,7 +11608,7 @@
     </row>
     <row r="49" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="33">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
@@ -11675,7 +11633,7 @@
     </row>
     <row r="50" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="33">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -11700,7 +11658,7 @@
     </row>
     <row r="51" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A51" s="33">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
@@ -11725,7 +11683,7 @@
     </row>
     <row r="52" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="33">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -11750,7 +11708,7 @@
     </row>
     <row r="53" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A53" s="33">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -11775,7 +11733,7 @@
     </row>
     <row r="54" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A54" s="33">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
@@ -11800,7 +11758,7 @@
     </row>
     <row r="55" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A55" s="33">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" s="33"/>
       <c r="C55" s="33"/>
@@ -11825,7 +11783,7 @@
     </row>
     <row r="56" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A56" s="33">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56" s="33"/>
       <c r="C56" s="33"/>
@@ -11850,7 +11808,7 @@
     </row>
     <row r="57" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A57" s="33">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="33"/>
@@ -11875,7 +11833,7 @@
     </row>
     <row r="58" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A58" s="33">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" s="33"/>
       <c r="C58" s="33"/>
@@ -11900,7 +11858,7 @@
     </row>
     <row r="59" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A59" s="33">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" s="33"/>
       <c r="C59" s="33"/>
@@ -11925,7 +11883,7 @@
     </row>
     <row r="60" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A60" s="33">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="33"/>
       <c r="C60" s="33"/>
@@ -11948,9 +11906,9 @@
       <c r="T60" s="64"/>
       <c r="U60" s="64"/>
     </row>
-    <row r="61" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
+    <row r="61" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A61" s="33">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" s="33"/>
       <c r="C61" s="33"/>
@@ -11965,8 +11923,8 @@
       <c r="L61" s="203"/>
       <c r="M61" s="203"/>
       <c r="N61" s="204"/>
-      <c r="O61" s="74"/>
-      <c r="P61" s="74"/>
+      <c r="O61" s="84"/>
+      <c r="P61" s="84"/>
       <c r="Q61" s="76"/>
       <c r="R61" s="75"/>
       <c r="S61" s="88"/>
@@ -11975,7 +11933,7 @@
     </row>
     <row r="62" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A62" s="33">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" s="33"/>
       <c r="C62" s="33"/>
@@ -11998,9 +11956,9 @@
       <c r="T62" s="64"/>
       <c r="U62" s="64"/>
     </row>
-    <row r="63" spans="1:21" s="34" customFormat="1" ht="11.25">
+    <row r="63" spans="1:21" ht="24.75" customHeight="1">
       <c r="A63" s="33">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
@@ -12020,12 +11978,10 @@
       <c r="Q63" s="76"/>
       <c r="R63" s="75"/>
       <c r="S63" s="88"/>
-      <c r="T63" s="64"/>
-      <c r="U63" s="64"/>
-    </row>
-    <row r="64" spans="1:21" ht="24.75" customHeight="1">
+    </row>
+    <row r="64" spans="1:21" ht="12" customHeight="1">
       <c r="A64" s="33">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B64" s="33"/>
       <c r="C64" s="33"/>
@@ -12048,7 +12004,7 @@
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1">
       <c r="A65" s="33">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B65" s="33"/>
       <c r="C65" s="33"/>
@@ -12071,7 +12027,7 @@
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1">
       <c r="A66" s="33">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B66" s="33"/>
       <c r="C66" s="33"/>
@@ -12094,7 +12050,7 @@
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1">
       <c r="A67" s="33">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B67" s="33"/>
       <c r="C67" s="33"/>
@@ -12117,7 +12073,7 @@
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1">
       <c r="A68" s="33">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B68" s="33"/>
       <c r="C68" s="33"/>
@@ -12140,7 +12096,7 @@
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1">
       <c r="A69" s="33">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B69" s="33"/>
       <c r="C69" s="33"/>
@@ -12163,7 +12119,7 @@
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1">
       <c r="A70" s="33">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B70" s="33"/>
       <c r="C70" s="33"/>
@@ -12186,7 +12142,7 @@
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1">
       <c r="A71" s="33">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B71" s="33"/>
       <c r="C71" s="33"/>
@@ -12209,7 +12165,7 @@
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1">
       <c r="A72" s="33">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B72" s="33"/>
       <c r="C72" s="33"/>
@@ -12232,7 +12188,7 @@
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1">
       <c r="A73" s="33">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B73" s="33"/>
       <c r="C73" s="33"/>
@@ -12255,7 +12211,7 @@
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1">
       <c r="A74" s="33">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B74" s="33"/>
       <c r="C74" s="33"/>
@@ -12278,7 +12234,7 @@
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1">
       <c r="A75" s="33">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B75" s="33"/>
       <c r="C75" s="33"/>
@@ -12301,7 +12257,7 @@
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1">
       <c r="A76" s="33">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B76" s="33"/>
       <c r="C76" s="33"/>
@@ -12324,7 +12280,7 @@
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1">
       <c r="A77" s="33">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B77" s="33"/>
       <c r="C77" s="33"/>
@@ -12347,7 +12303,7 @@
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1">
       <c r="A78" s="33">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B78" s="33"/>
       <c r="C78" s="33"/>
@@ -12370,7 +12326,7 @@
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1">
       <c r="A79" s="33">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B79" s="33"/>
       <c r="C79" s="33"/>
@@ -12393,7 +12349,7 @@
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1">
       <c r="A80" s="33">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B80" s="33"/>
       <c r="C80" s="33"/>
@@ -12416,7 +12372,7 @@
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1">
       <c r="A81" s="33">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B81" s="33"/>
       <c r="C81" s="33"/>
@@ -12439,7 +12395,7 @@
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1">
       <c r="A82" s="33">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B82" s="33"/>
       <c r="C82" s="33"/>
@@ -12462,7 +12418,7 @@
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1">
       <c r="A83" s="33">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B83" s="33"/>
       <c r="C83" s="33"/>
@@ -12485,7 +12441,7 @@
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1">
       <c r="A84" s="33">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B84" s="33"/>
       <c r="C84" s="33"/>
@@ -12508,7 +12464,7 @@
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1">
       <c r="A85" s="33">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B85" s="33"/>
       <c r="C85" s="33"/>
@@ -12531,7 +12487,7 @@
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1">
       <c r="A86" s="33">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
@@ -12554,7 +12510,7 @@
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1">
       <c r="A87" s="33">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B87" s="33"/>
       <c r="C87" s="33"/>
@@ -12577,7 +12533,7 @@
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1">
       <c r="A88" s="33">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B88" s="33"/>
       <c r="C88" s="33"/>
@@ -12600,7 +12556,7 @@
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1">
       <c r="A89" s="33">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B89" s="33"/>
       <c r="C89" s="33"/>
@@ -12623,7 +12579,7 @@
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1">
       <c r="A90" s="33">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
@@ -12646,7 +12602,7 @@
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1">
       <c r="A91" s="33">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B91" s="33"/>
       <c r="C91" s="33"/>
@@ -12669,7 +12625,7 @@
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1">
       <c r="A92" s="33">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B92" s="33"/>
       <c r="C92" s="33"/>
@@ -12692,7 +12648,7 @@
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1">
       <c r="A93" s="33">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B93" s="33"/>
       <c r="C93" s="33"/>
@@ -12713,77 +12669,50 @@
       <c r="R93" s="75"/>
       <c r="S93" s="88"/>
     </row>
-    <row r="94" spans="1:19" ht="12" customHeight="1">
-      <c r="A94" s="33">
-        <v>90</v>
-      </c>
-      <c r="B94" s="33"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="84"/>
-      <c r="H94" s="63"/>
-      <c r="I94" s="63"/>
-      <c r="J94" s="40"/>
-      <c r="K94" s="202"/>
-      <c r="L94" s="203"/>
-      <c r="M94" s="203"/>
-      <c r="N94" s="204"/>
-      <c r="O94" s="84"/>
-      <c r="P94" s="84"/>
-      <c r="Q94" s="76"/>
-      <c r="R94" s="75"/>
-      <c r="S94" s="88"/>
-    </row>
-    <row r="1048467" spans="17:17" ht="12" customHeight="1">
-      <c r="Q1048467" s="76"/>
+    <row r="1048466" spans="17:17" ht="12" customHeight="1">
+      <c r="Q1048466" s="76"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="94">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
+  <mergeCells count="93">
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K58:N58"/>
     <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K59:N59"/>
     <mergeCell ref="K42:N42"/>
     <mergeCell ref="K43:N43"/>
     <mergeCell ref="K44:N44"/>
@@ -12792,60 +12721,63 @@
     <mergeCell ref="K47:N47"/>
     <mergeCell ref="K48:N48"/>
     <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K53:N53"/>
     <mergeCell ref="K54:N54"/>
     <mergeCell ref="K55:N55"/>
     <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
     <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K51:N51"/>
     <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H94">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048466:Q1048576 Q5:Q93"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H93">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I93">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R93">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12864,8 +12796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12881,10 +12813,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12914,8 +12846,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12973,7 +12905,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -13054,7 +12986,7 @@
       <c r="A12" s="80"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -13105,7 +13037,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -13117,9 +13049,7 @@
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="B18" s="43"/>
-      <c r="C18" s="43" t="s">
-        <v>221</v>
-      </c>
+      <c r="C18" s="43"/>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
       <c r="F18" s="43"/>
@@ -13178,7 +13108,7 @@
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="B23" s="80"/>
       <c r="C23" s="43" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -13229,7 +13159,7 @@
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="86" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="43"/>
@@ -13499,7 +13429,7 @@
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="B49" s="206" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C49" s="207"/>
       <c r="D49" s="207"/>
@@ -13998,10 +13928,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14029,8 +13959,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
